--- a/origin.xlsx
+++ b/origin.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git_proj/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4086FDBE-97D2-E941-9702-BCD4028B5CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E568D8-81E9-5748-8D01-C9EFBDC622D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="1" xr2:uid="{22BEBE4E-E124-3B4E-B4CF-095D22C75C46}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{22BEBE4E-E124-3B4E-B4CF-095D22C75C46}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTINGS" sheetId="1" r:id="rId1"/>
     <sheet name="UPDATE" sheetId="2" r:id="rId2"/>
     <sheet name="COVER" sheetId="3" r:id="rId3"/>
+    <sheet name="readme" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UPDATE!$A$1:$AE$99</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="220">
   <si>
     <t>Vol</t>
   </si>
@@ -649,9 +650,6 @@
     <t>Rename les couvertures</t>
   </si>
   <si>
-    <t>à partir 26</t>
-  </si>
-  <si>
     <t>renomer 2 derniers chapt</t>
   </si>
   <si>
@@ -685,17 +683,32 @@
     <t>Volumes</t>
   </si>
   <si>
-    <t>Chiant</t>
-  </si>
-  <si>
     <t>nb vol</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Mangafoxfull</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; Mangaclash&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; Mangajar&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://mangafoxfull.com/manga/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangafoxfull.com/manga/"&gt; MangaFoxFull&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -765,8 +778,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0432FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -805,18 +848,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -867,12 +916,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -940,15 +998,41 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1310,10 +1394,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1342,7 +1426,7 @@
         <v>160</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>158</v>
@@ -1357,19 +1441,19 @@
         <v>1</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>156</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>161</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1384,14 +1468,14 @@
         <v>F</v>
       </c>
       <c r="D2" s="25" t="str">
-        <f>IF(C2="F","-",M2)</f>
+        <f t="shared" ref="D2:D45" si="0">IF(C2="F","-",M2)</f>
         <v>-</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>196</v>
       </c>
       <c r="F2" s="15" t="str">
-        <f t="shared" ref="F2:F20" si="0">"✅"</f>
+        <f t="shared" ref="F2:F19" si="1">"✅"</f>
         <v>✅</v>
       </c>
       <c r="H2" s="21" t="b">
@@ -1410,10 +1494,10 @@
         <v>22</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N2" s="3"/>
     </row>
@@ -1429,14 +1513,14 @@
         <v>365</v>
       </c>
       <c r="D3" s="25" t="str">
-        <f>IF(C3="F","-",M3)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>196</v>
       </c>
       <c r="F3" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="H3" s="21" t="b">
@@ -1453,10 +1537,10 @@
       </c>
       <c r="K3" s="16"/>
       <c r="L3" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N3" s="3"/>
     </row>
@@ -1472,14 +1556,14 @@
         <v>F</v>
       </c>
       <c r="D4" s="25" t="str">
-        <f>IF(C4="F","-",M4)</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>197</v>
       </c>
       <c r="F4" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="H4" s="21" t="b">
@@ -1496,10 +1580,10 @@
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -1515,14 +1599,14 @@
         <v>119</v>
       </c>
       <c r="D5" s="25" t="str">
-        <f>IF(C5="F","-",M5)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>196</v>
       </c>
       <c r="F5" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="H5" s="21" t="b">
@@ -1539,10 +1623,10 @@
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -1558,14 +1642,14 @@
         <v>40</v>
       </c>
       <c r="D6" s="25" t="str">
-        <f>IF(C6="F","-",M6)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>196</v>
       </c>
       <c r="F6" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="H6" s="21" t="b">
@@ -1582,10 +1666,10 @@
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N6" s="3"/>
     </row>
@@ -1601,11 +1685,14 @@
         <v>1115</v>
       </c>
       <c r="D7" s="25" t="str">
-        <f>IF(C7="F","-",M7)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
+      <c r="E7" s="15" t="s">
+        <v>197</v>
+      </c>
       <c r="F7" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G7" s="19" t="s">
@@ -1625,10 +1712,10 @@
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N7" s="3"/>
     </row>
@@ -1644,14 +1731,14 @@
         <v>F</v>
       </c>
       <c r="D8" s="25" t="str">
-        <f>IF(C8="F","-",M8)</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>199</v>
       </c>
       <c r="F8" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="H8" s="21" t="b">
@@ -1668,10 +1755,10 @@
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N8" s="3"/>
     </row>
@@ -1687,14 +1774,14 @@
         <v>89</v>
       </c>
       <c r="D9" s="25" t="str">
-        <f>IF(C9="F","-",M9)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>199</v>
       </c>
       <c r="F9" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G9" s="19" t="s">
@@ -1714,10 +1801,10 @@
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N9" s="3"/>
     </row>
@@ -1733,16 +1820,16 @@
         <v>F</v>
       </c>
       <c r="D10" s="25" t="str">
-        <f>IF(C10="F","-",M10)</f>
+        <f t="shared" si="0"/>
         <v>-</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="F10" s="15" t="str">
         <f>"❌"</f>
         <v>❌</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>214</v>
-      </c>
       <c r="H10" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A10,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
@@ -1757,34 +1844,34 @@
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="C11" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A11,UPDATE!$1:$1,0),TRUE))=FALSE,H11=FALSE),L11,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A11,UPDATE!$1:$1,0))))</f>
         <v>F</v>
       </c>
       <c r="D11" s="25" t="str">
-        <f>IF(C11="F","-",M11)</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
+      <c r="E11" s="15" t="s">
+        <v>196</v>
+      </c>
       <c r="F11" s="15" t="str">
-        <f>"❌"</f>
-        <v>❌</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>214</v>
+        <f t="shared" si="1"/>
+        <v>✅</v>
       </c>
       <c r="H11" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A11,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -1792,43 +1879,41 @@
       </c>
       <c r="I11" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A11,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A11,UPDATE!$1:$1,0)),0)),K11)</f>
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="J11" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A11,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K11" s="16">
-        <v>22</v>
-      </c>
+      <c r="K11" s="16"/>
       <c r="L11" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="C12" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A12,UPDATE!$1:$1,0),TRUE))=FALSE,H12=FALSE),L12,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A12,UPDATE!$1:$1,0))))</f>
         <v>F</v>
       </c>
       <c r="D12" s="25" t="str">
-        <f>IF(C12="F","-",M12)</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>196</v>
       </c>
       <c r="F12" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="H12" s="21" t="b">
@@ -1837,38 +1922,43 @@
       </c>
       <c r="I12" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A12,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A12,UPDATE!$1:$1,0)),0)),K12)</f>
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="J12" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A12,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="16">
+        <v>25</v>
+      </c>
       <c r="L12" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="C13" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A13,UPDATE!$1:$1,0),TRUE))=FALSE,H13=FALSE),L13,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A13,UPDATE!$1:$1,0))))</f>
         <v>F</v>
       </c>
       <c r="D13" s="25" t="str">
-        <f>IF(C13="F","-",M13)</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
+      <c r="E13" s="15" t="s">
+        <v>197</v>
+      </c>
       <c r="F13" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="H13" s="21" t="b">
@@ -1877,49 +1967,50 @@
       </c>
       <c r="I13" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A13,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A13,UPDATE!$1:$1,0)),0)),K13)</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J13" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A13,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="16">
-        <v>25</v>
-      </c>
+      <c r="K13" s="16"/>
       <c r="L13" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="14" t="str">
+        <v>170</v>
+      </c>
+      <c r="C14" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A14,UPDATE!$1:$1,0),TRUE))=FALSE,H14=FALSE),L14,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A14,UPDATE!$1:$1,0))))</f>
-        <v>F</v>
+        <v>400</v>
       </c>
       <c r="D14" s="25" t="str">
-        <f>IF(C14="F","-",M14)</f>
-        <v>-</v>
+        <f t="shared" si="0"/>
+        <v>*</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="F14" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="H14" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A14,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A14,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A14,UPDATE!$1:$1,0)),0)),K14)</f>
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="J14" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A14,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -1927,30 +2018,33 @@
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A15,UPDATE!$1:$1,0),TRUE))=FALSE,H15=FALSE),L15,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A15,UPDATE!$1:$1,0))))</f>
-        <v>400</v>
-      </c>
-      <c r="D15" s="25" t="str">
-        <f>IF(C15="F","-",M15)</f>
-        <v>*</v>
+        <v>228</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="0"/>
+        <v>45114</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="F15" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="H15" s="21" t="b">
@@ -1959,7 +2053,7 @@
       </c>
       <c r="I15" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A15,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A15,UPDATE!$1:$1,0)),0)),K15)</f>
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J15" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A15,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -1967,39 +2061,42 @@
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="M15" s="23">
+        <v>45114</v>
       </c>
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="14">
+        <v>172</v>
+      </c>
+      <c r="C16" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A16,UPDATE!$1:$1,0),TRUE))=FALSE,H16=FALSE),L16,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A16,UPDATE!$1:$1,0))))</f>
-        <v>230</v>
+        <v>F</v>
       </c>
       <c r="D16" s="25" t="str">
-        <f>IF(C16="F","-",M16)</f>
-        <v>*</v>
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="F16" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="H16" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A16,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A16,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A16,UPDATE!$1:$1,0)),0)),K16)</f>
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="J16" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A16,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2010,13 +2107,13 @@
         <v>208</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>172</v>
@@ -2026,12 +2123,18 @@
         <v>F</v>
       </c>
       <c r="D17" s="25" t="str">
-        <f>IF(C17="F","-",M17)</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
+      <c r="E17" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="F17" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="H17" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A17,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -2039,7 +2142,7 @@
       </c>
       <c r="I17" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A17,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A17,UPDATE!$1:$1,0)),0)),K17)</f>
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J17" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A17,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2047,16 +2150,16 @@
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>172</v>
@@ -2066,11 +2169,14 @@
         <v>F</v>
       </c>
       <c r="D18" s="25" t="str">
-        <f>IF(C18="F","-",M18)</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
+      <c r="E18" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="F18" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G18" s="19" t="s">
@@ -2082,7 +2188,7 @@
       </c>
       <c r="I18" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A18,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A18,UPDATE!$1:$1,0)),0)),K18)</f>
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="J18" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A18,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2090,30 +2196,33 @@
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C19" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A19,UPDATE!$1:$1,0),TRUE))=FALSE,H19=FALSE),L19,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A19,UPDATE!$1:$1,0))))</f>
         <v>F</v>
       </c>
       <c r="D19" s="25" t="str">
-        <f>IF(C19="F","-",M19)</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
+      <c r="E19" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="F19" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G19" s="19" t="s">
@@ -2125,7 +2234,7 @@
       </c>
       <c r="I19" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A19,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A19,UPDATE!$1:$1,0)),0)),K19)</f>
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="J19" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A19,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2133,34 +2242,34 @@
       </c>
       <c r="K19" s="16"/>
       <c r="L19" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C20" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A20,UPDATE!$1:$1,0),TRUE))=FALSE,H20=FALSE),L20,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A20,UPDATE!$1:$1,0))))</f>
-        <v>F</v>
+        <v>-</v>
       </c>
       <c r="D20" s="25" t="str">
-        <f>IF(C20="F","-",M20)</f>
-        <v>-</v>
+        <f t="shared" si="0"/>
+        <v>*</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="F20" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>✅</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>201</v>
+        <f>"❌"</f>
+        <v>❌</v>
       </c>
       <c r="H20" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A20,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -2168,7 +2277,7 @@
       </c>
       <c r="I20" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A20,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A20,UPDATE!$1:$1,0)),0)),K20)</f>
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="J20" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A20,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2176,31 +2285,34 @@
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A21,UPDATE!$1:$1,0),TRUE))=FALSE,H21=FALSE),L21,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A21,UPDATE!$1:$1,0))))</f>
         <v>-</v>
       </c>
       <c r="D21" s="25" t="str">
-        <f>IF(C21="F","-",M21)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
+      <c r="E21" s="15" t="s">
+        <v>196</v>
+      </c>
       <c r="F21" s="15" t="str">
-        <f>"❌"</f>
-        <v>❌</v>
+        <f t="shared" ref="F21:F30" si="2">"✅"</f>
+        <v>✅</v>
       </c>
       <c r="H21" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A21,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -2208,7 +2320,7 @@
       </c>
       <c r="I21" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A21,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A21,UPDATE!$1:$1,0)),0)),K21)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J21" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A21,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2216,39 +2328,42 @@
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="14" t="str">
+        <v>12</v>
+      </c>
+      <c r="C22" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A22,UPDATE!$1:$1,0),TRUE))=FALSE,H22=FALSE),L22,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A22,UPDATE!$1:$1,0))))</f>
-        <v>-</v>
+        <v>162</v>
       </c>
       <c r="D22" s="25" t="str">
-        <f>IF(C22="F","-",M22)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
+      <c r="E22" s="15" t="s">
+        <v>196</v>
+      </c>
       <c r="F22" s="15" t="str">
-        <f t="shared" ref="F22:F31" si="1">"✅"</f>
+        <f t="shared" si="2"/>
         <v>✅</v>
       </c>
       <c r="H22" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A22,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A22,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A22,UPDATE!$1:$1,0)),0)),K22)</f>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J22" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A22,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2256,30 +2371,33 @@
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="C23" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A23,UPDATE!$1:$1,0),TRUE))=FALSE,H23=FALSE),L23,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A23,UPDATE!$1:$1,0))))</f>
-        <v>161</v>
+        <v>392</v>
       </c>
       <c r="D23" s="25" t="str">
-        <f>IF(C23="F","-",M23)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
+      <c r="E23" s="15" t="s">
+        <v>196</v>
+      </c>
       <c r="F23" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>✅</v>
       </c>
       <c r="H23" s="21" t="b">
@@ -2288,7 +2406,7 @@
       </c>
       <c r="I23" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A23,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A23,UPDATE!$1:$1,0)),0)),K23)</f>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J23" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A23,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2296,42 +2414,42 @@
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="14">
+        <v>177</v>
+      </c>
+      <c r="C24" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A24,UPDATE!$1:$1,0),TRUE))=FALSE,H24=FALSE),L24,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A24,UPDATE!$1:$1,0))))</f>
-        <v>392</v>
+        <v>F</v>
       </c>
       <c r="D24" s="25" t="str">
-        <f>IF(C24="F","-",M24)</f>
-        <v>*</v>
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="F24" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>✅</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>202</v>
       </c>
       <c r="H24" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A24,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A24,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A24,UPDATE!$1:$1,0)),0)),K24)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J24" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A24,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2342,36 +2460,39 @@
         <v>208</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="14" t="str">
+        <v>178</v>
+      </c>
+      <c r="C25" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A25,UPDATE!$1:$1,0),TRUE))=FALSE,H25=FALSE),L25,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A25,UPDATE!$1:$1,0))))</f>
-        <v>F</v>
+        <v>1080</v>
       </c>
       <c r="D25" s="25" t="str">
-        <f>IF(C25="F","-",M25)</f>
-        <v>-</v>
+        <f t="shared" si="0"/>
+        <v>*</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="F25" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>✅</v>
       </c>
       <c r="H25" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A25,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A25,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A25,UPDATE!$1:$1,0)),0)),K25)</f>
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="J25" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A25,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2379,30 +2500,33 @@
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C26" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A26,UPDATE!$1:$1,0),TRUE))=FALSE,H26=FALSE),L26,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A26,UPDATE!$1:$1,0))))</f>
-        <v>1080</v>
+        <v>178</v>
       </c>
       <c r="D26" s="25" t="str">
-        <f>IF(C26="F","-",M26)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
+      <c r="E26" s="15" t="s">
+        <v>197</v>
+      </c>
       <c r="F26" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>✅</v>
       </c>
       <c r="H26" s="21" t="b">
@@ -2411,7 +2535,7 @@
       </c>
       <c r="I26" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A26,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A26,UPDATE!$1:$1,0)),0)),K26)</f>
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="J26" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A26,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2419,30 +2543,33 @@
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C27" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A27,UPDATE!$1:$1,0),TRUE))=FALSE,H27=FALSE),L27,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A27,UPDATE!$1:$1,0))))</f>
-        <v>178</v>
-      </c>
-      <c r="D27" s="25" t="str">
-        <f>IF(C27="F","-",M27)</f>
-        <v>*</v>
+        <v>125</v>
+      </c>
+      <c r="D27" s="25">
+        <f t="shared" si="0"/>
+        <v>45114</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="F27" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>✅</v>
       </c>
       <c r="H27" s="21" t="b">
@@ -2451,7 +2578,7 @@
       </c>
       <c r="I27" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A27,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A27,UPDATE!$1:$1,0)),0)),K27)</f>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J27" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A27,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2459,73 +2586,78 @@
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="M27" s="23">
+        <v>45114</v>
       </c>
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" s="14">
+        <v>181</v>
+      </c>
+      <c r="C28" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A28,UPDATE!$1:$1,0),TRUE))=FALSE,H28=FALSE),L28,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A28,UPDATE!$1:$1,0))))</f>
-        <v>125</v>
-      </c>
-      <c r="D28" s="25">
-        <f>IF(C28="F","-",M28)</f>
-        <v>45114</v>
+        <v>-</v>
+      </c>
+      <c r="D28" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>*</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>196</v>
       </c>
       <c r="F28" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>✅</v>
       </c>
       <c r="H28" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A28,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A28,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A28,UPDATE!$1:$1,0)),0)),K28)</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J28" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A28,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K28" s="16"/>
+      <c r="K28" s="16">
+        <v>21</v>
+      </c>
       <c r="L28" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="M28" s="23">
-        <v>45114</v>
+        <v>207</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C29" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A29,UPDATE!$1:$1,0),TRUE))=FALSE,H29=FALSE),L29,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A29,UPDATE!$1:$1,0))))</f>
         <v>-</v>
       </c>
       <c r="D29" s="25" t="str">
-        <f>IF(C29="F","-",M29)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
+      <c r="E29" s="15" t="s">
+        <v>196</v>
+      </c>
       <c r="F29" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>✅</v>
       </c>
       <c r="H29" s="21" t="b">
@@ -2534,49 +2666,50 @@
       </c>
       <c r="I29" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A29,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A29,UPDATE!$1:$1,0)),0)),K29)</f>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J29" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A29,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K29" s="16">
-        <v>21</v>
-      </c>
+      <c r="K29" s="16"/>
       <c r="L29" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="14" t="str">
+        <v>183</v>
+      </c>
+      <c r="C30" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A30,UPDATE!$1:$1,0),TRUE))=FALSE,H30=FALSE),L30,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A30,UPDATE!$1:$1,0))))</f>
-        <v>-</v>
+        <v>85</v>
       </c>
       <c r="D30" s="25" t="str">
-        <f>IF(C30="F","-",M30)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
+      <c r="E30" s="15" t="s">
+        <v>196</v>
+      </c>
       <c r="F30" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>✅</v>
       </c>
       <c r="H30" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A30,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A30,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A30,UPDATE!$1:$1,0)),0)),K30)</f>
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="J30" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A30,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2584,71 +2717,80 @@
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="14">
+        <v>185</v>
+      </c>
+      <c r="C31" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A31,UPDATE!$1:$1,0),TRUE))=FALSE,H31=FALSE),L31,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A31,UPDATE!$1:$1,0))))</f>
-        <v>85</v>
+        <v>-</v>
       </c>
       <c r="D31" s="25" t="str">
-        <f>IF(C31="F","-",M31)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
+      <c r="E31" s="15" t="s">
+        <v>205</v>
+      </c>
       <c r="F31" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>✅</v>
+        <f>"❌"</f>
+        <v>❌</v>
       </c>
       <c r="H31" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A31,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A31,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A31,UPDATE!$1:$1,0)),0)),K31)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J31" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A31,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C32" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A32,UPDATE!$1:$1,0),TRUE))=FALSE,H32=FALSE),L32,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A32,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D32" s="25" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D32" s="25" t="str">
-        <f>IF(C32="F","-",M32)</f>
-        <v>*</v>
+      <c r="E32" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="F32" s="15" t="str">
-        <f>"❌"</f>
-        <v>❌</v>
+        <f>"✅"</f>
+        <v>✅</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="H32" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A32,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -2656,35 +2798,37 @@
       </c>
       <c r="I32" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A32,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A32,UPDATE!$1:$1,0)),0)),K32)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J32" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A32,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="16">
+        <v>14</v>
+      </c>
       <c r="L32" s="16" t="s">
         <v>208</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C33" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A33,UPDATE!$1:$1,0),TRUE))=FALSE,H33=FALSE),L33,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A33,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D33" s="25" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
-      </c>
-      <c r="D33" s="25" t="str">
-        <f>IF(C33="F","-",M33)</f>
-        <v>*</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>197</v>
@@ -2693,46 +2837,46 @@
         <f>"✅"</f>
         <v>✅</v>
       </c>
-      <c r="G33" s="19" t="s">
-        <v>203</v>
-      </c>
       <c r="H33" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A33,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I33" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A33,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A33,UPDATE!$1:$1,0)),0)),K33)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J33" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A33,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K33" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L33" s="16" t="s">
         <v>208</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="C34" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A34,UPDATE!$1:$1,0),TRUE))=FALSE,H34=FALSE),L34,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A34,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D34" s="25" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D34" s="25" t="str">
-        <f>IF(C34="F","-",M34)</f>
-        <v>*</v>
+      <c r="E34" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="F34" s="15" t="str">
         <f>"✅"</f>
@@ -2744,41 +2888,44 @@
       </c>
       <c r="I34" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A34,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A34,UPDATE!$1:$1,0)),0)),K34)</f>
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J34" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A34,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K34" s="16">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>208</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="C35" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A35,UPDATE!$1:$1,0),TRUE))=FALSE,H35=FALSE),L35,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A35,UPDATE!$1:$1,0))))</f>
         <v>-</v>
       </c>
       <c r="D35" s="25" t="str">
-        <f>IF(C35="F","-",M35)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
+      <c r="E35" s="15" t="s">
+        <v>197</v>
+      </c>
       <c r="F35" s="15" t="str">
-        <f>"✅"</f>
-        <v>✅</v>
+        <f>"❌"</f>
+        <v>❌</v>
       </c>
       <c r="H35" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A35,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -2786,41 +2933,45 @@
       </c>
       <c r="I35" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A35,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A35,UPDATE!$1:$1,0)),0)),K35)</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J35" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A35,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K35" s="16">
-        <v>37</v>
-      </c>
+      <c r="K35" s="16"/>
       <c r="L35" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C36" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A36,UPDATE!$1:$1,0),TRUE))=FALSE,H36=FALSE),L36,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A36,UPDATE!$1:$1,0))))</f>
         <v>-</v>
       </c>
       <c r="D36" s="25" t="str">
-        <f>IF(C36="F","-",M36)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
+      <c r="E36" s="15" t="s">
+        <v>203</v>
+      </c>
       <c r="F36" s="15" t="str">
-        <f>"❌"</f>
-        <v>❌</v>
+        <f>"✅"</f>
+        <v>✅</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>204</v>
       </c>
       <c r="H36" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A36,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -2828,7 +2979,7 @@
       </c>
       <c r="I36" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A36,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A36,UPDATE!$1:$1,0)),0)),K36)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J36" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A36,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2836,45 +2987,42 @@
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C37" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A37,UPDATE!$1:$1,0),TRUE))=FALSE,H37=FALSE),L37,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A37,UPDATE!$1:$1,0))))</f>
         <v>-</v>
       </c>
       <c r="D37" s="25" t="str">
-        <f>IF(C37="F","-",M37)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F37" s="15" t="str">
         <f>"✅"</f>
         <v>✅</v>
       </c>
-      <c r="G37" s="19" t="s">
-        <v>205</v>
-      </c>
       <c r="H37" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A37,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I37" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A37,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A37,UPDATE!$1:$1,0)),0)),K37)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J37" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A37,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2882,30 +3030,30 @@
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C38" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A38,UPDATE!$1:$1,0),TRUE))=FALSE,H38=FALSE),L38,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A38,UPDATE!$1:$1,0))))</f>
         <v>-</v>
       </c>
       <c r="D38" s="25" t="str">
-        <f>IF(C38="F","-",M38)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F38" s="15" t="str">
         <f>"✅"</f>
@@ -2917,7 +3065,7 @@
       </c>
       <c r="I38" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A38,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A38,UPDATE!$1:$1,0)),0)),K38)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J38" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A38,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2925,34 +3073,32 @@
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>192</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B39" s="13"/>
       <c r="C39" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A39,UPDATE!$1:$1,0),TRUE))=FALSE,H39=FALSE),L39,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A39,UPDATE!$1:$1,0))))</f>
         <v>-</v>
       </c>
       <c r="D39" s="25" t="str">
-        <f>IF(C39="F","-",M39)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F39" s="15" t="str">
-        <f>"✅"</f>
-        <v>✅</v>
+        <f>"❌"</f>
+        <v>❌</v>
       </c>
       <c r="H39" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A39,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -2960,7 +3106,7 @@
       </c>
       <c r="I39" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A39,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A39,UPDATE!$1:$1,0)),0)),K39)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J39" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A39,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -2968,28 +3114,30 @@
       </c>
       <c r="K39" s="16"/>
       <c r="L39" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="13"/>
+        <v>120</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>120</v>
+      </c>
       <c r="C40" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A40,UPDATE!$1:$1,0),TRUE))=FALSE,H40=FALSE),L40,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A40,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D40" s="25" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D40" s="25" t="str">
-        <f>IF(C40="F","-",M40)</f>
-        <v>*</v>
-      </c>
       <c r="E40" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F40" s="15" t="str">
         <f>"❌"</f>
@@ -3012,24 +3160,23 @@
         <v>208</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="N40" s="3"/>
+        <v>211</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="C41" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A41,UPDATE!$1:$1,0),TRUE))=FALSE,H41=FALSE),L41,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A41,UPDATE!$1:$1,0))))</f>
-        <v>F</v>
+        <v>-</v>
       </c>
       <c r="D41" s="25" t="str">
-        <f>IF(C41="F","-",M41)</f>
-        <v>-</v>
+        <f t="shared" si="0"/>
+        <v>*</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>196</v>
@@ -3052,30 +3199,33 @@
       </c>
       <c r="K41" s="16"/>
       <c r="L41" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M41" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C42" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A42,UPDATE!$1:$1,0),TRUE))=FALSE,H42=FALSE),L42,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A42,UPDATE!$1:$1,0))))</f>
         <v>-</v>
       </c>
       <c r="D42" s="25" t="str">
-        <f>IF(C42="F","-",M42)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
+      <c r="E42" s="15" t="s">
+        <v>205</v>
+      </c>
       <c r="F42" s="15" t="str">
-        <f>"❌"</f>
-        <v>❌</v>
+        <f t="shared" ref="F42" si="3">"✅"</f>
+        <v>✅</v>
       </c>
       <c r="H42" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A42,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -3083,7 +3233,7 @@
       </c>
       <c r="I42" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A42,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A42,UPDATE!$1:$1,0)),0)),K42)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J42" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A42,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -3091,33 +3241,31 @@
       </c>
       <c r="K42" s="16"/>
       <c r="L42" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>194</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B43" s="13"/>
       <c r="C43" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A43,UPDATE!$1:$1,0),TRUE))=FALSE,H43=FALSE),L43,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A43,UPDATE!$1:$1,0))))</f>
         <v>-</v>
       </c>
       <c r="D43" s="25" t="str">
-        <f>IF(C43="F","-",M43)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F43" s="15" t="str">
-        <f t="shared" ref="F43:F44" si="2">"✅"</f>
-        <v>✅</v>
+        <f>"❌"</f>
+        <v>❌</v>
       </c>
       <c r="H43" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A43,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -3125,7 +3273,7 @@
       </c>
       <c r="I43" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A43,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A43,UPDATE!$1:$1,0)),0)),K43)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J43" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A43,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -3133,15 +3281,15 @@
       </c>
       <c r="K43" s="16"/>
       <c r="L43" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="14" t="str">
@@ -3149,16 +3297,19 @@
         <v>-</v>
       </c>
       <c r="D44" s="25" t="str">
-        <f>IF(C44="F","-",M44)</f>
+        <f t="shared" si="0"/>
         <v>*</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F44" s="15" t="str">
         <f>"❌"</f>
         <v>❌</v>
       </c>
+      <c r="G44" s="19" t="s">
+        <v>206</v>
+      </c>
       <c r="H44" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A44,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
@@ -3173,32 +3324,34 @@
       </c>
       <c r="K44" s="16"/>
       <c r="L44" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>195</v>
+      </c>
       <c r="C45" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A45,UPDATE!$1:$1,0),TRUE))=FALSE,H45=FALSE),L45,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A45,UPDATE!$1:$1,0))))</f>
         <v>-</v>
       </c>
-      <c r="D45" s="25" t="str">
-        <f>IF(C45="F","-",M45)</f>
-        <v>*</v>
+      <c r="D45" s="25">
+        <f t="shared" si="0"/>
+        <v>45114</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="F45" s="15" t="str">
         <f>"❌"</f>
         <v>❌</v>
       </c>
-      <c r="G45" s="19" t="s">
-        <v>207</v>
-      </c>
       <c r="H45" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A45,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
@@ -3213,53 +3366,14 @@
       </c>
       <c r="K45" s="16"/>
       <c r="L45" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="M45" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" s="14" t="str">
-        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A46,UPDATE!$1:$1,0),TRUE))=FALSE,H46=FALSE),L46,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A46,UPDATE!$1:$1,0))))</f>
-        <v>-</v>
-      </c>
-      <c r="D46" s="25" t="str">
-        <f>IF(C46="F","-",M46)</f>
-        <v>*</v>
-      </c>
-      <c r="F46" s="15" t="str">
-        <f>"❌"</f>
-        <v>❌</v>
-      </c>
-      <c r="H46" s="21" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A46,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="21">
-        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A46,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A46,UPDATE!$1:$1,0)),0)),K46)</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="15" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A46,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="M46" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="15"/>
+        <v>207</v>
+      </c>
+      <c r="M45" s="35">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
@@ -3276,27 +3390,29 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AZ133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="29"/>
+    <col min="1" max="1" width="10.83203125" style="27"/>
     <col min="2" max="14" width="10.83203125" style="1"/>
     <col min="15" max="15" width="10.83203125" style="7"/>
     <col min="16" max="24" width="10.83203125" style="1"/>
     <col min="25" max="25" width="10.83203125" style="7"/>
-    <col min="26" max="16384" width="10.83203125" style="1"/>
+    <col min="26" max="51" width="10.83203125" style="1"/>
+    <col min="52" max="52" width="10.83203125" style="34"/>
+    <col min="53" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -3353,157 +3469,159 @@
       <c r="S1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="AZ1" s="32"/>
+    </row>
+    <row r="2" spans="1:52" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="29">
         <v>365</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="29">
         <v>125</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="29">
         <v>1115</v>
       </c>
-      <c r="E2" s="27">
-        <v>230</v>
-      </c>
-      <c r="F2" s="27">
+      <c r="E2" s="29">
+        <v>228</v>
+      </c>
+      <c r="F2" s="29">
         <v>392</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="29">
         <v>40</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="29">
         <v>400</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="29">
         <v>1080</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="29">
         <v>119</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="29">
         <v>178</v>
       </c>
-      <c r="L2" s="27">
-        <v>161</v>
-      </c>
-      <c r="M2" s="27">
+      <c r="L2" s="29">
+        <v>162</v>
+      </c>
+      <c r="M2" s="29">
         <v>85</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="29">
         <v>89</v>
       </c>
-      <c r="O2" s="28" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P2" s="27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q2" s="27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R2" s="27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S2" s="27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T2" s="27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U2" s="27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V2" s="27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W2" s="27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X2" s="27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y2" s="28" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z2" s="27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA2" s="27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB2" s="27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC2" s="27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD2" s="27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE2" s="27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
+      <c r="O2" s="29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P2" s="29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q2" s="29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R2" s="29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S2" s="29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T2" s="30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U2" s="30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V2" s="30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W2" s="30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X2" s="30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y2" s="30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z2" s="30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA2" s="30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB2" s="30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC2" s="30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD2" s="30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE2" s="30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ2" s="33"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A3" s="27">
         <v>131</v>
       </c>
       <c r="B3" s="1" t="e">
@@ -3626,8 +3744,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A4" s="27">
         <v>130</v>
       </c>
       <c r="B4" s="1" t="e">
@@ -3750,8 +3868,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A5" s="27">
         <v>129</v>
       </c>
       <c r="B5" s="1" t="e">
@@ -3874,8 +3992,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A6" s="27">
         <v>128</v>
       </c>
       <c r="B6" s="1" t="e">
@@ -3998,8 +4116,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
         <v>127</v>
       </c>
       <c r="B7" s="1" t="e">
@@ -4122,8 +4240,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A8" s="27">
         <v>126</v>
       </c>
       <c r="B8" s="1" t="e">
@@ -4246,8 +4364,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A9" s="27">
         <v>125</v>
       </c>
       <c r="B9" s="1" t="e">
@@ -4370,8 +4488,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A10" s="27">
         <v>124</v>
       </c>
       <c r="B10" s="1" t="e">
@@ -4494,8 +4612,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A11" s="27">
         <v>123</v>
       </c>
       <c r="B11" s="1" t="e">
@@ -4618,8 +4736,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
         <v>122</v>
       </c>
       <c r="B12" s="1" t="e">
@@ -4742,8 +4860,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
         <v>121</v>
       </c>
       <c r="B13" s="1" t="e">
@@ -4866,8 +4984,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
         <v>120</v>
       </c>
       <c r="B14" s="1" t="e">
@@ -4990,8 +5108,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
         <v>119</v>
       </c>
       <c r="B15" s="1" t="e">
@@ -5114,8 +5232,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
         <v>118</v>
       </c>
       <c r="B16" s="1" t="e">
@@ -5239,7 +5357,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="27">
         <v>117</v>
       </c>
       <c r="B17" s="1" t="e">
@@ -5363,7 +5481,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
+      <c r="A18" s="27">
         <v>116</v>
       </c>
       <c r="B18" s="1" t="e">
@@ -5487,7 +5605,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+      <c r="A19" s="27">
         <v>115</v>
       </c>
       <c r="B19" s="1" t="e">
@@ -5611,7 +5729,7 @@
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="27">
         <v>114</v>
       </c>
       <c r="B20" s="1" t="e">
@@ -5735,7 +5853,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="A21" s="27">
         <v>113</v>
       </c>
       <c r="B21" s="1" t="e">
@@ -5859,7 +5977,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="A22" s="27">
         <v>112</v>
       </c>
       <c r="B22" s="1" t="e">
@@ -5983,7 +6101,7 @@
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
+      <c r="A23" s="27">
         <v>111</v>
       </c>
       <c r="B23" s="1" t="e">
@@ -6107,7 +6225,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+      <c r="A24" s="27">
         <v>110</v>
       </c>
       <c r="B24" s="1" t="e">
@@ -6231,7 +6349,7 @@
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="29">
+      <c r="A25" s="27">
         <v>109</v>
       </c>
       <c r="B25" s="1" t="e">
@@ -6355,7 +6473,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
+      <c r="A26" s="27">
         <v>108</v>
       </c>
       <c r="B26" s="1" t="e">
@@ -6479,7 +6597,7 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
+      <c r="A27" s="27">
         <v>107</v>
       </c>
       <c r="B27" s="1" t="e">
@@ -6603,7 +6721,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="29">
+      <c r="A28" s="27">
         <v>106</v>
       </c>
       <c r="B28" s="1" t="e">
@@ -6726,7 +6844,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+      <c r="A29" s="27">
         <v>105</v>
       </c>
       <c r="B29" s="1" t="e">
@@ -6849,7 +6967,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="29">
+      <c r="A30" s="27">
         <v>104</v>
       </c>
       <c r="B30" s="1" t="e">
@@ -6972,7 +7090,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
+      <c r="A31" s="27">
         <v>103</v>
       </c>
       <c r="B31" s="1" t="e">
@@ -7094,7 +7212,7 @@
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="29">
+      <c r="A32" s="27">
         <v>102</v>
       </c>
       <c r="B32" s="1" t="e">
@@ -7216,7 +7334,7 @@
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A33" s="29">
+      <c r="A33" s="27">
         <v>101</v>
       </c>
       <c r="B33" s="1" t="e">
@@ -7338,7 +7456,7 @@
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A34" s="29">
+      <c r="A34" s="27">
         <v>100</v>
       </c>
       <c r="B34" s="1" t="e">
@@ -7460,7 +7578,7 @@
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A35" s="29">
+      <c r="A35" s="27">
         <v>99</v>
       </c>
       <c r="B35" s="1" t="e">
@@ -7582,7 +7700,7 @@
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36" s="29">
+      <c r="A36" s="27">
         <v>98</v>
       </c>
       <c r="B36" s="1" t="e">
@@ -7704,7 +7822,7 @@
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A37" s="29">
+      <c r="A37" s="27">
         <v>97</v>
       </c>
       <c r="B37" s="1" t="e">
@@ -7826,7 +7944,7 @@
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38" s="29">
+      <c r="A38" s="27">
         <v>96</v>
       </c>
       <c r="B38" s="1" t="e">
@@ -7948,7 +8066,7 @@
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A39" s="29">
+      <c r="A39" s="27">
         <v>95</v>
       </c>
       <c r="B39" s="1" t="e">
@@ -8070,7 +8188,7 @@
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A40" s="29">
+      <c r="A40" s="27">
         <v>94</v>
       </c>
       <c r="B40" s="1" t="e">
@@ -8192,7 +8310,7 @@
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A41" s="29">
+      <c r="A41" s="27">
         <v>93</v>
       </c>
       <c r="B41" s="1" t="e">
@@ -8314,7 +8432,7 @@
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A42" s="29">
+      <c r="A42" s="27">
         <v>92</v>
       </c>
       <c r="B42" s="1" t="e">
@@ -8436,7 +8554,7 @@
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A43" s="29">
+      <c r="A43" s="27">
         <v>91</v>
       </c>
       <c r="B43" s="1" t="e">
@@ -8558,7 +8676,7 @@
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A44" s="29">
+      <c r="A44" s="27">
         <v>90</v>
       </c>
       <c r="B44" s="1" t="e">
@@ -8680,7 +8798,7 @@
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A45" s="29">
+      <c r="A45" s="27">
         <v>89</v>
       </c>
       <c r="B45" s="1" t="e">
@@ -8802,7 +8920,7 @@
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A46" s="29">
+      <c r="A46" s="27">
         <v>88</v>
       </c>
       <c r="B46" s="1" t="e">
@@ -8924,7 +9042,7 @@
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A47" s="29">
+      <c r="A47" s="27">
         <v>87</v>
       </c>
       <c r="B47" s="1" t="e">
@@ -9046,7 +9164,7 @@
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A48" s="29">
+      <c r="A48" s="27">
         <v>86</v>
       </c>
       <c r="B48" s="1" t="e">
@@ -9168,7 +9286,7 @@
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A49" s="29">
+      <c r="A49" s="27">
         <v>85</v>
       </c>
       <c r="B49" s="1" t="e">
@@ -9290,7 +9408,7 @@
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A50" s="29">
+      <c r="A50" s="27">
         <v>84</v>
       </c>
       <c r="B50" s="1" t="e">
@@ -9412,7 +9530,7 @@
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A51" s="29">
+      <c r="A51" s="27">
         <v>83</v>
       </c>
       <c r="B51" s="1" t="e">
@@ -9534,7 +9652,7 @@
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A52" s="29">
+      <c r="A52" s="27">
         <v>82</v>
       </c>
       <c r="B52" s="1" t="e">
@@ -9656,7 +9774,7 @@
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A53" s="29">
+      <c r="A53" s="27">
         <v>81</v>
       </c>
       <c r="B53" s="1" t="e">
@@ -9778,7 +9896,7 @@
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A54" s="29">
+      <c r="A54" s="27">
         <v>80</v>
       </c>
       <c r="B54" s="1" t="e">
@@ -9900,7 +10018,7 @@
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A55" s="29">
+      <c r="A55" s="27">
         <v>79</v>
       </c>
       <c r="B55" s="1" t="e">
@@ -10022,7 +10140,7 @@
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A56" s="29">
+      <c r="A56" s="27">
         <v>78</v>
       </c>
       <c r="B56" s="1" t="e">
@@ -10144,7 +10262,7 @@
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A57" s="29">
+      <c r="A57" s="27">
         <v>77</v>
       </c>
       <c r="B57" s="1" t="e">
@@ -10265,7 +10383,7 @@
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A58" s="29">
+      <c r="A58" s="27">
         <v>76</v>
       </c>
       <c r="B58" s="1" t="e">
@@ -10386,7 +10504,7 @@
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A59" s="29">
+      <c r="A59" s="27">
         <v>75</v>
       </c>
       <c r="B59" s="1" t="e">
@@ -10507,7 +10625,7 @@
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A60" s="29">
+      <c r="A60" s="27">
         <v>74</v>
       </c>
       <c r="B60" s="1" t="e">
@@ -10627,7 +10745,7 @@
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A61" s="29">
+      <c r="A61" s="27">
         <v>73</v>
       </c>
       <c r="B61" s="1" t="e">
@@ -10747,7 +10865,7 @@
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A62" s="29">
+      <c r="A62" s="27">
         <v>72</v>
       </c>
       <c r="B62" s="1" t="e">
@@ -10867,7 +10985,7 @@
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A63" s="29">
+      <c r="A63" s="27">
         <v>71</v>
       </c>
       <c r="B63" s="1" t="e">
@@ -10987,7 +11105,7 @@
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A64" s="29">
+      <c r="A64" s="27">
         <v>70</v>
       </c>
       <c r="B64" s="1" t="e">
@@ -11107,7 +11225,7 @@
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A65" s="29">
+      <c r="A65" s="27">
         <v>69</v>
       </c>
       <c r="B65" s="1" t="e">
@@ -11227,7 +11345,7 @@
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A66" s="29">
+      <c r="A66" s="27">
         <v>68</v>
       </c>
       <c r="B66" s="1" t="e">
@@ -11347,7 +11465,7 @@
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A67" s="29">
+      <c r="A67" s="27">
         <v>67</v>
       </c>
       <c r="B67" s="1" t="e">
@@ -11467,7 +11585,7 @@
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A68" s="29">
+      <c r="A68" s="27">
         <v>66</v>
       </c>
       <c r="B68" s="1" t="e">
@@ -11587,7 +11705,7 @@
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A69" s="29">
+      <c r="A69" s="27">
         <v>65</v>
       </c>
       <c r="B69" s="1" t="e">
@@ -11707,7 +11825,7 @@
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A70" s="29">
+      <c r="A70" s="27">
         <v>64</v>
       </c>
       <c r="B70" s="1" t="e">
@@ -11827,7 +11945,7 @@
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A71" s="29">
+      <c r="A71" s="27">
         <v>63</v>
       </c>
       <c r="B71" s="1" t="e">
@@ -11947,7 +12065,7 @@
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A72" s="29">
+      <c r="A72" s="27">
         <v>62</v>
       </c>
       <c r="B72" s="1" t="e">
@@ -12067,7 +12185,7 @@
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A73" s="29">
+      <c r="A73" s="27">
         <v>61</v>
       </c>
       <c r="B73" s="1" t="e">
@@ -12187,7 +12305,7 @@
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A74" s="29">
+      <c r="A74" s="27">
         <v>60</v>
       </c>
       <c r="B74" s="1" t="e">
@@ -12307,7 +12425,7 @@
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A75" s="29">
+      <c r="A75" s="27">
         <v>59</v>
       </c>
       <c r="B75" s="1" t="e">
@@ -12427,7 +12545,7 @@
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A76" s="29">
+      <c r="A76" s="27">
         <v>58</v>
       </c>
       <c r="B76" s="1" t="e">
@@ -12547,7 +12665,7 @@
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A77" s="29">
+      <c r="A77" s="27">
         <v>57</v>
       </c>
       <c r="B77" s="1" t="e">
@@ -12667,7 +12785,7 @@
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A78" s="29">
+      <c r="A78" s="27">
         <v>56</v>
       </c>
       <c r="B78" s="1" t="e">
@@ -12787,7 +12905,7 @@
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A79" s="29">
+      <c r="A79" s="27">
         <v>55</v>
       </c>
       <c r="B79" s="1" t="e">
@@ -12907,7 +13025,7 @@
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A80" s="29">
+      <c r="A80" s="27">
         <v>54</v>
       </c>
       <c r="B80" s="1" t="e">
@@ -13027,7 +13145,7 @@
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A81" s="29">
+      <c r="A81" s="27">
         <v>53</v>
       </c>
       <c r="B81" s="1" t="e">
@@ -13147,7 +13265,7 @@
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A82" s="29">
+      <c r="A82" s="27">
         <v>52</v>
       </c>
       <c r="B82" s="1" t="e">
@@ -13267,7 +13385,7 @@
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A83" s="29">
+      <c r="A83" s="27">
         <v>51</v>
       </c>
       <c r="B83" s="1" t="e">
@@ -13387,7 +13505,7 @@
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A84" s="29">
+      <c r="A84" s="27">
         <v>50</v>
       </c>
       <c r="B84" s="1" t="e">
@@ -13507,7 +13625,7 @@
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A85" s="29">
+      <c r="A85" s="27">
         <v>49</v>
       </c>
       <c r="B85" s="1" t="e">
@@ -13627,7 +13745,7 @@
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A86" s="29">
+      <c r="A86" s="27">
         <v>48</v>
       </c>
       <c r="B86" s="1" t="e">
@@ -13747,7 +13865,7 @@
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A87" s="29">
+      <c r="A87" s="27">
         <v>47</v>
       </c>
       <c r="B87" s="1" t="e">
@@ -13867,7 +13985,7 @@
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A88" s="29">
+      <c r="A88" s="27">
         <v>46</v>
       </c>
       <c r="B88" s="1" t="e">
@@ -13987,7 +14105,7 @@
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A89" s="29">
+      <c r="A89" s="27">
         <v>45</v>
       </c>
       <c r="B89" s="1" t="e">
@@ -14107,7 +14225,7 @@
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A90" s="29">
+      <c r="A90" s="27">
         <v>44</v>
       </c>
       <c r="B90" s="1" t="e">
@@ -14227,7 +14345,7 @@
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A91" s="29">
+      <c r="A91" s="27">
         <v>43</v>
       </c>
       <c r="B91" s="1" t="e">
@@ -14347,7 +14465,7 @@
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A92" s="29">
+      <c r="A92" s="27">
         <v>42</v>
       </c>
       <c r="B92" s="1" t="e">
@@ -14466,7 +14584,7 @@
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A93" s="29">
+      <c r="A93" s="27">
         <v>41</v>
       </c>
       <c r="B93" s="1" t="e">
@@ -14584,7 +14702,7 @@
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A94" s="29">
+      <c r="A94" s="27">
         <v>40</v>
       </c>
       <c r="B94" s="1" t="e">
@@ -14702,7 +14820,7 @@
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A95" s="29">
+      <c r="A95" s="27">
         <v>39</v>
       </c>
       <c r="B95" s="1" t="e">
@@ -14820,7 +14938,7 @@
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A96" s="29">
+      <c r="A96" s="27">
         <v>38</v>
       </c>
       <c r="B96" s="1" t="e">
@@ -14937,7 +15055,7 @@
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A97" s="29">
+      <c r="A97" s="27">
         <v>37</v>
       </c>
       <c r="B97" s="1" t="e">
@@ -15053,7 +15171,7 @@
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A98" s="29">
+      <c r="A98" s="27">
         <v>36</v>
       </c>
       <c r="B98" s="1" t="e">
@@ -15166,7 +15284,7 @@
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A99" s="29">
+      <c r="A99" s="27">
         <v>35</v>
       </c>
       <c r="B99" s="1">
@@ -15281,7 +15399,7 @@
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A100" s="29">
+      <c r="A100" s="27">
         <v>34</v>
       </c>
       <c r="B100" s="1">
@@ -15395,7 +15513,7 @@
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A101" s="29">
+      <c r="A101" s="27">
         <v>33</v>
       </c>
       <c r="B101" s="1">
@@ -15509,7 +15627,7 @@
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A102" s="29">
+      <c r="A102" s="27">
         <v>32</v>
       </c>
       <c r="B102" s="1">
@@ -15623,7 +15741,7 @@
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A103" s="29">
+      <c r="A103" s="27">
         <v>31</v>
       </c>
       <c r="B103" s="1">
@@ -15737,7 +15855,7 @@
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A104" s="29">
+      <c r="A104" s="27">
         <v>30</v>
       </c>
       <c r="B104" s="1">
@@ -15849,7 +15967,7 @@
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A105" s="29">
+      <c r="A105" s="27">
         <v>29</v>
       </c>
       <c r="B105" s="1">
@@ -15961,7 +16079,7 @@
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A106" s="29">
+      <c r="A106" s="27">
         <v>28</v>
       </c>
       <c r="B106" s="1">
@@ -16073,7 +16191,7 @@
       </c>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A107" s="29">
+      <c r="A107" s="27">
         <v>27</v>
       </c>
       <c r="B107" s="1">
@@ -16184,7 +16302,7 @@
       </c>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A108" s="29">
+      <c r="A108" s="27">
         <v>26</v>
       </c>
       <c r="B108" s="1">
@@ -16295,7 +16413,7 @@
       </c>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A109" s="29">
+      <c r="A109" s="27">
         <v>25</v>
       </c>
       <c r="B109" s="1">
@@ -16406,7 +16524,7 @@
       </c>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A110" s="29">
+      <c r="A110" s="27">
         <v>24</v>
       </c>
       <c r="B110" s="1">
@@ -16517,7 +16635,7 @@
       </c>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A111" s="29">
+      <c r="A111" s="27">
         <v>23</v>
       </c>
       <c r="B111" s="1">
@@ -16627,7 +16745,7 @@
       </c>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A112" s="29">
+      <c r="A112" s="27">
         <v>22</v>
       </c>
       <c r="B112" s="1">
@@ -16737,7 +16855,7 @@
       </c>
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A113" s="29">
+      <c r="A113" s="27">
         <v>21</v>
       </c>
       <c r="B113" s="1">
@@ -16847,7 +16965,7 @@
       </c>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A114" s="29">
+      <c r="A114" s="27">
         <v>20</v>
       </c>
       <c r="B114" s="1">
@@ -16957,7 +17075,7 @@
       </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A115" s="29">
+      <c r="A115" s="27">
         <v>19</v>
       </c>
       <c r="B115" s="1">
@@ -17065,7 +17183,7 @@
       </c>
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A116" s="29">
+      <c r="A116" s="27">
         <v>18</v>
       </c>
       <c r="B116" s="1">
@@ -17173,7 +17291,7 @@
       </c>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A117" s="29">
+      <c r="A117" s="27">
         <v>17</v>
       </c>
       <c r="B117" s="1">
@@ -17281,7 +17399,7 @@
       </c>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A118" s="29">
+      <c r="A118" s="27">
         <v>16</v>
       </c>
       <c r="B118" s="1">
@@ -17387,7 +17505,7 @@
       </c>
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A119" s="29">
+      <c r="A119" s="27">
         <v>15</v>
       </c>
       <c r="B119" s="1">
@@ -17493,7 +17611,7 @@
       </c>
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A120" s="29">
+      <c r="A120" s="27">
         <v>14</v>
       </c>
       <c r="B120" s="1">
@@ -17599,7 +17717,7 @@
       </c>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A121" s="29">
+      <c r="A121" s="27">
         <v>13</v>
       </c>
       <c r="B121" s="1">
@@ -17703,7 +17821,7 @@
       </c>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A122" s="29">
+      <c r="A122" s="27">
         <v>12</v>
       </c>
       <c r="B122" s="1">
@@ -17806,7 +17924,7 @@
       </c>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A123" s="29">
+      <c r="A123" s="27">
         <v>11</v>
       </c>
       <c r="B123" s="1">
@@ -17907,7 +18025,7 @@
       </c>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A124" s="29">
+      <c r="A124" s="27">
         <v>10</v>
       </c>
       <c r="B124" s="1">
@@ -18008,7 +18126,7 @@
       </c>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A125" s="29">
+      <c r="A125" s="27">
         <v>9</v>
       </c>
       <c r="B125" s="1">
@@ -18109,7 +18227,7 @@
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A126" s="29">
+      <c r="A126" s="27">
         <v>8</v>
       </c>
       <c r="B126" s="1">
@@ -18210,7 +18328,7 @@
       </c>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A127" s="29">
+      <c r="A127" s="27">
         <v>7</v>
       </c>
       <c r="B127" s="1">
@@ -18311,7 +18429,7 @@
       </c>
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A128" s="29">
+      <c r="A128" s="27">
         <v>6</v>
       </c>
       <c r="B128" s="1">
@@ -18411,7 +18529,7 @@
       </c>
     </row>
     <row r="129" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A129" s="29">
+      <c r="A129" s="27">
         <v>5</v>
       </c>
       <c r="B129" s="1">
@@ -18511,7 +18629,7 @@
       </c>
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A130" s="29">
+      <c r="A130" s="27">
         <v>4</v>
       </c>
       <c r="B130" s="1">
@@ -18611,7 +18729,7 @@
       </c>
     </row>
     <row r="131" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A131" s="29">
+      <c r="A131" s="27">
         <v>3</v>
       </c>
       <c r="B131" s="1">
@@ -18711,7 +18829,7 @@
       </c>
     </row>
     <row r="132" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A132" s="29">
+      <c r="A132" s="27">
         <v>2</v>
       </c>
       <c r="B132" s="1">
@@ -18811,7 +18929,7 @@
       </c>
     </row>
     <row r="133" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A133" s="29">
+      <c r="A133" s="27">
         <v>1</v>
       </c>
       <c r="B133" s="1">
@@ -19871,4 +19989,1475 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB92D88D-5FBB-8948-8C39-5C58F6C3E552}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:J52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="10"/>
+    <col min="2" max="2" width="39.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="10"/>
+    <col min="4" max="4" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="130.5" style="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="str">
+        <f>SETTINGS!A1</f>
+        <v>Manga</v>
+      </c>
+      <c r="B1" s="11" t="str">
+        <f>SETTINGS!B1</f>
+        <v>Manga_path</v>
+      </c>
+      <c r="C1" s="11" t="str">
+        <f>SETTINGS!C1</f>
+        <v>Chapt</v>
+      </c>
+      <c r="D1" s="24" t="str">
+        <f>SETTINGS!D1</f>
+        <v xml:space="preserve">Update </v>
+      </c>
+      <c r="E1" s="11" t="str">
+        <f>SETTINGS!E1</f>
+        <v>Source</v>
+      </c>
+      <c r="F1" s="11" t="str">
+        <f>SETTINGS!F1</f>
+        <v>Statut</v>
+      </c>
+      <c r="G1" s="11" t="str">
+        <f>SETTINGS!G1</f>
+        <v>Commentaire</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="str">
+        <f>IF(SETTINGS!A2&lt;&gt;"",SETTINGS!A2,"")</f>
+        <v>20thCB</v>
+      </c>
+      <c r="B2" s="36" t="str">
+        <f>IF(SETTINGS!B2&lt;&gt;"",SETTINGS!B2,"")</f>
+        <v>20th Century Boys</v>
+      </c>
+      <c r="C2" s="36" t="str">
+        <f>IF(SETTINGS!C2&lt;&gt;"",SETTINGS!C2,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D2" s="37" t="str">
+        <f>IF(SETTINGS!D2&lt;&gt;"",SETTINGS!D2,"")</f>
+        <v>-</v>
+      </c>
+      <c r="E2" s="36" t="str">
+        <f>IF(SETTINGS!E2&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E2,$I:$J,2,FALSE),SETTINGS!E2),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F2" s="36" t="str">
+        <f>IF(SETTINGS!F2&lt;&gt;"",SETTINGS!F2,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G2" s="36" t="str">
+        <f>IF(SETTINGS!G2&lt;&gt;"",SETTINGS!G2,"")</f>
+        <v/>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="str">
+        <f>IF(SETTINGS!A3&lt;&gt;"",SETTINGS!A3,"")</f>
+        <v>BCL</v>
+      </c>
+      <c r="B3" s="36" t="str">
+        <f>IF(SETTINGS!B3&lt;&gt;"",SETTINGS!B3,"")</f>
+        <v>Black Clover</v>
+      </c>
+      <c r="C3" s="36">
+        <f>IF(SETTINGS!C3&lt;&gt;"",SETTINGS!C3,"")</f>
+        <v>365</v>
+      </c>
+      <c r="D3" s="37" t="str">
+        <f>IF(SETTINGS!D3&lt;&gt;"",SETTINGS!D3,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E3" s="36" t="str">
+        <f>IF(SETTINGS!E3&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E3,$I:$J,2,FALSE),SETTINGS!E3),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F3" s="36" t="str">
+        <f>IF(SETTINGS!F3&lt;&gt;"",SETTINGS!F3,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G3" s="36" t="str">
+        <f>IF(SETTINGS!G3&lt;&gt;"",SETTINGS!G3,"")</f>
+        <v/>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="str">
+        <f>IF(SETTINGS!A4&lt;&gt;"",SETTINGS!A4,"")</f>
+        <v>Bleach</v>
+      </c>
+      <c r="B4" s="36" t="str">
+        <f>IF(SETTINGS!B4&lt;&gt;"",SETTINGS!B4,"")</f>
+        <v>Bleach</v>
+      </c>
+      <c r="C4" s="36" t="str">
+        <f>IF(SETTINGS!C4&lt;&gt;"",SETTINGS!C4,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D4" s="37" t="str">
+        <f>IF(SETTINGS!D4&lt;&gt;"",SETTINGS!D4,"")</f>
+        <v>-</v>
+      </c>
+      <c r="E4" s="36" t="str">
+        <f>IF(SETTINGS!E4&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E4,$I:$J,2,FALSE),SETTINGS!E4),"")</f>
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
+      </c>
+      <c r="F4" s="36" t="str">
+        <f>IF(SETTINGS!F4&lt;&gt;"",SETTINGS!F4,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G4" s="36" t="str">
+        <f>IF(SETTINGS!G4&lt;&gt;"",SETTINGS!G4,"")</f>
+        <v/>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="str">
+        <f>IF(SETTINGS!A5&lt;&gt;"",SETTINGS!A5,"")</f>
+        <v>Chainsaw</v>
+      </c>
+      <c r="B5" s="36" t="str">
+        <f>IF(SETTINGS!B5&lt;&gt;"",SETTINGS!B5,"")</f>
+        <v>Chainsaw Man</v>
+      </c>
+      <c r="C5" s="36">
+        <f>IF(SETTINGS!C5&lt;&gt;"",SETTINGS!C5,"")</f>
+        <v>119</v>
+      </c>
+      <c r="D5" s="37" t="str">
+        <f>IF(SETTINGS!D5&lt;&gt;"",SETTINGS!D5,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E5" s="36" t="str">
+        <f>IF(SETTINGS!E5&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E5,$I:$J,2,FALSE),SETTINGS!E5),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F5" s="36" t="str">
+        <f>IF(SETTINGS!F5&lt;&gt;"",SETTINGS!F5,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G5" s="36" t="str">
+        <f>IF(SETTINGS!G5&lt;&gt;"",SETTINGS!G5,"")</f>
+        <v/>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="str">
+        <f>IF(SETTINGS!A6&lt;&gt;"",SETTINGS!A6,"")</f>
+        <v>CJX</v>
+      </c>
+      <c r="B6" s="36" t="str">
+        <f>IF(SETTINGS!B6&lt;&gt;"",SETTINGS!B6,"")</f>
+        <v>Choujin X</v>
+      </c>
+      <c r="C6" s="36">
+        <f>IF(SETTINGS!C6&lt;&gt;"",SETTINGS!C6,"")</f>
+        <v>40</v>
+      </c>
+      <c r="D6" s="37" t="str">
+        <f>IF(SETTINGS!D6&lt;&gt;"",SETTINGS!D6,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E6" s="36" t="str">
+        <f>IF(SETTINGS!E6&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E6,$I:$J,2,FALSE),SETTINGS!E6),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F6" s="36" t="str">
+        <f>IF(SETTINGS!F6&lt;&gt;"",SETTINGS!F6,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G6" s="36" t="str">
+        <f>IF(SETTINGS!G6&lt;&gt;"",SETTINGS!G6,"")</f>
+        <v/>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="str">
+        <f>IF(SETTINGS!A7&lt;&gt;"",SETTINGS!A7,"")</f>
+        <v>Conan</v>
+      </c>
+      <c r="B7" s="36" t="str">
+        <f>IF(SETTINGS!B7&lt;&gt;"",SETTINGS!B7,"")</f>
+        <v>Detective Conan</v>
+      </c>
+      <c r="C7" s="36">
+        <f>IF(SETTINGS!C7&lt;&gt;"",SETTINGS!C7,"")</f>
+        <v>1115</v>
+      </c>
+      <c r="D7" s="37" t="str">
+        <f>IF(SETTINGS!D7&lt;&gt;"",SETTINGS!D7,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E7" s="36" t="str">
+        <f>IF(SETTINGS!E7&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E7,$I:$J,2,FALSE),SETTINGS!E7),"")</f>
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
+      </c>
+      <c r="F7" s="36" t="str">
+        <f>IF(SETTINGS!F7&lt;&gt;"",SETTINGS!F7,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G7" s="36" t="str">
+        <f>IF(SETTINGS!G7&lt;&gt;"",SETTINGS!G7,"")</f>
+        <v>Vol.3 End Of Volume Bonus Page</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="str">
+        <f>IF(SETTINGS!A8&lt;&gt;"",SETTINGS!A8,"")</f>
+        <v>DB</v>
+      </c>
+      <c r="B8" s="36" t="str">
+        <f>IF(SETTINGS!B8&lt;&gt;"",SETTINGS!B8,"")</f>
+        <v>Dragon Ball</v>
+      </c>
+      <c r="C8" s="36" t="str">
+        <f>IF(SETTINGS!C8&lt;&gt;"",SETTINGS!C8,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D8" s="37" t="str">
+        <f>IF(SETTINGS!D8&lt;&gt;"",SETTINGS!D8,"")</f>
+        <v>-</v>
+      </c>
+      <c r="E8" s="36" t="str">
+        <f>IF(SETTINGS!E8&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E8,$I:$J,2,FALSE),SETTINGS!E8),"")</f>
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; Mangaclash&lt;/a&gt;</v>
+      </c>
+      <c r="F8" s="36" t="str">
+        <f>IF(SETTINGS!F8&lt;&gt;"",SETTINGS!F8,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G8" s="36" t="str">
+        <f>IF(SETTINGS!G8&lt;&gt;"",SETTINGS!G8,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="str">
+        <f>IF(SETTINGS!A9&lt;&gt;"",SETTINGS!A9,"")</f>
+        <v>DBSuper</v>
+      </c>
+      <c r="B9" s="36" t="str">
+        <f>IF(SETTINGS!B9&lt;&gt;"",SETTINGS!B9,"")</f>
+        <v>Dragon Ball Super</v>
+      </c>
+      <c r="C9" s="36">
+        <f>IF(SETTINGS!C9&lt;&gt;"",SETTINGS!C9,"")</f>
+        <v>89</v>
+      </c>
+      <c r="D9" s="37" t="str">
+        <f>IF(SETTINGS!D9&lt;&gt;"",SETTINGS!D9,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E9" s="36" t="str">
+        <f>IF(SETTINGS!E9&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E9,$I:$J,2,FALSE),SETTINGS!E9),"")</f>
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; Mangaclash&lt;/a&gt;</v>
+      </c>
+      <c r="F9" s="36" t="str">
+        <f>IF(SETTINGS!F9&lt;&gt;"",SETTINGS!F9,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G9" s="36" t="str">
+        <f>IF(SETTINGS!G9&lt;&gt;"",SETTINGS!G9,"")</f>
+        <v>Chapitre 34 image corrompue à delete</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="str">
+        <f>IF(SETTINGS!A10&lt;&gt;"",SETTINGS!A10,"")</f>
+        <v>Gamaran</v>
+      </c>
+      <c r="B10" s="36" t="str">
+        <f>IF(SETTINGS!B10&lt;&gt;"",SETTINGS!B10,"")</f>
+        <v>Gamaran</v>
+      </c>
+      <c r="C10" s="36" t="str">
+        <f>IF(SETTINGS!C10&lt;&gt;"",SETTINGS!C10,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D10" s="37" t="str">
+        <f>IF(SETTINGS!D10&lt;&gt;"",SETTINGS!D10,"")</f>
+        <v>-</v>
+      </c>
+      <c r="E10" s="36" t="str">
+        <f>IF(SETTINGS!E10&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E10,$I:$J,2,FALSE),SETTINGS!E10),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F10" s="36" t="str">
+        <f>IF(SETTINGS!F10&lt;&gt;"",SETTINGS!F10,"")</f>
+        <v>❌</v>
+      </c>
+      <c r="G10" s="36" t="str">
+        <f>IF(SETTINGS!G10&lt;&gt;"",SETTINGS!G10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="str">
+        <f>IF(SETTINGS!A11&lt;&gt;"",SETTINGS!A11,"")</f>
+        <v>Gintama</v>
+      </c>
+      <c r="B11" s="36" t="str">
+        <f>IF(SETTINGS!B11&lt;&gt;"",SETTINGS!B11,"")</f>
+        <v>Gintama</v>
+      </c>
+      <c r="C11" s="36" t="str">
+        <f>IF(SETTINGS!C11&lt;&gt;"",SETTINGS!C11,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D11" s="37" t="str">
+        <f>IF(SETTINGS!D11&lt;&gt;"",SETTINGS!D11,"")</f>
+        <v>-</v>
+      </c>
+      <c r="E11" s="36" t="str">
+        <f>IF(SETTINGS!E11&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E11,$I:$J,2,FALSE),SETTINGS!E11),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F11" s="36" t="str">
+        <f>IF(SETTINGS!F11&lt;&gt;"",SETTINGS!F11,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G11" s="36" t="str">
+        <f>IF(SETTINGS!G11&lt;&gt;"",SETTINGS!G11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="str">
+        <f>IF(SETTINGS!A12&lt;&gt;"",SETTINGS!A12,"")</f>
+        <v>GTO</v>
+      </c>
+      <c r="B12" s="36" t="str">
+        <f>IF(SETTINGS!B12&lt;&gt;"",SETTINGS!B12,"")</f>
+        <v>GTO</v>
+      </c>
+      <c r="C12" s="36" t="str">
+        <f>IF(SETTINGS!C12&lt;&gt;"",SETTINGS!C12,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D12" s="37" t="str">
+        <f>IF(SETTINGS!D12&lt;&gt;"",SETTINGS!D12,"")</f>
+        <v>-</v>
+      </c>
+      <c r="E12" s="36" t="str">
+        <f>IF(SETTINGS!E12&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E12,$I:$J,2,FALSE),SETTINGS!E12),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F12" s="36" t="str">
+        <f>IF(SETTINGS!F12&lt;&gt;"",SETTINGS!F12,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G12" s="36" t="str">
+        <f>IF(SETTINGS!G12&lt;&gt;"",SETTINGS!G12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="str">
+        <f>IF(SETTINGS!A13&lt;&gt;"",SETTINGS!A13,"")</f>
+        <v>HellP</v>
+      </c>
+      <c r="B13" s="36" t="str">
+        <f>IF(SETTINGS!B13&lt;&gt;"",SETTINGS!B13,"")</f>
+        <v>Hell's Paradise Jigokuraku</v>
+      </c>
+      <c r="C13" s="36" t="str">
+        <f>IF(SETTINGS!C13&lt;&gt;"",SETTINGS!C13,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D13" s="37" t="str">
+        <f>IF(SETTINGS!D13&lt;&gt;"",SETTINGS!D13,"")</f>
+        <v>-</v>
+      </c>
+      <c r="E13" s="36" t="str">
+        <f>IF(SETTINGS!E13&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E13,$I:$J,2,FALSE),SETTINGS!E13),"")</f>
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
+      </c>
+      <c r="F13" s="36" t="str">
+        <f>IF(SETTINGS!F13&lt;&gt;"",SETTINGS!F13,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G13" s="36" t="str">
+        <f>IF(SETTINGS!G13&lt;&gt;"",SETTINGS!G13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="str">
+        <f>IF(SETTINGS!A14&lt;&gt;"",SETTINGS!A14,"")</f>
+        <v>HxH</v>
+      </c>
+      <c r="B14" s="36" t="str">
+        <f>IF(SETTINGS!B14&lt;&gt;"",SETTINGS!B14,"")</f>
+        <v>Hunter X Hunter</v>
+      </c>
+      <c r="C14" s="36">
+        <f>IF(SETTINGS!C14&lt;&gt;"",SETTINGS!C14,"")</f>
+        <v>400</v>
+      </c>
+      <c r="D14" s="37" t="str">
+        <f>IF(SETTINGS!D14&lt;&gt;"",SETTINGS!D14,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E14" s="36" t="str">
+        <f>IF(SETTINGS!E14&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E14,$I:$J,2,FALSE),SETTINGS!E14),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F14" s="36" t="str">
+        <f>IF(SETTINGS!F14&lt;&gt;"",SETTINGS!F14,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G14" s="36" t="str">
+        <f>IF(SETTINGS!G14&lt;&gt;"",SETTINGS!G14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="str">
+        <f>IF(SETTINGS!A15&lt;&gt;"",SETTINGS!A15,"")</f>
+        <v>JJK</v>
+      </c>
+      <c r="B15" s="36" t="str">
+        <f>IF(SETTINGS!B15&lt;&gt;"",SETTINGS!B15,"")</f>
+        <v>Jujutsu Kaisen</v>
+      </c>
+      <c r="C15" s="36">
+        <f>IF(SETTINGS!C15&lt;&gt;"",SETTINGS!C15,"")</f>
+        <v>228</v>
+      </c>
+      <c r="D15" s="37">
+        <f>IF(SETTINGS!D15&lt;&gt;"",SETTINGS!D15,"")</f>
+        <v>45114</v>
+      </c>
+      <c r="E15" s="36" t="str">
+        <f>IF(SETTINGS!E15&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E15,$I:$J,2,FALSE),SETTINGS!E15),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F15" s="36" t="str">
+        <f>IF(SETTINGS!F15&lt;&gt;"",SETTINGS!F15,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G15" s="36" t="str">
+        <f>IF(SETTINGS!G15&lt;&gt;"",SETTINGS!G15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="str">
+        <f>IF(SETTINGS!A16&lt;&gt;"",SETTINGS!A16,"")</f>
+        <v>Jojo1</v>
+      </c>
+      <c r="B16" s="36" t="str">
+        <f>IF(SETTINGS!B16&lt;&gt;"",SETTINGS!B16,"")</f>
+        <v>JoJo’s Bizarre Adventure</v>
+      </c>
+      <c r="C16" s="36" t="str">
+        <f>IF(SETTINGS!C16&lt;&gt;"",SETTINGS!C16,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D16" s="37" t="str">
+        <f>IF(SETTINGS!D16&lt;&gt;"",SETTINGS!D16,"")</f>
+        <v>-</v>
+      </c>
+      <c r="E16" s="36" t="str">
+        <f>IF(SETTINGS!E16&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E16,$I:$J,2,FALSE),SETTINGS!E16),"")</f>
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; Mangaclash&lt;/a&gt;</v>
+      </c>
+      <c r="F16" s="36" t="str">
+        <f>IF(SETTINGS!F16&lt;&gt;"",SETTINGS!F16,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G16" s="36" t="str">
+        <f>IF(SETTINGS!G16&lt;&gt;"",SETTINGS!G16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="str">
+        <f>IF(SETTINGS!A17&lt;&gt;"",SETTINGS!A17,"")</f>
+        <v>Jojo2</v>
+      </c>
+      <c r="B17" s="36" t="str">
+        <f>IF(SETTINGS!B17&lt;&gt;"",SETTINGS!B17,"")</f>
+        <v>JoJo’s Bizarre Adventure</v>
+      </c>
+      <c r="C17" s="36" t="str">
+        <f>IF(SETTINGS!C17&lt;&gt;"",SETTINGS!C17,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D17" s="37" t="str">
+        <f>IF(SETTINGS!D17&lt;&gt;"",SETTINGS!D17,"")</f>
+        <v>-</v>
+      </c>
+      <c r="E17" s="36" t="str">
+        <f>IF(SETTINGS!E17&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E17,$I:$J,2,FALSE),SETTINGS!E17),"")</f>
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; Mangaclash&lt;/a&gt;</v>
+      </c>
+      <c r="F17" s="36" t="str">
+        <f>IF(SETTINGS!F17&lt;&gt;"",SETTINGS!F17,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G17" s="36" t="str">
+        <f>IF(SETTINGS!G17&lt;&gt;"",SETTINGS!G17,"")</f>
+        <v>Rename les couvertures</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="str">
+        <f>IF(SETTINGS!A18&lt;&gt;"",SETTINGS!A18,"")</f>
+        <v>Jojo3</v>
+      </c>
+      <c r="B18" s="36" t="str">
+        <f>IF(SETTINGS!B18&lt;&gt;"",SETTINGS!B18,"")</f>
+        <v>JoJo’s Bizarre Adventure</v>
+      </c>
+      <c r="C18" s="36" t="str">
+        <f>IF(SETTINGS!C18&lt;&gt;"",SETTINGS!C18,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D18" s="37" t="str">
+        <f>IF(SETTINGS!D18&lt;&gt;"",SETTINGS!D18,"")</f>
+        <v>-</v>
+      </c>
+      <c r="E18" s="36" t="str">
+        <f>IF(SETTINGS!E18&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E18,$I:$J,2,FALSE),SETTINGS!E18),"")</f>
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; Mangaclash&lt;/a&gt;</v>
+      </c>
+      <c r="F18" s="36" t="str">
+        <f>IF(SETTINGS!F18&lt;&gt;"",SETTINGS!F18,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G18" s="36" t="str">
+        <f>IF(SETTINGS!G18&lt;&gt;"",SETTINGS!G18,"")</f>
+        <v>Rename les couvertures</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="str">
+        <f>IF(SETTINGS!A19&lt;&gt;"",SETTINGS!A19,"")</f>
+        <v>Jojo4</v>
+      </c>
+      <c r="B19" s="36" t="str">
+        <f>IF(SETTINGS!B19&lt;&gt;"",SETTINGS!B19,"")</f>
+        <v>Jojo’s Bizarre Adventure Part 8 – Jojolion</v>
+      </c>
+      <c r="C19" s="36" t="str">
+        <f>IF(SETTINGS!C19&lt;&gt;"",SETTINGS!C19,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D19" s="37" t="str">
+        <f>IF(SETTINGS!D19&lt;&gt;"",SETTINGS!D19,"")</f>
+        <v>-</v>
+      </c>
+      <c r="E19" s="36" t="str">
+        <f>IF(SETTINGS!E19&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E19,$I:$J,2,FALSE),SETTINGS!E19),"")</f>
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; Mangaclash&lt;/a&gt;</v>
+      </c>
+      <c r="F19" s="36" t="str">
+        <f>IF(SETTINGS!F19&lt;&gt;"",SETTINGS!F19,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G19" s="36" t="str">
+        <f>IF(SETTINGS!G19&lt;&gt;"",SETTINGS!G19,"")</f>
+        <v>Rename les couvertures</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="str">
+        <f>IF(SETTINGS!A20&lt;&gt;"",SETTINGS!A20,"")</f>
+        <v>Kaiju</v>
+      </c>
+      <c r="B20" s="36" t="str">
+        <f>IF(SETTINGS!B20&lt;&gt;"",SETTINGS!B20,"")</f>
+        <v>Kaiju No. 8</v>
+      </c>
+      <c r="C20" s="36" t="str">
+        <f>IF(SETTINGS!C20&lt;&gt;"",SETTINGS!C20,"")</f>
+        <v>-</v>
+      </c>
+      <c r="D20" s="37" t="str">
+        <f>IF(SETTINGS!D20&lt;&gt;"",SETTINGS!D20,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E20" s="36" t="str">
+        <f>IF(SETTINGS!E20&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E20,$I:$J,2,FALSE),SETTINGS!E20),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F20" s="36" t="str">
+        <f>IF(SETTINGS!F20&lt;&gt;"",SETTINGS!F20,"")</f>
+        <v>❌</v>
+      </c>
+      <c r="G20" s="36" t="str">
+        <f>IF(SETTINGS!G20&lt;&gt;"",SETTINGS!G20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="str">
+        <f>IF(SETTINGS!A21&lt;&gt;"",SETTINGS!A21,"")</f>
+        <v>KNB</v>
+      </c>
+      <c r="B21" s="36" t="str">
+        <f>IF(SETTINGS!B21&lt;&gt;"",SETTINGS!B21,"")</f>
+        <v>Kuroko no Basuke</v>
+      </c>
+      <c r="C21" s="36" t="str">
+        <f>IF(SETTINGS!C21&lt;&gt;"",SETTINGS!C21,"")</f>
+        <v>-</v>
+      </c>
+      <c r="D21" s="37" t="str">
+        <f>IF(SETTINGS!D21&lt;&gt;"",SETTINGS!D21,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E21" s="36" t="str">
+        <f>IF(SETTINGS!E21&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E21,$I:$J,2,FALSE),SETTINGS!E21),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F21" s="36" t="str">
+        <f>IF(SETTINGS!F21&lt;&gt;"",SETTINGS!F21,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G21" s="36" t="str">
+        <f>IF(SETTINGS!G21&lt;&gt;"",SETTINGS!G21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="36" t="str">
+        <f>IF(SETTINGS!A22&lt;&gt;"",SETTINGS!A22,"")</f>
+        <v>Mashle</v>
+      </c>
+      <c r="B22" s="36" t="str">
+        <f>IF(SETTINGS!B22&lt;&gt;"",SETTINGS!B22,"")</f>
+        <v>Mashle</v>
+      </c>
+      <c r="C22" s="36">
+        <f>IF(SETTINGS!C22&lt;&gt;"",SETTINGS!C22,"")</f>
+        <v>162</v>
+      </c>
+      <c r="D22" s="37" t="str">
+        <f>IF(SETTINGS!D22&lt;&gt;"",SETTINGS!D22,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E22" s="36" t="str">
+        <f>IF(SETTINGS!E22&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E22,$I:$J,2,FALSE),SETTINGS!E22),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F22" s="36" t="str">
+        <f>IF(SETTINGS!F22&lt;&gt;"",SETTINGS!F22,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G22" s="36" t="str">
+        <f>IF(SETTINGS!G22&lt;&gt;"",SETTINGS!G22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="str">
+        <f>IF(SETTINGS!A23&lt;&gt;"",SETTINGS!A23,"")</f>
+        <v>MHA</v>
+      </c>
+      <c r="B23" s="36" t="str">
+        <f>IF(SETTINGS!B23&lt;&gt;"",SETTINGS!B23,"")</f>
+        <v>Boku no Hero Academia</v>
+      </c>
+      <c r="C23" s="36">
+        <f>IF(SETTINGS!C23&lt;&gt;"",SETTINGS!C23,"")</f>
+        <v>392</v>
+      </c>
+      <c r="D23" s="37" t="str">
+        <f>IF(SETTINGS!D23&lt;&gt;"",SETTINGS!D23,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E23" s="36" t="str">
+        <f>IF(SETTINGS!E23&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E23,$I:$J,2,FALSE),SETTINGS!E23),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F23" s="36" t="str">
+        <f>IF(SETTINGS!F23&lt;&gt;"",SETTINGS!F23,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G23" s="36" t="str">
+        <f>IF(SETTINGS!G23&lt;&gt;"",SETTINGS!G23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="str">
+        <f>IF(SETTINGS!A24&lt;&gt;"",SETTINGS!A24,"")</f>
+        <v>NNTZ</v>
+      </c>
+      <c r="B24" s="36" t="str">
+        <f>IF(SETTINGS!B24&lt;&gt;"",SETTINGS!B24,"")</f>
+        <v>Nanatsu no Taizai</v>
+      </c>
+      <c r="C24" s="36" t="str">
+        <f>IF(SETTINGS!C24&lt;&gt;"",SETTINGS!C24,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D24" s="37" t="str">
+        <f>IF(SETTINGS!D24&lt;&gt;"",SETTINGS!D24,"")</f>
+        <v>-</v>
+      </c>
+      <c r="E24" s="36" t="str">
+        <f>IF(SETTINGS!E24&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E24,$I:$J,2,FALSE),SETTINGS!E24),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F24" s="36" t="str">
+        <f>IF(SETTINGS!F24&lt;&gt;"",SETTINGS!F24,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G24" s="36" t="str">
+        <f>IF(SETTINGS!G24&lt;&gt;"",SETTINGS!G24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="str">
+        <f>IF(SETTINGS!A25&lt;&gt;"",SETTINGS!A25,"")</f>
+        <v>OP</v>
+      </c>
+      <c r="B25" s="36" t="str">
+        <f>IF(SETTINGS!B25&lt;&gt;"",SETTINGS!B25,"")</f>
+        <v>One Piece</v>
+      </c>
+      <c r="C25" s="36">
+        <f>IF(SETTINGS!C25&lt;&gt;"",SETTINGS!C25,"")</f>
+        <v>1080</v>
+      </c>
+      <c r="D25" s="37" t="str">
+        <f>IF(SETTINGS!D25&lt;&gt;"",SETTINGS!D25,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E25" s="36" t="str">
+        <f>IF(SETTINGS!E25&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E25,$I:$J,2,FALSE),SETTINGS!E25),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F25" s="36" t="str">
+        <f>IF(SETTINGS!F25&lt;&gt;"",SETTINGS!F25,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G25" s="36" t="str">
+        <f>IF(SETTINGS!G25&lt;&gt;"",SETTINGS!G25,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="str">
+        <f>IF(SETTINGS!A26&lt;&gt;"",SETTINGS!A26,"")</f>
+        <v>Opman</v>
+      </c>
+      <c r="B26" s="36" t="str">
+        <f>IF(SETTINGS!B26&lt;&gt;"",SETTINGS!B26,"")</f>
+        <v>Onepunch-Man</v>
+      </c>
+      <c r="C26" s="36">
+        <f>IF(SETTINGS!C26&lt;&gt;"",SETTINGS!C26,"")</f>
+        <v>178</v>
+      </c>
+      <c r="D26" s="37" t="str">
+        <f>IF(SETTINGS!D26&lt;&gt;"",SETTINGS!D26,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E26" s="36" t="str">
+        <f>IF(SETTINGS!E26&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E26,$I:$J,2,FALSE),SETTINGS!E26),"")</f>
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
+      </c>
+      <c r="F26" s="36" t="str">
+        <f>IF(SETTINGS!F26&lt;&gt;"",SETTINGS!F26,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G26" s="36" t="str">
+        <f>IF(SETTINGS!G26&lt;&gt;"",SETTINGS!G26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="str">
+        <f>IF(SETTINGS!A27&lt;&gt;"",SETTINGS!A27,"")</f>
+        <v>SakDays</v>
+      </c>
+      <c r="B27" s="36" t="str">
+        <f>IF(SETTINGS!B27&lt;&gt;"",SETTINGS!B27,"")</f>
+        <v>Sakamoto Days</v>
+      </c>
+      <c r="C27" s="36">
+        <f>IF(SETTINGS!C27&lt;&gt;"",SETTINGS!C27,"")</f>
+        <v>125</v>
+      </c>
+      <c r="D27" s="37">
+        <f>IF(SETTINGS!D27&lt;&gt;"",SETTINGS!D27,"")</f>
+        <v>45114</v>
+      </c>
+      <c r="E27" s="36" t="str">
+        <f>IF(SETTINGS!E27&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E27,$I:$J,2,FALSE),SETTINGS!E27),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F27" s="36" t="str">
+        <f>IF(SETTINGS!F27&lt;&gt;"",SETTINGS!F27,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G27" s="36" t="str">
+        <f>IF(SETTINGS!G27&lt;&gt;"",SETTINGS!G27,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="str">
+        <f>IF(SETTINGS!A28&lt;&gt;"",SETTINGS!A28,"")</f>
+        <v>SKR</v>
+      </c>
+      <c r="B28" s="36" t="str">
+        <f>IF(SETTINGS!B28&lt;&gt;"",SETTINGS!B28,"")</f>
+        <v>Sun-ken Rock</v>
+      </c>
+      <c r="C28" s="36" t="str">
+        <f>IF(SETTINGS!C28&lt;&gt;"",SETTINGS!C28,"")</f>
+        <v>-</v>
+      </c>
+      <c r="D28" s="37" t="str">
+        <f>IF(SETTINGS!D28&lt;&gt;"",SETTINGS!D28,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E28" s="36" t="str">
+        <f>IF(SETTINGS!E28&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E28,$I:$J,2,FALSE),SETTINGS!E28),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F28" s="36" t="str">
+        <f>IF(SETTINGS!F28&lt;&gt;"",SETTINGS!F28,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G28" s="36" t="str">
+        <f>IF(SETTINGS!G28&lt;&gt;"",SETTINGS!G28,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="str">
+        <f>IF(SETTINGS!A29&lt;&gt;"",SETTINGS!A29,"")</f>
+        <v>SNK</v>
+      </c>
+      <c r="B29" s="36" t="str">
+        <f>IF(SETTINGS!B29&lt;&gt;"",SETTINGS!B29,"")</f>
+        <v>Shingeki no Kyojin</v>
+      </c>
+      <c r="C29" s="36" t="str">
+        <f>IF(SETTINGS!C29&lt;&gt;"",SETTINGS!C29,"")</f>
+        <v>-</v>
+      </c>
+      <c r="D29" s="37" t="str">
+        <f>IF(SETTINGS!D29&lt;&gt;"",SETTINGS!D29,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E29" s="36" t="str">
+        <f>IF(SETTINGS!E29&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E29,$I:$J,2,FALSE),SETTINGS!E29),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F29" s="36" t="str">
+        <f>IF(SETTINGS!F29&lt;&gt;"",SETTINGS!F29,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G29" s="36" t="str">
+        <f>IF(SETTINGS!G29&lt;&gt;"",SETTINGS!G29,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="str">
+        <f>IF(SETTINGS!A30&lt;&gt;"",SETTINGS!A30,"")</f>
+        <v>SpyF</v>
+      </c>
+      <c r="B30" s="36" t="str">
+        <f>IF(SETTINGS!B30&lt;&gt;"",SETTINGS!B30,"")</f>
+        <v>Spy X Family</v>
+      </c>
+      <c r="C30" s="36">
+        <f>IF(SETTINGS!C30&lt;&gt;"",SETTINGS!C30,"")</f>
+        <v>85</v>
+      </c>
+      <c r="D30" s="37" t="str">
+        <f>IF(SETTINGS!D30&lt;&gt;"",SETTINGS!D30,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E30" s="36" t="str">
+        <f>IF(SETTINGS!E30&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E30,$I:$J,2,FALSE),SETTINGS!E30),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F30" s="36" t="str">
+        <f>IF(SETTINGS!F30&lt;&gt;"",SETTINGS!F30,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G30" s="36" t="str">
+        <f>IF(SETTINGS!G30&lt;&gt;"",SETTINGS!G30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="str">
+        <f>IF(SETTINGS!A31&lt;&gt;"",SETTINGS!A31,"")</f>
+        <v>SSY Lost Canva</v>
+      </c>
+      <c r="B31" s="36" t="str">
+        <f>IF(SETTINGS!B31&lt;&gt;"",SETTINGS!B31,"")</f>
+        <v>Saint Seiya - The Lost Canva</v>
+      </c>
+      <c r="C31" s="36" t="str">
+        <f>IF(SETTINGS!C31&lt;&gt;"",SETTINGS!C31,"")</f>
+        <v>-</v>
+      </c>
+      <c r="D31" s="37" t="str">
+        <f>IF(SETTINGS!D31&lt;&gt;"",SETTINGS!D31,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E31" s="36" t="str">
+        <f>IF(SETTINGS!E31&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E31,$I:$J,2,FALSE),SETTINGS!E31),"")</f>
+        <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; Mangajar&lt;/a&gt;</v>
+      </c>
+      <c r="F31" s="36" t="str">
+        <f>IF(SETTINGS!F31&lt;&gt;"",SETTINGS!F31,"")</f>
+        <v>❌</v>
+      </c>
+      <c r="G31" s="36" t="str">
+        <f>IF(SETTINGS!G31&lt;&gt;"",SETTINGS!G31,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="str">
+        <f>IF(SETTINGS!A32&lt;&gt;"",SETTINGS!A32,"")</f>
+        <v>TK</v>
+      </c>
+      <c r="B32" s="36" t="str">
+        <f>IF(SETTINGS!B32&lt;&gt;"",SETTINGS!B32,"")</f>
+        <v>Tokyo Ghoul</v>
+      </c>
+      <c r="C32" s="36" t="str">
+        <f>IF(SETTINGS!C32&lt;&gt;"",SETTINGS!C32,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D32" s="37" t="str">
+        <f>IF(SETTINGS!D32&lt;&gt;"",SETTINGS!D32,"")</f>
+        <v>-</v>
+      </c>
+      <c r="E32" s="36" t="str">
+        <f>IF(SETTINGS!E32&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E32,$I:$J,2,FALSE),SETTINGS!E32),"")</f>
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
+      </c>
+      <c r="F32" s="36" t="str">
+        <f>IF(SETTINGS!F32&lt;&gt;"",SETTINGS!F32,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G32" s="36" t="str">
+        <f>IF(SETTINGS!G32&lt;&gt;"",SETTINGS!G32,"")</f>
+        <v>renomer 2 derniers chapt</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="36" t="str">
+        <f>IF(SETTINGS!A33&lt;&gt;"",SETTINGS!A33,"")</f>
+        <v>TKre</v>
+      </c>
+      <c r="B33" s="36" t="str">
+        <f>IF(SETTINGS!B33&lt;&gt;"",SETTINGS!B33,"")</f>
+        <v>Tokyo Ghoulre</v>
+      </c>
+      <c r="C33" s="36" t="str">
+        <f>IF(SETTINGS!C33&lt;&gt;"",SETTINGS!C33,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D33" s="37" t="str">
+        <f>IF(SETTINGS!D33&lt;&gt;"",SETTINGS!D33,"")</f>
+        <v>-</v>
+      </c>
+      <c r="E33" s="36" t="str">
+        <f>IF(SETTINGS!E33&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E33,$I:$J,2,FALSE),SETTINGS!E33),"")</f>
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
+      </c>
+      <c r="F33" s="36" t="str">
+        <f>IF(SETTINGS!F33&lt;&gt;"",SETTINGS!F33,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G33" s="36" t="str">
+        <f>IF(SETTINGS!G33&lt;&gt;"",SETTINGS!G33,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="str">
+        <f>IF(SETTINGS!A34&lt;&gt;"",SETTINGS!A34,"")</f>
+        <v>Vagabond</v>
+      </c>
+      <c r="B34" s="36" t="str">
+        <f>IF(SETTINGS!B34&lt;&gt;"",SETTINGS!B34,"")</f>
+        <v>Vagabond</v>
+      </c>
+      <c r="C34" s="36" t="str">
+        <f>IF(SETTINGS!C34&lt;&gt;"",SETTINGS!C34,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D34" s="37" t="str">
+        <f>IF(SETTINGS!D34&lt;&gt;"",SETTINGS!D34,"")</f>
+        <v>-</v>
+      </c>
+      <c r="E34" s="36" t="str">
+        <f>IF(SETTINGS!E34&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E34,$I:$J,2,FALSE),SETTINGS!E34),"")</f>
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
+      </c>
+      <c r="F34" s="36" t="str">
+        <f>IF(SETTINGS!F34&lt;&gt;"",SETTINGS!F34,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G34" s="36" t="str">
+        <f>IF(SETTINGS!G34&lt;&gt;"",SETTINGS!G34,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="36" t="str">
+        <f>IF(SETTINGS!A35&lt;&gt;"",SETTINGS!A35,"")</f>
+        <v>Vinland</v>
+      </c>
+      <c r="B35" s="36" t="str">
+        <f>IF(SETTINGS!B35&lt;&gt;"",SETTINGS!B35,"")</f>
+        <v>Vinland Saga</v>
+      </c>
+      <c r="C35" s="36" t="str">
+        <f>IF(SETTINGS!C35&lt;&gt;"",SETTINGS!C35,"")</f>
+        <v>-</v>
+      </c>
+      <c r="D35" s="37" t="str">
+        <f>IF(SETTINGS!D35&lt;&gt;"",SETTINGS!D35,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E35" s="36" t="str">
+        <f>IF(SETTINGS!E35&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E35,$I:$J,2,FALSE),SETTINGS!E35),"")</f>
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
+      </c>
+      <c r="F35" s="36" t="str">
+        <f>IF(SETTINGS!F35&lt;&gt;"",SETTINGS!F35,"")</f>
+        <v>❌</v>
+      </c>
+      <c r="G35" s="36" t="str">
+        <f>IF(SETTINGS!G35&lt;&gt;"",SETTINGS!G35,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="36" t="str">
+        <f>IF(SETTINGS!A36&lt;&gt;"",SETTINGS!A36,"")</f>
+        <v>YuGiOh</v>
+      </c>
+      <c r="B36" s="36" t="str">
+        <f>IF(SETTINGS!B36&lt;&gt;"",SETTINGS!B36,"")</f>
+        <v>Yu-Gi-Oh ! – Edition Double</v>
+      </c>
+      <c r="C36" s="36" t="str">
+        <f>IF(SETTINGS!C36&lt;&gt;"",SETTINGS!C36,"")</f>
+        <v>-</v>
+      </c>
+      <c r="D36" s="37" t="str">
+        <f>IF(SETTINGS!D36&lt;&gt;"",SETTINGS!D36,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E36" s="36" t="str">
+        <f>IF(SETTINGS!E36&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E36,$I:$J,2,FALSE),SETTINGS!E36),"")</f>
+        <v>Sushi scans</v>
+      </c>
+      <c r="F36" s="36" t="str">
+        <f>IF(SETTINGS!F36&lt;&gt;"",SETTINGS!F36,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G36" s="36" t="str">
+        <f>IF(SETTINGS!G36&lt;&gt;"",SETTINGS!G36,"")</f>
+        <v>Directement convertir en kindle</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="36" t="str">
+        <f>IF(SETTINGS!A37&lt;&gt;"",SETTINGS!A37,"")</f>
+        <v>Mob100</v>
+      </c>
+      <c r="B37" s="36" t="str">
+        <f>IF(SETTINGS!B37&lt;&gt;"",SETTINGS!B37,"")</f>
+        <v>Mob Psycho 100</v>
+      </c>
+      <c r="C37" s="36" t="str">
+        <f>IF(SETTINGS!C37&lt;&gt;"",SETTINGS!C37,"")</f>
+        <v>-</v>
+      </c>
+      <c r="D37" s="37" t="str">
+        <f>IF(SETTINGS!D37&lt;&gt;"",SETTINGS!D37,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E37" s="36" t="str">
+        <f>IF(SETTINGS!E37&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E37,$I:$J,2,FALSE),SETTINGS!E37),"")</f>
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
+      </c>
+      <c r="F37" s="36" t="str">
+        <f>IF(SETTINGS!F37&lt;&gt;"",SETTINGS!F37,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G37" s="36" t="str">
+        <f>IF(SETTINGS!G37&lt;&gt;"",SETTINGS!G37,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="36" t="str">
+        <f>IF(SETTINGS!A38&lt;&gt;"",SETTINGS!A38,"")</f>
+        <v>Tablier</v>
+      </c>
+      <c r="B38" s="36" t="str">
+        <f>IF(SETTINGS!B38&lt;&gt;"",SETTINGS!B38,"")</f>
+        <v>Gokushufudou The Way of the House Husband</v>
+      </c>
+      <c r="C38" s="36" t="str">
+        <f>IF(SETTINGS!C38&lt;&gt;"",SETTINGS!C38,"")</f>
+        <v>-</v>
+      </c>
+      <c r="D38" s="37" t="str">
+        <f>IF(SETTINGS!D38&lt;&gt;"",SETTINGS!D38,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E38" s="36" t="str">
+        <f>IF(SETTINGS!E38&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E38,$I:$J,2,FALSE),SETTINGS!E38),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F38" s="36" t="str">
+        <f>IF(SETTINGS!F38&lt;&gt;"",SETTINGS!F38,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G38" s="36" t="str">
+        <f>IF(SETTINGS!G38&lt;&gt;"",SETTINGS!G38,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="36" t="str">
+        <f>IF(SETTINGS!A39&lt;&gt;"",SETTINGS!A39,"")</f>
+        <v>Kingdom</v>
+      </c>
+      <c r="B39" s="36" t="str">
+        <f>IF(SETTINGS!B39&lt;&gt;"",SETTINGS!B39,"")</f>
+        <v/>
+      </c>
+      <c r="C39" s="36" t="str">
+        <f>IF(SETTINGS!C39&lt;&gt;"",SETTINGS!C39,"")</f>
+        <v>-</v>
+      </c>
+      <c r="D39" s="37" t="str">
+        <f>IF(SETTINGS!D39&lt;&gt;"",SETTINGS!D39,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E39" s="36" t="str">
+        <f>IF(SETTINGS!E39&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E39,$I:$J,2,FALSE),SETTINGS!E39),"")</f>
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; Mangaclash&lt;/a&gt;</v>
+      </c>
+      <c r="F39" s="36" t="str">
+        <f>IF(SETTINGS!F39&lt;&gt;"",SETTINGS!F39,"")</f>
+        <v>❌</v>
+      </c>
+      <c r="G39" s="36" t="str">
+        <f>IF(SETTINGS!G39&lt;&gt;"",SETTINGS!G39,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="36" t="str">
+        <f>IF(SETTINGS!A40&lt;&gt;"",SETTINGS!A40,"")</f>
+        <v>Naruto</v>
+      </c>
+      <c r="B40" s="36" t="str">
+        <f>IF(SETTINGS!B40&lt;&gt;"",SETTINGS!B40,"")</f>
+        <v>Naruto</v>
+      </c>
+      <c r="C40" s="36" t="str">
+        <f>IF(SETTINGS!C40&lt;&gt;"",SETTINGS!C40,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D40" s="37" t="str">
+        <f>IF(SETTINGS!D40&lt;&gt;"",SETTINGS!D40,"")</f>
+        <v>-</v>
+      </c>
+      <c r="E40" s="36" t="str">
+        <f>IF(SETTINGS!E40&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E40,$I:$J,2,FALSE),SETTINGS!E40),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F40" s="36" t="str">
+        <f>IF(SETTINGS!F40&lt;&gt;"",SETTINGS!F40,"")</f>
+        <v>❌</v>
+      </c>
+      <c r="G40" s="36" t="str">
+        <f>IF(SETTINGS!G40&lt;&gt;"",SETTINGS!G40,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="36" t="str">
+        <f>IF(SETTINGS!A41&lt;&gt;"",SETTINGS!A41,"")</f>
+        <v>FireForce</v>
+      </c>
+      <c r="B41" s="36" t="str">
+        <f>IF(SETTINGS!B41&lt;&gt;"",SETTINGS!B41,"")</f>
+        <v>Enen no Shouboutai</v>
+      </c>
+      <c r="C41" s="36" t="str">
+        <f>IF(SETTINGS!C41&lt;&gt;"",SETTINGS!C41,"")</f>
+        <v>-</v>
+      </c>
+      <c r="D41" s="37" t="str">
+        <f>IF(SETTINGS!D41&lt;&gt;"",SETTINGS!D41,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E41" s="36" t="str">
+        <f>IF(SETTINGS!E41&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E41,$I:$J,2,FALSE),SETTINGS!E41),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F41" s="36" t="str">
+        <f>IF(SETTINGS!F41&lt;&gt;"",SETTINGS!F41,"")</f>
+        <v>❌</v>
+      </c>
+      <c r="G41" s="36" t="str">
+        <f>IF(SETTINGS!G41&lt;&gt;"",SETTINGS!G41,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="36" t="str">
+        <f>IF(SETTINGS!A42&lt;&gt;"",SETTINGS!A42,"")</f>
+        <v>Immortal</v>
+      </c>
+      <c r="B42" s="36" t="str">
+        <f>IF(SETTINGS!B42&lt;&gt;"",SETTINGS!B42,"")</f>
+        <v>Blade of the Immortal</v>
+      </c>
+      <c r="C42" s="36" t="str">
+        <f>IF(SETTINGS!C42&lt;&gt;"",SETTINGS!C42,"")</f>
+        <v>-</v>
+      </c>
+      <c r="D42" s="37" t="str">
+        <f>IF(SETTINGS!D42&lt;&gt;"",SETTINGS!D42,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E42" s="36" t="str">
+        <f>IF(SETTINGS!E42&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E42,$I:$J,2,FALSE),SETTINGS!E42),"")</f>
+        <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; Mangajar&lt;/a&gt;</v>
+      </c>
+      <c r="F42" s="36" t="str">
+        <f>IF(SETTINGS!F42&lt;&gt;"",SETTINGS!F42,"")</f>
+        <v>✅</v>
+      </c>
+      <c r="G42" s="36" t="str">
+        <f>IF(SETTINGS!G42&lt;&gt;"",SETTINGS!G42,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="36" t="str">
+        <f>IF(SETTINGS!A43&lt;&gt;"",SETTINGS!A43,"")</f>
+        <v>Monster</v>
+      </c>
+      <c r="B43" s="36" t="str">
+        <f>IF(SETTINGS!B43&lt;&gt;"",SETTINGS!B43,"")</f>
+        <v/>
+      </c>
+      <c r="C43" s="36" t="str">
+        <f>IF(SETTINGS!C43&lt;&gt;"",SETTINGS!C43,"")</f>
+        <v>-</v>
+      </c>
+      <c r="D43" s="37" t="str">
+        <f>IF(SETTINGS!D43&lt;&gt;"",SETTINGS!D43,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E43" s="36" t="str">
+        <f>IF(SETTINGS!E43&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E43,$I:$J,2,FALSE),SETTINGS!E43),"")</f>
+        <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; Mangajar&lt;/a&gt;</v>
+      </c>
+      <c r="F43" s="36" t="str">
+        <f>IF(SETTINGS!F43&lt;&gt;"",SETTINGS!F43,"")</f>
+        <v>❌</v>
+      </c>
+      <c r="G43" s="36" t="str">
+        <f>IF(SETTINGS!G43&lt;&gt;"",SETTINGS!G43,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="36" t="str">
+        <f>IF(SETTINGS!A44&lt;&gt;"",SETTINGS!A44,"")</f>
+        <v>FMB</v>
+      </c>
+      <c r="B44" s="36" t="str">
+        <f>IF(SETTINGS!B44&lt;&gt;"",SETTINGS!B44,"")</f>
+        <v/>
+      </c>
+      <c r="C44" s="36" t="str">
+        <f>IF(SETTINGS!C44&lt;&gt;"",SETTINGS!C44,"")</f>
+        <v>-</v>
+      </c>
+      <c r="D44" s="37" t="str">
+        <f>IF(SETTINGS!D44&lt;&gt;"",SETTINGS!D44,"")</f>
+        <v>*</v>
+      </c>
+      <c r="E44" s="36" t="str">
+        <f>IF(SETTINGS!E44&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E44,$I:$J,2,FALSE),SETTINGS!E44),"")</f>
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
+      </c>
+      <c r="F44" s="36" t="str">
+        <f>IF(SETTINGS!F44&lt;&gt;"",SETTINGS!F44,"")</f>
+        <v>❌</v>
+      </c>
+      <c r="G44" s="36" t="str">
+        <f>IF(SETTINGS!G44&lt;&gt;"",SETTINGS!G44,"")</f>
+        <v>Rename 108.6 et 108.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="36" t="str">
+        <f>IF(SETTINGS!A45&lt;&gt;"",SETTINGS!A45,"")</f>
+        <v>BlueL</v>
+      </c>
+      <c r="B45" s="36" t="str">
+        <f>IF(SETTINGS!B45&lt;&gt;"",SETTINGS!B45,"")</f>
+        <v>Blue Lock</v>
+      </c>
+      <c r="C45" s="36" t="str">
+        <f>IF(SETTINGS!C45&lt;&gt;"",SETTINGS!C45,"")</f>
+        <v>-</v>
+      </c>
+      <c r="D45" s="37">
+        <f>IF(SETTINGS!D45&lt;&gt;"",SETTINGS!D45,"")</f>
+        <v>45114</v>
+      </c>
+      <c r="E45" s="36" t="str">
+        <f>IF(SETTINGS!E45&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E45,$I:$J,2,FALSE),SETTINGS!E45),"")</f>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
+      </c>
+      <c r="F45" s="36" t="str">
+        <f>IF(SETTINGS!F45&lt;&gt;"",SETTINGS!F45,"")</f>
+        <v>❌</v>
+      </c>
+      <c r="G45" s="36" t="str">
+        <f>IF(SETTINGS!G45&lt;&gt;"",SETTINGS!G45,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="36" t="str">
+        <f>IF(SETTINGS!A46&lt;&gt;"",SETTINGS!A46,"")</f>
+        <v/>
+      </c>
+      <c r="B46" s="36" t="str">
+        <f>IF(SETTINGS!B46&lt;&gt;"",SETTINGS!B46,"")</f>
+        <v/>
+      </c>
+      <c r="C46" s="36" t="str">
+        <f>IF(SETTINGS!C46&lt;&gt;"",SETTINGS!C46,"")</f>
+        <v/>
+      </c>
+      <c r="D46" s="37" t="str">
+        <f>IF(SETTINGS!D46&lt;&gt;"",SETTINGS!D46,"")</f>
+        <v/>
+      </c>
+      <c r="E46" s="36" t="str">
+        <f>IF(SETTINGS!E46&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E46,$I:$J,2,FALSE),SETTINGS!E46),"")</f>
+        <v/>
+      </c>
+      <c r="F46" s="36" t="str">
+        <f>IF(SETTINGS!F46&lt;&gt;"",SETTINGS!F46,"")</f>
+        <v/>
+      </c>
+      <c r="G46" s="36" t="str">
+        <f>IF(SETTINGS!G46&lt;&gt;"",SETTINGS!G46,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="36" t="str">
+        <f>IF(SETTINGS!A47&lt;&gt;"",SETTINGS!A47,"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="36" t="str">
+        <f>IF(SETTINGS!B47&lt;&gt;"",SETTINGS!B47,"")</f>
+        <v/>
+      </c>
+      <c r="C47" s="36" t="str">
+        <f>IF(SETTINGS!C47&lt;&gt;"",SETTINGS!C47,"")</f>
+        <v/>
+      </c>
+      <c r="D47" s="37" t="str">
+        <f>IF(SETTINGS!D47&lt;&gt;"",SETTINGS!D47,"")</f>
+        <v/>
+      </c>
+      <c r="E47" s="36" t="str">
+        <f>IF(SETTINGS!E47&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E47,$I:$J,2,FALSE),SETTINGS!E47),"")</f>
+        <v/>
+      </c>
+      <c r="F47" s="36" t="str">
+        <f>IF(SETTINGS!F47&lt;&gt;"",SETTINGS!F47,"")</f>
+        <v/>
+      </c>
+      <c r="G47" s="36" t="str">
+        <f>IF(SETTINGS!G47&lt;&gt;"",SETTINGS!G47,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/origin.xlsx
+++ b/origin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git_proj/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E568D8-81E9-5748-8D01-C9EFBDC622D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AF3577-5536-ED4F-B891-4C1DD1596942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{22BEBE4E-E124-3B4E-B4CF-095D22C75C46}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="3" xr2:uid="{22BEBE4E-E124-3B4E-B4CF-095D22C75C46}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTINGS" sheetId="1" r:id="rId1"/>
@@ -686,22 +686,22 @@
     <t>nb vol</t>
   </si>
   <si>
-    <t>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Mangafoxfull</t>
   </si>
   <si>
-    <t>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; Mangaclash&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; Mangajar&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://mangafoxfull.com/manga/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangafoxfull.com/manga/"&gt; MangaFoxFull&lt;/a&gt;</t>
+    <t>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; MJ&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://mangafoxfull.com/manga/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangafoxfull.com/manga/"&gt; MFF&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -930,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1025,10 +1025,7 @@
     <xf numFmtId="14" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1396,7 +1393,7 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -19998,8 +19995,8 @@
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20010,8 +20007,8 @@
     <col min="4" max="4" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.6640625" style="15" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="130.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="130.5" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -20045,1411 +20042,1411 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="str">
+      <c r="A2" s="15" t="str">
         <f>IF(SETTINGS!A2&lt;&gt;"",SETTINGS!A2,"")</f>
         <v>20thCB</v>
       </c>
-      <c r="B2" s="36" t="str">
+      <c r="B2" s="15" t="str">
         <f>IF(SETTINGS!B2&lt;&gt;"",SETTINGS!B2,"")</f>
         <v>20th Century Boys</v>
       </c>
-      <c r="C2" s="36" t="str">
+      <c r="C2" s="15" t="str">
         <f>IF(SETTINGS!C2&lt;&gt;"",SETTINGS!C2,"")</f>
         <v>F</v>
       </c>
-      <c r="D2" s="37" t="str">
+      <c r="D2" s="36" t="str">
         <f>IF(SETTINGS!D2&lt;&gt;"",SETTINGS!D2,"")</f>
         <v>-</v>
       </c>
-      <c r="E2" s="36" t="str">
+      <c r="E2" s="15" t="str">
         <f>IF(SETTINGS!E2&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E2,$I:$J,2,FALSE),SETTINGS!E2),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F2" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F2" s="15" t="str">
         <f>IF(SETTINGS!F2&lt;&gt;"",SETTINGS!F2,"")</f>
         <v>✅</v>
       </c>
-      <c r="G2" s="36" t="str">
+      <c r="G2" s="15" t="str">
         <f>IF(SETTINGS!G2&lt;&gt;"",SETTINGS!G2,"")</f>
         <v/>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="J2" s="39" t="s">
-        <v>214</v>
+      <c r="J2" s="38" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="str">
+      <c r="A3" s="15" t="str">
         <f>IF(SETTINGS!A3&lt;&gt;"",SETTINGS!A3,"")</f>
         <v>BCL</v>
       </c>
-      <c r="B3" s="36" t="str">
+      <c r="B3" s="15" t="str">
         <f>IF(SETTINGS!B3&lt;&gt;"",SETTINGS!B3,"")</f>
         <v>Black Clover</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="15">
         <f>IF(SETTINGS!C3&lt;&gt;"",SETTINGS!C3,"")</f>
         <v>365</v>
       </c>
-      <c r="D3" s="37" t="str">
+      <c r="D3" s="36" t="str">
         <f>IF(SETTINGS!D3&lt;&gt;"",SETTINGS!D3,"")</f>
         <v>*</v>
       </c>
-      <c r="E3" s="36" t="str">
+      <c r="E3" s="15" t="str">
         <f>IF(SETTINGS!E3&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E3,$I:$J,2,FALSE),SETTINGS!E3),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F3" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F3" s="15" t="str">
         <f>IF(SETTINGS!F3&lt;&gt;"",SETTINGS!F3,"")</f>
         <v>✅</v>
       </c>
-      <c r="G3" s="36" t="str">
+      <c r="G3" s="15" t="str">
         <f>IF(SETTINGS!G3&lt;&gt;"",SETTINGS!G3,"")</f>
         <v/>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="J3" s="39" t="s">
-        <v>216</v>
+      <c r="J3" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="str">
+      <c r="A4" s="15" t="str">
         <f>IF(SETTINGS!A4&lt;&gt;"",SETTINGS!A4,"")</f>
         <v>Bleach</v>
       </c>
-      <c r="B4" s="36" t="str">
+      <c r="B4" s="15" t="str">
         <f>IF(SETTINGS!B4&lt;&gt;"",SETTINGS!B4,"")</f>
         <v>Bleach</v>
       </c>
-      <c r="C4" s="36" t="str">
+      <c r="C4" s="15" t="str">
         <f>IF(SETTINGS!C4&lt;&gt;"",SETTINGS!C4,"")</f>
         <v>F</v>
       </c>
-      <c r="D4" s="37" t="str">
+      <c r="D4" s="36" t="str">
         <f>IF(SETTINGS!D4&lt;&gt;"",SETTINGS!D4,"")</f>
         <v>-</v>
       </c>
-      <c r="E4" s="36" t="str">
+      <c r="E4" s="15" t="str">
         <f>IF(SETTINGS!E4&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E4,$I:$J,2,FALSE),SETTINGS!E4),"")</f>
-        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
-      </c>
-      <c r="F4" s="36" t="str">
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
+      </c>
+      <c r="F4" s="15" t="str">
         <f>IF(SETTINGS!F4&lt;&gt;"",SETTINGS!F4,"")</f>
         <v>✅</v>
       </c>
-      <c r="G4" s="36" t="str">
+      <c r="G4" s="15" t="str">
         <f>IF(SETTINGS!G4&lt;&gt;"",SETTINGS!G4,"")</f>
         <v/>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="str">
+      <c r="A5" s="15" t="str">
         <f>IF(SETTINGS!A5&lt;&gt;"",SETTINGS!A5,"")</f>
         <v>Chainsaw</v>
       </c>
-      <c r="B5" s="36" t="str">
+      <c r="B5" s="15" t="str">
         <f>IF(SETTINGS!B5&lt;&gt;"",SETTINGS!B5,"")</f>
         <v>Chainsaw Man</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="15">
         <f>IF(SETTINGS!C5&lt;&gt;"",SETTINGS!C5,"")</f>
         <v>119</v>
       </c>
-      <c r="D5" s="37" t="str">
+      <c r="D5" s="36" t="str">
         <f>IF(SETTINGS!D5&lt;&gt;"",SETTINGS!D5,"")</f>
         <v>*</v>
       </c>
-      <c r="E5" s="36" t="str">
+      <c r="E5" s="15" t="str">
         <f>IF(SETTINGS!E5&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E5,$I:$J,2,FALSE),SETTINGS!E5),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F5" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F5" s="15" t="str">
         <f>IF(SETTINGS!F5&lt;&gt;"",SETTINGS!F5,"")</f>
         <v>✅</v>
       </c>
-      <c r="G5" s="36" t="str">
+      <c r="G5" s="15" t="str">
         <f>IF(SETTINGS!G5&lt;&gt;"",SETTINGS!G5,"")</f>
         <v/>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="38" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="str">
+      <c r="A6" s="15" t="str">
         <f>IF(SETTINGS!A6&lt;&gt;"",SETTINGS!A6,"")</f>
         <v>CJX</v>
       </c>
-      <c r="B6" s="36" t="str">
+      <c r="B6" s="15" t="str">
         <f>IF(SETTINGS!B6&lt;&gt;"",SETTINGS!B6,"")</f>
         <v>Choujin X</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="15">
         <f>IF(SETTINGS!C6&lt;&gt;"",SETTINGS!C6,"")</f>
         <v>40</v>
       </c>
-      <c r="D6" s="37" t="str">
+      <c r="D6" s="36" t="str">
         <f>IF(SETTINGS!D6&lt;&gt;"",SETTINGS!D6,"")</f>
         <v>*</v>
       </c>
-      <c r="E6" s="36" t="str">
+      <c r="E6" s="15" t="str">
         <f>IF(SETTINGS!E6&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E6,$I:$J,2,FALSE),SETTINGS!E6),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F6" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F6" s="15" t="str">
         <f>IF(SETTINGS!F6&lt;&gt;"",SETTINGS!F6,"")</f>
         <v>✅</v>
       </c>
-      <c r="G6" s="36" t="str">
+      <c r="G6" s="15" t="str">
         <f>IF(SETTINGS!G6&lt;&gt;"",SETTINGS!G6,"")</f>
         <v/>
       </c>
-      <c r="I6" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="J6" s="39" t="s">
+      <c r="I6" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="J6" s="38" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="str">
+      <c r="A7" s="15" t="str">
         <f>IF(SETTINGS!A7&lt;&gt;"",SETTINGS!A7,"")</f>
         <v>Conan</v>
       </c>
-      <c r="B7" s="36" t="str">
+      <c r="B7" s="15" t="str">
         <f>IF(SETTINGS!B7&lt;&gt;"",SETTINGS!B7,"")</f>
         <v>Detective Conan</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="15">
         <f>IF(SETTINGS!C7&lt;&gt;"",SETTINGS!C7,"")</f>
         <v>1115</v>
       </c>
-      <c r="D7" s="37" t="str">
+      <c r="D7" s="36" t="str">
         <f>IF(SETTINGS!D7&lt;&gt;"",SETTINGS!D7,"")</f>
         <v>*</v>
       </c>
-      <c r="E7" s="36" t="str">
+      <c r="E7" s="15" t="str">
         <f>IF(SETTINGS!E7&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E7,$I:$J,2,FALSE),SETTINGS!E7),"")</f>
-        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
-      </c>
-      <c r="F7" s="36" t="str">
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
+      </c>
+      <c r="F7" s="15" t="str">
         <f>IF(SETTINGS!F7&lt;&gt;"",SETTINGS!F7,"")</f>
         <v>✅</v>
       </c>
-      <c r="G7" s="36" t="str">
+      <c r="G7" s="15" t="str">
         <f>IF(SETTINGS!G7&lt;&gt;"",SETTINGS!G7,"")</f>
         <v>Vol.3 End Of Volume Bonus Page</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="str">
+      <c r="A8" s="15" t="str">
         <f>IF(SETTINGS!A8&lt;&gt;"",SETTINGS!A8,"")</f>
         <v>DB</v>
       </c>
-      <c r="B8" s="36" t="str">
+      <c r="B8" s="15" t="str">
         <f>IF(SETTINGS!B8&lt;&gt;"",SETTINGS!B8,"")</f>
         <v>Dragon Ball</v>
       </c>
-      <c r="C8" s="36" t="str">
+      <c r="C8" s="15" t="str">
         <f>IF(SETTINGS!C8&lt;&gt;"",SETTINGS!C8,"")</f>
         <v>F</v>
       </c>
-      <c r="D8" s="37" t="str">
+      <c r="D8" s="36" t="str">
         <f>IF(SETTINGS!D8&lt;&gt;"",SETTINGS!D8,"")</f>
         <v>-</v>
       </c>
-      <c r="E8" s="36" t="str">
+      <c r="E8" s="15" t="str">
         <f>IF(SETTINGS!E8&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E8,$I:$J,2,FALSE),SETTINGS!E8),"")</f>
-        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; Mangaclash&lt;/a&gt;</v>
-      </c>
-      <c r="F8" s="36" t="str">
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
+      </c>
+      <c r="F8" s="15" t="str">
         <f>IF(SETTINGS!F8&lt;&gt;"",SETTINGS!F8,"")</f>
         <v>✅</v>
       </c>
-      <c r="G8" s="36" t="str">
+      <c r="G8" s="15" t="str">
         <f>IF(SETTINGS!G8&lt;&gt;"",SETTINGS!G8,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="str">
+      <c r="A9" s="15" t="str">
         <f>IF(SETTINGS!A9&lt;&gt;"",SETTINGS!A9,"")</f>
         <v>DBSuper</v>
       </c>
-      <c r="B9" s="36" t="str">
+      <c r="B9" s="15" t="str">
         <f>IF(SETTINGS!B9&lt;&gt;"",SETTINGS!B9,"")</f>
         <v>Dragon Ball Super</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="15">
         <f>IF(SETTINGS!C9&lt;&gt;"",SETTINGS!C9,"")</f>
         <v>89</v>
       </c>
-      <c r="D9" s="37" t="str">
+      <c r="D9" s="36" t="str">
         <f>IF(SETTINGS!D9&lt;&gt;"",SETTINGS!D9,"")</f>
         <v>*</v>
       </c>
-      <c r="E9" s="36" t="str">
+      <c r="E9" s="15" t="str">
         <f>IF(SETTINGS!E9&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E9,$I:$J,2,FALSE),SETTINGS!E9),"")</f>
-        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; Mangaclash&lt;/a&gt;</v>
-      </c>
-      <c r="F9" s="36" t="str">
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
+      </c>
+      <c r="F9" s="15" t="str">
         <f>IF(SETTINGS!F9&lt;&gt;"",SETTINGS!F9,"")</f>
         <v>✅</v>
       </c>
-      <c r="G9" s="36" t="str">
+      <c r="G9" s="15" t="str">
         <f>IF(SETTINGS!G9&lt;&gt;"",SETTINGS!G9,"")</f>
         <v>Chapitre 34 image corrompue à delete</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="str">
+      <c r="A10" s="15" t="str">
         <f>IF(SETTINGS!A10&lt;&gt;"",SETTINGS!A10,"")</f>
         <v>Gamaran</v>
       </c>
-      <c r="B10" s="36" t="str">
+      <c r="B10" s="15" t="str">
         <f>IF(SETTINGS!B10&lt;&gt;"",SETTINGS!B10,"")</f>
         <v>Gamaran</v>
       </c>
-      <c r="C10" s="36" t="str">
+      <c r="C10" s="15" t="str">
         <f>IF(SETTINGS!C10&lt;&gt;"",SETTINGS!C10,"")</f>
         <v>F</v>
       </c>
-      <c r="D10" s="37" t="str">
+      <c r="D10" s="36" t="str">
         <f>IF(SETTINGS!D10&lt;&gt;"",SETTINGS!D10,"")</f>
         <v>-</v>
       </c>
-      <c r="E10" s="36" t="str">
+      <c r="E10" s="15" t="str">
         <f>IF(SETTINGS!E10&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E10,$I:$J,2,FALSE),SETTINGS!E10),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F10" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F10" s="15" t="str">
         <f>IF(SETTINGS!F10&lt;&gt;"",SETTINGS!F10,"")</f>
         <v>❌</v>
       </c>
-      <c r="G10" s="36" t="str">
+      <c r="G10" s="15" t="str">
         <f>IF(SETTINGS!G10&lt;&gt;"",SETTINGS!G10,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="str">
+      <c r="A11" s="15" t="str">
         <f>IF(SETTINGS!A11&lt;&gt;"",SETTINGS!A11,"")</f>
         <v>Gintama</v>
       </c>
-      <c r="B11" s="36" t="str">
+      <c r="B11" s="15" t="str">
         <f>IF(SETTINGS!B11&lt;&gt;"",SETTINGS!B11,"")</f>
         <v>Gintama</v>
       </c>
-      <c r="C11" s="36" t="str">
+      <c r="C11" s="15" t="str">
         <f>IF(SETTINGS!C11&lt;&gt;"",SETTINGS!C11,"")</f>
         <v>F</v>
       </c>
-      <c r="D11" s="37" t="str">
+      <c r="D11" s="36" t="str">
         <f>IF(SETTINGS!D11&lt;&gt;"",SETTINGS!D11,"")</f>
         <v>-</v>
       </c>
-      <c r="E11" s="36" t="str">
+      <c r="E11" s="15" t="str">
         <f>IF(SETTINGS!E11&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E11,$I:$J,2,FALSE),SETTINGS!E11),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F11" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F11" s="15" t="str">
         <f>IF(SETTINGS!F11&lt;&gt;"",SETTINGS!F11,"")</f>
         <v>✅</v>
       </c>
-      <c r="G11" s="36" t="str">
+      <c r="G11" s="15" t="str">
         <f>IF(SETTINGS!G11&lt;&gt;"",SETTINGS!G11,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="str">
+      <c r="A12" s="15" t="str">
         <f>IF(SETTINGS!A12&lt;&gt;"",SETTINGS!A12,"")</f>
         <v>GTO</v>
       </c>
-      <c r="B12" s="36" t="str">
+      <c r="B12" s="15" t="str">
         <f>IF(SETTINGS!B12&lt;&gt;"",SETTINGS!B12,"")</f>
         <v>GTO</v>
       </c>
-      <c r="C12" s="36" t="str">
+      <c r="C12" s="15" t="str">
         <f>IF(SETTINGS!C12&lt;&gt;"",SETTINGS!C12,"")</f>
         <v>F</v>
       </c>
-      <c r="D12" s="37" t="str">
+      <c r="D12" s="36" t="str">
         <f>IF(SETTINGS!D12&lt;&gt;"",SETTINGS!D12,"")</f>
         <v>-</v>
       </c>
-      <c r="E12" s="36" t="str">
+      <c r="E12" s="15" t="str">
         <f>IF(SETTINGS!E12&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E12,$I:$J,2,FALSE),SETTINGS!E12),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F12" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F12" s="15" t="str">
         <f>IF(SETTINGS!F12&lt;&gt;"",SETTINGS!F12,"")</f>
         <v>✅</v>
       </c>
-      <c r="G12" s="36" t="str">
+      <c r="G12" s="15" t="str">
         <f>IF(SETTINGS!G12&lt;&gt;"",SETTINGS!G12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="str">
+      <c r="A13" s="15" t="str">
         <f>IF(SETTINGS!A13&lt;&gt;"",SETTINGS!A13,"")</f>
         <v>HellP</v>
       </c>
-      <c r="B13" s="36" t="str">
+      <c r="B13" s="15" t="str">
         <f>IF(SETTINGS!B13&lt;&gt;"",SETTINGS!B13,"")</f>
         <v>Hell's Paradise Jigokuraku</v>
       </c>
-      <c r="C13" s="36" t="str">
+      <c r="C13" s="15" t="str">
         <f>IF(SETTINGS!C13&lt;&gt;"",SETTINGS!C13,"")</f>
         <v>F</v>
       </c>
-      <c r="D13" s="37" t="str">
+      <c r="D13" s="36" t="str">
         <f>IF(SETTINGS!D13&lt;&gt;"",SETTINGS!D13,"")</f>
         <v>-</v>
       </c>
-      <c r="E13" s="36" t="str">
+      <c r="E13" s="15" t="str">
         <f>IF(SETTINGS!E13&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E13,$I:$J,2,FALSE),SETTINGS!E13),"")</f>
-        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
-      </c>
-      <c r="F13" s="36" t="str">
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
+      </c>
+      <c r="F13" s="15" t="str">
         <f>IF(SETTINGS!F13&lt;&gt;"",SETTINGS!F13,"")</f>
         <v>✅</v>
       </c>
-      <c r="G13" s="36" t="str">
+      <c r="G13" s="15" t="str">
         <f>IF(SETTINGS!G13&lt;&gt;"",SETTINGS!G13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="str">
+      <c r="A14" s="15" t="str">
         <f>IF(SETTINGS!A14&lt;&gt;"",SETTINGS!A14,"")</f>
         <v>HxH</v>
       </c>
-      <c r="B14" s="36" t="str">
+      <c r="B14" s="15" t="str">
         <f>IF(SETTINGS!B14&lt;&gt;"",SETTINGS!B14,"")</f>
         <v>Hunter X Hunter</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="15">
         <f>IF(SETTINGS!C14&lt;&gt;"",SETTINGS!C14,"")</f>
         <v>400</v>
       </c>
-      <c r="D14" s="37" t="str">
+      <c r="D14" s="36" t="str">
         <f>IF(SETTINGS!D14&lt;&gt;"",SETTINGS!D14,"")</f>
         <v>*</v>
       </c>
-      <c r="E14" s="36" t="str">
+      <c r="E14" s="15" t="str">
         <f>IF(SETTINGS!E14&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E14,$I:$J,2,FALSE),SETTINGS!E14),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F14" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F14" s="15" t="str">
         <f>IF(SETTINGS!F14&lt;&gt;"",SETTINGS!F14,"")</f>
         <v>✅</v>
       </c>
-      <c r="G14" s="36" t="str">
+      <c r="G14" s="15" t="str">
         <f>IF(SETTINGS!G14&lt;&gt;"",SETTINGS!G14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="str">
+      <c r="A15" s="15" t="str">
         <f>IF(SETTINGS!A15&lt;&gt;"",SETTINGS!A15,"")</f>
         <v>JJK</v>
       </c>
-      <c r="B15" s="36" t="str">
+      <c r="B15" s="15" t="str">
         <f>IF(SETTINGS!B15&lt;&gt;"",SETTINGS!B15,"")</f>
         <v>Jujutsu Kaisen</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="15">
         <f>IF(SETTINGS!C15&lt;&gt;"",SETTINGS!C15,"")</f>
         <v>228</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <f>IF(SETTINGS!D15&lt;&gt;"",SETTINGS!D15,"")</f>
         <v>45114</v>
       </c>
-      <c r="E15" s="36" t="str">
+      <c r="E15" s="15" t="str">
         <f>IF(SETTINGS!E15&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E15,$I:$J,2,FALSE),SETTINGS!E15),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F15" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F15" s="15" t="str">
         <f>IF(SETTINGS!F15&lt;&gt;"",SETTINGS!F15,"")</f>
         <v>✅</v>
       </c>
-      <c r="G15" s="36" t="str">
+      <c r="G15" s="15" t="str">
         <f>IF(SETTINGS!G15&lt;&gt;"",SETTINGS!G15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="str">
+      <c r="A16" s="15" t="str">
         <f>IF(SETTINGS!A16&lt;&gt;"",SETTINGS!A16,"")</f>
         <v>Jojo1</v>
       </c>
-      <c r="B16" s="36" t="str">
+      <c r="B16" s="15" t="str">
         <f>IF(SETTINGS!B16&lt;&gt;"",SETTINGS!B16,"")</f>
         <v>JoJo’s Bizarre Adventure</v>
       </c>
-      <c r="C16" s="36" t="str">
+      <c r="C16" s="15" t="str">
         <f>IF(SETTINGS!C16&lt;&gt;"",SETTINGS!C16,"")</f>
         <v>F</v>
       </c>
-      <c r="D16" s="37" t="str">
+      <c r="D16" s="36" t="str">
         <f>IF(SETTINGS!D16&lt;&gt;"",SETTINGS!D16,"")</f>
         <v>-</v>
       </c>
-      <c r="E16" s="36" t="str">
+      <c r="E16" s="15" t="str">
         <f>IF(SETTINGS!E16&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E16,$I:$J,2,FALSE),SETTINGS!E16),"")</f>
-        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; Mangaclash&lt;/a&gt;</v>
-      </c>
-      <c r="F16" s="36" t="str">
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
+      </c>
+      <c r="F16" s="15" t="str">
         <f>IF(SETTINGS!F16&lt;&gt;"",SETTINGS!F16,"")</f>
         <v>✅</v>
       </c>
-      <c r="G16" s="36" t="str">
+      <c r="G16" s="15" t="str">
         <f>IF(SETTINGS!G16&lt;&gt;"",SETTINGS!G16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="str">
+      <c r="A17" s="15" t="str">
         <f>IF(SETTINGS!A17&lt;&gt;"",SETTINGS!A17,"")</f>
         <v>Jojo2</v>
       </c>
-      <c r="B17" s="36" t="str">
+      <c r="B17" s="15" t="str">
         <f>IF(SETTINGS!B17&lt;&gt;"",SETTINGS!B17,"")</f>
         <v>JoJo’s Bizarre Adventure</v>
       </c>
-      <c r="C17" s="36" t="str">
+      <c r="C17" s="15" t="str">
         <f>IF(SETTINGS!C17&lt;&gt;"",SETTINGS!C17,"")</f>
         <v>F</v>
       </c>
-      <c r="D17" s="37" t="str">
+      <c r="D17" s="36" t="str">
         <f>IF(SETTINGS!D17&lt;&gt;"",SETTINGS!D17,"")</f>
         <v>-</v>
       </c>
-      <c r="E17" s="36" t="str">
+      <c r="E17" s="15" t="str">
         <f>IF(SETTINGS!E17&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E17,$I:$J,2,FALSE),SETTINGS!E17),"")</f>
-        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; Mangaclash&lt;/a&gt;</v>
-      </c>
-      <c r="F17" s="36" t="str">
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
+      </c>
+      <c r="F17" s="15" t="str">
         <f>IF(SETTINGS!F17&lt;&gt;"",SETTINGS!F17,"")</f>
         <v>✅</v>
       </c>
-      <c r="G17" s="36" t="str">
+      <c r="G17" s="15" t="str">
         <f>IF(SETTINGS!G17&lt;&gt;"",SETTINGS!G17,"")</f>
         <v>Rename les couvertures</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="str">
+      <c r="A18" s="15" t="str">
         <f>IF(SETTINGS!A18&lt;&gt;"",SETTINGS!A18,"")</f>
         <v>Jojo3</v>
       </c>
-      <c r="B18" s="36" t="str">
+      <c r="B18" s="15" t="str">
         <f>IF(SETTINGS!B18&lt;&gt;"",SETTINGS!B18,"")</f>
         <v>JoJo’s Bizarre Adventure</v>
       </c>
-      <c r="C18" s="36" t="str">
+      <c r="C18" s="15" t="str">
         <f>IF(SETTINGS!C18&lt;&gt;"",SETTINGS!C18,"")</f>
         <v>F</v>
       </c>
-      <c r="D18" s="37" t="str">
+      <c r="D18" s="36" t="str">
         <f>IF(SETTINGS!D18&lt;&gt;"",SETTINGS!D18,"")</f>
         <v>-</v>
       </c>
-      <c r="E18" s="36" t="str">
+      <c r="E18" s="15" t="str">
         <f>IF(SETTINGS!E18&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E18,$I:$J,2,FALSE),SETTINGS!E18),"")</f>
-        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; Mangaclash&lt;/a&gt;</v>
-      </c>
-      <c r="F18" s="36" t="str">
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
+      </c>
+      <c r="F18" s="15" t="str">
         <f>IF(SETTINGS!F18&lt;&gt;"",SETTINGS!F18,"")</f>
         <v>✅</v>
       </c>
-      <c r="G18" s="36" t="str">
+      <c r="G18" s="15" t="str">
         <f>IF(SETTINGS!G18&lt;&gt;"",SETTINGS!G18,"")</f>
         <v>Rename les couvertures</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="str">
+      <c r="A19" s="15" t="str">
         <f>IF(SETTINGS!A19&lt;&gt;"",SETTINGS!A19,"")</f>
         <v>Jojo4</v>
       </c>
-      <c r="B19" s="36" t="str">
+      <c r="B19" s="15" t="str">
         <f>IF(SETTINGS!B19&lt;&gt;"",SETTINGS!B19,"")</f>
         <v>Jojo’s Bizarre Adventure Part 8 – Jojolion</v>
       </c>
-      <c r="C19" s="36" t="str">
+      <c r="C19" s="15" t="str">
         <f>IF(SETTINGS!C19&lt;&gt;"",SETTINGS!C19,"")</f>
         <v>F</v>
       </c>
-      <c r="D19" s="37" t="str">
+      <c r="D19" s="36" t="str">
         <f>IF(SETTINGS!D19&lt;&gt;"",SETTINGS!D19,"")</f>
         <v>-</v>
       </c>
-      <c r="E19" s="36" t="str">
+      <c r="E19" s="15" t="str">
         <f>IF(SETTINGS!E19&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E19,$I:$J,2,FALSE),SETTINGS!E19),"")</f>
-        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; Mangaclash&lt;/a&gt;</v>
-      </c>
-      <c r="F19" s="36" t="str">
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
+      </c>
+      <c r="F19" s="15" t="str">
         <f>IF(SETTINGS!F19&lt;&gt;"",SETTINGS!F19,"")</f>
         <v>✅</v>
       </c>
-      <c r="G19" s="36" t="str">
+      <c r="G19" s="15" t="str">
         <f>IF(SETTINGS!G19&lt;&gt;"",SETTINGS!G19,"")</f>
         <v>Rename les couvertures</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="str">
+      <c r="A20" s="15" t="str">
         <f>IF(SETTINGS!A20&lt;&gt;"",SETTINGS!A20,"")</f>
         <v>Kaiju</v>
       </c>
-      <c r="B20" s="36" t="str">
+      <c r="B20" s="15" t="str">
         <f>IF(SETTINGS!B20&lt;&gt;"",SETTINGS!B20,"")</f>
         <v>Kaiju No. 8</v>
       </c>
-      <c r="C20" s="36" t="str">
+      <c r="C20" s="15" t="str">
         <f>IF(SETTINGS!C20&lt;&gt;"",SETTINGS!C20,"")</f>
         <v>-</v>
       </c>
-      <c r="D20" s="37" t="str">
+      <c r="D20" s="36" t="str">
         <f>IF(SETTINGS!D20&lt;&gt;"",SETTINGS!D20,"")</f>
         <v>*</v>
       </c>
-      <c r="E20" s="36" t="str">
+      <c r="E20" s="15" t="str">
         <f>IF(SETTINGS!E20&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E20,$I:$J,2,FALSE),SETTINGS!E20),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F20" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F20" s="15" t="str">
         <f>IF(SETTINGS!F20&lt;&gt;"",SETTINGS!F20,"")</f>
         <v>❌</v>
       </c>
-      <c r="G20" s="36" t="str">
+      <c r="G20" s="15" t="str">
         <f>IF(SETTINGS!G20&lt;&gt;"",SETTINGS!G20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="str">
+      <c r="A21" s="15" t="str">
         <f>IF(SETTINGS!A21&lt;&gt;"",SETTINGS!A21,"")</f>
         <v>KNB</v>
       </c>
-      <c r="B21" s="36" t="str">
+      <c r="B21" s="15" t="str">
         <f>IF(SETTINGS!B21&lt;&gt;"",SETTINGS!B21,"")</f>
         <v>Kuroko no Basuke</v>
       </c>
-      <c r="C21" s="36" t="str">
+      <c r="C21" s="15" t="str">
         <f>IF(SETTINGS!C21&lt;&gt;"",SETTINGS!C21,"")</f>
         <v>-</v>
       </c>
-      <c r="D21" s="37" t="str">
+      <c r="D21" s="36" t="str">
         <f>IF(SETTINGS!D21&lt;&gt;"",SETTINGS!D21,"")</f>
         <v>*</v>
       </c>
-      <c r="E21" s="36" t="str">
+      <c r="E21" s="15" t="str">
         <f>IF(SETTINGS!E21&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E21,$I:$J,2,FALSE),SETTINGS!E21),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F21" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F21" s="15" t="str">
         <f>IF(SETTINGS!F21&lt;&gt;"",SETTINGS!F21,"")</f>
         <v>✅</v>
       </c>
-      <c r="G21" s="36" t="str">
+      <c r="G21" s="15" t="str">
         <f>IF(SETTINGS!G21&lt;&gt;"",SETTINGS!G21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="str">
+      <c r="A22" s="15" t="str">
         <f>IF(SETTINGS!A22&lt;&gt;"",SETTINGS!A22,"")</f>
         <v>Mashle</v>
       </c>
-      <c r="B22" s="36" t="str">
+      <c r="B22" s="15" t="str">
         <f>IF(SETTINGS!B22&lt;&gt;"",SETTINGS!B22,"")</f>
         <v>Mashle</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="15">
         <f>IF(SETTINGS!C22&lt;&gt;"",SETTINGS!C22,"")</f>
         <v>162</v>
       </c>
-      <c r="D22" s="37" t="str">
+      <c r="D22" s="36" t="str">
         <f>IF(SETTINGS!D22&lt;&gt;"",SETTINGS!D22,"")</f>
         <v>*</v>
       </c>
-      <c r="E22" s="36" t="str">
+      <c r="E22" s="15" t="str">
         <f>IF(SETTINGS!E22&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E22,$I:$J,2,FALSE),SETTINGS!E22),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F22" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F22" s="15" t="str">
         <f>IF(SETTINGS!F22&lt;&gt;"",SETTINGS!F22,"")</f>
         <v>✅</v>
       </c>
-      <c r="G22" s="36" t="str">
+      <c r="G22" s="15" t="str">
         <f>IF(SETTINGS!G22&lt;&gt;"",SETTINGS!G22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="str">
+      <c r="A23" s="15" t="str">
         <f>IF(SETTINGS!A23&lt;&gt;"",SETTINGS!A23,"")</f>
         <v>MHA</v>
       </c>
-      <c r="B23" s="36" t="str">
+      <c r="B23" s="15" t="str">
         <f>IF(SETTINGS!B23&lt;&gt;"",SETTINGS!B23,"")</f>
         <v>Boku no Hero Academia</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="15">
         <f>IF(SETTINGS!C23&lt;&gt;"",SETTINGS!C23,"")</f>
         <v>392</v>
       </c>
-      <c r="D23" s="37" t="str">
+      <c r="D23" s="36" t="str">
         <f>IF(SETTINGS!D23&lt;&gt;"",SETTINGS!D23,"")</f>
         <v>*</v>
       </c>
-      <c r="E23" s="36" t="str">
+      <c r="E23" s="15" t="str">
         <f>IF(SETTINGS!E23&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E23,$I:$J,2,FALSE),SETTINGS!E23),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F23" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F23" s="15" t="str">
         <f>IF(SETTINGS!F23&lt;&gt;"",SETTINGS!F23,"")</f>
         <v>✅</v>
       </c>
-      <c r="G23" s="36" t="str">
+      <c r="G23" s="15" t="str">
         <f>IF(SETTINGS!G23&lt;&gt;"",SETTINGS!G23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="str">
+      <c r="A24" s="15" t="str">
         <f>IF(SETTINGS!A24&lt;&gt;"",SETTINGS!A24,"")</f>
         <v>NNTZ</v>
       </c>
-      <c r="B24" s="36" t="str">
+      <c r="B24" s="15" t="str">
         <f>IF(SETTINGS!B24&lt;&gt;"",SETTINGS!B24,"")</f>
         <v>Nanatsu no Taizai</v>
       </c>
-      <c r="C24" s="36" t="str">
+      <c r="C24" s="15" t="str">
         <f>IF(SETTINGS!C24&lt;&gt;"",SETTINGS!C24,"")</f>
         <v>F</v>
       </c>
-      <c r="D24" s="37" t="str">
+      <c r="D24" s="36" t="str">
         <f>IF(SETTINGS!D24&lt;&gt;"",SETTINGS!D24,"")</f>
         <v>-</v>
       </c>
-      <c r="E24" s="36" t="str">
+      <c r="E24" s="15" t="str">
         <f>IF(SETTINGS!E24&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E24,$I:$J,2,FALSE),SETTINGS!E24),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F24" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F24" s="15" t="str">
         <f>IF(SETTINGS!F24&lt;&gt;"",SETTINGS!F24,"")</f>
         <v>✅</v>
       </c>
-      <c r="G24" s="36" t="str">
+      <c r="G24" s="15" t="str">
         <f>IF(SETTINGS!G24&lt;&gt;"",SETTINGS!G24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="str">
+      <c r="A25" s="15" t="str">
         <f>IF(SETTINGS!A25&lt;&gt;"",SETTINGS!A25,"")</f>
         <v>OP</v>
       </c>
-      <c r="B25" s="36" t="str">
+      <c r="B25" s="15" t="str">
         <f>IF(SETTINGS!B25&lt;&gt;"",SETTINGS!B25,"")</f>
         <v>One Piece</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="15">
         <f>IF(SETTINGS!C25&lt;&gt;"",SETTINGS!C25,"")</f>
         <v>1080</v>
       </c>
-      <c r="D25" s="37" t="str">
+      <c r="D25" s="36" t="str">
         <f>IF(SETTINGS!D25&lt;&gt;"",SETTINGS!D25,"")</f>
         <v>*</v>
       </c>
-      <c r="E25" s="36" t="str">
+      <c r="E25" s="15" t="str">
         <f>IF(SETTINGS!E25&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E25,$I:$J,2,FALSE),SETTINGS!E25),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F25" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F25" s="15" t="str">
         <f>IF(SETTINGS!F25&lt;&gt;"",SETTINGS!F25,"")</f>
         <v>✅</v>
       </c>
-      <c r="G25" s="36" t="str">
+      <c r="G25" s="15" t="str">
         <f>IF(SETTINGS!G25&lt;&gt;"",SETTINGS!G25,"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="str">
+      <c r="A26" s="15" t="str">
         <f>IF(SETTINGS!A26&lt;&gt;"",SETTINGS!A26,"")</f>
         <v>Opman</v>
       </c>
-      <c r="B26" s="36" t="str">
+      <c r="B26" s="15" t="str">
         <f>IF(SETTINGS!B26&lt;&gt;"",SETTINGS!B26,"")</f>
         <v>Onepunch-Man</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="15">
         <f>IF(SETTINGS!C26&lt;&gt;"",SETTINGS!C26,"")</f>
         <v>178</v>
       </c>
-      <c r="D26" s="37" t="str">
+      <c r="D26" s="36" t="str">
         <f>IF(SETTINGS!D26&lt;&gt;"",SETTINGS!D26,"")</f>
         <v>*</v>
       </c>
-      <c r="E26" s="36" t="str">
+      <c r="E26" s="15" t="str">
         <f>IF(SETTINGS!E26&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E26,$I:$J,2,FALSE),SETTINGS!E26),"")</f>
-        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
-      </c>
-      <c r="F26" s="36" t="str">
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
+      </c>
+      <c r="F26" s="15" t="str">
         <f>IF(SETTINGS!F26&lt;&gt;"",SETTINGS!F26,"")</f>
         <v>✅</v>
       </c>
-      <c r="G26" s="36" t="str">
+      <c r="G26" s="15" t="str">
         <f>IF(SETTINGS!G26&lt;&gt;"",SETTINGS!G26,"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="str">
+      <c r="A27" s="15" t="str">
         <f>IF(SETTINGS!A27&lt;&gt;"",SETTINGS!A27,"")</f>
         <v>SakDays</v>
       </c>
-      <c r="B27" s="36" t="str">
+      <c r="B27" s="15" t="str">
         <f>IF(SETTINGS!B27&lt;&gt;"",SETTINGS!B27,"")</f>
         <v>Sakamoto Days</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="15">
         <f>IF(SETTINGS!C27&lt;&gt;"",SETTINGS!C27,"")</f>
         <v>125</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="36">
         <f>IF(SETTINGS!D27&lt;&gt;"",SETTINGS!D27,"")</f>
         <v>45114</v>
       </c>
-      <c r="E27" s="36" t="str">
+      <c r="E27" s="15" t="str">
         <f>IF(SETTINGS!E27&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E27,$I:$J,2,FALSE),SETTINGS!E27),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F27" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F27" s="15" t="str">
         <f>IF(SETTINGS!F27&lt;&gt;"",SETTINGS!F27,"")</f>
         <v>✅</v>
       </c>
-      <c r="G27" s="36" t="str">
+      <c r="G27" s="15" t="str">
         <f>IF(SETTINGS!G27&lt;&gt;"",SETTINGS!G27,"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="str">
+      <c r="A28" s="15" t="str">
         <f>IF(SETTINGS!A28&lt;&gt;"",SETTINGS!A28,"")</f>
         <v>SKR</v>
       </c>
-      <c r="B28" s="36" t="str">
+      <c r="B28" s="15" t="str">
         <f>IF(SETTINGS!B28&lt;&gt;"",SETTINGS!B28,"")</f>
         <v>Sun-ken Rock</v>
       </c>
-      <c r="C28" s="36" t="str">
+      <c r="C28" s="15" t="str">
         <f>IF(SETTINGS!C28&lt;&gt;"",SETTINGS!C28,"")</f>
         <v>-</v>
       </c>
-      <c r="D28" s="37" t="str">
+      <c r="D28" s="36" t="str">
         <f>IF(SETTINGS!D28&lt;&gt;"",SETTINGS!D28,"")</f>
         <v>*</v>
       </c>
-      <c r="E28" s="36" t="str">
+      <c r="E28" s="15" t="str">
         <f>IF(SETTINGS!E28&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E28,$I:$J,2,FALSE),SETTINGS!E28),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F28" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F28" s="15" t="str">
         <f>IF(SETTINGS!F28&lt;&gt;"",SETTINGS!F28,"")</f>
         <v>✅</v>
       </c>
-      <c r="G28" s="36" t="str">
+      <c r="G28" s="15" t="str">
         <f>IF(SETTINGS!G28&lt;&gt;"",SETTINGS!G28,"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="str">
+      <c r="A29" s="15" t="str">
         <f>IF(SETTINGS!A29&lt;&gt;"",SETTINGS!A29,"")</f>
         <v>SNK</v>
       </c>
-      <c r="B29" s="36" t="str">
+      <c r="B29" s="15" t="str">
         <f>IF(SETTINGS!B29&lt;&gt;"",SETTINGS!B29,"")</f>
         <v>Shingeki no Kyojin</v>
       </c>
-      <c r="C29" s="36" t="str">
+      <c r="C29" s="15" t="str">
         <f>IF(SETTINGS!C29&lt;&gt;"",SETTINGS!C29,"")</f>
         <v>-</v>
       </c>
-      <c r="D29" s="37" t="str">
+      <c r="D29" s="36" t="str">
         <f>IF(SETTINGS!D29&lt;&gt;"",SETTINGS!D29,"")</f>
         <v>*</v>
       </c>
-      <c r="E29" s="36" t="str">
+      <c r="E29" s="15" t="str">
         <f>IF(SETTINGS!E29&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E29,$I:$J,2,FALSE),SETTINGS!E29),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F29" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F29" s="15" t="str">
         <f>IF(SETTINGS!F29&lt;&gt;"",SETTINGS!F29,"")</f>
         <v>✅</v>
       </c>
-      <c r="G29" s="36" t="str">
+      <c r="G29" s="15" t="str">
         <f>IF(SETTINGS!G29&lt;&gt;"",SETTINGS!G29,"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="str">
+      <c r="A30" s="15" t="str">
         <f>IF(SETTINGS!A30&lt;&gt;"",SETTINGS!A30,"")</f>
         <v>SpyF</v>
       </c>
-      <c r="B30" s="36" t="str">
+      <c r="B30" s="15" t="str">
         <f>IF(SETTINGS!B30&lt;&gt;"",SETTINGS!B30,"")</f>
         <v>Spy X Family</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="15">
         <f>IF(SETTINGS!C30&lt;&gt;"",SETTINGS!C30,"")</f>
         <v>85</v>
       </c>
-      <c r="D30" s="37" t="str">
+      <c r="D30" s="36" t="str">
         <f>IF(SETTINGS!D30&lt;&gt;"",SETTINGS!D30,"")</f>
         <v>*</v>
       </c>
-      <c r="E30" s="36" t="str">
+      <c r="E30" s="15" t="str">
         <f>IF(SETTINGS!E30&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E30,$I:$J,2,FALSE),SETTINGS!E30),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F30" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F30" s="15" t="str">
         <f>IF(SETTINGS!F30&lt;&gt;"",SETTINGS!F30,"")</f>
         <v>✅</v>
       </c>
-      <c r="G30" s="36" t="str">
+      <c r="G30" s="15" t="str">
         <f>IF(SETTINGS!G30&lt;&gt;"",SETTINGS!G30,"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="str">
+      <c r="A31" s="15" t="str">
         <f>IF(SETTINGS!A31&lt;&gt;"",SETTINGS!A31,"")</f>
         <v>SSY Lost Canva</v>
       </c>
-      <c r="B31" s="36" t="str">
+      <c r="B31" s="15" t="str">
         <f>IF(SETTINGS!B31&lt;&gt;"",SETTINGS!B31,"")</f>
         <v>Saint Seiya - The Lost Canva</v>
       </c>
-      <c r="C31" s="36" t="str">
+      <c r="C31" s="15" t="str">
         <f>IF(SETTINGS!C31&lt;&gt;"",SETTINGS!C31,"")</f>
         <v>-</v>
       </c>
-      <c r="D31" s="37" t="str">
+      <c r="D31" s="36" t="str">
         <f>IF(SETTINGS!D31&lt;&gt;"",SETTINGS!D31,"")</f>
         <v>*</v>
       </c>
-      <c r="E31" s="36" t="str">
+      <c r="E31" s="15" t="str">
         <f>IF(SETTINGS!E31&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E31,$I:$J,2,FALSE),SETTINGS!E31),"")</f>
-        <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; Mangajar&lt;/a&gt;</v>
-      </c>
-      <c r="F31" s="36" t="str">
+        <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; MJ&lt;/a&gt;</v>
+      </c>
+      <c r="F31" s="15" t="str">
         <f>IF(SETTINGS!F31&lt;&gt;"",SETTINGS!F31,"")</f>
         <v>❌</v>
       </c>
-      <c r="G31" s="36" t="str">
+      <c r="G31" s="15" t="str">
         <f>IF(SETTINGS!G31&lt;&gt;"",SETTINGS!G31,"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="str">
+      <c r="A32" s="15" t="str">
         <f>IF(SETTINGS!A32&lt;&gt;"",SETTINGS!A32,"")</f>
         <v>TK</v>
       </c>
-      <c r="B32" s="36" t="str">
+      <c r="B32" s="15" t="str">
         <f>IF(SETTINGS!B32&lt;&gt;"",SETTINGS!B32,"")</f>
         <v>Tokyo Ghoul</v>
       </c>
-      <c r="C32" s="36" t="str">
+      <c r="C32" s="15" t="str">
         <f>IF(SETTINGS!C32&lt;&gt;"",SETTINGS!C32,"")</f>
         <v>F</v>
       </c>
-      <c r="D32" s="37" t="str">
+      <c r="D32" s="36" t="str">
         <f>IF(SETTINGS!D32&lt;&gt;"",SETTINGS!D32,"")</f>
         <v>-</v>
       </c>
-      <c r="E32" s="36" t="str">
+      <c r="E32" s="15" t="str">
         <f>IF(SETTINGS!E32&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E32,$I:$J,2,FALSE),SETTINGS!E32),"")</f>
-        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
-      </c>
-      <c r="F32" s="36" t="str">
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
+      </c>
+      <c r="F32" s="15" t="str">
         <f>IF(SETTINGS!F32&lt;&gt;"",SETTINGS!F32,"")</f>
         <v>✅</v>
       </c>
-      <c r="G32" s="36" t="str">
+      <c r="G32" s="15" t="str">
         <f>IF(SETTINGS!G32&lt;&gt;"",SETTINGS!G32,"")</f>
         <v>renomer 2 derniers chapt</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="str">
+      <c r="A33" s="15" t="str">
         <f>IF(SETTINGS!A33&lt;&gt;"",SETTINGS!A33,"")</f>
         <v>TKre</v>
       </c>
-      <c r="B33" s="36" t="str">
+      <c r="B33" s="15" t="str">
         <f>IF(SETTINGS!B33&lt;&gt;"",SETTINGS!B33,"")</f>
         <v>Tokyo Ghoulre</v>
       </c>
-      <c r="C33" s="36" t="str">
+      <c r="C33" s="15" t="str">
         <f>IF(SETTINGS!C33&lt;&gt;"",SETTINGS!C33,"")</f>
         <v>F</v>
       </c>
-      <c r="D33" s="37" t="str">
+      <c r="D33" s="36" t="str">
         <f>IF(SETTINGS!D33&lt;&gt;"",SETTINGS!D33,"")</f>
         <v>-</v>
       </c>
-      <c r="E33" s="36" t="str">
+      <c r="E33" s="15" t="str">
         <f>IF(SETTINGS!E33&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E33,$I:$J,2,FALSE),SETTINGS!E33),"")</f>
-        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
-      </c>
-      <c r="F33" s="36" t="str">
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
+      </c>
+      <c r="F33" s="15" t="str">
         <f>IF(SETTINGS!F33&lt;&gt;"",SETTINGS!F33,"")</f>
         <v>✅</v>
       </c>
-      <c r="G33" s="36" t="str">
+      <c r="G33" s="15" t="str">
         <f>IF(SETTINGS!G33&lt;&gt;"",SETTINGS!G33,"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="str">
+      <c r="A34" s="15" t="str">
         <f>IF(SETTINGS!A34&lt;&gt;"",SETTINGS!A34,"")</f>
         <v>Vagabond</v>
       </c>
-      <c r="B34" s="36" t="str">
+      <c r="B34" s="15" t="str">
         <f>IF(SETTINGS!B34&lt;&gt;"",SETTINGS!B34,"")</f>
         <v>Vagabond</v>
       </c>
-      <c r="C34" s="36" t="str">
+      <c r="C34" s="15" t="str">
         <f>IF(SETTINGS!C34&lt;&gt;"",SETTINGS!C34,"")</f>
         <v>F</v>
       </c>
-      <c r="D34" s="37" t="str">
+      <c r="D34" s="36" t="str">
         <f>IF(SETTINGS!D34&lt;&gt;"",SETTINGS!D34,"")</f>
         <v>-</v>
       </c>
-      <c r="E34" s="36" t="str">
+      <c r="E34" s="15" t="str">
         <f>IF(SETTINGS!E34&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E34,$I:$J,2,FALSE),SETTINGS!E34),"")</f>
-        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
-      </c>
-      <c r="F34" s="36" t="str">
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
+      </c>
+      <c r="F34" s="15" t="str">
         <f>IF(SETTINGS!F34&lt;&gt;"",SETTINGS!F34,"")</f>
         <v>✅</v>
       </c>
-      <c r="G34" s="36" t="str">
+      <c r="G34" s="15" t="str">
         <f>IF(SETTINGS!G34&lt;&gt;"",SETTINGS!G34,"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="str">
+      <c r="A35" s="15" t="str">
         <f>IF(SETTINGS!A35&lt;&gt;"",SETTINGS!A35,"")</f>
         <v>Vinland</v>
       </c>
-      <c r="B35" s="36" t="str">
+      <c r="B35" s="15" t="str">
         <f>IF(SETTINGS!B35&lt;&gt;"",SETTINGS!B35,"")</f>
         <v>Vinland Saga</v>
       </c>
-      <c r="C35" s="36" t="str">
+      <c r="C35" s="15" t="str">
         <f>IF(SETTINGS!C35&lt;&gt;"",SETTINGS!C35,"")</f>
         <v>-</v>
       </c>
-      <c r="D35" s="37" t="str">
+      <c r="D35" s="36" t="str">
         <f>IF(SETTINGS!D35&lt;&gt;"",SETTINGS!D35,"")</f>
         <v>*</v>
       </c>
-      <c r="E35" s="36" t="str">
+      <c r="E35" s="15" t="str">
         <f>IF(SETTINGS!E35&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E35,$I:$J,2,FALSE),SETTINGS!E35),"")</f>
-        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
-      </c>
-      <c r="F35" s="36" t="str">
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
+      </c>
+      <c r="F35" s="15" t="str">
         <f>IF(SETTINGS!F35&lt;&gt;"",SETTINGS!F35,"")</f>
         <v>❌</v>
       </c>
-      <c r="G35" s="36" t="str">
+      <c r="G35" s="15" t="str">
         <f>IF(SETTINGS!G35&lt;&gt;"",SETTINGS!G35,"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="str">
+      <c r="A36" s="15" t="str">
         <f>IF(SETTINGS!A36&lt;&gt;"",SETTINGS!A36,"")</f>
         <v>YuGiOh</v>
       </c>
-      <c r="B36" s="36" t="str">
+      <c r="B36" s="15" t="str">
         <f>IF(SETTINGS!B36&lt;&gt;"",SETTINGS!B36,"")</f>
         <v>Yu-Gi-Oh ! – Edition Double</v>
       </c>
-      <c r="C36" s="36" t="str">
+      <c r="C36" s="15" t="str">
         <f>IF(SETTINGS!C36&lt;&gt;"",SETTINGS!C36,"")</f>
         <v>-</v>
       </c>
-      <c r="D36" s="37" t="str">
+      <c r="D36" s="36" t="str">
         <f>IF(SETTINGS!D36&lt;&gt;"",SETTINGS!D36,"")</f>
         <v>*</v>
       </c>
-      <c r="E36" s="36" t="str">
+      <c r="E36" s="15" t="str">
         <f>IF(SETTINGS!E36&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E36,$I:$J,2,FALSE),SETTINGS!E36),"")</f>
         <v>Sushi scans</v>
       </c>
-      <c r="F36" s="36" t="str">
+      <c r="F36" s="15" t="str">
         <f>IF(SETTINGS!F36&lt;&gt;"",SETTINGS!F36,"")</f>
         <v>✅</v>
       </c>
-      <c r="G36" s="36" t="str">
+      <c r="G36" s="15" t="str">
         <f>IF(SETTINGS!G36&lt;&gt;"",SETTINGS!G36,"")</f>
         <v>Directement convertir en kindle</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="str">
+      <c r="A37" s="15" t="str">
         <f>IF(SETTINGS!A37&lt;&gt;"",SETTINGS!A37,"")</f>
         <v>Mob100</v>
       </c>
-      <c r="B37" s="36" t="str">
+      <c r="B37" s="15" t="str">
         <f>IF(SETTINGS!B37&lt;&gt;"",SETTINGS!B37,"")</f>
         <v>Mob Psycho 100</v>
       </c>
-      <c r="C37" s="36" t="str">
+      <c r="C37" s="15" t="str">
         <f>IF(SETTINGS!C37&lt;&gt;"",SETTINGS!C37,"")</f>
         <v>-</v>
       </c>
-      <c r="D37" s="37" t="str">
+      <c r="D37" s="36" t="str">
         <f>IF(SETTINGS!D37&lt;&gt;"",SETTINGS!D37,"")</f>
         <v>*</v>
       </c>
-      <c r="E37" s="36" t="str">
+      <c r="E37" s="15" t="str">
         <f>IF(SETTINGS!E37&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E37,$I:$J,2,FALSE),SETTINGS!E37),"")</f>
-        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
-      </c>
-      <c r="F37" s="36" t="str">
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
+      </c>
+      <c r="F37" s="15" t="str">
         <f>IF(SETTINGS!F37&lt;&gt;"",SETTINGS!F37,"")</f>
         <v>✅</v>
       </c>
-      <c r="G37" s="36" t="str">
+      <c r="G37" s="15" t="str">
         <f>IF(SETTINGS!G37&lt;&gt;"",SETTINGS!G37,"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="str">
+      <c r="A38" s="15" t="str">
         <f>IF(SETTINGS!A38&lt;&gt;"",SETTINGS!A38,"")</f>
         <v>Tablier</v>
       </c>
-      <c r="B38" s="36" t="str">
+      <c r="B38" s="15" t="str">
         <f>IF(SETTINGS!B38&lt;&gt;"",SETTINGS!B38,"")</f>
         <v>Gokushufudou The Way of the House Husband</v>
       </c>
-      <c r="C38" s="36" t="str">
+      <c r="C38" s="15" t="str">
         <f>IF(SETTINGS!C38&lt;&gt;"",SETTINGS!C38,"")</f>
         <v>-</v>
       </c>
-      <c r="D38" s="37" t="str">
+      <c r="D38" s="36" t="str">
         <f>IF(SETTINGS!D38&lt;&gt;"",SETTINGS!D38,"")</f>
         <v>*</v>
       </c>
-      <c r="E38" s="36" t="str">
+      <c r="E38" s="15" t="str">
         <f>IF(SETTINGS!E38&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E38,$I:$J,2,FALSE),SETTINGS!E38),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F38" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F38" s="15" t="str">
         <f>IF(SETTINGS!F38&lt;&gt;"",SETTINGS!F38,"")</f>
         <v>✅</v>
       </c>
-      <c r="G38" s="36" t="str">
+      <c r="G38" s="15" t="str">
         <f>IF(SETTINGS!G38&lt;&gt;"",SETTINGS!G38,"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="str">
+      <c r="A39" s="15" t="str">
         <f>IF(SETTINGS!A39&lt;&gt;"",SETTINGS!A39,"")</f>
         <v>Kingdom</v>
       </c>
-      <c r="B39" s="36" t="str">
+      <c r="B39" s="15" t="str">
         <f>IF(SETTINGS!B39&lt;&gt;"",SETTINGS!B39,"")</f>
         <v/>
       </c>
-      <c r="C39" s="36" t="str">
+      <c r="C39" s="15" t="str">
         <f>IF(SETTINGS!C39&lt;&gt;"",SETTINGS!C39,"")</f>
         <v>-</v>
       </c>
-      <c r="D39" s="37" t="str">
+      <c r="D39" s="36" t="str">
         <f>IF(SETTINGS!D39&lt;&gt;"",SETTINGS!D39,"")</f>
         <v>*</v>
       </c>
-      <c r="E39" s="36" t="str">
+      <c r="E39" s="15" t="str">
         <f>IF(SETTINGS!E39&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E39,$I:$J,2,FALSE),SETTINGS!E39),"")</f>
-        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; Mangaclash&lt;/a&gt;</v>
-      </c>
-      <c r="F39" s="36" t="str">
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
+      </c>
+      <c r="F39" s="15" t="str">
         <f>IF(SETTINGS!F39&lt;&gt;"",SETTINGS!F39,"")</f>
         <v>❌</v>
       </c>
-      <c r="G39" s="36" t="str">
+      <c r="G39" s="15" t="str">
         <f>IF(SETTINGS!G39&lt;&gt;"",SETTINGS!G39,"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="36" t="str">
+      <c r="A40" s="15" t="str">
         <f>IF(SETTINGS!A40&lt;&gt;"",SETTINGS!A40,"")</f>
         <v>Naruto</v>
       </c>
-      <c r="B40" s="36" t="str">
+      <c r="B40" s="15" t="str">
         <f>IF(SETTINGS!B40&lt;&gt;"",SETTINGS!B40,"")</f>
         <v>Naruto</v>
       </c>
-      <c r="C40" s="36" t="str">
+      <c r="C40" s="15" t="str">
         <f>IF(SETTINGS!C40&lt;&gt;"",SETTINGS!C40,"")</f>
         <v>F</v>
       </c>
-      <c r="D40" s="37" t="str">
+      <c r="D40" s="36" t="str">
         <f>IF(SETTINGS!D40&lt;&gt;"",SETTINGS!D40,"")</f>
         <v>-</v>
       </c>
-      <c r="E40" s="36" t="str">
+      <c r="E40" s="15" t="str">
         <f>IF(SETTINGS!E40&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E40,$I:$J,2,FALSE),SETTINGS!E40),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F40" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F40" s="15" t="str">
         <f>IF(SETTINGS!F40&lt;&gt;"",SETTINGS!F40,"")</f>
         <v>❌</v>
       </c>
-      <c r="G40" s="36" t="str">
+      <c r="G40" s="15" t="str">
         <f>IF(SETTINGS!G40&lt;&gt;"",SETTINGS!G40,"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="36" t="str">
+      <c r="A41" s="15" t="str">
         <f>IF(SETTINGS!A41&lt;&gt;"",SETTINGS!A41,"")</f>
         <v>FireForce</v>
       </c>
-      <c r="B41" s="36" t="str">
+      <c r="B41" s="15" t="str">
         <f>IF(SETTINGS!B41&lt;&gt;"",SETTINGS!B41,"")</f>
         <v>Enen no Shouboutai</v>
       </c>
-      <c r="C41" s="36" t="str">
+      <c r="C41" s="15" t="str">
         <f>IF(SETTINGS!C41&lt;&gt;"",SETTINGS!C41,"")</f>
         <v>-</v>
       </c>
-      <c r="D41" s="37" t="str">
+      <c r="D41" s="36" t="str">
         <f>IF(SETTINGS!D41&lt;&gt;"",SETTINGS!D41,"")</f>
         <v>*</v>
       </c>
-      <c r="E41" s="36" t="str">
+      <c r="E41" s="15" t="str">
         <f>IF(SETTINGS!E41&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E41,$I:$J,2,FALSE),SETTINGS!E41),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F41" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F41" s="15" t="str">
         <f>IF(SETTINGS!F41&lt;&gt;"",SETTINGS!F41,"")</f>
         <v>❌</v>
       </c>
-      <c r="G41" s="36" t="str">
+      <c r="G41" s="15" t="str">
         <f>IF(SETTINGS!G41&lt;&gt;"",SETTINGS!G41,"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="36" t="str">
+      <c r="A42" s="15" t="str">
         <f>IF(SETTINGS!A42&lt;&gt;"",SETTINGS!A42,"")</f>
         <v>Immortal</v>
       </c>
-      <c r="B42" s="36" t="str">
+      <c r="B42" s="15" t="str">
         <f>IF(SETTINGS!B42&lt;&gt;"",SETTINGS!B42,"")</f>
         <v>Blade of the Immortal</v>
       </c>
-      <c r="C42" s="36" t="str">
+      <c r="C42" s="15" t="str">
         <f>IF(SETTINGS!C42&lt;&gt;"",SETTINGS!C42,"")</f>
         <v>-</v>
       </c>
-      <c r="D42" s="37" t="str">
+      <c r="D42" s="36" t="str">
         <f>IF(SETTINGS!D42&lt;&gt;"",SETTINGS!D42,"")</f>
         <v>*</v>
       </c>
-      <c r="E42" s="36" t="str">
+      <c r="E42" s="15" t="str">
         <f>IF(SETTINGS!E42&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E42,$I:$J,2,FALSE),SETTINGS!E42),"")</f>
-        <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; Mangajar&lt;/a&gt;</v>
-      </c>
-      <c r="F42" s="36" t="str">
+        <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; MJ&lt;/a&gt;</v>
+      </c>
+      <c r="F42" s="15" t="str">
         <f>IF(SETTINGS!F42&lt;&gt;"",SETTINGS!F42,"")</f>
         <v>✅</v>
       </c>
-      <c r="G42" s="36" t="str">
+      <c r="G42" s="15" t="str">
         <f>IF(SETTINGS!G42&lt;&gt;"",SETTINGS!G42,"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="36" t="str">
+      <c r="A43" s="15" t="str">
         <f>IF(SETTINGS!A43&lt;&gt;"",SETTINGS!A43,"")</f>
         <v>Monster</v>
       </c>
-      <c r="B43" s="36" t="str">
+      <c r="B43" s="15" t="str">
         <f>IF(SETTINGS!B43&lt;&gt;"",SETTINGS!B43,"")</f>
         <v/>
       </c>
-      <c r="C43" s="36" t="str">
+      <c r="C43" s="15" t="str">
         <f>IF(SETTINGS!C43&lt;&gt;"",SETTINGS!C43,"")</f>
         <v>-</v>
       </c>
-      <c r="D43" s="37" t="str">
+      <c r="D43" s="36" t="str">
         <f>IF(SETTINGS!D43&lt;&gt;"",SETTINGS!D43,"")</f>
         <v>*</v>
       </c>
-      <c r="E43" s="36" t="str">
+      <c r="E43" s="15" t="str">
         <f>IF(SETTINGS!E43&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E43,$I:$J,2,FALSE),SETTINGS!E43),"")</f>
-        <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; Mangajar&lt;/a&gt;</v>
-      </c>
-      <c r="F43" s="36" t="str">
+        <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; MJ&lt;/a&gt;</v>
+      </c>
+      <c r="F43" s="15" t="str">
         <f>IF(SETTINGS!F43&lt;&gt;"",SETTINGS!F43,"")</f>
         <v>❌</v>
       </c>
-      <c r="G43" s="36" t="str">
+      <c r="G43" s="15" t="str">
         <f>IF(SETTINGS!G43&lt;&gt;"",SETTINGS!G43,"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="36" t="str">
+      <c r="A44" s="15" t="str">
         <f>IF(SETTINGS!A44&lt;&gt;"",SETTINGS!A44,"")</f>
         <v>FMB</v>
       </c>
-      <c r="B44" s="36" t="str">
+      <c r="B44" s="15" t="str">
         <f>IF(SETTINGS!B44&lt;&gt;"",SETTINGS!B44,"")</f>
         <v/>
       </c>
-      <c r="C44" s="36" t="str">
+      <c r="C44" s="15" t="str">
         <f>IF(SETTINGS!C44&lt;&gt;"",SETTINGS!C44,"")</f>
         <v>-</v>
       </c>
-      <c r="D44" s="37" t="str">
+      <c r="D44" s="36" t="str">
         <f>IF(SETTINGS!D44&lt;&gt;"",SETTINGS!D44,"")</f>
         <v>*</v>
       </c>
-      <c r="E44" s="36" t="str">
+      <c r="E44" s="15" t="str">
         <f>IF(SETTINGS!E44&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E44,$I:$J,2,FALSE),SETTINGS!E44),"")</f>
-        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; Manganato&lt;/a&gt;</v>
-      </c>
-      <c r="F44" s="36" t="str">
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
+      </c>
+      <c r="F44" s="15" t="str">
         <f>IF(SETTINGS!F44&lt;&gt;"",SETTINGS!F44,"")</f>
         <v>❌</v>
       </c>
-      <c r="G44" s="36" t="str">
+      <c r="G44" s="15" t="str">
         <f>IF(SETTINGS!G44&lt;&gt;"",SETTINGS!G44,"")</f>
         <v>Rename 108.6 et 108.7</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="36" t="str">
+      <c r="A45" s="15" t="str">
         <f>IF(SETTINGS!A45&lt;&gt;"",SETTINGS!A45,"")</f>
         <v>BlueL</v>
       </c>
-      <c r="B45" s="36" t="str">
+      <c r="B45" s="15" t="str">
         <f>IF(SETTINGS!B45&lt;&gt;"",SETTINGS!B45,"")</f>
         <v>Blue Lock</v>
       </c>
-      <c r="C45" s="36" t="str">
+      <c r="C45" s="15" t="str">
         <f>IF(SETTINGS!C45&lt;&gt;"",SETTINGS!C45,"")</f>
         <v>-</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="36">
         <f>IF(SETTINGS!D45&lt;&gt;"",SETTINGS!D45,"")</f>
         <v>45114</v>
       </c>
-      <c r="E45" s="36" t="str">
+      <c r="E45" s="15" t="str">
         <f>IF(SETTINGS!E45&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E45,$I:$J,2,FALSE),SETTINGS!E45),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MangaFox&lt;/a&gt;</v>
-      </c>
-      <c r="F45" s="36" t="str">
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+      </c>
+      <c r="F45" s="15" t="str">
         <f>IF(SETTINGS!F45&lt;&gt;"",SETTINGS!F45,"")</f>
         <v>❌</v>
       </c>
-      <c r="G45" s="36" t="str">
+      <c r="G45" s="15" t="str">
         <f>IF(SETTINGS!G45&lt;&gt;"",SETTINGS!G45,"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="36" t="str">
+      <c r="A46" s="15" t="str">
         <f>IF(SETTINGS!A46&lt;&gt;"",SETTINGS!A46,"")</f>
         <v/>
       </c>
-      <c r="B46" s="36" t="str">
+      <c r="B46" s="15" t="str">
         <f>IF(SETTINGS!B46&lt;&gt;"",SETTINGS!B46,"")</f>
         <v/>
       </c>
-      <c r="C46" s="36" t="str">
+      <c r="C46" s="15" t="str">
         <f>IF(SETTINGS!C46&lt;&gt;"",SETTINGS!C46,"")</f>
         <v/>
       </c>
-      <c r="D46" s="37" t="str">
+      <c r="D46" s="36" t="str">
         <f>IF(SETTINGS!D46&lt;&gt;"",SETTINGS!D46,"")</f>
         <v/>
       </c>
-      <c r="E46" s="36" t="str">
+      <c r="E46" s="15" t="str">
         <f>IF(SETTINGS!E46&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E46,$I:$J,2,FALSE),SETTINGS!E46),"")</f>
         <v/>
       </c>
-      <c r="F46" s="36" t="str">
+      <c r="F46" s="15" t="str">
         <f>IF(SETTINGS!F46&lt;&gt;"",SETTINGS!F46,"")</f>
         <v/>
       </c>
-      <c r="G46" s="36" t="str">
+      <c r="G46" s="15" t="str">
         <f>IF(SETTINGS!G46&lt;&gt;"",SETTINGS!G46,"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="36" t="str">
+      <c r="A47" s="15" t="str">
         <f>IF(SETTINGS!A47&lt;&gt;"",SETTINGS!A47,"")</f>
         <v/>
       </c>
-      <c r="B47" s="36" t="str">
+      <c r="B47" s="15" t="str">
         <f>IF(SETTINGS!B47&lt;&gt;"",SETTINGS!B47,"")</f>
         <v/>
       </c>
-      <c r="C47" s="36" t="str">
+      <c r="C47" s="15" t="str">
         <f>IF(SETTINGS!C47&lt;&gt;"",SETTINGS!C47,"")</f>
         <v/>
       </c>
-      <c r="D47" s="37" t="str">
+      <c r="D47" s="36" t="str">
         <f>IF(SETTINGS!D47&lt;&gt;"",SETTINGS!D47,"")</f>
         <v/>
       </c>
-      <c r="E47" s="36" t="str">
+      <c r="E47" s="15" t="str">
         <f>IF(SETTINGS!E47&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E47,$I:$J,2,FALSE),SETTINGS!E47),"")</f>
         <v/>
       </c>
-      <c r="F47" s="36" t="str">
+      <c r="F47" s="15" t="str">
         <f>IF(SETTINGS!F47&lt;&gt;"",SETTINGS!F47,"")</f>
         <v/>
       </c>
-      <c r="G47" s="36" t="str">
+      <c r="G47" s="15" t="str">
         <f>IF(SETTINGS!G47&lt;&gt;"",SETTINGS!G47,"")</f>
         <v/>
       </c>

--- a/origin.xlsx
+++ b/origin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git_proj/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AF3577-5536-ED4F-B891-4C1DD1596942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA8F996-DCEE-7240-8327-3649D3398F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="3" xr2:uid="{22BEBE4E-E124-3B4E-B4CF-095D22C75C46}"/>
   </bookViews>
@@ -19996,7 +19996,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/origin.xlsx
+++ b/origin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git_proj/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA8F996-DCEE-7240-8327-3649D3398F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C35404-86B4-B74A-BB17-9454232CCCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="3" xr2:uid="{22BEBE4E-E124-3B4E-B4CF-095D22C75C46}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{22BEBE4E-E124-3B4E-B4CF-095D22C75C46}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTINGS" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="220">
   <si>
     <t>Vol</t>
   </si>
@@ -930,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1030,6 +1030,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1393,8 +1399,8 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1494,7 +1500,7 @@
         <v>208</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N2" s="3"/>
     </row>
@@ -1509,9 +1515,9 @@
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A3,UPDATE!$1:$1,0),TRUE))=FALSE,H3=FALSE),L3,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A3,UPDATE!$1:$1,0))))</f>
         <v>365</v>
       </c>
-      <c r="D3" s="25" t="str">
+      <c r="D3" s="25">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>45115</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>196</v>
@@ -1536,8 +1542,8 @@
       <c r="L3" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>211</v>
+      <c r="M3" s="23">
+        <v>45115</v>
       </c>
       <c r="N3" s="3"/>
     </row>
@@ -1580,7 +1586,7 @@
         <v>208</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -1595,9 +1601,9 @@
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A5,UPDATE!$1:$1,0),TRUE))=FALSE,H5=FALSE),L5,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A5,UPDATE!$1:$1,0))))</f>
         <v>119</v>
       </c>
-      <c r="D5" s="25" t="str">
+      <c r="D5" s="25">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>45115</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>196</v>
@@ -1622,8 +1628,8 @@
       <c r="L5" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>211</v>
+      <c r="M5" s="23">
+        <v>45115</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -1638,12 +1644,12 @@
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A6,UPDATE!$1:$1,0),TRUE))=FALSE,H6=FALSE),L6,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A6,UPDATE!$1:$1,0))))</f>
         <v>40</v>
       </c>
-      <c r="D6" s="25" t="str">
+      <c r="D6" s="25">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>45115</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="F6" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1665,8 +1671,8 @@
       <c r="L6" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="M6" s="16" t="s">
-        <v>211</v>
+      <c r="M6" s="23">
+        <v>45115</v>
       </c>
       <c r="N6" s="3"/>
     </row>
@@ -1755,7 +1761,7 @@
         <v>208</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N8" s="3"/>
     </row>
@@ -1833,7 +1839,7 @@
       </c>
       <c r="I10" s="21">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A10,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A10,UPDATE!$1:$1,0)),0)),K10)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J10" s="15" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A10,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
@@ -1844,7 +1850,7 @@
         <v>208</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N10" s="3"/>
     </row>
@@ -1887,7 +1893,7 @@
         <v>208</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N11" s="3"/>
     </row>
@@ -1932,7 +1938,7 @@
         <v>208</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N12" s="3"/>
     </row>
@@ -1975,7 +1981,7 @@
         <v>208</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N13" s="3"/>
     </row>
@@ -2104,7 +2110,7 @@
         <v>208</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N16" s="3"/>
     </row>
@@ -2150,7 +2156,7 @@
         <v>208</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N17" s="3"/>
     </row>
@@ -2196,7 +2202,7 @@
         <v>208</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N18" s="3"/>
     </row>
@@ -2242,7 +2248,7 @@
         <v>208</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N19" s="3"/>
     </row>
@@ -2457,7 +2463,7 @@
         <v>208</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N24" s="3"/>
     </row>
@@ -2808,7 +2814,7 @@
         <v>208</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N32" s="3"/>
     </row>
@@ -2853,7 +2859,7 @@
         <v>208</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N33" s="3"/>
     </row>
@@ -2898,7 +2904,7 @@
         <v>208</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N34" s="3"/>
     </row>
@@ -3157,7 +3163,7 @@
         <v>208</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -3393,7 +3399,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3401,9 +3407,9 @@
     <col min="1" max="1" width="10.83203125" style="27"/>
     <col min="2" max="14" width="10.83203125" style="1"/>
     <col min="15" max="15" width="10.83203125" style="7"/>
-    <col min="16" max="24" width="10.83203125" style="1"/>
-    <col min="25" max="25" width="10.83203125" style="7"/>
-    <col min="26" max="51" width="10.83203125" style="1"/>
+    <col min="16" max="30" width="10.83203125" style="1"/>
+    <col min="31" max="31" width="10.83203125" style="7"/>
+    <col min="32" max="51" width="10.83203125" style="1"/>
     <col min="52" max="52" width="10.83203125" style="34"/>
     <col min="53" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -3481,7 +3487,7 @@
       <c r="X1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="31" t="s">
+      <c r="Y1" s="28" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="28" t="s">
@@ -3499,7 +3505,7 @@
       <c r="AD1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AE1" s="31" t="s">
         <v>30</v>
       </c>
       <c r="AZ1" s="32"/>
@@ -3611,7 +3617,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE2" s="30" t="e">
+      <c r="AE2" s="39" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -3712,7 +3718,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y3" s="7" t="e">
+      <c r="Y3" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -3736,7 +3742,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE3" s="1" t="e">
+      <c r="AE3" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -3836,7 +3842,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y4" s="7" t="e">
+      <c r="Y4" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -3860,7 +3866,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE4" s="1" t="e">
+      <c r="AE4" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -3960,7 +3966,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y5" s="7" t="e">
+      <c r="Y5" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -3984,7 +3990,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE5" s="1" t="e">
+      <c r="AE5" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4084,7 +4090,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y6" s="7" t="e">
+      <c r="Y6" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4108,7 +4114,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE6" s="1" t="e">
+      <c r="AE6" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4208,7 +4214,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y7" s="7" t="e">
+      <c r="Y7" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4232,7 +4238,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE7" s="1" t="e">
+      <c r="AE7" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4332,7 +4338,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y8" s="7" t="e">
+      <c r="Y8" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4356,7 +4362,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE8" s="1" t="e">
+      <c r="AE8" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4456,7 +4462,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y9" s="7" t="e">
+      <c r="Y9" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4480,7 +4486,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE9" s="1" t="e">
+      <c r="AE9" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4580,7 +4586,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y10" s="7" t="e">
+      <c r="Y10" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4604,7 +4610,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE10" s="1" t="e">
+      <c r="AE10" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4704,7 +4710,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y11" s="7" t="e">
+      <c r="Y11" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4728,7 +4734,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE11" s="1" t="e">
+      <c r="AE11" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4828,7 +4834,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y12" s="7" t="e">
+      <c r="Y12" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4852,7 +4858,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE12" s="1" t="e">
+      <c r="AE12" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4952,7 +4958,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y13" s="7" t="e">
+      <c r="Y13" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -4976,7 +4982,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE13" s="1" t="e">
+      <c r="AE13" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5076,7 +5082,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y14" s="7" t="e">
+      <c r="Y14" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5100,7 +5106,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE14" s="1" t="e">
+      <c r="AE14" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5200,7 +5206,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y15" s="7" t="e">
+      <c r="Y15" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5224,7 +5230,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE15" s="1" t="e">
+      <c r="AE15" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5324,7 +5330,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y16" s="7" t="e">
+      <c r="Y16" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5348,7 +5354,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE16" s="1" t="e">
+      <c r="AE16" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5448,7 +5454,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y17" s="7" t="e">
+      <c r="Y17" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5472,7 +5478,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE17" s="1" t="e">
+      <c r="AE17" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5572,7 +5578,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y18" s="7" t="e">
+      <c r="Y18" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5596,7 +5602,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE18" s="1" t="e">
+      <c r="AE18" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5696,7 +5702,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y19" s="7" t="e">
+      <c r="Y19" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5720,7 +5726,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE19" s="1" t="e">
+      <c r="AE19" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5820,7 +5826,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y20" s="7" t="e">
+      <c r="Y20" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5844,7 +5850,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE20" s="1" t="e">
+      <c r="AE20" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5944,7 +5950,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y21" s="7" t="e">
+      <c r="Y21" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -5968,7 +5974,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE21" s="1" t="e">
+      <c r="AE21" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -6068,7 +6074,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y22" s="7" t="e">
+      <c r="Y22" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -6092,7 +6098,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE22" s="1" t="e">
+      <c r="AE22" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -6192,7 +6198,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y23" s="7" t="e">
+      <c r="Y23" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -6216,7 +6222,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE23" s="1" t="e">
+      <c r="AE23" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -6316,7 +6322,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y24" s="7" t="e">
+      <c r="Y24" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -6340,7 +6346,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE24" s="1" t="e">
+      <c r="AE24" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -6440,7 +6446,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y25" s="7" t="e">
+      <c r="Y25" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -6464,7 +6470,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE25" s="1" t="e">
+      <c r="AE25" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -6564,7 +6570,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y26" s="7" t="e">
+      <c r="Y26" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -6588,7 +6594,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE26" s="1" t="e">
+      <c r="AE26" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -6688,7 +6694,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y27" s="7" t="e">
+      <c r="Y27" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -6712,7 +6718,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE27" s="1" t="e">
+      <c r="AE27" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -6811,7 +6817,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y28" s="7" t="e">
+      <c r="Y28" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -6835,7 +6841,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE28" s="1" t="e">
+      <c r="AE28" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -6934,7 +6940,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y29" s="7" t="e">
+      <c r="Y29" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -6958,7 +6964,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE29" s="1" t="e">
+      <c r="AE29" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7057,7 +7063,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y30" s="7" t="e">
+      <c r="Y30" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7081,7 +7087,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE30" s="1" t="e">
+      <c r="AE30" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7179,7 +7185,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y31" s="7" t="e">
+      <c r="Y31" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7203,7 +7209,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE31" s="1" t="e">
+      <c r="AE31" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7301,7 +7307,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y32" s="7" t="e">
+      <c r="Y32" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7325,7 +7331,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE32" s="1" t="e">
+      <c r="AE32" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7423,7 +7429,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y33" s="7" t="e">
+      <c r="Y33" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7447,7 +7453,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE33" s="1" t="e">
+      <c r="AE33" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7545,7 +7551,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y34" s="7" t="e">
+      <c r="Y34" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7569,7 +7575,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE34" s="1" t="e">
+      <c r="AE34" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7667,7 +7673,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y35" s="7" t="e">
+      <c r="Y35" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7691,7 +7697,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE35" s="1" t="e">
+      <c r="AE35" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7789,7 +7795,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y36" s="7" t="e">
+      <c r="Y36" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7813,7 +7819,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE36" s="1" t="e">
+      <c r="AE36" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7911,7 +7917,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y37" s="7" t="e">
+      <c r="Y37" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7935,7 +7941,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE37" s="1" t="e">
+      <c r="AE37" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8033,7 +8039,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y38" s="7" t="e">
+      <c r="Y38" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8057,7 +8063,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE38" s="1" t="e">
+      <c r="AE38" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8155,7 +8161,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y39" s="7" t="e">
+      <c r="Y39" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8179,7 +8185,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE39" s="1" t="e">
+      <c r="AE39" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8277,7 +8283,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y40" s="7" t="e">
+      <c r="Y40" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8301,7 +8307,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE40" s="1" t="e">
+      <c r="AE40" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8399,7 +8405,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y41" s="7" t="e">
+      <c r="Y41" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8423,7 +8429,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE41" s="1" t="e">
+      <c r="AE41" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8521,7 +8527,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y42" s="7" t="e">
+      <c r="Y42" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8545,7 +8551,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE42" s="1" t="e">
+      <c r="AE42" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8643,7 +8649,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y43" s="7" t="e">
+      <c r="Y43" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8667,7 +8673,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE43" s="1" t="e">
+      <c r="AE43" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8765,7 +8771,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y44" s="7" t="e">
+      <c r="Y44" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8789,7 +8795,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE44" s="1" t="e">
+      <c r="AE44" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8887,7 +8893,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y45" s="7" t="e">
+      <c r="Y45" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -8911,7 +8917,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE45" s="1" t="e">
+      <c r="AE45" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9009,7 +9015,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y46" s="7" t="e">
+      <c r="Y46" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9033,7 +9039,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE46" s="1" t="e">
+      <c r="AE46" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9131,7 +9137,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y47" s="7" t="e">
+      <c r="Y47" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9155,7 +9161,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE47" s="1" t="e">
+      <c r="AE47" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9253,7 +9259,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y48" s="7" t="e">
+      <c r="Y48" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9277,7 +9283,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE48" s="1" t="e">
+      <c r="AE48" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9375,7 +9381,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y49" s="7" t="e">
+      <c r="Y49" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9399,7 +9405,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE49" s="1" t="e">
+      <c r="AE49" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9497,7 +9503,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y50" s="7" t="e">
+      <c r="Y50" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9521,7 +9527,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE50" s="1" t="e">
+      <c r="AE50" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9619,7 +9625,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y51" s="7" t="e">
+      <c r="Y51" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9643,7 +9649,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE51" s="1" t="e">
+      <c r="AE51" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9741,7 +9747,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y52" s="7" t="e">
+      <c r="Y52" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9765,7 +9771,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE52" s="1" t="e">
+      <c r="AE52" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9863,7 +9869,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y53" s="7" t="e">
+      <c r="Y53" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9887,7 +9893,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE53" s="1" t="e">
+      <c r="AE53" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -9985,7 +9991,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y54" s="7" t="e">
+      <c r="Y54" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -10009,7 +10015,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE54" s="1" t="e">
+      <c r="AE54" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -10107,7 +10113,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y55" s="7" t="e">
+      <c r="Y55" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -10131,7 +10137,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE55" s="1" t="e">
+      <c r="AE55" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -10229,7 +10235,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y56" s="7" t="e">
+      <c r="Y56" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -10253,7 +10259,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE56" s="1" t="e">
+      <c r="AE56" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -10351,7 +10357,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y57" s="7" t="e">
+      <c r="Y57" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -10374,7 +10380,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE57" s="1" t="e">
+      <c r="AE57" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -10472,7 +10478,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y58" s="7" t="e">
+      <c r="Y58" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -10495,7 +10501,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE58" s="1" t="e">
+      <c r="AE58" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -10593,7 +10599,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y59" s="7" t="e">
+      <c r="Y59" s="1" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -10616,7 +10622,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE59" s="1" t="e">
+      <c r="AE59" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -10714,7 +10720,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y60" s="7">
+      <c r="Y60" s="1">
         <v>687</v>
       </c>
       <c r="Z60" s="1">
@@ -10736,7 +10742,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE60" s="1" t="e">
+      <c r="AE60" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -10834,7 +10840,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y61" s="7">
+      <c r="Y61" s="1">
         <v>674</v>
       </c>
       <c r="Z61" s="1">
@@ -10856,7 +10862,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE61" s="1" t="e">
+      <c r="AE61" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -10954,7 +10960,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y62" s="7">
+      <c r="Y62" s="1">
         <v>663</v>
       </c>
       <c r="Z62" s="1">
@@ -10976,7 +10982,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE62" s="1" t="e">
+      <c r="AE62" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -11074,7 +11080,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y63" s="7">
+      <c r="Y63" s="1">
         <v>652</v>
       </c>
       <c r="Z63" s="1">
@@ -11096,7 +11102,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE63" s="1" t="e">
+      <c r="AE63" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -11194,7 +11200,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y64" s="7">
+      <c r="Y64" s="1">
         <v>642</v>
       </c>
       <c r="Z64" s="1">
@@ -11216,7 +11222,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE64" s="1" t="e">
+      <c r="AE64" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -11314,7 +11320,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y65" s="7">
+      <c r="Y65" s="1">
         <v>632</v>
       </c>
       <c r="Z65" s="1">
@@ -11336,7 +11342,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE65" s="1" t="e">
+      <c r="AE65" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -11434,7 +11440,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y66" s="7">
+      <c r="Y66" s="1">
         <v>622</v>
       </c>
       <c r="Z66" s="1">
@@ -11456,7 +11462,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE66" s="1" t="e">
+      <c r="AE66" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -11554,7 +11560,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y67" s="7">
+      <c r="Y67" s="1">
         <v>611</v>
       </c>
       <c r="Z67" s="1">
@@ -11576,7 +11582,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE67" s="1" t="e">
+      <c r="AE67" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -11674,7 +11680,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y68" s="7">
+      <c r="Y68" s="1">
         <v>601</v>
       </c>
       <c r="Z68" s="1">
@@ -11696,7 +11702,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE68" s="1" t="e">
+      <c r="AE68" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -11794,7 +11800,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y69" s="7">
+      <c r="Y69" s="1">
         <v>591</v>
       </c>
       <c r="Z69" s="1">
@@ -11816,7 +11822,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE69" s="1" t="e">
+      <c r="AE69" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -11914,7 +11920,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y70" s="7">
+      <c r="Y70" s="1">
         <v>580</v>
       </c>
       <c r="Z70" s="1">
@@ -11936,7 +11942,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE70" s="1" t="e">
+      <c r="AE70" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -12034,7 +12040,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y71" s="7">
+      <c r="Y71" s="1">
         <v>570</v>
       </c>
       <c r="Z71" s="1">
@@ -12056,7 +12062,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE71" s="1" t="e">
+      <c r="AE71" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -12154,7 +12160,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y72" s="7">
+      <c r="Y72" s="1">
         <v>560</v>
       </c>
       <c r="Z72" s="1">
@@ -12176,7 +12182,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE72" s="1" t="e">
+      <c r="AE72" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -12274,7 +12280,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y73" s="7">
+      <c r="Y73" s="1">
         <v>550</v>
       </c>
       <c r="Z73" s="1">
@@ -12296,7 +12302,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE73" s="1" t="e">
+      <c r="AE73" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -12394,7 +12400,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y74" s="7">
+      <c r="Y74" s="1">
         <v>540</v>
       </c>
       <c r="Z74" s="1">
@@ -12416,7 +12422,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE74" s="1" t="e">
+      <c r="AE74" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -12514,7 +12520,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y75" s="7">
+      <c r="Y75" s="1">
         <v>530</v>
       </c>
       <c r="Z75" s="1">
@@ -12536,7 +12542,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE75" s="1" t="e">
+      <c r="AE75" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -12634,7 +12640,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y76" s="7">
+      <c r="Y76" s="1">
         <v>520</v>
       </c>
       <c r="Z76" s="1">
@@ -12656,7 +12662,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE76" s="1" t="e">
+      <c r="AE76" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -12754,7 +12760,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y77" s="7">
+      <c r="Y77" s="1">
         <v>509</v>
       </c>
       <c r="Z77" s="1">
@@ -12776,7 +12782,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE77" s="1" t="e">
+      <c r="AE77" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -12874,7 +12880,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y78" s="7">
+      <c r="Y78" s="1">
         <v>499</v>
       </c>
       <c r="Z78" s="1">
@@ -12896,7 +12902,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE78" s="1" t="e">
+      <c r="AE78" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -12994,7 +13000,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y79" s="7">
+      <c r="Y79" s="1">
         <v>489</v>
       </c>
       <c r="Z79" s="1">
@@ -13016,7 +13022,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE79" s="1" t="e">
+      <c r="AE79" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -13114,7 +13120,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y80" s="7">
+      <c r="Y80" s="1">
         <v>479</v>
       </c>
       <c r="Z80" s="1">
@@ -13136,7 +13142,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE80" s="1" t="e">
+      <c r="AE80" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -13234,7 +13240,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y81" s="7">
+      <c r="Y81" s="1">
         <v>469</v>
       </c>
       <c r="Z81" s="1">
@@ -13256,7 +13262,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE81" s="1" t="e">
+      <c r="AE81" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -13354,7 +13360,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y82" s="7">
+      <c r="Y82" s="1">
         <v>459</v>
       </c>
       <c r="Z82" s="1">
@@ -13376,7 +13382,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE82" s="1" t="e">
+      <c r="AE82" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -13474,7 +13480,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y83" s="7">
+      <c r="Y83" s="1">
         <v>450</v>
       </c>
       <c r="Z83" s="1">
@@ -13496,7 +13502,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE83" s="1" t="e">
+      <c r="AE83" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -13594,7 +13600,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y84" s="7">
+      <c r="Y84" s="1">
         <v>441</v>
       </c>
       <c r="Z84" s="1">
@@ -13616,7 +13622,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE84" s="1" t="e">
+      <c r="AE84" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -13714,7 +13720,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y85" s="7">
+      <c r="Y85" s="1">
         <v>432</v>
       </c>
       <c r="Z85" s="1">
@@ -13736,7 +13742,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE85" s="1" t="e">
+      <c r="AE85" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -13834,7 +13840,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y86" s="7">
+      <c r="Y86" s="1">
         <v>423</v>
       </c>
       <c r="Z86" s="1">
@@ -13856,7 +13862,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE86" s="1" t="e">
+      <c r="AE86" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -13954,7 +13960,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y87" s="7">
+      <c r="Y87" s="1">
         <v>413</v>
       </c>
       <c r="Z87" s="1">
@@ -13976,7 +13982,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE87" s="1" t="e">
+      <c r="AE87" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -14074,7 +14080,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y88" s="7">
+      <c r="Y88" s="1">
         <v>404</v>
       </c>
       <c r="Z88" s="1">
@@ -14096,7 +14102,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE88" s="1" t="e">
+      <c r="AE88" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -14194,7 +14200,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y89" s="7">
+      <c r="Y89" s="1">
         <v>395</v>
       </c>
       <c r="Z89" s="1">
@@ -14216,7 +14222,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE89" s="1" t="e">
+      <c r="AE89" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -14314,7 +14320,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y90" s="7">
+      <c r="Y90" s="1">
         <v>386</v>
       </c>
       <c r="Z90" s="1">
@@ -14336,7 +14342,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE90" s="1" t="e">
+      <c r="AE90" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -14434,7 +14440,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="Y91" s="7">
+      <c r="Y91" s="1">
         <v>377</v>
       </c>
       <c r="Z91" s="1">
@@ -14456,7 +14462,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE91" s="1" t="e">
+      <c r="AE91" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -14553,7 +14559,7 @@
       <c r="X92" s="1">
         <v>519</v>
       </c>
-      <c r="Y92" s="7">
+      <c r="Y92" s="1">
         <v>367</v>
       </c>
       <c r="Z92" s="1">
@@ -14575,7 +14581,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE92" s="1" t="e">
+      <c r="AE92" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -14671,7 +14677,7 @@
       <c r="X93" s="1">
         <v>502</v>
       </c>
-      <c r="Y93" s="7">
+      <c r="Y93" s="1">
         <v>358</v>
       </c>
       <c r="Z93" s="1">
@@ -14693,7 +14699,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE93" s="1" t="e">
+      <c r="AE93" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -14789,7 +14795,7 @@
       <c r="X94" s="1">
         <v>485</v>
       </c>
-      <c r="Y94" s="7">
+      <c r="Y94" s="1">
         <v>349</v>
       </c>
       <c r="Z94" s="1">
@@ -14811,7 +14817,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE94" s="1" t="e">
+      <c r="AE94" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -14907,7 +14913,7 @@
       <c r="X95" s="1">
         <v>472</v>
       </c>
-      <c r="Y95" s="7">
+      <c r="Y95" s="1">
         <v>340</v>
       </c>
       <c r="Z95" s="1">
@@ -14929,7 +14935,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE95" s="1" t="e">
+      <c r="AE95" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -15024,7 +15030,7 @@
       <c r="X96" s="1">
         <v>459</v>
       </c>
-      <c r="Y96" s="7">
+      <c r="Y96" s="1">
         <v>331</v>
       </c>
       <c r="Z96" s="1">
@@ -15046,7 +15052,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE96" s="1" t="e">
+      <c r="AE96" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -15140,7 +15146,7 @@
       <c r="X97" s="1">
         <v>445</v>
       </c>
-      <c r="Y97" s="7">
+      <c r="Y97" s="1">
         <v>322</v>
       </c>
       <c r="Z97" s="1">
@@ -15162,7 +15168,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE97" s="1" t="e">
+      <c r="AE97" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -15256,6 +15262,9 @@
       <c r="X98" s="1">
         <v>432</v>
       </c>
+      <c r="Y98" s="1">
+        <v>315</v>
+      </c>
       <c r="Z98" s="1">
         <v>318</v>
       </c>
@@ -15275,7 +15284,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE98" s="1" t="e">
+      <c r="AE98" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -15368,8 +15377,8 @@
       <c r="X99" s="1">
         <v>420</v>
       </c>
-      <c r="Y99" s="7">
-        <v>315</v>
+      <c r="Y99" s="1">
+        <v>314</v>
       </c>
       <c r="Z99" s="1">
         <v>309</v>
@@ -15390,7 +15399,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE99" s="1" t="e">
+      <c r="AE99" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -15482,7 +15491,7 @@
       <c r="X100" s="1">
         <v>408</v>
       </c>
-      <c r="Y100" s="7">
+      <c r="Y100" s="1">
         <v>305</v>
       </c>
       <c r="Z100" s="1">
@@ -15504,7 +15513,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE100" s="1" t="e">
+      <c r="AE100" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -15596,7 +15605,7 @@
       <c r="X101" s="1">
         <v>396</v>
       </c>
-      <c r="Y101" s="7">
+      <c r="Y101" s="1">
         <v>295</v>
       </c>
       <c r="Z101" s="1">
@@ -15618,7 +15627,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE101" s="1" t="e">
+      <c r="AE101" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -15710,7 +15719,7 @@
       <c r="X102" s="1">
         <v>385</v>
       </c>
-      <c r="Y102" s="7">
+      <c r="Y102" s="1">
         <v>286</v>
       </c>
       <c r="Z102" s="1">
@@ -15732,7 +15741,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE102" s="1" t="e">
+      <c r="AE102" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -15824,7 +15833,7 @@
       <c r="X103" s="1">
         <v>373</v>
       </c>
-      <c r="Y103" s="7">
+      <c r="Y103" s="1">
         <v>278</v>
       </c>
       <c r="Z103" s="1">
@@ -15846,7 +15855,7 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE103" s="1" t="e">
+      <c r="AE103" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -15937,7 +15946,7 @@
       <c r="X104" s="1">
         <v>361</v>
       </c>
-      <c r="Y104" s="7">
+      <c r="Y104" s="1">
         <v>269</v>
       </c>
       <c r="Z104" s="1">
@@ -15958,7 +15967,7 @@
       <c r="AD104" s="1">
         <v>206</v>
       </c>
-      <c r="AE104" s="1" t="e">
+      <c r="AE104" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -16049,7 +16058,7 @@
       <c r="X105" s="1">
         <v>349</v>
       </c>
-      <c r="Y105" s="7">
+      <c r="Y105" s="1">
         <v>260</v>
       </c>
       <c r="Z105" s="1">
@@ -16070,7 +16079,7 @@
       <c r="AD105" s="1">
         <v>197</v>
       </c>
-      <c r="AE105" s="1" t="e">
+      <c r="AE105" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -16161,7 +16170,7 @@
       <c r="X106" s="1">
         <v>337</v>
       </c>
-      <c r="Y106" s="7">
+      <c r="Y106" s="1">
         <v>251</v>
       </c>
       <c r="Z106" s="1">
@@ -16182,7 +16191,7 @@
       <c r="AD106" s="1">
         <v>191</v>
       </c>
-      <c r="AE106" s="1" t="e">
+      <c r="AE106" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -16272,7 +16281,7 @@
       <c r="X107" s="1">
         <v>325</v>
       </c>
-      <c r="Y107" s="7">
+      <c r="Y107" s="1">
         <v>242</v>
       </c>
       <c r="Z107" s="1">
@@ -16293,7 +16302,7 @@
       <c r="AD107" s="1">
         <v>184</v>
       </c>
-      <c r="AE107" s="1" t="e">
+      <c r="AE107" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -16383,7 +16392,7 @@
       <c r="X108" s="1">
         <v>313</v>
       </c>
-      <c r="Y108" s="7">
+      <c r="Y108" s="1">
         <v>233</v>
       </c>
       <c r="Z108" s="1">
@@ -16404,7 +16413,7 @@
       <c r="AD108" s="1">
         <v>177</v>
       </c>
-      <c r="AE108" s="1" t="e">
+      <c r="AE108" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -16494,7 +16503,7 @@
       <c r="X109" s="1">
         <v>300</v>
       </c>
-      <c r="Y109" s="7">
+      <c r="Y109" s="1">
         <v>223</v>
       </c>
       <c r="Z109" s="1">
@@ -16515,7 +16524,7 @@
       <c r="AD109" s="1">
         <v>169</v>
       </c>
-      <c r="AE109" s="1" t="e">
+      <c r="AE109" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -16605,7 +16614,7 @@
       <c r="X110" s="1">
         <v>288</v>
       </c>
-      <c r="Y110" s="7">
+      <c r="Y110" s="1">
         <v>214</v>
       </c>
       <c r="Z110" s="1">
@@ -16626,7 +16635,7 @@
       <c r="AD110" s="1">
         <v>162</v>
       </c>
-      <c r="AE110" s="1" t="e">
+      <c r="AE110" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -16715,7 +16724,7 @@
       <c r="X111" s="1">
         <v>276</v>
       </c>
-      <c r="Y111" s="7">
+      <c r="Y111" s="1">
         <v>205</v>
       </c>
       <c r="Z111" s="1">
@@ -16736,7 +16745,7 @@
       <c r="AD111" s="1">
         <v>155</v>
       </c>
-      <c r="AE111" s="1" t="e">
+      <c r="AE111" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -16825,15 +16834,14 @@
       <c r="X112" s="1">
         <v>264</v>
       </c>
-      <c r="Y112" s="7">
+      <c r="Y112" s="1">
         <v>197</v>
       </c>
       <c r="Z112" s="1">
         <v>193</v>
       </c>
-      <c r="AA112" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA112" s="1">
+        <v>194</v>
       </c>
       <c r="AB112" s="1" t="e">
         <f>NA()</f>
@@ -16846,7 +16854,7 @@
       <c r="AD112" s="1">
         <v>148</v>
       </c>
-      <c r="AE112" s="1" t="e">
+      <c r="AE112" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -16935,15 +16943,14 @@
       <c r="X113" s="1">
         <v>252</v>
       </c>
-      <c r="Y113" s="7">
+      <c r="Y113" s="1">
         <v>187</v>
       </c>
       <c r="Z113" s="1">
         <v>184</v>
       </c>
-      <c r="AA113" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA113" s="1">
+        <v>184</v>
       </c>
       <c r="AB113" s="1" t="e">
         <f>NA()</f>
@@ -16956,7 +16963,7 @@
       <c r="AD113" s="1">
         <v>141</v>
       </c>
-      <c r="AE113" s="1" t="e">
+      <c r="AE113" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -17045,15 +17052,14 @@
       <c r="X114" s="1">
         <v>240</v>
       </c>
-      <c r="Y114" s="7">
+      <c r="Y114" s="1">
         <v>178</v>
       </c>
       <c r="Z114" s="1">
         <v>175</v>
       </c>
-      <c r="AA114" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA114" s="1">
+        <v>175</v>
       </c>
       <c r="AB114" s="1" t="e">
         <f>NA()</f>
@@ -17066,7 +17072,7 @@
       <c r="AD114" s="1">
         <v>134</v>
       </c>
-      <c r="AE114" s="1" t="e">
+      <c r="AE114" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -17153,15 +17159,14 @@
       <c r="X115" s="1">
         <v>228</v>
       </c>
-      <c r="Y115" s="7">
+      <c r="Y115" s="1">
         <v>168</v>
       </c>
       <c r="Z115" s="1">
         <v>166</v>
       </c>
-      <c r="AA115" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA115" s="1">
+        <v>166</v>
       </c>
       <c r="AB115" s="1" t="e">
         <f>NA()</f>
@@ -17174,7 +17179,7 @@
       <c r="AD115" s="1">
         <v>127</v>
       </c>
-      <c r="AE115" s="1" t="e">
+      <c r="AE115" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -17261,15 +17266,14 @@
       <c r="X116" s="1">
         <v>216</v>
       </c>
-      <c r="Y116" s="7">
+      <c r="Y116" s="1">
         <v>158</v>
       </c>
       <c r="Z116" s="1">
         <v>157</v>
       </c>
-      <c r="AA116" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA116" s="1">
+        <v>157</v>
       </c>
       <c r="AB116" s="1" t="e">
         <f>NA()</f>
@@ -17282,7 +17286,7 @@
       <c r="AD116" s="1">
         <v>120</v>
       </c>
-      <c r="AE116" s="1" t="e">
+      <c r="AE116" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -17369,15 +17373,14 @@
       <c r="X117" s="1">
         <v>205</v>
       </c>
-      <c r="Y117" s="7">
+      <c r="Y117" s="1">
         <v>149</v>
       </c>
       <c r="Z117" s="1">
         <v>148</v>
       </c>
-      <c r="AA117" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA117" s="1">
+        <v>148</v>
       </c>
       <c r="AB117" s="1" t="e">
         <f>NA()</f>
@@ -17390,7 +17393,7 @@
       <c r="AD117" s="1">
         <v>113</v>
       </c>
-      <c r="AE117" s="1" t="e">
+      <c r="AE117" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -17476,15 +17479,14 @@
       <c r="X118" s="1">
         <v>194</v>
       </c>
-      <c r="Y118" s="7">
+      <c r="Y118" s="1">
         <v>139</v>
       </c>
       <c r="Z118" s="1">
         <v>139</v>
       </c>
-      <c r="AA118" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA118" s="1">
+        <v>139</v>
       </c>
       <c r="AB118" s="1" t="e">
         <f>NA()</f>
@@ -17496,7 +17498,7 @@
       <c r="AD118" s="1">
         <v>105</v>
       </c>
-      <c r="AE118" s="1" t="e">
+      <c r="AE118" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -17582,15 +17584,14 @@
       <c r="X119" s="1">
         <v>180</v>
       </c>
-      <c r="Y119" s="7">
+      <c r="Y119" s="1">
         <v>130</v>
       </c>
       <c r="Z119" s="1">
         <v>130</v>
       </c>
-      <c r="AA119" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA119" s="1">
+        <v>130</v>
       </c>
       <c r="AB119" s="1" t="e">
         <f>NA()</f>
@@ -17602,7 +17603,7 @@
       <c r="AD119" s="1">
         <v>98</v>
       </c>
-      <c r="AE119" s="1" t="e">
+      <c r="AE119" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -17688,15 +17689,14 @@
       <c r="X120" s="1">
         <v>168</v>
       </c>
-      <c r="Y120" s="7">
+      <c r="Y120" s="1">
         <v>123</v>
       </c>
       <c r="Z120" s="1">
         <v>121</v>
       </c>
-      <c r="AA120" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA120" s="1">
+        <v>121</v>
       </c>
       <c r="AB120" s="1" t="e">
         <f>NA()</f>
@@ -17708,7 +17708,7 @@
       <c r="AD120" s="1">
         <v>91</v>
       </c>
-      <c r="AE120" s="1" t="e">
+      <c r="AE120" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -17793,15 +17793,14 @@
       <c r="X121" s="1">
         <v>156</v>
       </c>
-      <c r="Y121" s="7">
+      <c r="Y121" s="1">
         <v>115</v>
       </c>
       <c r="Z121" s="1">
         <v>112</v>
       </c>
-      <c r="AA121" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA121" s="1">
+        <v>112</v>
       </c>
       <c r="AB121" s="1">
         <v>127</v>
@@ -17812,7 +17811,7 @@
       <c r="AD121" s="1">
         <v>83</v>
       </c>
-      <c r="AE121" s="1" t="e">
+      <c r="AE121" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -17896,15 +17895,14 @@
       <c r="X122" s="1">
         <v>144</v>
       </c>
-      <c r="Y122" s="7">
+      <c r="Y122" s="1">
         <v>107</v>
       </c>
       <c r="Z122" s="1">
         <v>103</v>
       </c>
-      <c r="AA122" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA122" s="1">
+        <v>103</v>
       </c>
       <c r="AB122" s="1">
         <v>116</v>
@@ -17915,7 +17913,7 @@
       <c r="AD122" s="1">
         <v>75</v>
       </c>
-      <c r="AE122" s="1" t="e">
+      <c r="AE122" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -17997,15 +17995,14 @@
       <c r="X123" s="1">
         <v>132</v>
       </c>
-      <c r="Y123" s="7">
+      <c r="Y123" s="1">
         <v>98</v>
       </c>
       <c r="Z123" s="1">
         <v>94</v>
       </c>
-      <c r="AA123" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA123" s="1">
+        <v>94</v>
       </c>
       <c r="AB123" s="1">
         <v>106</v>
@@ -18016,7 +18013,7 @@
       <c r="AD123" s="1">
         <v>67</v>
       </c>
-      <c r="AE123" s="1" t="e">
+      <c r="AE123" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -18098,15 +18095,14 @@
       <c r="X124" s="1">
         <v>120</v>
       </c>
-      <c r="Y124" s="7">
+      <c r="Y124" s="1">
         <v>88</v>
       </c>
       <c r="Z124" s="1">
         <v>85</v>
       </c>
-      <c r="AA124" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA124" s="1">
+        <v>85</v>
       </c>
       <c r="AB124" s="1">
         <v>96</v>
@@ -18117,7 +18113,7 @@
       <c r="AD124" s="1">
         <v>59</v>
       </c>
-      <c r="AE124" s="1" t="e">
+      <c r="AE124" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -18199,15 +18195,14 @@
       <c r="X125" s="1">
         <v>108</v>
       </c>
-      <c r="Y125" s="7">
+      <c r="Y125" s="1">
         <v>79</v>
       </c>
       <c r="Z125" s="1">
         <v>76</v>
       </c>
-      <c r="AA125" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA125" s="1">
+        <v>76</v>
       </c>
       <c r="AB125" s="1">
         <v>87</v>
@@ -18218,7 +18213,7 @@
       <c r="AD125" s="1">
         <v>53</v>
       </c>
-      <c r="AE125" s="1" t="e">
+      <c r="AE125" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -18300,15 +18295,14 @@
       <c r="X126" s="1">
         <v>96</v>
       </c>
-      <c r="Y126" s="7">
+      <c r="Y126" s="1">
         <v>70</v>
       </c>
       <c r="Z126" s="1">
         <v>67</v>
       </c>
-      <c r="AA126" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA126" s="1">
+        <v>67</v>
       </c>
       <c r="AB126" s="1">
         <v>76</v>
@@ -18319,7 +18313,7 @@
       <c r="AD126" s="1">
         <v>47</v>
       </c>
-      <c r="AE126" s="1" t="e">
+      <c r="AE126" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -18401,15 +18395,14 @@
       <c r="X127" s="1">
         <v>84</v>
       </c>
-      <c r="Y127" s="7">
+      <c r="Y127" s="1">
         <v>61</v>
       </c>
       <c r="Z127" s="1">
         <v>58</v>
       </c>
-      <c r="AA127" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA127" s="1">
+        <v>58</v>
       </c>
       <c r="AB127" s="1">
         <v>66</v>
@@ -18420,7 +18413,7 @@
       <c r="AD127" s="1">
         <v>40</v>
       </c>
-      <c r="AE127" s="1" t="e">
+      <c r="AE127" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -18501,15 +18494,14 @@
       <c r="X128" s="1">
         <v>72</v>
       </c>
-      <c r="Y128" s="7">
+      <c r="Y128" s="1">
         <v>52</v>
       </c>
       <c r="Z128" s="1">
         <v>49</v>
       </c>
-      <c r="AA128" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA128" s="1">
+        <v>49</v>
       </c>
       <c r="AB128" s="1">
         <v>56</v>
@@ -18520,7 +18512,7 @@
       <c r="AD128" s="1">
         <v>31</v>
       </c>
-      <c r="AE128" s="1" t="e">
+      <c r="AE128" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -18601,15 +18593,14 @@
       <c r="X129" s="1">
         <v>60</v>
       </c>
-      <c r="Y129" s="7">
+      <c r="Y129" s="1">
         <v>43</v>
       </c>
       <c r="Z129" s="1">
         <v>40</v>
       </c>
-      <c r="AA129" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA129" s="1">
+        <v>41</v>
       </c>
       <c r="AB129" s="1">
         <v>46</v>
@@ -18620,7 +18611,7 @@
       <c r="AD129" s="1">
         <v>24</v>
       </c>
-      <c r="AE129" s="1" t="e">
+      <c r="AE129" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -18701,15 +18692,14 @@
       <c r="X130" s="1">
         <v>48</v>
       </c>
-      <c r="Y130" s="7">
+      <c r="Y130" s="1">
         <v>34</v>
       </c>
       <c r="Z130" s="1">
         <v>31</v>
       </c>
-      <c r="AA130" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA130" s="1">
+        <v>32</v>
       </c>
       <c r="AB130" s="1">
         <v>36</v>
@@ -18720,7 +18710,7 @@
       <c r="AD130" s="1">
         <v>19</v>
       </c>
-      <c r="AE130" s="1" t="e">
+      <c r="AE130" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -18801,15 +18791,14 @@
       <c r="X131" s="1">
         <v>36</v>
       </c>
-      <c r="Y131" s="7">
+      <c r="Y131" s="1">
         <v>25</v>
       </c>
       <c r="Z131" s="1">
         <v>22</v>
       </c>
-      <c r="AA131" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA131" s="1">
+        <v>23</v>
       </c>
       <c r="AB131" s="1">
         <v>26</v>
@@ -18820,7 +18809,7 @@
       <c r="AD131" s="1">
         <v>13</v>
       </c>
-      <c r="AE131" s="1" t="e">
+      <c r="AE131" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -18901,15 +18890,14 @@
       <c r="X132" s="1">
         <v>24</v>
       </c>
-      <c r="Y132" s="7">
+      <c r="Y132" s="1">
         <v>16</v>
       </c>
       <c r="Z132" s="1">
         <v>13</v>
       </c>
-      <c r="AA132" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA132" s="1">
+        <v>14</v>
       </c>
       <c r="AB132" s="1">
         <v>16</v>
@@ -18920,7 +18908,7 @@
       <c r="AD132" s="1">
         <v>8</v>
       </c>
-      <c r="AE132" s="1" t="e">
+      <c r="AE132" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -19001,15 +18989,14 @@
       <c r="X133" s="1">
         <v>11</v>
       </c>
-      <c r="Y133" s="7">
+      <c r="Y133" s="1">
         <v>7</v>
       </c>
       <c r="Z133" s="1">
         <v>6</v>
       </c>
-      <c r="AA133" s="1" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="AA133" s="1">
+        <v>5</v>
       </c>
       <c r="AB133" s="1">
         <v>6</v>
@@ -19020,7 +19007,7 @@
       <c r="AD133" s="1">
         <v>3</v>
       </c>
-      <c r="AE133" s="1" t="e">
+      <c r="AE133" s="7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -19995,8 +19982,8 @@
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20005,7 +19992,8 @@
     <col min="2" max="2" width="39.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="10"/>
     <col min="4" max="4" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="15" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="37" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="130.5" style="38" bestFit="1" customWidth="1"/>
@@ -20058,7 +20046,7 @@
         <f>IF(SETTINGS!D2&lt;&gt;"",SETTINGS!D2,"")</f>
         <v>-</v>
       </c>
-      <c r="E2" s="15" t="str">
+      <c r="E2" s="40" t="str">
         <f>IF(SETTINGS!E2&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E2,$I:$J,2,FALSE),SETTINGS!E2),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20090,11 +20078,11 @@
         <f>IF(SETTINGS!C3&lt;&gt;"",SETTINGS!C3,"")</f>
         <v>365</v>
       </c>
-      <c r="D3" s="36" t="str">
+      <c r="D3" s="36">
         <f>IF(SETTINGS!D3&lt;&gt;"",SETTINGS!D3,"")</f>
-        <v>*</v>
-      </c>
-      <c r="E3" s="15" t="str">
+        <v>45115</v>
+      </c>
+      <c r="E3" s="40" t="str">
         <f>IF(SETTINGS!E3&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E3,$I:$J,2,FALSE),SETTINGS!E3),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20130,7 +20118,7 @@
         <f>IF(SETTINGS!D4&lt;&gt;"",SETTINGS!D4,"")</f>
         <v>-</v>
       </c>
-      <c r="E4" s="15" t="str">
+      <c r="E4" s="40" t="str">
         <f>IF(SETTINGS!E4&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E4,$I:$J,2,FALSE),SETTINGS!E4),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -20162,11 +20150,11 @@
         <f>IF(SETTINGS!C5&lt;&gt;"",SETTINGS!C5,"")</f>
         <v>119</v>
       </c>
-      <c r="D5" s="36" t="str">
+      <c r="D5" s="36">
         <f>IF(SETTINGS!D5&lt;&gt;"",SETTINGS!D5,"")</f>
-        <v>*</v>
-      </c>
-      <c r="E5" s="15" t="str">
+        <v>45115</v>
+      </c>
+      <c r="E5" s="40" t="str">
         <f>IF(SETTINGS!E5&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E5,$I:$J,2,FALSE),SETTINGS!E5),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20198,13 +20186,13 @@
         <f>IF(SETTINGS!C6&lt;&gt;"",SETTINGS!C6,"")</f>
         <v>40</v>
       </c>
-      <c r="D6" s="36" t="str">
+      <c r="D6" s="36">
         <f>IF(SETTINGS!D6&lt;&gt;"",SETTINGS!D6,"")</f>
-        <v>*</v>
-      </c>
-      <c r="E6" s="15" t="str">
+        <v>45115</v>
+      </c>
+      <c r="E6" s="40" t="str">
         <f>IF(SETTINGS!E6&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E6,$I:$J,2,FALSE),SETTINGS!E6),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+        <v>&lt;a href="https://mangafoxfull.com/manga/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangafoxfull.com/manga/"&gt; MFF&lt;/a&gt;</v>
       </c>
       <c r="F6" s="15" t="str">
         <f>IF(SETTINGS!F6&lt;&gt;"",SETTINGS!F6,"")</f>
@@ -20238,7 +20226,7 @@
         <f>IF(SETTINGS!D7&lt;&gt;"",SETTINGS!D7,"")</f>
         <v>*</v>
       </c>
-      <c r="E7" s="15" t="str">
+      <c r="E7" s="40" t="str">
         <f>IF(SETTINGS!E7&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E7,$I:$J,2,FALSE),SETTINGS!E7),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -20268,7 +20256,7 @@
         <f>IF(SETTINGS!D8&lt;&gt;"",SETTINGS!D8,"")</f>
         <v>-</v>
       </c>
-      <c r="E8" s="15" t="str">
+      <c r="E8" s="40" t="str">
         <f>IF(SETTINGS!E8&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E8,$I:$J,2,FALSE),SETTINGS!E8),"")</f>
         <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
@@ -20298,7 +20286,7 @@
         <f>IF(SETTINGS!D9&lt;&gt;"",SETTINGS!D9,"")</f>
         <v>*</v>
       </c>
-      <c r="E9" s="15" t="str">
+      <c r="E9" s="40" t="str">
         <f>IF(SETTINGS!E9&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E9,$I:$J,2,FALSE),SETTINGS!E9),"")</f>
         <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
@@ -20328,7 +20316,7 @@
         <f>IF(SETTINGS!D10&lt;&gt;"",SETTINGS!D10,"")</f>
         <v>-</v>
       </c>
-      <c r="E10" s="15" t="str">
+      <c r="E10" s="40" t="str">
         <f>IF(SETTINGS!E10&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E10,$I:$J,2,FALSE),SETTINGS!E10),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20358,7 +20346,7 @@
         <f>IF(SETTINGS!D11&lt;&gt;"",SETTINGS!D11,"")</f>
         <v>-</v>
       </c>
-      <c r="E11" s="15" t="str">
+      <c r="E11" s="40" t="str">
         <f>IF(SETTINGS!E11&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E11,$I:$J,2,FALSE),SETTINGS!E11),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20388,7 +20376,7 @@
         <f>IF(SETTINGS!D12&lt;&gt;"",SETTINGS!D12,"")</f>
         <v>-</v>
       </c>
-      <c r="E12" s="15" t="str">
+      <c r="E12" s="40" t="str">
         <f>IF(SETTINGS!E12&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E12,$I:$J,2,FALSE),SETTINGS!E12),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20418,7 +20406,7 @@
         <f>IF(SETTINGS!D13&lt;&gt;"",SETTINGS!D13,"")</f>
         <v>-</v>
       </c>
-      <c r="E13" s="15" t="str">
+      <c r="E13" s="40" t="str">
         <f>IF(SETTINGS!E13&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E13,$I:$J,2,FALSE),SETTINGS!E13),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -20448,7 +20436,7 @@
         <f>IF(SETTINGS!D14&lt;&gt;"",SETTINGS!D14,"")</f>
         <v>*</v>
       </c>
-      <c r="E14" s="15" t="str">
+      <c r="E14" s="40" t="str">
         <f>IF(SETTINGS!E14&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E14,$I:$J,2,FALSE),SETTINGS!E14),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20478,7 +20466,7 @@
         <f>IF(SETTINGS!D15&lt;&gt;"",SETTINGS!D15,"")</f>
         <v>45114</v>
       </c>
-      <c r="E15" s="15" t="str">
+      <c r="E15" s="40" t="str">
         <f>IF(SETTINGS!E15&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E15,$I:$J,2,FALSE),SETTINGS!E15),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20508,7 +20496,7 @@
         <f>IF(SETTINGS!D16&lt;&gt;"",SETTINGS!D16,"")</f>
         <v>-</v>
       </c>
-      <c r="E16" s="15" t="str">
+      <c r="E16" s="40" t="str">
         <f>IF(SETTINGS!E16&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E16,$I:$J,2,FALSE),SETTINGS!E16),"")</f>
         <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
@@ -20538,7 +20526,7 @@
         <f>IF(SETTINGS!D17&lt;&gt;"",SETTINGS!D17,"")</f>
         <v>-</v>
       </c>
-      <c r="E17" s="15" t="str">
+      <c r="E17" s="40" t="str">
         <f>IF(SETTINGS!E17&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E17,$I:$J,2,FALSE),SETTINGS!E17),"")</f>
         <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
@@ -20568,7 +20556,7 @@
         <f>IF(SETTINGS!D18&lt;&gt;"",SETTINGS!D18,"")</f>
         <v>-</v>
       </c>
-      <c r="E18" s="15" t="str">
+      <c r="E18" s="40" t="str">
         <f>IF(SETTINGS!E18&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E18,$I:$J,2,FALSE),SETTINGS!E18),"")</f>
         <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
@@ -20598,7 +20586,7 @@
         <f>IF(SETTINGS!D19&lt;&gt;"",SETTINGS!D19,"")</f>
         <v>-</v>
       </c>
-      <c r="E19" s="15" t="str">
+      <c r="E19" s="40" t="str">
         <f>IF(SETTINGS!E19&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E19,$I:$J,2,FALSE),SETTINGS!E19),"")</f>
         <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
@@ -20628,7 +20616,7 @@
         <f>IF(SETTINGS!D20&lt;&gt;"",SETTINGS!D20,"")</f>
         <v>*</v>
       </c>
-      <c r="E20" s="15" t="str">
+      <c r="E20" s="40" t="str">
         <f>IF(SETTINGS!E20&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E20,$I:$J,2,FALSE),SETTINGS!E20),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20658,7 +20646,7 @@
         <f>IF(SETTINGS!D21&lt;&gt;"",SETTINGS!D21,"")</f>
         <v>*</v>
       </c>
-      <c r="E21" s="15" t="str">
+      <c r="E21" s="40" t="str">
         <f>IF(SETTINGS!E21&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E21,$I:$J,2,FALSE),SETTINGS!E21),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20688,7 +20676,7 @@
         <f>IF(SETTINGS!D22&lt;&gt;"",SETTINGS!D22,"")</f>
         <v>*</v>
       </c>
-      <c r="E22" s="15" t="str">
+      <c r="E22" s="40" t="str">
         <f>IF(SETTINGS!E22&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E22,$I:$J,2,FALSE),SETTINGS!E22),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20718,7 +20706,7 @@
         <f>IF(SETTINGS!D23&lt;&gt;"",SETTINGS!D23,"")</f>
         <v>*</v>
       </c>
-      <c r="E23" s="15" t="str">
+      <c r="E23" s="40" t="str">
         <f>IF(SETTINGS!E23&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E23,$I:$J,2,FALSE),SETTINGS!E23),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20748,7 +20736,7 @@
         <f>IF(SETTINGS!D24&lt;&gt;"",SETTINGS!D24,"")</f>
         <v>-</v>
       </c>
-      <c r="E24" s="15" t="str">
+      <c r="E24" s="40" t="str">
         <f>IF(SETTINGS!E24&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E24,$I:$J,2,FALSE),SETTINGS!E24),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20778,7 +20766,7 @@
         <f>IF(SETTINGS!D25&lt;&gt;"",SETTINGS!D25,"")</f>
         <v>*</v>
       </c>
-      <c r="E25" s="15" t="str">
+      <c r="E25" s="40" t="str">
         <f>IF(SETTINGS!E25&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E25,$I:$J,2,FALSE),SETTINGS!E25),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20808,7 +20796,7 @@
         <f>IF(SETTINGS!D26&lt;&gt;"",SETTINGS!D26,"")</f>
         <v>*</v>
       </c>
-      <c r="E26" s="15" t="str">
+      <c r="E26" s="40" t="str">
         <f>IF(SETTINGS!E26&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E26,$I:$J,2,FALSE),SETTINGS!E26),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -20838,7 +20826,7 @@
         <f>IF(SETTINGS!D27&lt;&gt;"",SETTINGS!D27,"")</f>
         <v>45114</v>
       </c>
-      <c r="E27" s="15" t="str">
+      <c r="E27" s="40" t="str">
         <f>IF(SETTINGS!E27&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E27,$I:$J,2,FALSE),SETTINGS!E27),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20868,7 +20856,7 @@
         <f>IF(SETTINGS!D28&lt;&gt;"",SETTINGS!D28,"")</f>
         <v>*</v>
       </c>
-      <c r="E28" s="15" t="str">
+      <c r="E28" s="40" t="str">
         <f>IF(SETTINGS!E28&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E28,$I:$J,2,FALSE),SETTINGS!E28),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20898,7 +20886,7 @@
         <f>IF(SETTINGS!D29&lt;&gt;"",SETTINGS!D29,"")</f>
         <v>*</v>
       </c>
-      <c r="E29" s="15" t="str">
+      <c r="E29" s="40" t="str">
         <f>IF(SETTINGS!E29&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E29,$I:$J,2,FALSE),SETTINGS!E29),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20928,7 +20916,7 @@
         <f>IF(SETTINGS!D30&lt;&gt;"",SETTINGS!D30,"")</f>
         <v>*</v>
       </c>
-      <c r="E30" s="15" t="str">
+      <c r="E30" s="40" t="str">
         <f>IF(SETTINGS!E30&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E30,$I:$J,2,FALSE),SETTINGS!E30),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20958,7 +20946,7 @@
         <f>IF(SETTINGS!D31&lt;&gt;"",SETTINGS!D31,"")</f>
         <v>*</v>
       </c>
-      <c r="E31" s="15" t="str">
+      <c r="E31" s="40" t="str">
         <f>IF(SETTINGS!E31&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E31,$I:$J,2,FALSE),SETTINGS!E31),"")</f>
         <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; MJ&lt;/a&gt;</v>
       </c>
@@ -20988,7 +20976,7 @@
         <f>IF(SETTINGS!D32&lt;&gt;"",SETTINGS!D32,"")</f>
         <v>-</v>
       </c>
-      <c r="E32" s="15" t="str">
+      <c r="E32" s="40" t="str">
         <f>IF(SETTINGS!E32&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E32,$I:$J,2,FALSE),SETTINGS!E32),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -21018,7 +21006,7 @@
         <f>IF(SETTINGS!D33&lt;&gt;"",SETTINGS!D33,"")</f>
         <v>-</v>
       </c>
-      <c r="E33" s="15" t="str">
+      <c r="E33" s="40" t="str">
         <f>IF(SETTINGS!E33&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E33,$I:$J,2,FALSE),SETTINGS!E33),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -21048,7 +21036,7 @@
         <f>IF(SETTINGS!D34&lt;&gt;"",SETTINGS!D34,"")</f>
         <v>-</v>
       </c>
-      <c r="E34" s="15" t="str">
+      <c r="E34" s="40" t="str">
         <f>IF(SETTINGS!E34&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E34,$I:$J,2,FALSE),SETTINGS!E34),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -21078,7 +21066,7 @@
         <f>IF(SETTINGS!D35&lt;&gt;"",SETTINGS!D35,"")</f>
         <v>*</v>
       </c>
-      <c r="E35" s="15" t="str">
+      <c r="E35" s="40" t="str">
         <f>IF(SETTINGS!E35&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E35,$I:$J,2,FALSE),SETTINGS!E35),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -21108,7 +21096,7 @@
         <f>IF(SETTINGS!D36&lt;&gt;"",SETTINGS!D36,"")</f>
         <v>*</v>
       </c>
-      <c r="E36" s="15" t="str">
+      <c r="E36" s="40" t="str">
         <f>IF(SETTINGS!E36&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E36,$I:$J,2,FALSE),SETTINGS!E36),"")</f>
         <v>Sushi scans</v>
       </c>
@@ -21138,7 +21126,7 @@
         <f>IF(SETTINGS!D37&lt;&gt;"",SETTINGS!D37,"")</f>
         <v>*</v>
       </c>
-      <c r="E37" s="15" t="str">
+      <c r="E37" s="40" t="str">
         <f>IF(SETTINGS!E37&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E37,$I:$J,2,FALSE),SETTINGS!E37),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -21168,7 +21156,7 @@
         <f>IF(SETTINGS!D38&lt;&gt;"",SETTINGS!D38,"")</f>
         <v>*</v>
       </c>
-      <c r="E38" s="15" t="str">
+      <c r="E38" s="40" t="str">
         <f>IF(SETTINGS!E38&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E38,$I:$J,2,FALSE),SETTINGS!E38),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -21198,7 +21186,7 @@
         <f>IF(SETTINGS!D39&lt;&gt;"",SETTINGS!D39,"")</f>
         <v>*</v>
       </c>
-      <c r="E39" s="15" t="str">
+      <c r="E39" s="40" t="str">
         <f>IF(SETTINGS!E39&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E39,$I:$J,2,FALSE),SETTINGS!E39),"")</f>
         <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
@@ -21228,7 +21216,7 @@
         <f>IF(SETTINGS!D40&lt;&gt;"",SETTINGS!D40,"")</f>
         <v>-</v>
       </c>
-      <c r="E40" s="15" t="str">
+      <c r="E40" s="40" t="str">
         <f>IF(SETTINGS!E40&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E40,$I:$J,2,FALSE),SETTINGS!E40),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -21258,7 +21246,7 @@
         <f>IF(SETTINGS!D41&lt;&gt;"",SETTINGS!D41,"")</f>
         <v>*</v>
       </c>
-      <c r="E41" s="15" t="str">
+      <c r="E41" s="40" t="str">
         <f>IF(SETTINGS!E41&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E41,$I:$J,2,FALSE),SETTINGS!E41),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -21288,7 +21276,7 @@
         <f>IF(SETTINGS!D42&lt;&gt;"",SETTINGS!D42,"")</f>
         <v>*</v>
       </c>
-      <c r="E42" s="15" t="str">
+      <c r="E42" s="40" t="str">
         <f>IF(SETTINGS!E42&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E42,$I:$J,2,FALSE),SETTINGS!E42),"")</f>
         <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; MJ&lt;/a&gt;</v>
       </c>
@@ -21318,7 +21306,7 @@
         <f>IF(SETTINGS!D43&lt;&gt;"",SETTINGS!D43,"")</f>
         <v>*</v>
       </c>
-      <c r="E43" s="15" t="str">
+      <c r="E43" s="40" t="str">
         <f>IF(SETTINGS!E43&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E43,$I:$J,2,FALSE),SETTINGS!E43),"")</f>
         <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; MJ&lt;/a&gt;</v>
       </c>
@@ -21348,7 +21336,7 @@
         <f>IF(SETTINGS!D44&lt;&gt;"",SETTINGS!D44,"")</f>
         <v>*</v>
       </c>
-      <c r="E44" s="15" t="str">
+      <c r="E44" s="40" t="str">
         <f>IF(SETTINGS!E44&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E44,$I:$J,2,FALSE),SETTINGS!E44),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -21378,7 +21366,7 @@
         <f>IF(SETTINGS!D45&lt;&gt;"",SETTINGS!D45,"")</f>
         <v>45114</v>
       </c>
-      <c r="E45" s="15" t="str">
+      <c r="E45" s="40" t="str">
         <f>IF(SETTINGS!E45&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E45,$I:$J,2,FALSE),SETTINGS!E45),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -21408,7 +21396,7 @@
         <f>IF(SETTINGS!D46&lt;&gt;"",SETTINGS!D46,"")</f>
         <v/>
       </c>
-      <c r="E46" s="15" t="str">
+      <c r="E46" s="40" t="str">
         <f>IF(SETTINGS!E46&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E46,$I:$J,2,FALSE),SETTINGS!E46),"")</f>
         <v/>
       </c>
@@ -21438,7 +21426,7 @@
         <f>IF(SETTINGS!D47&lt;&gt;"",SETTINGS!D47,"")</f>
         <v/>
       </c>
-      <c r="E47" s="15" t="str">
+      <c r="E47" s="40" t="str">
         <f>IF(SETTINGS!E47&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E47,$I:$J,2,FALSE),SETTINGS!E47),"")</f>
         <v/>
       </c>

--- a/origin.xlsx
+++ b/origin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git_proj/EMS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C35404-86B4-B74A-BB17-9454232CCCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1B9B53-BA86-8B44-BCDC-62C53CCF6575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{22BEBE4E-E124-3B4E-B4CF-095D22C75C46}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="1" xr2:uid="{22BEBE4E-E124-3B4E-B4CF-095D22C75C46}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTINGS" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="222">
   <si>
     <t>Vol</t>
   </si>
@@ -702,6 +702,12 @@
   </si>
   <si>
     <t>&lt;a href="https://mangafoxfull.com/manga/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangafoxfull.com/manga/"&gt; MFF&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>lu jusqu'au tome 23</t>
   </si>
 </sst>
 </file>
@@ -1399,8 +1405,8 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1416,6 +1422,7 @@
     <col min="11" max="11" width="15.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="17"/>
     <col min="13" max="13" width="12" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1458,6 +1465,9 @@
       <c r="M1" s="12" t="s">
         <v>210</v>
       </c>
+      <c r="N1" s="12" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -1502,7 +1512,7 @@
       <c r="M2" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -1545,7 +1555,7 @@
       <c r="M3" s="23">
         <v>45115</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
@@ -1588,7 +1598,7 @@
       <c r="M4" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -1631,7 +1641,7 @@
       <c r="M5" s="23">
         <v>45115</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -1674,7 +1684,7 @@
       <c r="M6" s="23">
         <v>45115</v>
       </c>
-      <c r="N6" s="3"/>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -1720,7 +1730,7 @@
       <c r="M7" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
@@ -1763,7 +1773,9 @@
       <c r="M8" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="16" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -1809,7 +1821,7 @@
       <c r="M9" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -1852,7 +1864,7 @@
       <c r="M10" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="N10" s="3"/>
+      <c r="N10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
@@ -1895,7 +1907,7 @@
       <c r="M11" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="N11" s="3"/>
+      <c r="N11" s="16"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -1940,7 +1952,7 @@
       <c r="M12" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="N12" s="3"/>
+      <c r="N12" s="16"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -1983,7 +1995,7 @@
       <c r="M13" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="N13" s="3"/>
+      <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -2026,7 +2038,7 @@
       <c r="M14" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N14" s="3"/>
+      <c r="N14" s="16"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -2069,7 +2081,7 @@
       <c r="M15" s="23">
         <v>45114</v>
       </c>
-      <c r="N15" s="3"/>
+      <c r="N15" s="23"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
@@ -2112,7 +2124,7 @@
       <c r="M16" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="N16" s="3"/>
+      <c r="N16" s="16"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -2158,7 +2170,7 @@
       <c r="M17" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="N17" s="3"/>
+      <c r="N17" s="16"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -2204,7 +2216,7 @@
       <c r="M18" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="N18" s="3"/>
+      <c r="N18" s="16"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -2250,7 +2262,7 @@
       <c r="M19" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="N19" s="3"/>
+      <c r="N19" s="16"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
@@ -2293,7 +2305,7 @@
       <c r="M20" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N20" s="3"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
@@ -2336,7 +2348,7 @@
       <c r="M21" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N21" s="3"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
@@ -2379,7 +2391,7 @@
       <c r="M22" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N22" s="3"/>
+      <c r="N22" s="16"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
@@ -2422,7 +2434,7 @@
       <c r="M23" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N23" s="3"/>
+      <c r="N23" s="16"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
@@ -2465,7 +2477,7 @@
       <c r="M24" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="N24" s="3"/>
+      <c r="N24" s="16"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
@@ -2508,7 +2520,7 @@
       <c r="M25" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N25" s="3"/>
+      <c r="N25" s="16"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
@@ -2551,7 +2563,7 @@
       <c r="M26" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N26" s="3"/>
+      <c r="N26" s="16"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
@@ -2594,7 +2606,7 @@
       <c r="M27" s="23">
         <v>45114</v>
       </c>
-      <c r="N27" s="3"/>
+      <c r="N27" s="23"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
@@ -2639,7 +2651,7 @@
       <c r="M28" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N28" s="3"/>
+      <c r="N28" s="16"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
@@ -2682,7 +2694,7 @@
       <c r="M29" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N29" s="3"/>
+      <c r="N29" s="16"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
@@ -2725,7 +2737,7 @@
       <c r="M30" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N30" s="3"/>
+      <c r="N30" s="16"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
@@ -2768,7 +2780,7 @@
       <c r="M31" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N31" s="3"/>
+      <c r="N31" s="16"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
@@ -2816,7 +2828,7 @@
       <c r="M32" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="N32" s="3"/>
+      <c r="N32" s="16"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
@@ -2861,7 +2873,7 @@
       <c r="M33" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="N33" s="3"/>
+      <c r="N33" s="16"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
@@ -2906,7 +2918,7 @@
       <c r="M34" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="N34" s="3"/>
+      <c r="N34" s="16"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
@@ -2949,7 +2961,7 @@
       <c r="M35" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N35" s="3"/>
+      <c r="N35" s="16"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -2995,7 +3007,7 @@
       <c r="M36" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N36" s="3"/>
+      <c r="N36" s="16"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
@@ -3038,7 +3050,7 @@
       <c r="M37" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N37" s="3"/>
+      <c r="N37" s="16"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -3081,7 +3093,7 @@
       <c r="M38" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N38" s="3"/>
+      <c r="N38" s="16"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
@@ -3122,7 +3134,7 @@
       <c r="M39" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N39" s="3"/>
+      <c r="N39" s="16"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
@@ -3165,6 +3177,7 @@
       <c r="M40" s="16" t="s">
         <v>208</v>
       </c>
+      <c r="N40" s="16"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
@@ -3207,6 +3220,7 @@
       <c r="M41" s="16" t="s">
         <v>211</v>
       </c>
+      <c r="N41" s="16"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
@@ -3249,6 +3263,7 @@
       <c r="M42" s="16" t="s">
         <v>211</v>
       </c>
+      <c r="N42" s="16"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
@@ -3289,6 +3304,7 @@
       <c r="M43" s="16" t="s">
         <v>211</v>
       </c>
+      <c r="N43" s="16"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
@@ -3332,6 +3348,7 @@
       <c r="M44" s="16" t="s">
         <v>211</v>
       </c>
+      <c r="N44" s="16"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
@@ -3374,6 +3391,7 @@
       <c r="M45" s="35">
         <v>45114</v>
       </c>
+      <c r="N45" s="35"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
@@ -3395,11 +3413,11 @@
   </sheetPr>
   <dimension ref="A1:AZ133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/origin.xlsx
+++ b/origin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1B9B53-BA86-8B44-BCDC-62C53CCF6575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12234732-466E-F64D-919C-34F01391A681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="1" xr2:uid="{22BEBE4E-E124-3B4E-B4CF-095D22C75C46}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36000" windowHeight="21100" xr2:uid="{22BEBE4E-E124-3B4E-B4CF-095D22C75C46}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTINGS" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="223">
   <si>
     <t>Vol</t>
   </si>
@@ -708,6 +708,9 @@
   </si>
   <si>
     <t>lu jusqu'au tome 23</t>
+  </si>
+  <si>
+    <t>lu tome 38</t>
   </si>
 </sst>
 </file>
@@ -1405,8 +1408,8 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2434,7 +2437,9 @@
       <c r="M23" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N23" s="16"/>
+      <c r="N23" s="16" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
@@ -3413,7 +3418,7 @@
   </sheetPr>
   <dimension ref="A1:AZ133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/origin.xlsx
+++ b/origin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12234732-466E-F64D-919C-34F01391A681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D0FA7D-3203-8B4E-899F-DF5884FC9142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="36000" windowHeight="21100" xr2:uid="{22BEBE4E-E124-3B4E-B4CF-095D22C75C46}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21100" activeTab="2" xr2:uid="{22BEBE4E-E124-3B4E-B4CF-095D22C75C46}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTINGS" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="224">
   <si>
     <t>Vol</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>lu tome 38</t>
+  </si>
+  <si>
+    <t>up.py</t>
   </si>
 </sst>
 </file>
@@ -1406,10 +1409,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1426,9 +1429,10 @@
     <col min="12" max="12" width="11" style="17"/>
     <col min="13" max="13" width="12" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -1471,8 +1475,11 @@
       <c r="N1" s="12" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
@@ -1516,8 +1523,12 @@
         <v>208</v>
       </c>
       <c r="N2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="16" t="b">
+        <f>IF(F2&lt;&gt;"",F2="✅","")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -1559,8 +1570,12 @@
         <v>45115</v>
       </c>
       <c r="N3" s="23"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="16" t="b">
+        <f t="shared" ref="O3:O45" si="2">IF(F3&lt;&gt;"",F3="✅","")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
@@ -1602,8 +1617,12 @@
         <v>208</v>
       </c>
       <c r="N4" s="16"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -1645,8 +1664,12 @@
         <v>45115</v>
       </c>
       <c r="N5" s="23"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>60</v>
       </c>
@@ -1688,8 +1711,12 @@
         <v>45115</v>
       </c>
       <c r="N6" s="23"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -1734,8 +1761,12 @@
         <v>211</v>
       </c>
       <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
@@ -1779,8 +1810,12 @@
       <c r="N8" s="16" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
@@ -1825,8 +1860,12 @@
         <v>211</v>
       </c>
       <c r="N9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1868,8 +1907,12 @@
         <v>208</v>
       </c>
       <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
@@ -1911,8 +1954,12 @@
         <v>208</v>
       </c>
       <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>87</v>
       </c>
@@ -1956,8 +2003,12 @@
         <v>208</v>
       </c>
       <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
@@ -1999,8 +2050,12 @@
         <v>208</v>
       </c>
       <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -2042,8 +2097,12 @@
         <v>211</v>
       </c>
       <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
@@ -2085,8 +2144,12 @@
         <v>45114</v>
       </c>
       <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
@@ -2128,8 +2191,12 @@
         <v>208</v>
       </c>
       <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>17</v>
       </c>
@@ -2174,8 +2241,12 @@
         <v>208</v>
       </c>
       <c r="N17" s="16"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>18</v>
       </c>
@@ -2220,8 +2291,12 @@
         <v>208</v>
       </c>
       <c r="N18" s="16"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>9</v>
       </c>
@@ -2266,8 +2341,12 @@
         <v>208</v>
       </c>
       <c r="N19" s="16"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>109</v>
       </c>
@@ -2309,8 +2388,12 @@
         <v>211</v>
       </c>
       <c r="N20" s="16"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>22</v>
       </c>
@@ -2329,7 +2412,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="15" t="str">
-        <f t="shared" ref="F21:F30" si="2">"✅"</f>
+        <f t="shared" ref="F21:F30" si="3">"✅"</f>
         <v>✅</v>
       </c>
       <c r="H21" s="21" t="b">
@@ -2352,8 +2435,12 @@
         <v>211</v>
       </c>
       <c r="N21" s="16"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>12</v>
       </c>
@@ -2372,7 +2459,7 @@
         <v>196</v>
       </c>
       <c r="F22" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>✅</v>
       </c>
       <c r="H22" s="21" t="b">
@@ -2395,8 +2482,12 @@
         <v>211</v>
       </c>
       <c r="N22" s="16"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>6</v>
       </c>
@@ -2415,7 +2506,7 @@
         <v>196</v>
       </c>
       <c r="F23" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>✅</v>
       </c>
       <c r="H23" s="21" t="b">
@@ -2440,8 +2531,12 @@
       <c r="N23" s="16" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>20</v>
       </c>
@@ -2460,7 +2555,7 @@
         <v>196</v>
       </c>
       <c r="F24" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>✅</v>
       </c>
       <c r="H24" s="21" t="b">
@@ -2483,8 +2578,12 @@
         <v>208</v>
       </c>
       <c r="N24" s="16"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>8</v>
       </c>
@@ -2503,7 +2602,7 @@
         <v>196</v>
       </c>
       <c r="F25" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>✅</v>
       </c>
       <c r="H25" s="21" t="b">
@@ -2526,8 +2625,12 @@
         <v>211</v>
       </c>
       <c r="N25" s="16"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>11</v>
       </c>
@@ -2546,7 +2649,7 @@
         <v>197</v>
       </c>
       <c r="F26" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>✅</v>
       </c>
       <c r="H26" s="21" t="b">
@@ -2569,8 +2672,12 @@
         <v>211</v>
       </c>
       <c r="N26" s="16"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
@@ -2589,7 +2696,7 @@
         <v>196</v>
       </c>
       <c r="F27" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>✅</v>
       </c>
       <c r="H27" s="21" t="b">
@@ -2612,8 +2719,12 @@
         <v>45114</v>
       </c>
       <c r="N27" s="23"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>134</v>
       </c>
@@ -2632,7 +2743,7 @@
         <v>196</v>
       </c>
       <c r="F28" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>✅</v>
       </c>
       <c r="H28" s="21" t="b">
@@ -2657,8 +2768,12 @@
         <v>211</v>
       </c>
       <c r="N28" s="16"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>21</v>
       </c>
@@ -2677,7 +2792,7 @@
         <v>196</v>
       </c>
       <c r="F29" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>✅</v>
       </c>
       <c r="H29" s="21" t="b">
@@ -2700,8 +2815,12 @@
         <v>211</v>
       </c>
       <c r="N29" s="16"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>13</v>
       </c>
@@ -2720,7 +2839,7 @@
         <v>196</v>
       </c>
       <c r="F30" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>✅</v>
       </c>
       <c r="H30" s="21" t="b">
@@ -2743,8 +2862,12 @@
         <v>211</v>
       </c>
       <c r="N30" s="16"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>184</v>
       </c>
@@ -2786,8 +2909,12 @@
         <v>211</v>
       </c>
       <c r="N31" s="16"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>143</v>
       </c>
@@ -2834,8 +2961,12 @@
         <v>208</v>
       </c>
       <c r="N32" s="16"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>187</v>
       </c>
@@ -2879,8 +3010,12 @@
         <v>208</v>
       </c>
       <c r="N33" s="16"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>147</v>
       </c>
@@ -2924,8 +3059,12 @@
         <v>208</v>
       </c>
       <c r="N34" s="16"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>150</v>
       </c>
@@ -2967,8 +3106,12 @@
         <v>211</v>
       </c>
       <c r="N35" s="16"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>19</v>
       </c>
@@ -3013,8 +3156,12 @@
         <v>211</v>
       </c>
       <c r="N36" s="16"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>28</v>
       </c>
@@ -3056,8 +3203,12 @@
         <v>211</v>
       </c>
       <c r="N37" s="16"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>15</v>
       </c>
@@ -3099,8 +3250,12 @@
         <v>211</v>
       </c>
       <c r="N38" s="16"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>111</v>
       </c>
@@ -3140,8 +3295,12 @@
         <v>211</v>
       </c>
       <c r="N39" s="16"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>120</v>
       </c>
@@ -3183,8 +3342,12 @@
         <v>208</v>
       </c>
       <c r="N40" s="16"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>72</v>
       </c>
@@ -3226,8 +3389,12 @@
         <v>211</v>
       </c>
       <c r="N41" s="16"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>29</v>
       </c>
@@ -3246,7 +3413,7 @@
         <v>205</v>
       </c>
       <c r="F42" s="15" t="str">
-        <f t="shared" ref="F42" si="3">"✅"</f>
+        <f t="shared" ref="F42" si="4">"✅"</f>
         <v>✅</v>
       </c>
       <c r="H42" s="21" t="b">
@@ -3269,8 +3436,12 @@
         <v>211</v>
       </c>
       <c r="N42" s="16"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>119</v>
       </c>
@@ -3310,8 +3481,12 @@
         <v>211</v>
       </c>
       <c r="N43" s="16"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>76</v>
       </c>
@@ -3354,8 +3529,12 @@
         <v>211</v>
       </c>
       <c r="N44" s="16"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>56</v>
       </c>
@@ -3397,6 +3576,10 @@
         <v>45114</v>
       </c>
       <c r="N45" s="35"/>
+      <c r="O45" s="16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
@@ -3422,7 +3605,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19053,8 +19236,8 @@
   </sheetPr>
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20006,7 +20189,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/origin.xlsx
+++ b/origin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D0FA7D-3203-8B4E-899F-DF5884FC9142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51975E23-9059-004F-A006-E1E804ADEC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21100" activeTab="2" xr2:uid="{22BEBE4E-E124-3B4E-B4CF-095D22C75C46}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21100" xr2:uid="{22BEBE4E-E124-3B4E-B4CF-095D22C75C46}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTINGS" sheetId="1" r:id="rId1"/>
@@ -41,8 +41,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={73C7643E-217A-304A-A337-B3952303A96A}</author>
+    <author>tc={930D8E95-5D64-7D4E-A8F3-F04E49F03E99}</author>
+  </authors>
+  <commentList>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{73C7643E-217A-304A-A337-B3952303A96A}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    SI APPARAIT DANS LA LISTE up.py </t>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{930D8E95-5D64-7D4E-A8F3-F04E49F03E99}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    SI APPARAIT DANS LA LISTE up.py </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="236">
   <si>
     <t>Vol</t>
   </si>
@@ -521,9 +548,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Commentaire</t>
-  </si>
-  <si>
     <t>Chapt</t>
   </si>
   <si>
@@ -650,15 +674,9 @@
     <t>Rename les couvertures</t>
   </si>
   <si>
-    <t>renomer 2 derniers chapt</t>
-  </si>
-  <si>
     <t>Sushi scans</t>
   </si>
   <si>
-    <t>Directement convertir en kindle</t>
-  </si>
-  <si>
     <t>Mangajar</t>
   </si>
   <si>
@@ -714,13 +732,58 @@
   </si>
   <si>
     <t>up.py</t>
+  </si>
+  <si>
+    <t>Convertir directement</t>
+  </si>
+  <si>
+    <t>Renomer 2 derniers chapt</t>
+  </si>
+  <si>
+    <t>/!\ N.B /!\</t>
+  </si>
+  <si>
+    <t>Hell's Paradise</t>
+  </si>
+  <si>
+    <t>edit_name</t>
+  </si>
+  <si>
+    <t>JoJo 1</t>
+  </si>
+  <si>
+    <t>JoJo 2</t>
+  </si>
+  <si>
+    <t>JoJo 3</t>
+  </si>
+  <si>
+    <t>Jojo 4</t>
+  </si>
+  <si>
+    <t>Kuroko no Basket</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>Onepunch Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yu-Gi-Oh </t>
+  </si>
+  <si>
+    <t>The Way of the House Husband</t>
+  </si>
+  <si>
+    <t>Full Metal Alchemist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -806,8 +869,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="12"/>
-      <color rgb="FF0070C0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -815,13 +893,13 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color rgb="FF0070C0"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -874,6 +952,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -930,7 +1014,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thick">
         <color rgb="FFFF0000"/>
       </right>
       <top/>
@@ -942,7 +1026,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1025,6 +1109,18 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1034,43 +1130,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
     <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1091,6 +1180,29 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1107,6 +1219,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="ROUILLARD Pierre" id="{BFFE17ED-3FA4-3342-A850-D039006B90EE}" userId="S::prouillard@ensae.fr::fc52b23d-8913-45db-9aca-4ec84cb77888" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1404,15 +1522,26 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O1" dT="2023-07-31T15:17:47.66" personId="{BFFE17ED-3FA4-3342-A850-D039006B90EE}" id="{73C7643E-217A-304A-A337-B3952303A96A}">
+    <text xml:space="preserve">SI APPARAIT DANS LA LISTE up.py </text>
+  </threadedComment>
+  <threadedComment ref="P1" dT="2023-07-31T15:17:47.66" personId="{BFFE17ED-3FA4-3342-A850-D039006B90EE}" id="{930D8E95-5D64-7D4E-A8F3-F04E49F03E99}">
+    <text xml:space="preserve">SI APPARAIT DANS LA LISTE up.py </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DFD8C1-4B37-7243-A048-80A7917735B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DFD8C1-4B37-7243-A048-80A7917735B3}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1423,16 +1552,16 @@
     <col min="4" max="4" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.6640625" style="15" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="22"/>
-    <col min="10" max="10" width="10.83203125" style="10"/>
+    <col min="8" max="10" width="10.83203125" style="22"/>
     <col min="11" max="11" width="15.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="17"/>
     <col min="13" max="13" width="12" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.6640625" style="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -1440,10 +1569,10 @@
         <v>155</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>158</v>
@@ -1452,39 +1581,42 @@
         <v>157</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="J1" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>156</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A2,UPDATE!$1:$1,0),TRUE))=FALSE,H2=FALSE),L2,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A2,UPDATE!$1:$1,0))))</f>
@@ -1495,7 +1627,7 @@
         <v>-</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="15" t="str">
         <f t="shared" ref="F2:F19" si="1">"✅"</f>
@@ -1509,7 +1641,7 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A2,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A2,UPDATE!$1:$1,0)),0)),K2)</f>
         <v>22</v>
       </c>
-      <c r="J2" s="15" t="b">
+      <c r="J2" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A2,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
@@ -1517,23 +1649,26 @@
         <v>22</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N2" s="16"/>
-      <c r="O2" s="16" t="b">
+      <c r="O2" s="42" t="b">
         <f>IF(F2&lt;&gt;"",F2="✅","")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A3,UPDATE!$1:$1,0),TRUE))=FALSE,H3=FALSE),L3,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A3,UPDATE!$1:$1,0))))</f>
@@ -1544,7 +1679,7 @@
         <v>45115</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F3" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1558,24 +1693,27 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A3,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A3,UPDATE!$1:$1,0)),0)),K3)</f>
         <v>35</v>
       </c>
-      <c r="J3" s="15" t="b">
+      <c r="J3" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A3,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K3" s="16"/>
       <c r="L3" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M3" s="23">
         <v>45115</v>
       </c>
       <c r="N3" s="23"/>
-      <c r="O3" s="16" t="b">
-        <f t="shared" ref="O3:O45" si="2">IF(F3&lt;&gt;"",F3="✅","")</f>
+      <c r="O3" s="42" t="b">
+        <f t="shared" ref="O3:P45" si="2">IF(F3&lt;&gt;"",F3="✅","")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
@@ -1591,7 +1729,7 @@
         <v>-</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1605,29 +1743,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A4,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A4,UPDATE!$1:$1,0)),0)),K4)</f>
         <v>74</v>
       </c>
-      <c r="J4" s="15" t="b">
+      <c r="J4" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A4,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N4" s="16"/>
-      <c r="O4" s="16" t="b">
+      <c r="O4" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A5,UPDATE!$1:$1,0),TRUE))=FALSE,H5=FALSE),L5,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A5,UPDATE!$1:$1,0))))</f>
@@ -1638,7 +1779,7 @@
         <v>45115</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F5" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1652,29 +1793,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A5,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A5,UPDATE!$1:$1,0)),0)),K5)</f>
         <v>13</v>
       </c>
-      <c r="J5" s="15" t="b">
+      <c r="J5" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A5,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M5" s="23">
         <v>45115</v>
       </c>
       <c r="N5" s="23"/>
-      <c r="O5" s="16" t="b">
+      <c r="O5" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A6,UPDATE!$1:$1,0),TRUE))=FALSE,H6=FALSE),L6,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A6,UPDATE!$1:$1,0))))</f>
@@ -1685,7 +1829,7 @@
         <v>45115</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F6" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1699,29 +1843,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A6,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A6,UPDATE!$1:$1,0)),0)),K6)</f>
         <v>6</v>
       </c>
-      <c r="J6" s="15" t="b">
+      <c r="J6" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A6,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M6" s="23">
         <v>45115</v>
       </c>
       <c r="N6" s="23"/>
-      <c r="O6" s="16" t="b">
+      <c r="O6" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A7,UPDATE!$1:$1,0),TRUE))=FALSE,H7=FALSE),L7,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A7,UPDATE!$1:$1,0))))</f>
@@ -1732,14 +1879,14 @@
         <v>*</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F7" s="15" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H7" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A7,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -1749,29 +1896,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A7,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A7,UPDATE!$1:$1,0)),0)),K7)</f>
         <v>103</v>
       </c>
-      <c r="J7" s="15" t="b">
+      <c r="J7" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A7,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N7" s="16"/>
-      <c r="O7" s="16" t="b">
+      <c r="O7" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A8,UPDATE!$1:$1,0),TRUE))=FALSE,H8=FALSE),L8,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A8,UPDATE!$1:$1,0))))</f>
@@ -1782,7 +1932,7 @@
         <v>-</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1796,31 +1946,34 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A8,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A8,UPDATE!$1:$1,0)),0)),K8)</f>
         <v>42</v>
       </c>
-      <c r="J8" s="15" t="b">
+      <c r="J8" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A8,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="O8" s="16" t="b">
+        <v>218</v>
+      </c>
+      <c r="O8" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A9,UPDATE!$1:$1,0),TRUE))=FALSE,H9=FALSE),L9,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A9,UPDATE!$1:$1,0))))</f>
@@ -1831,14 +1984,14 @@
         <v>*</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F9" s="15" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H9" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A9,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -1848,24 +2001,27 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A9,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A9,UPDATE!$1:$1,0)),0)),K9)</f>
         <v>19</v>
       </c>
-      <c r="J9" s="15" t="b">
+      <c r="J9" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A9,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N9" s="16"/>
-      <c r="O9" s="16" t="b">
+      <c r="O9" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1881,7 +2037,7 @@
         <v>-</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F10" s="15" t="str">
         <f>"❌"</f>
@@ -1895,24 +2051,27 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A10,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A10,UPDATE!$1:$1,0)),0)),K10)</f>
         <v>22</v>
       </c>
-      <c r="J10" s="15" t="b">
+      <c r="J10" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A10,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N10" s="16"/>
-      <c r="O10" s="16" t="b">
+      <c r="O10" s="42" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
@@ -1928,7 +2087,7 @@
         <v>-</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F11" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1942,24 +2101,27 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A11,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A11,UPDATE!$1:$1,0)),0)),K11)</f>
         <v>77</v>
       </c>
-      <c r="J11" s="15" t="b">
+      <c r="J11" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A11,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N11" s="16"/>
-      <c r="O11" s="16" t="b">
+      <c r="O11" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>87</v>
       </c>
@@ -1975,7 +2137,7 @@
         <v>-</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F12" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1989,7 +2151,7 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A12,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A12,UPDATE!$1:$1,0)),0)),K12)</f>
         <v>25</v>
       </c>
-      <c r="J12" s="15" t="b">
+      <c r="J12" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A12,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
@@ -1997,23 +2159,26 @@
         <v>25</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N12" s="16"/>
-      <c r="O12" s="16" t="b">
+      <c r="O12" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A13,UPDATE!$1:$1,0),TRUE))=FALSE,H13=FALSE),L13,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A13,UPDATE!$1:$1,0))))</f>
@@ -2024,7 +2189,7 @@
         <v>-</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F13" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2038,29 +2203,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A13,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A13,UPDATE!$1:$1,0)),0)),K13)</f>
         <v>13</v>
       </c>
-      <c r="J13" s="15" t="b">
+      <c r="J13" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A13,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N13" s="16"/>
-      <c r="O13" s="16" t="b">
+      <c r="O13" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="44" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A14,UPDATE!$1:$1,0),TRUE))=FALSE,H14=FALSE),L14,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A14,UPDATE!$1:$1,0))))</f>
@@ -2071,7 +2239,7 @@
         <v>*</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F14" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2085,29 +2253,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A14,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A14,UPDATE!$1:$1,0)),0)),K14)</f>
         <v>37</v>
       </c>
-      <c r="J14" s="15" t="b">
+      <c r="J14" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A14,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N14" s="16"/>
-      <c r="O14" s="16" t="b">
+      <c r="O14" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A15,UPDATE!$1:$1,0),TRUE))=FALSE,H15=FALSE),L15,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A15,UPDATE!$1:$1,0))))</f>
@@ -2118,7 +2289,7 @@
         <v>45114</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F15" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2132,29 +2303,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A15,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A15,UPDATE!$1:$1,0)),0)),K15)</f>
         <v>23</v>
       </c>
-      <c r="J15" s="15" t="b">
+      <c r="J15" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A15,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M15" s="23">
         <v>45114</v>
       </c>
       <c r="N15" s="23"/>
-      <c r="O15" s="16" t="b">
+      <c r="O15" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A16,UPDATE!$1:$1,0),TRUE))=FALSE,H16=FALSE),L16,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A16,UPDATE!$1:$1,0))))</f>
@@ -2165,7 +2339,7 @@
         <v>-</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F16" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2179,29 +2353,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A16,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A16,UPDATE!$1:$1,0)),0)),K16)</f>
         <v>63</v>
       </c>
-      <c r="J16" s="15" t="b">
+      <c r="J16" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A16,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N16" s="16"/>
-      <c r="O16" s="16" t="b">
+      <c r="O16" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A17,UPDATE!$1:$1,0),TRUE))=FALSE,H17=FALSE),L17,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A17,UPDATE!$1:$1,0))))</f>
@@ -2212,14 +2389,14 @@
         <v>-</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F17" s="15" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H17" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A17,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -2229,29 +2406,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A17,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A17,UPDATE!$1:$1,0)),0)),K17)</f>
         <v>80</v>
       </c>
-      <c r="J17" s="15" t="b">
+      <c r="J17" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A17,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N17" s="16"/>
-      <c r="O17" s="16" t="b">
+      <c r="O17" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A18,UPDATE!$1:$1,0),TRUE))=FALSE,H18=FALSE),L18,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A18,UPDATE!$1:$1,0))))</f>
@@ -2262,14 +2442,14 @@
         <v>-</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F18" s="15" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H18" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A18,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -2279,29 +2459,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A18,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A18,UPDATE!$1:$1,0)),0)),K18)</f>
         <v>104</v>
       </c>
-      <c r="J18" s="15" t="b">
+      <c r="J18" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A18,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N18" s="16"/>
-      <c r="O18" s="16" t="b">
+      <c r="O18" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A19,UPDATE!$1:$1,0),TRUE))=FALSE,H19=FALSE),L19,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A19,UPDATE!$1:$1,0))))</f>
@@ -2312,14 +2495,14 @@
         <v>-</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F19" s="15" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H19" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A19,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -2329,29 +2512,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A19,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A19,UPDATE!$1:$1,0)),0)),K19)</f>
         <v>131</v>
       </c>
-      <c r="J19" s="15" t="b">
+      <c r="J19" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A19,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K19" s="16"/>
       <c r="L19" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N19" s="16"/>
-      <c r="O19" s="16" t="b">
+      <c r="O19" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="44" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A20,UPDATE!$1:$1,0),TRUE))=FALSE,H20=FALSE),L20,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A20,UPDATE!$1:$1,0))))</f>
@@ -2362,7 +2548,7 @@
         <v>*</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" s="15" t="str">
         <f>"❌"</f>
@@ -2376,29 +2562,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A20,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A20,UPDATE!$1:$1,0)),0)),K20)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="15" t="b">
+      <c r="J20" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A20,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N20" s="16"/>
-      <c r="O20" s="16" t="b">
+      <c r="O20" s="42" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="44" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A21,UPDATE!$1:$1,0),TRUE))=FALSE,H21=FALSE),L21,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A21,UPDATE!$1:$1,0))))</f>
@@ -2409,7 +2598,7 @@
         <v>*</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F21" s="15" t="str">
         <f t="shared" ref="F21:F30" si="3">"✅"</f>
@@ -2423,24 +2612,27 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A21,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A21,UPDATE!$1:$1,0)),0)),K21)</f>
         <v>30</v>
       </c>
-      <c r="J21" s="15" t="b">
+      <c r="J21" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A21,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N21" s="16"/>
-      <c r="O21" s="16" t="b">
+      <c r="O21" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>12</v>
       </c>
@@ -2456,7 +2648,7 @@
         <v>*</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F22" s="15" t="str">
         <f t="shared" si="3"/>
@@ -2470,29 +2662,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A22,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A22,UPDATE!$1:$1,0)),0)),K22)</f>
         <v>16</v>
       </c>
-      <c r="J22" s="15" t="b">
+      <c r="J22" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A22,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N22" s="16"/>
-      <c r="O22" s="16" t="b">
+      <c r="O22" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A23,UPDATE!$1:$1,0),TRUE))=FALSE,H23=FALSE),L23,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A23,UPDATE!$1:$1,0))))</f>
@@ -2503,7 +2698,7 @@
         <v>*</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F23" s="15" t="str">
         <f t="shared" si="3"/>
@@ -2517,31 +2712,34 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A23,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A23,UPDATE!$1:$1,0)),0)),K23)</f>
         <v>38</v>
       </c>
-      <c r="J23" s="15" t="b">
+      <c r="J23" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A23,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="O23" s="16" t="b">
+        <v>219</v>
+      </c>
+      <c r="O23" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A24,UPDATE!$1:$1,0),TRUE))=FALSE,H24=FALSE),L24,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A24,UPDATE!$1:$1,0))))</f>
@@ -2552,7 +2750,7 @@
         <v>-</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F24" s="15" t="str">
         <f t="shared" si="3"/>
@@ -2566,29 +2764,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A24,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A24,UPDATE!$1:$1,0)),0)),K24)</f>
         <v>41</v>
       </c>
-      <c r="J24" s="15" t="b">
+      <c r="J24" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A24,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N24" s="16"/>
-      <c r="O24" s="16" t="b">
+      <c r="O24" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C25" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A25,UPDATE!$1:$1,0),TRUE))=FALSE,H25=FALSE),L25,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A25,UPDATE!$1:$1,0))))</f>
@@ -2599,7 +2800,7 @@
         <v>*</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F25" s="15" t="str">
         <f t="shared" si="3"/>
@@ -2613,29 +2814,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A25,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A25,UPDATE!$1:$1,0)),0)),K25)</f>
         <v>106</v>
       </c>
-      <c r="J25" s="15" t="b">
+      <c r="J25" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A25,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N25" s="16"/>
-      <c r="O25" s="16" t="b">
+      <c r="O25" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C26" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A26,UPDATE!$1:$1,0),TRUE))=FALSE,H26=FALSE),L26,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A26,UPDATE!$1:$1,0))))</f>
@@ -2646,7 +2850,7 @@
         <v>*</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F26" s="15" t="str">
         <f t="shared" si="3"/>
@@ -2660,29 +2864,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A26,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A26,UPDATE!$1:$1,0)),0)),K26)</f>
         <v>27</v>
       </c>
-      <c r="J26" s="15" t="b">
+      <c r="J26" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A26,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N26" s="16"/>
-      <c r="O26" s="16" t="b">
+      <c r="O26" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A27,UPDATE!$1:$1,0),TRUE))=FALSE,H27=FALSE),L27,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A27,UPDATE!$1:$1,0))))</f>
@@ -2693,7 +2900,7 @@
         <v>45114</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F27" s="15" t="str">
         <f t="shared" si="3"/>
@@ -2707,29 +2914,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A27,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A27,UPDATE!$1:$1,0)),0)),K27)</f>
         <v>12</v>
       </c>
-      <c r="J27" s="15" t="b">
+      <c r="J27" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A27,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M27" s="23">
         <v>45114</v>
       </c>
       <c r="N27" s="23"/>
-      <c r="O27" s="16" t="b">
+      <c r="O27" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A28,UPDATE!$1:$1,0),TRUE))=FALSE,H28=FALSE),L28,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A28,UPDATE!$1:$1,0))))</f>
@@ -2740,7 +2950,7 @@
         <v>*</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F28" s="15" t="str">
         <f t="shared" si="3"/>
@@ -2754,7 +2964,7 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A28,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A28,UPDATE!$1:$1,0)),0)),K28)</f>
         <v>21</v>
       </c>
-      <c r="J28" s="15" t="b">
+      <c r="J28" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A28,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
@@ -2762,23 +2972,26 @@
         <v>21</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N28" s="16"/>
-      <c r="O28" s="16" t="b">
+      <c r="O28" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A29,UPDATE!$1:$1,0),TRUE))=FALSE,H29=FALSE),L29,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A29,UPDATE!$1:$1,0))))</f>
@@ -2789,7 +3002,7 @@
         <v>*</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F29" s="15" t="str">
         <f t="shared" si="3"/>
@@ -2803,29 +3016,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A29,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A29,UPDATE!$1:$1,0)),0)),K29)</f>
         <v>34</v>
       </c>
-      <c r="J29" s="15" t="b">
+      <c r="J29" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A29,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N29" s="16"/>
-      <c r="O29" s="16" t="b">
+      <c r="O29" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="14">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A30,UPDATE!$1:$1,0),TRUE))=FALSE,H30=FALSE),L30,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A30,UPDATE!$1:$1,0))))</f>
@@ -2836,7 +3052,7 @@
         <v>*</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F30" s="15" t="str">
         <f t="shared" si="3"/>
@@ -2850,29 +3066,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A30,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A30,UPDATE!$1:$1,0)),0)),K30)</f>
         <v>11</v>
       </c>
-      <c r="J30" s="15" t="b">
+      <c r="J30" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A30,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N30" s="16"/>
-      <c r="O30" s="16" t="b">
+      <c r="O30" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="C31" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A31,UPDATE!$1:$1,0),TRUE))=FALSE,H31=FALSE),L31,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A31,UPDATE!$1:$1,0))))</f>
@@ -2883,7 +3102,7 @@
         <v>*</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F31" s="15" t="str">
         <f>"❌"</f>
@@ -2897,29 +3116,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A31,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A31,UPDATE!$1:$1,0)),0)),K31)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="15" t="b">
+      <c r="J31" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A31,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N31" s="16"/>
-      <c r="O31" s="16" t="b">
+      <c r="O31" s="42" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>143</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C32" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A32,UPDATE!$1:$1,0),TRUE))=FALSE,H32=FALSE),L32,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A32,UPDATE!$1:$1,0))))</f>
@@ -2930,14 +3152,14 @@
         <v>-</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F32" s="15" t="str">
         <f>"✅"</f>
         <v>✅</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="H32" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A32,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -2947,7 +3169,7 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A32,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A32,UPDATE!$1:$1,0)),0)),K32)</f>
         <v>14</v>
       </c>
-      <c r="J32" s="15" t="b">
+      <c r="J32" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A32,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
@@ -2955,23 +3177,26 @@
         <v>14</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N32" s="16"/>
-      <c r="O32" s="16" t="b">
+      <c r="O32" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="C33" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A33,UPDATE!$1:$1,0),TRUE))=FALSE,H33=FALSE),L33,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A33,UPDATE!$1:$1,0))))</f>
@@ -2982,7 +3207,7 @@
         <v>-</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F33" s="15" t="str">
         <f>"✅"</f>
@@ -2996,7 +3221,7 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A33,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A33,UPDATE!$1:$1,0)),0)),K33)</f>
         <v>16</v>
       </c>
-      <c r="J33" s="15" t="b">
+      <c r="J33" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A33,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
@@ -3004,18 +3229,21 @@
         <v>16</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N33" s="16"/>
-      <c r="O33" s="16" t="b">
+      <c r="O33" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>147</v>
       </c>
@@ -3031,7 +3259,7 @@
         <v>-</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F34" s="15" t="str">
         <f>"✅"</f>
@@ -3045,7 +3273,7 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A34,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A34,UPDATE!$1:$1,0)),0)),K34)</f>
         <v>37</v>
       </c>
-      <c r="J34" s="15" t="b">
+      <c r="J34" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A34,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
@@ -3053,23 +3281,26 @@
         <v>37</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N34" s="16"/>
-      <c r="O34" s="16" t="b">
+      <c r="O34" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>150</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C35" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A35,UPDATE!$1:$1,0),TRUE))=FALSE,H35=FALSE),L35,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A35,UPDATE!$1:$1,0))))</f>
@@ -3080,7 +3311,7 @@
         <v>*</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F35" s="15" t="str">
         <f>"❌"</f>
@@ -3094,29 +3325,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A35,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A35,UPDATE!$1:$1,0)),0)),K35)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="15" t="b">
+      <c r="J35" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A35,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N35" s="16"/>
-      <c r="O35" s="16" t="b">
+      <c r="O35" s="42" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C36" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A36,UPDATE!$1:$1,0),TRUE))=FALSE,H36=FALSE),L36,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A36,UPDATE!$1:$1,0))))</f>
@@ -3127,14 +3361,14 @@
         <v>*</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F36" s="15" t="str">
         <f>"✅"</f>
         <v>✅</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="H36" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A36,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -3144,29 +3378,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A36,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A36,UPDATE!$1:$1,0)),0)),K36)</f>
         <v>19</v>
       </c>
-      <c r="J36" s="15" t="b">
+      <c r="J36" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A36,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N36" s="16"/>
-      <c r="O36" s="16" t="b">
+      <c r="O36" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36" s="44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C37" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A37,UPDATE!$1:$1,0),TRUE))=FALSE,H37=FALSE),L37,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A37,UPDATE!$1:$1,0))))</f>
@@ -3177,7 +3414,7 @@
         <v>*</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F37" s="15" t="str">
         <f>"✅"</f>
@@ -3191,29 +3428,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A37,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A37,UPDATE!$1:$1,0)),0)),K37)</f>
         <v>16</v>
       </c>
-      <c r="J37" s="15" t="b">
+      <c r="J37" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A37,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N37" s="16"/>
-      <c r="O37" s="16" t="b">
+      <c r="O37" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37" s="44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C38" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A38,UPDATE!$1:$1,0),TRUE))=FALSE,H38=FALSE),L38,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A38,UPDATE!$1:$1,0))))</f>
@@ -3224,7 +3464,7 @@
         <v>*</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F38" s="15" t="str">
         <f>"✅"</f>
@@ -3238,24 +3478,27 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A38,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A38,UPDATE!$1:$1,0)),0)),K38)</f>
         <v>11</v>
       </c>
-      <c r="J38" s="15" t="b">
+      <c r="J38" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A38,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N38" s="16"/>
-      <c r="O38" s="16" t="b">
+      <c r="O38" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>111</v>
       </c>
@@ -3269,7 +3512,7 @@
         <v>*</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F39" s="15" t="str">
         <f>"❌"</f>
@@ -3283,24 +3526,27 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A39,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A39,UPDATE!$1:$1,0)),0)),K39)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="15" t="b">
+      <c r="J39" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A39,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K39" s="16"/>
       <c r="L39" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N39" s="16"/>
-      <c r="O39" s="16" t="b">
+      <c r="O39" s="42" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>120</v>
       </c>
@@ -3316,7 +3562,7 @@
         <v>-</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F40" s="15" t="str">
         <f>"❌"</f>
@@ -3330,29 +3576,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A40,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A40,UPDATE!$1:$1,0)),0)),K40)</f>
         <v>0</v>
       </c>
-      <c r="J40" s="15" t="b">
+      <c r="J40" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A40,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N40" s="16"/>
-      <c r="O40" s="16" t="b">
+      <c r="O40" s="42" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C41" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A41,UPDATE!$1:$1,0),TRUE))=FALSE,H41=FALSE),L41,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A41,UPDATE!$1:$1,0))))</f>
@@ -3363,7 +3612,7 @@
         <v>*</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F41" s="15" t="str">
         <f>"❌"</f>
@@ -3377,29 +3626,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A41,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A41,UPDATE!$1:$1,0)),0)),K41)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="15" t="b">
+      <c r="J41" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A41,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K41" s="16"/>
       <c r="L41" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M41" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N41" s="16"/>
-      <c r="O41" s="16" t="b">
+      <c r="O41" s="42" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="44" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C42" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A42,UPDATE!$1:$1,0),TRUE))=FALSE,H42=FALSE),L42,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A42,UPDATE!$1:$1,0))))</f>
@@ -3410,7 +3662,7 @@
         <v>*</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F42" s="15" t="str">
         <f t="shared" ref="F42" si="4">"✅"</f>
@@ -3424,24 +3676,27 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A42,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A42,UPDATE!$1:$1,0)),0)),K42)</f>
         <v>30</v>
       </c>
-      <c r="J42" s="15" t="b">
+      <c r="J42" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A42,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K42" s="16"/>
       <c r="L42" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N42" s="16"/>
-      <c r="O42" s="16" t="b">
+      <c r="O42" s="42" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>119</v>
       </c>
@@ -3455,7 +3710,7 @@
         <v>*</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F43" s="15" t="str">
         <f>"❌"</f>
@@ -3469,24 +3724,27 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A43,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A43,UPDATE!$1:$1,0)),0)),K43)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="15" t="b">
+      <c r="J43" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A43,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K43" s="16"/>
       <c r="L43" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N43" s="16"/>
-      <c r="O43" s="16" t="b">
+      <c r="O43" s="42" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>76</v>
       </c>
@@ -3500,14 +3758,14 @@
         <v>*</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F44" s="15" t="str">
         <f>"❌"</f>
         <v>❌</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H44" s="21" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A44,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -3517,29 +3775,32 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A44,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A44,UPDATE!$1:$1,0)),0)),K44)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="15" t="b">
+      <c r="J44" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A44,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K44" s="16"/>
       <c r="L44" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N44" s="16"/>
-      <c r="O44" s="16" t="b">
+      <c r="O44" s="42" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C45" s="14" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A45,UPDATE!$1:$1,0),TRUE))=FALSE,H45=FALSE),L45,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A45,UPDATE!$1:$1,0))))</f>
@@ -3550,7 +3811,7 @@
         <v>45114</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F45" s="15" t="str">
         <f>"❌"</f>
@@ -3564,33 +3825,42 @@
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A45,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A45,UPDATE!$1:$1,0)),0)),K45)</f>
         <v>0</v>
       </c>
-      <c r="J45" s="15" t="b">
+      <c r="J45" s="21" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A45,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="K45" s="16"/>
       <c r="L45" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="M45" s="35">
+        <v>204</v>
+      </c>
+      <c r="M45" s="32">
         <v>45114</v>
       </c>
-      <c r="N45" s="35"/>
-      <c r="O45" s="16" t="b">
+      <c r="N45" s="32"/>
+      <c r="O45" s="42" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="P45" s="44" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O53 O75:O1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>O1=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3605,7 +3875,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="AV22" sqref="AV22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3616,7 +3886,7 @@
     <col min="16" max="30" width="10.83203125" style="1"/>
     <col min="31" max="31" width="10.83203125" style="7"/>
     <col min="32" max="51" width="10.83203125" style="1"/>
-    <col min="52" max="52" width="10.83203125" style="34"/>
+    <col min="52" max="52" width="10.83203125" style="38"/>
     <col min="53" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -3714,7 +3984,7 @@
       <c r="AE1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AZ1" s="32"/>
+      <c r="AZ1" s="36"/>
     </row>
     <row r="2" spans="1:52" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -3823,11 +4093,11 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AE2" s="39" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ2" s="33"/>
+      <c r="AE2" s="34" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ2" s="37"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" s="27">
@@ -19236,8 +19506,8 @@
   </sheetPr>
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20170,7 +20440,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20189,7 +20459,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20198,11 +20468,11 @@
     <col min="2" max="2" width="39.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="10"/>
     <col min="4" max="4" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="15" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="130.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="130.5" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -20232,7 +20502,7 @@
       </c>
       <c r="G1" s="11" t="str">
         <f>SETTINGS!G1</f>
-        <v>Commentaire</v>
+        <v>/!\ N.B /!\</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -20248,11 +20518,11 @@
         <f>IF(SETTINGS!C2&lt;&gt;"",SETTINGS!C2,"")</f>
         <v>F</v>
       </c>
-      <c r="D2" s="36" t="str">
+      <c r="D2" s="33" t="str">
         <f>IF(SETTINGS!D2&lt;&gt;"",SETTINGS!D2,"")</f>
         <v>-</v>
       </c>
-      <c r="E2" s="40" t="str">
+      <c r="E2" s="35" t="str">
         <f>IF(SETTINGS!E2&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E2,$I:$J,2,FALSE),SETTINGS!E2),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20264,11 +20534,11 @@
         <f>IF(SETTINGS!G2&lt;&gt;"",SETTINGS!G2,"")</f>
         <v/>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>216</v>
+      <c r="I2" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -20284,11 +20554,11 @@
         <f>IF(SETTINGS!C3&lt;&gt;"",SETTINGS!C3,"")</f>
         <v>365</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="33">
         <f>IF(SETTINGS!D3&lt;&gt;"",SETTINGS!D3,"")</f>
         <v>45115</v>
       </c>
-      <c r="E3" s="40" t="str">
+      <c r="E3" s="35" t="str">
         <f>IF(SETTINGS!E3&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E3,$I:$J,2,FALSE),SETTINGS!E3),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20300,11 +20570,11 @@
         <f>IF(SETTINGS!G3&lt;&gt;"",SETTINGS!G3,"")</f>
         <v/>
       </c>
-      <c r="I3" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>215</v>
+      <c r="I3" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -20320,11 +20590,11 @@
         <f>IF(SETTINGS!C4&lt;&gt;"",SETTINGS!C4,"")</f>
         <v>F</v>
       </c>
-      <c r="D4" s="36" t="str">
+      <c r="D4" s="33" t="str">
         <f>IF(SETTINGS!D4&lt;&gt;"",SETTINGS!D4,"")</f>
         <v>-</v>
       </c>
-      <c r="E4" s="40" t="str">
+      <c r="E4" s="35" t="str">
         <f>IF(SETTINGS!E4&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E4,$I:$J,2,FALSE),SETTINGS!E4),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -20336,11 +20606,11 @@
         <f>IF(SETTINGS!G4&lt;&gt;"",SETTINGS!G4,"")</f>
         <v/>
       </c>
-      <c r="I4" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>217</v>
+      <c r="I4" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -20356,11 +20626,11 @@
         <f>IF(SETTINGS!C5&lt;&gt;"",SETTINGS!C5,"")</f>
         <v>119</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="33">
         <f>IF(SETTINGS!D5&lt;&gt;"",SETTINGS!D5,"")</f>
         <v>45115</v>
       </c>
-      <c r="E5" s="40" t="str">
+      <c r="E5" s="35" t="str">
         <f>IF(SETTINGS!E5&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E5,$I:$J,2,FALSE),SETTINGS!E5),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20372,11 +20642,11 @@
         <f>IF(SETTINGS!G5&lt;&gt;"",SETTINGS!G5,"")</f>
         <v/>
       </c>
-      <c r="I5" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>218</v>
+      <c r="I5" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -20392,11 +20662,11 @@
         <f>IF(SETTINGS!C6&lt;&gt;"",SETTINGS!C6,"")</f>
         <v>40</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="33">
         <f>IF(SETTINGS!D6&lt;&gt;"",SETTINGS!D6,"")</f>
         <v>45115</v>
       </c>
-      <c r="E6" s="40" t="str">
+      <c r="E6" s="35" t="str">
         <f>IF(SETTINGS!E6&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E6,$I:$J,2,FALSE),SETTINGS!E6),"")</f>
         <v>&lt;a href="https://mangafoxfull.com/manga/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangafoxfull.com/manga/"&gt; MFF&lt;/a&gt;</v>
       </c>
@@ -20408,11 +20678,11 @@
         <f>IF(SETTINGS!G6&lt;&gt;"",SETTINGS!G6,"")</f>
         <v/>
       </c>
-      <c r="I6" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>219</v>
+      <c r="I6" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -20428,11 +20698,11 @@
         <f>IF(SETTINGS!C7&lt;&gt;"",SETTINGS!C7,"")</f>
         <v>1115</v>
       </c>
-      <c r="D7" s="36" t="str">
+      <c r="D7" s="33" t="str">
         <f>IF(SETTINGS!D7&lt;&gt;"",SETTINGS!D7,"")</f>
         <v>*</v>
       </c>
-      <c r="E7" s="40" t="str">
+      <c r="E7" s="35" t="str">
         <f>IF(SETTINGS!E7&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E7,$I:$J,2,FALSE),SETTINGS!E7),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -20458,11 +20728,11 @@
         <f>IF(SETTINGS!C8&lt;&gt;"",SETTINGS!C8,"")</f>
         <v>F</v>
       </c>
-      <c r="D8" s="36" t="str">
+      <c r="D8" s="33" t="str">
         <f>IF(SETTINGS!D8&lt;&gt;"",SETTINGS!D8,"")</f>
         <v>-</v>
       </c>
-      <c r="E8" s="40" t="str">
+      <c r="E8" s="35" t="str">
         <f>IF(SETTINGS!E8&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E8,$I:$J,2,FALSE),SETTINGS!E8),"")</f>
         <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
@@ -20488,11 +20758,11 @@
         <f>IF(SETTINGS!C9&lt;&gt;"",SETTINGS!C9,"")</f>
         <v>89</v>
       </c>
-      <c r="D9" s="36" t="str">
+      <c r="D9" s="33" t="str">
         <f>IF(SETTINGS!D9&lt;&gt;"",SETTINGS!D9,"")</f>
         <v>*</v>
       </c>
-      <c r="E9" s="40" t="str">
+      <c r="E9" s="35" t="str">
         <f>IF(SETTINGS!E9&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E9,$I:$J,2,FALSE),SETTINGS!E9),"")</f>
         <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
@@ -20518,11 +20788,11 @@
         <f>IF(SETTINGS!C10&lt;&gt;"",SETTINGS!C10,"")</f>
         <v>F</v>
       </c>
-      <c r="D10" s="36" t="str">
+      <c r="D10" s="33" t="str">
         <f>IF(SETTINGS!D10&lt;&gt;"",SETTINGS!D10,"")</f>
         <v>-</v>
       </c>
-      <c r="E10" s="40" t="str">
+      <c r="E10" s="35" t="str">
         <f>IF(SETTINGS!E10&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E10,$I:$J,2,FALSE),SETTINGS!E10),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20548,11 +20818,11 @@
         <f>IF(SETTINGS!C11&lt;&gt;"",SETTINGS!C11,"")</f>
         <v>F</v>
       </c>
-      <c r="D11" s="36" t="str">
+      <c r="D11" s="33" t="str">
         <f>IF(SETTINGS!D11&lt;&gt;"",SETTINGS!D11,"")</f>
         <v>-</v>
       </c>
-      <c r="E11" s="40" t="str">
+      <c r="E11" s="35" t="str">
         <f>IF(SETTINGS!E11&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E11,$I:$J,2,FALSE),SETTINGS!E11),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20578,11 +20848,11 @@
         <f>IF(SETTINGS!C12&lt;&gt;"",SETTINGS!C12,"")</f>
         <v>F</v>
       </c>
-      <c r="D12" s="36" t="str">
+      <c r="D12" s="33" t="str">
         <f>IF(SETTINGS!D12&lt;&gt;"",SETTINGS!D12,"")</f>
         <v>-</v>
       </c>
-      <c r="E12" s="40" t="str">
+      <c r="E12" s="35" t="str">
         <f>IF(SETTINGS!E12&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E12,$I:$J,2,FALSE),SETTINGS!E12),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20608,11 +20878,11 @@
         <f>IF(SETTINGS!C13&lt;&gt;"",SETTINGS!C13,"")</f>
         <v>F</v>
       </c>
-      <c r="D13" s="36" t="str">
+      <c r="D13" s="33" t="str">
         <f>IF(SETTINGS!D13&lt;&gt;"",SETTINGS!D13,"")</f>
         <v>-</v>
       </c>
-      <c r="E13" s="40" t="str">
+      <c r="E13" s="35" t="str">
         <f>IF(SETTINGS!E13&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E13,$I:$J,2,FALSE),SETTINGS!E13),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -20638,11 +20908,11 @@
         <f>IF(SETTINGS!C14&lt;&gt;"",SETTINGS!C14,"")</f>
         <v>400</v>
       </c>
-      <c r="D14" s="36" t="str">
+      <c r="D14" s="33" t="str">
         <f>IF(SETTINGS!D14&lt;&gt;"",SETTINGS!D14,"")</f>
         <v>*</v>
       </c>
-      <c r="E14" s="40" t="str">
+      <c r="E14" s="35" t="str">
         <f>IF(SETTINGS!E14&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E14,$I:$J,2,FALSE),SETTINGS!E14),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20668,11 +20938,11 @@
         <f>IF(SETTINGS!C15&lt;&gt;"",SETTINGS!C15,"")</f>
         <v>228</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="33">
         <f>IF(SETTINGS!D15&lt;&gt;"",SETTINGS!D15,"")</f>
         <v>45114</v>
       </c>
-      <c r="E15" s="40" t="str">
+      <c r="E15" s="35" t="str">
         <f>IF(SETTINGS!E15&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E15,$I:$J,2,FALSE),SETTINGS!E15),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20698,11 +20968,11 @@
         <f>IF(SETTINGS!C16&lt;&gt;"",SETTINGS!C16,"")</f>
         <v>F</v>
       </c>
-      <c r="D16" s="36" t="str">
+      <c r="D16" s="33" t="str">
         <f>IF(SETTINGS!D16&lt;&gt;"",SETTINGS!D16,"")</f>
         <v>-</v>
       </c>
-      <c r="E16" s="40" t="str">
+      <c r="E16" s="35" t="str">
         <f>IF(SETTINGS!E16&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E16,$I:$J,2,FALSE),SETTINGS!E16),"")</f>
         <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
@@ -20728,11 +20998,11 @@
         <f>IF(SETTINGS!C17&lt;&gt;"",SETTINGS!C17,"")</f>
         <v>F</v>
       </c>
-      <c r="D17" s="36" t="str">
+      <c r="D17" s="33" t="str">
         <f>IF(SETTINGS!D17&lt;&gt;"",SETTINGS!D17,"")</f>
         <v>-</v>
       </c>
-      <c r="E17" s="40" t="str">
+      <c r="E17" s="35" t="str">
         <f>IF(SETTINGS!E17&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E17,$I:$J,2,FALSE),SETTINGS!E17),"")</f>
         <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
@@ -20758,11 +21028,11 @@
         <f>IF(SETTINGS!C18&lt;&gt;"",SETTINGS!C18,"")</f>
         <v>F</v>
       </c>
-      <c r="D18" s="36" t="str">
+      <c r="D18" s="33" t="str">
         <f>IF(SETTINGS!D18&lt;&gt;"",SETTINGS!D18,"")</f>
         <v>-</v>
       </c>
-      <c r="E18" s="40" t="str">
+      <c r="E18" s="35" t="str">
         <f>IF(SETTINGS!E18&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E18,$I:$J,2,FALSE),SETTINGS!E18),"")</f>
         <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
@@ -20788,11 +21058,11 @@
         <f>IF(SETTINGS!C19&lt;&gt;"",SETTINGS!C19,"")</f>
         <v>F</v>
       </c>
-      <c r="D19" s="36" t="str">
+      <c r="D19" s="33" t="str">
         <f>IF(SETTINGS!D19&lt;&gt;"",SETTINGS!D19,"")</f>
         <v>-</v>
       </c>
-      <c r="E19" s="40" t="str">
+      <c r="E19" s="35" t="str">
         <f>IF(SETTINGS!E19&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E19,$I:$J,2,FALSE),SETTINGS!E19),"")</f>
         <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
@@ -20818,11 +21088,11 @@
         <f>IF(SETTINGS!C20&lt;&gt;"",SETTINGS!C20,"")</f>
         <v>-</v>
       </c>
-      <c r="D20" s="36" t="str">
+      <c r="D20" s="33" t="str">
         <f>IF(SETTINGS!D20&lt;&gt;"",SETTINGS!D20,"")</f>
         <v>*</v>
       </c>
-      <c r="E20" s="40" t="str">
+      <c r="E20" s="35" t="str">
         <f>IF(SETTINGS!E20&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E20,$I:$J,2,FALSE),SETTINGS!E20),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20848,11 +21118,11 @@
         <f>IF(SETTINGS!C21&lt;&gt;"",SETTINGS!C21,"")</f>
         <v>-</v>
       </c>
-      <c r="D21" s="36" t="str">
+      <c r="D21" s="33" t="str">
         <f>IF(SETTINGS!D21&lt;&gt;"",SETTINGS!D21,"")</f>
         <v>*</v>
       </c>
-      <c r="E21" s="40" t="str">
+      <c r="E21" s="35" t="str">
         <f>IF(SETTINGS!E21&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E21,$I:$J,2,FALSE),SETTINGS!E21),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20878,11 +21148,11 @@
         <f>IF(SETTINGS!C22&lt;&gt;"",SETTINGS!C22,"")</f>
         <v>162</v>
       </c>
-      <c r="D22" s="36" t="str">
+      <c r="D22" s="33" t="str">
         <f>IF(SETTINGS!D22&lt;&gt;"",SETTINGS!D22,"")</f>
         <v>*</v>
       </c>
-      <c r="E22" s="40" t="str">
+      <c r="E22" s="35" t="str">
         <f>IF(SETTINGS!E22&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E22,$I:$J,2,FALSE),SETTINGS!E22),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20908,11 +21178,11 @@
         <f>IF(SETTINGS!C23&lt;&gt;"",SETTINGS!C23,"")</f>
         <v>392</v>
       </c>
-      <c r="D23" s="36" t="str">
+      <c r="D23" s="33" t="str">
         <f>IF(SETTINGS!D23&lt;&gt;"",SETTINGS!D23,"")</f>
         <v>*</v>
       </c>
-      <c r="E23" s="40" t="str">
+      <c r="E23" s="35" t="str">
         <f>IF(SETTINGS!E23&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E23,$I:$J,2,FALSE),SETTINGS!E23),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20938,11 +21208,11 @@
         <f>IF(SETTINGS!C24&lt;&gt;"",SETTINGS!C24,"")</f>
         <v>F</v>
       </c>
-      <c r="D24" s="36" t="str">
+      <c r="D24" s="33" t="str">
         <f>IF(SETTINGS!D24&lt;&gt;"",SETTINGS!D24,"")</f>
         <v>-</v>
       </c>
-      <c r="E24" s="40" t="str">
+      <c r="E24" s="35" t="str">
         <f>IF(SETTINGS!E24&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E24,$I:$J,2,FALSE),SETTINGS!E24),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20968,11 +21238,11 @@
         <f>IF(SETTINGS!C25&lt;&gt;"",SETTINGS!C25,"")</f>
         <v>1080</v>
       </c>
-      <c r="D25" s="36" t="str">
+      <c r="D25" s="33" t="str">
         <f>IF(SETTINGS!D25&lt;&gt;"",SETTINGS!D25,"")</f>
         <v>*</v>
       </c>
-      <c r="E25" s="40" t="str">
+      <c r="E25" s="35" t="str">
         <f>IF(SETTINGS!E25&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E25,$I:$J,2,FALSE),SETTINGS!E25),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -20998,11 +21268,11 @@
         <f>IF(SETTINGS!C26&lt;&gt;"",SETTINGS!C26,"")</f>
         <v>178</v>
       </c>
-      <c r="D26" s="36" t="str">
+      <c r="D26" s="33" t="str">
         <f>IF(SETTINGS!D26&lt;&gt;"",SETTINGS!D26,"")</f>
         <v>*</v>
       </c>
-      <c r="E26" s="40" t="str">
+      <c r="E26" s="35" t="str">
         <f>IF(SETTINGS!E26&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E26,$I:$J,2,FALSE),SETTINGS!E26),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -21028,11 +21298,11 @@
         <f>IF(SETTINGS!C27&lt;&gt;"",SETTINGS!C27,"")</f>
         <v>125</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="33">
         <f>IF(SETTINGS!D27&lt;&gt;"",SETTINGS!D27,"")</f>
         <v>45114</v>
       </c>
-      <c r="E27" s="40" t="str">
+      <c r="E27" s="35" t="str">
         <f>IF(SETTINGS!E27&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E27,$I:$J,2,FALSE),SETTINGS!E27),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -21058,11 +21328,11 @@
         <f>IF(SETTINGS!C28&lt;&gt;"",SETTINGS!C28,"")</f>
         <v>-</v>
       </c>
-      <c r="D28" s="36" t="str">
+      <c r="D28" s="33" t="str">
         <f>IF(SETTINGS!D28&lt;&gt;"",SETTINGS!D28,"")</f>
         <v>*</v>
       </c>
-      <c r="E28" s="40" t="str">
+      <c r="E28" s="35" t="str">
         <f>IF(SETTINGS!E28&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E28,$I:$J,2,FALSE),SETTINGS!E28),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -21088,11 +21358,11 @@
         <f>IF(SETTINGS!C29&lt;&gt;"",SETTINGS!C29,"")</f>
         <v>-</v>
       </c>
-      <c r="D29" s="36" t="str">
+      <c r="D29" s="33" t="str">
         <f>IF(SETTINGS!D29&lt;&gt;"",SETTINGS!D29,"")</f>
         <v>*</v>
       </c>
-      <c r="E29" s="40" t="str">
+      <c r="E29" s="35" t="str">
         <f>IF(SETTINGS!E29&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E29,$I:$J,2,FALSE),SETTINGS!E29),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -21118,11 +21388,11 @@
         <f>IF(SETTINGS!C30&lt;&gt;"",SETTINGS!C30,"")</f>
         <v>85</v>
       </c>
-      <c r="D30" s="36" t="str">
+      <c r="D30" s="33" t="str">
         <f>IF(SETTINGS!D30&lt;&gt;"",SETTINGS!D30,"")</f>
         <v>*</v>
       </c>
-      <c r="E30" s="40" t="str">
+      <c r="E30" s="35" t="str">
         <f>IF(SETTINGS!E30&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E30,$I:$J,2,FALSE),SETTINGS!E30),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -21148,11 +21418,11 @@
         <f>IF(SETTINGS!C31&lt;&gt;"",SETTINGS!C31,"")</f>
         <v>-</v>
       </c>
-      <c r="D31" s="36" t="str">
+      <c r="D31" s="33" t="str">
         <f>IF(SETTINGS!D31&lt;&gt;"",SETTINGS!D31,"")</f>
         <v>*</v>
       </c>
-      <c r="E31" s="40" t="str">
+      <c r="E31" s="35" t="str">
         <f>IF(SETTINGS!E31&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E31,$I:$J,2,FALSE),SETTINGS!E31),"")</f>
         <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; MJ&lt;/a&gt;</v>
       </c>
@@ -21178,11 +21448,11 @@
         <f>IF(SETTINGS!C32&lt;&gt;"",SETTINGS!C32,"")</f>
         <v>F</v>
       </c>
-      <c r="D32" s="36" t="str">
+      <c r="D32" s="33" t="str">
         <f>IF(SETTINGS!D32&lt;&gt;"",SETTINGS!D32,"")</f>
         <v>-</v>
       </c>
-      <c r="E32" s="40" t="str">
+      <c r="E32" s="35" t="str">
         <f>IF(SETTINGS!E32&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E32,$I:$J,2,FALSE),SETTINGS!E32),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -21192,7 +21462,7 @@
       </c>
       <c r="G32" s="15" t="str">
         <f>IF(SETTINGS!G32&lt;&gt;"",SETTINGS!G32,"")</f>
-        <v>renomer 2 derniers chapt</v>
+        <v>Renomer 2 derniers chapt</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -21208,11 +21478,11 @@
         <f>IF(SETTINGS!C33&lt;&gt;"",SETTINGS!C33,"")</f>
         <v>F</v>
       </c>
-      <c r="D33" s="36" t="str">
+      <c r="D33" s="33" t="str">
         <f>IF(SETTINGS!D33&lt;&gt;"",SETTINGS!D33,"")</f>
         <v>-</v>
       </c>
-      <c r="E33" s="40" t="str">
+      <c r="E33" s="35" t="str">
         <f>IF(SETTINGS!E33&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E33,$I:$J,2,FALSE),SETTINGS!E33),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -21238,11 +21508,11 @@
         <f>IF(SETTINGS!C34&lt;&gt;"",SETTINGS!C34,"")</f>
         <v>F</v>
       </c>
-      <c r="D34" s="36" t="str">
+      <c r="D34" s="33" t="str">
         <f>IF(SETTINGS!D34&lt;&gt;"",SETTINGS!D34,"")</f>
         <v>-</v>
       </c>
-      <c r="E34" s="40" t="str">
+      <c r="E34" s="35" t="str">
         <f>IF(SETTINGS!E34&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E34,$I:$J,2,FALSE),SETTINGS!E34),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -21268,11 +21538,11 @@
         <f>IF(SETTINGS!C35&lt;&gt;"",SETTINGS!C35,"")</f>
         <v>-</v>
       </c>
-      <c r="D35" s="36" t="str">
+      <c r="D35" s="33" t="str">
         <f>IF(SETTINGS!D35&lt;&gt;"",SETTINGS!D35,"")</f>
         <v>*</v>
       </c>
-      <c r="E35" s="40" t="str">
+      <c r="E35" s="35" t="str">
         <f>IF(SETTINGS!E35&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E35,$I:$J,2,FALSE),SETTINGS!E35),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -21298,11 +21568,11 @@
         <f>IF(SETTINGS!C36&lt;&gt;"",SETTINGS!C36,"")</f>
         <v>-</v>
       </c>
-      <c r="D36" s="36" t="str">
+      <c r="D36" s="33" t="str">
         <f>IF(SETTINGS!D36&lt;&gt;"",SETTINGS!D36,"")</f>
         <v>*</v>
       </c>
-      <c r="E36" s="40" t="str">
+      <c r="E36" s="35" t="str">
         <f>IF(SETTINGS!E36&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E36,$I:$J,2,FALSE),SETTINGS!E36),"")</f>
         <v>Sushi scans</v>
       </c>
@@ -21312,7 +21582,7 @@
       </c>
       <c r="G36" s="15" t="str">
         <f>IF(SETTINGS!G36&lt;&gt;"",SETTINGS!G36,"")</f>
-        <v>Directement convertir en kindle</v>
+        <v>Convertir directement</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -21328,11 +21598,11 @@
         <f>IF(SETTINGS!C37&lt;&gt;"",SETTINGS!C37,"")</f>
         <v>-</v>
       </c>
-      <c r="D37" s="36" t="str">
+      <c r="D37" s="33" t="str">
         <f>IF(SETTINGS!D37&lt;&gt;"",SETTINGS!D37,"")</f>
         <v>*</v>
       </c>
-      <c r="E37" s="40" t="str">
+      <c r="E37" s="35" t="str">
         <f>IF(SETTINGS!E37&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E37,$I:$J,2,FALSE),SETTINGS!E37),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -21358,11 +21628,11 @@
         <f>IF(SETTINGS!C38&lt;&gt;"",SETTINGS!C38,"")</f>
         <v>-</v>
       </c>
-      <c r="D38" s="36" t="str">
+      <c r="D38" s="33" t="str">
         <f>IF(SETTINGS!D38&lt;&gt;"",SETTINGS!D38,"")</f>
         <v>*</v>
       </c>
-      <c r="E38" s="40" t="str">
+      <c r="E38" s="35" t="str">
         <f>IF(SETTINGS!E38&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E38,$I:$J,2,FALSE),SETTINGS!E38),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -21388,11 +21658,11 @@
         <f>IF(SETTINGS!C39&lt;&gt;"",SETTINGS!C39,"")</f>
         <v>-</v>
       </c>
-      <c r="D39" s="36" t="str">
+      <c r="D39" s="33" t="str">
         <f>IF(SETTINGS!D39&lt;&gt;"",SETTINGS!D39,"")</f>
         <v>*</v>
       </c>
-      <c r="E39" s="40" t="str">
+      <c r="E39" s="35" t="str">
         <f>IF(SETTINGS!E39&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E39,$I:$J,2,FALSE),SETTINGS!E39),"")</f>
         <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
@@ -21418,11 +21688,11 @@
         <f>IF(SETTINGS!C40&lt;&gt;"",SETTINGS!C40,"")</f>
         <v>F</v>
       </c>
-      <c r="D40" s="36" t="str">
+      <c r="D40" s="33" t="str">
         <f>IF(SETTINGS!D40&lt;&gt;"",SETTINGS!D40,"")</f>
         <v>-</v>
       </c>
-      <c r="E40" s="40" t="str">
+      <c r="E40" s="35" t="str">
         <f>IF(SETTINGS!E40&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E40,$I:$J,2,FALSE),SETTINGS!E40),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -21448,11 +21718,11 @@
         <f>IF(SETTINGS!C41&lt;&gt;"",SETTINGS!C41,"")</f>
         <v>-</v>
       </c>
-      <c r="D41" s="36" t="str">
+      <c r="D41" s="33" t="str">
         <f>IF(SETTINGS!D41&lt;&gt;"",SETTINGS!D41,"")</f>
         <v>*</v>
       </c>
-      <c r="E41" s="40" t="str">
+      <c r="E41" s="35" t="str">
         <f>IF(SETTINGS!E41&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E41,$I:$J,2,FALSE),SETTINGS!E41),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -21478,11 +21748,11 @@
         <f>IF(SETTINGS!C42&lt;&gt;"",SETTINGS!C42,"")</f>
         <v>-</v>
       </c>
-      <c r="D42" s="36" t="str">
+      <c r="D42" s="33" t="str">
         <f>IF(SETTINGS!D42&lt;&gt;"",SETTINGS!D42,"")</f>
         <v>*</v>
       </c>
-      <c r="E42" s="40" t="str">
+      <c r="E42" s="35" t="str">
         <f>IF(SETTINGS!E42&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E42,$I:$J,2,FALSE),SETTINGS!E42),"")</f>
         <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; MJ&lt;/a&gt;</v>
       </c>
@@ -21508,11 +21778,11 @@
         <f>IF(SETTINGS!C43&lt;&gt;"",SETTINGS!C43,"")</f>
         <v>-</v>
       </c>
-      <c r="D43" s="36" t="str">
+      <c r="D43" s="33" t="str">
         <f>IF(SETTINGS!D43&lt;&gt;"",SETTINGS!D43,"")</f>
         <v>*</v>
       </c>
-      <c r="E43" s="40" t="str">
+      <c r="E43" s="35" t="str">
         <f>IF(SETTINGS!E43&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E43,$I:$J,2,FALSE),SETTINGS!E43),"")</f>
         <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; MJ&lt;/a&gt;</v>
       </c>
@@ -21538,11 +21808,11 @@
         <f>IF(SETTINGS!C44&lt;&gt;"",SETTINGS!C44,"")</f>
         <v>-</v>
       </c>
-      <c r="D44" s="36" t="str">
+      <c r="D44" s="33" t="str">
         <f>IF(SETTINGS!D44&lt;&gt;"",SETTINGS!D44,"")</f>
         <v>*</v>
       </c>
-      <c r="E44" s="40" t="str">
+      <c r="E44" s="35" t="str">
         <f>IF(SETTINGS!E44&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E44,$I:$J,2,FALSE),SETTINGS!E44),"")</f>
         <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
@@ -21568,11 +21838,11 @@
         <f>IF(SETTINGS!C45&lt;&gt;"",SETTINGS!C45,"")</f>
         <v>-</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="33">
         <f>IF(SETTINGS!D45&lt;&gt;"",SETTINGS!D45,"")</f>
         <v>45114</v>
       </c>
-      <c r="E45" s="40" t="str">
+      <c r="E45" s="35" t="str">
         <f>IF(SETTINGS!E45&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E45,$I:$J,2,FALSE),SETTINGS!E45),"")</f>
         <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
@@ -21598,11 +21868,11 @@
         <f>IF(SETTINGS!C46&lt;&gt;"",SETTINGS!C46,"")</f>
         <v/>
       </c>
-      <c r="D46" s="36" t="str">
+      <c r="D46" s="33" t="str">
         <f>IF(SETTINGS!D46&lt;&gt;"",SETTINGS!D46,"")</f>
         <v/>
       </c>
-      <c r="E46" s="40" t="str">
+      <c r="E46" s="35" t="str">
         <f>IF(SETTINGS!E46&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E46,$I:$J,2,FALSE),SETTINGS!E46),"")</f>
         <v/>
       </c>
@@ -21628,11 +21898,11 @@
         <f>IF(SETTINGS!C47&lt;&gt;"",SETTINGS!C47,"")</f>
         <v/>
       </c>
-      <c r="D47" s="36" t="str">
+      <c r="D47" s="33" t="str">
         <f>IF(SETTINGS!D47&lt;&gt;"",SETTINGS!D47,"")</f>
         <v/>
       </c>
-      <c r="E47" s="40" t="str">
+      <c r="E47" s="35" t="str">
         <f>IF(SETTINGS!E47&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E47,$I:$J,2,FALSE),SETTINGS!E47),"")</f>
         <v/>
       </c>

--- a/origin.xlsx
+++ b/origin.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B37E2F-0BF5-C84D-BABC-5CB64D246247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474BB457-76E4-5645-8C8A-F7F2C7F35CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23280" yWindow="6780" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16580" yWindow="7680" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTINGS" sheetId="1" r:id="rId1"/>
     <sheet name="UPDATE" sheetId="2" r:id="rId2"/>
     <sheet name="COVER" sheetId="3" r:id="rId3"/>
     <sheet name="readme" sheetId="4" r:id="rId4"/>
-    <sheet name="LIST" sheetId="7" r:id="rId5"/>
-    <sheet name="update_save" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="formule" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="LIST" sheetId="5" r:id="rId5"/>
+    <sheet name="update_save" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="formule" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">COVER!$A$1:$B$1</definedName>
@@ -485,6 +485,9 @@
     <t>https://comicvine.gamespot.com/akira/4050-40664/</t>
   </si>
   <si>
+    <t>https://comicvine.gamespot.com/ansatsu-kyoshitsu/4050-74865/</t>
+  </si>
+  <si>
     <t>Bakemonogatari</t>
   </si>
   <si>
@@ -791,9 +794,6 @@
     <t>https://comicvine.gamespot.com/yu-gi-oh/4050-95939/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/ansatsu-kyoshitsu/4050-74865/</t>
-  </si>
-  <si>
     <t>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</t>
   </si>
   <si>
@@ -812,15 +812,6 @@
     <t>&lt;a href="https://mangafoxfull.com/manga/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangafoxfull.com/manga/"&gt; MFF&lt;/a&gt;</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>Dandadan</t>
   </si>
   <si>
@@ -830,13 +821,13 @@
     <t>https://en.wikipedia.org/wiki/Dandadan</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Boy's_Abyss</t>
-  </si>
-  <si>
     <t>Boy's Abyss</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/shounen-no-abyss/4050-132984/</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Boy's_Abyss</t>
   </si>
   <si>
     <t>Tokyo revenfers</t>
@@ -847,12 +838,21 @@
   <si>
     <t>https://tokyorevengers.fandom.com/wiki/Volumes_%26_Chapters</t>
   </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -906,15 +906,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
@@ -932,15 +923,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF0432FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1001,6 +983,14 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0432FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1239,9 +1229,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1253,40 +1243,31 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1297,42 +1278,33 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1341,26 +1313,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1783,34 +1773,34 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="61" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.6640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="62" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="37" customWidth="1"/>
     <col min="9" max="10" width="10.83203125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="53" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="53" customWidth="1"/>
-    <col min="13" max="13" width="12" style="53" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="51" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.83203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="49" customWidth="1"/>
+    <col min="13" max="13" width="12" style="49" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="48" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -1828,10 +1818,10 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="15" t="s">
@@ -1840,33 +1830,33 @@
       <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="75" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="13" t="str">
@@ -1881,10 +1871,10 @@
         <v>19</v>
       </c>
       <c r="F2" s="14" t="str">
-        <f>IF(AND(OR(P2=TRUE,K2&lt;&gt;""),J2=TRUE),"✅","❌")</f>
+        <f t="shared" ref="F2:F33" si="1">IF(AND(OR(P2=TRUE,K2&lt;&gt;""),J2=TRUE),"✅","❌")</f>
         <v>✅</v>
       </c>
-      <c r="H2" s="38" t="b">
+      <c r="H2" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A2,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -1896,32 +1886,32 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A2,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="49">
         <v>22</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="48" t="b">
-        <f t="shared" ref="N2:N33" si="1">IF(F2&lt;&gt;"",F2="✅","")</f>
+      <c r="N2" s="45" t="b">
+        <f t="shared" ref="N2:N33" si="2">IF(F2&lt;&gt;"",F2="✅","")</f>
         <v>1</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="71" t="b">
+      <c r="P2" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A2,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="13">
@@ -1932,14 +1922,14 @@
         <f t="shared" si="0"/>
         <v>45140</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="14" t="str">
-        <f t="shared" ref="F3:F53" si="2">IF(AND(OR(P3=TRUE,K3&lt;&gt;""),J3=TRUE),"✅","❌")</f>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H3" s="38" t="b">
+      <c r="H3" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A3,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -1951,30 +1941,30 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A3,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="54">
+      <c r="M3" s="50">
         <v>45140</v>
       </c>
-      <c r="N3" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N3" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="71" t="b">
+      <c r="P3" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A3,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="58"/>
+      <c r="Q3" s="53"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="13" t="str">
@@ -1985,14 +1975,14 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H4" s="38" t="b">
+      <c r="H4" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A4,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -2004,47 +1994,47 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A4,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="L4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N4" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="71" t="b">
+      <c r="P4" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A4,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A5,UPDATE!$1:$1,0),TRUE))=FALSE,H5=FALSE),L5,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A5,UPDATE!$1:$1,0))))</f>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D5" s="19">
         <f t="shared" si="0"/>
         <v>45140</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H5" s="38" t="b">
+      <c r="H5" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A5,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -2056,30 +2046,30 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A5,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="54">
+      <c r="M5" s="50">
         <v>45140</v>
       </c>
-      <c r="N5" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N5" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="71" t="b">
+      <c r="P5" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A5,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="58"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="13">
@@ -2090,14 +2080,14 @@
         <f t="shared" si="0"/>
         <v>45140</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H6" s="38" t="b">
+      <c r="H6" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A6,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -2109,30 +2099,30 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A6,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="54">
+      <c r="M6" s="50">
         <v>45140</v>
       </c>
-      <c r="N6" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N6" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O6" s="49" t="s">
+      <c r="O6" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="71" t="b">
+      <c r="P6" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A6,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="58"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="13">
@@ -2147,13 +2137,13 @@
         <v>32</v>
       </c>
       <c r="F7" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="38" t="b">
+      <c r="H7" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A7,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -2165,20 +2155,20 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A7,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="53" t="s">
+      <c r="L7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="50">
         <v>45140</v>
       </c>
-      <c r="N7" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N7" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="71" t="b">
+      <c r="P7" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A7,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -2187,7 +2177,7 @@
       <c r="A8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="13" t="str">
@@ -2202,10 +2192,10 @@
         <v>36</v>
       </c>
       <c r="F8" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H8" s="38" t="b">
+      <c r="H8" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A8,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -2217,24 +2207,24 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A8,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="M8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N8" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="71" t="b">
+      <c r="P8" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A8,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="57" t="s">
+      <c r="Q8" s="52" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2242,7 +2232,7 @@
       <c r="A9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="13">
@@ -2257,13 +2247,13 @@
         <v>36</v>
       </c>
       <c r="F9" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="38" t="b">
+      <c r="H9" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A9,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -2275,29 +2265,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A9,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L9" s="53" t="s">
+      <c r="L9" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="53" t="s">
+      <c r="M9" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N9" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O9" s="49" t="s">
+      <c r="O9" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="71" t="b">
+      <c r="P9" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A9,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="13" t="str">
@@ -2312,10 +2302,10 @@
         <v>23</v>
       </c>
       <c r="F10" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H10" s="38" t="b">
+      <c r="H10" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A10,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -2327,29 +2317,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A10,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L10" s="53" t="s">
+      <c r="L10" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="53" t="s">
+      <c r="M10" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N10" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="71" t="b">
+      <c r="P10" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A10,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="13" t="str">
@@ -2364,10 +2354,10 @@
         <v>19</v>
       </c>
       <c r="F11" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H11" s="38" t="b">
+      <c r="H11" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A11,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -2379,20 +2369,20 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A11,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L11" s="53" t="s">
+      <c r="L11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="M11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N11" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O11" s="49" t="s">
+      <c r="O11" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="71" t="b">
+      <c r="P11" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A11,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -2401,7 +2391,7 @@
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="13" t="str">
@@ -2416,10 +2406,10 @@
         <v>19</v>
       </c>
       <c r="F12" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H12" s="38" t="b">
+      <c r="H12" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A12,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -2431,23 +2421,23 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A12,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="49">
         <v>25</v>
       </c>
-      <c r="L12" s="53" t="s">
+      <c r="L12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="53" t="s">
+      <c r="M12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N12" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O12" s="49" t="s">
+      <c r="O12" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="P12" s="71" t="b">
+      <c r="P12" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A12,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -2456,7 +2446,7 @@
       <c r="A13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="13" t="str">
@@ -2467,14 +2457,14 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H13" s="38" t="b">
+      <c r="H13" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A13,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -2486,29 +2476,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A13,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L13" s="53" t="s">
+      <c r="L13" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="M13" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N13" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O13" s="49" t="s">
+      <c r="O13" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="71" t="b">
+      <c r="P13" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A13,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="13">
@@ -2519,14 +2509,14 @@
         <f t="shared" si="0"/>
         <v>45140</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H14" s="38" t="b">
+      <c r="H14" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A14,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -2538,29 +2528,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A14,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L14" s="53" t="s">
+      <c r="L14" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="54">
+      <c r="M14" s="50">
         <v>45140</v>
       </c>
-      <c r="N14" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N14" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O14" s="49" t="s">
+      <c r="O14" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="P14" s="71" t="b">
+      <c r="P14" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A14,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="13">
@@ -2571,14 +2561,14 @@
         <f t="shared" si="0"/>
         <v>45140</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H15" s="38" t="b">
+      <c r="H15" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A15,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -2590,30 +2580,30 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A15,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L15" s="53" t="s">
+      <c r="L15" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="54">
+      <c r="M15" s="50">
         <v>45140</v>
       </c>
-      <c r="N15" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N15" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O15" s="49" t="s">
+      <c r="O15" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="71" t="b">
+      <c r="P15" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A15,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="58"/>
+      <c r="Q15" s="53"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="13" t="str">
@@ -2628,10 +2618,10 @@
         <v>36</v>
       </c>
       <c r="F16" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H16" s="38" t="b">
+      <c r="H16" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A16,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -2643,20 +2633,20 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A16,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L16" s="53" t="s">
+      <c r="L16" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="53" t="s">
+      <c r="M16" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N16" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O16" s="49" t="s">
+      <c r="O16" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="P16" s="71" t="b">
+      <c r="P16" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A16,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -2665,7 +2655,7 @@
       <c r="A17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="13" t="str">
@@ -2680,13 +2670,13 @@
         <v>36</v>
       </c>
       <c r="F17" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="G17" s="62" t="s">
+      <c r="G17" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="38" t="b">
+      <c r="H17" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A17,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -2698,20 +2688,20 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A17,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L17" s="53" t="s">
+      <c r="L17" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="53" t="s">
+      <c r="M17" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N17" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O17" s="49" t="s">
+      <c r="O17" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="P17" s="71" t="b">
+      <c r="P17" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A17,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -2720,7 +2710,7 @@
       <c r="A18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="13" t="str">
@@ -2735,13 +2725,13 @@
         <v>36</v>
       </c>
       <c r="F18" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="G18" s="62" t="s">
+      <c r="G18" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="38" t="b">
+      <c r="H18" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A18,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -2753,20 +2743,20 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A18,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L18" s="53" t="s">
+      <c r="L18" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="53" t="s">
+      <c r="M18" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N18" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O18" s="49" t="s">
+      <c r="O18" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="71" t="b">
+      <c r="P18" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A18,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -2775,7 +2765,7 @@
       <c r="A19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="13" t="str">
@@ -2790,13 +2780,13 @@
         <v>36</v>
       </c>
       <c r="F19" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="G19" s="62" t="s">
+      <c r="G19" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="38" t="b">
+      <c r="H19" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A19,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -2808,29 +2798,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A19,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L19" s="53" t="s">
+      <c r="L19" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="53" t="s">
+      <c r="M19" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N19" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O19" s="49" t="s">
+      <c r="O19" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="P19" s="71" t="b">
+      <c r="P19" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A19,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="13">
@@ -2841,14 +2831,14 @@
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H20" s="38" t="b">
+      <c r="H20" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A20,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -2860,29 +2850,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A20,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L20" s="53" t="s">
+      <c r="L20" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="M20" s="53" t="s">
+      <c r="M20" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N20" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O20" s="49" t="s">
+      <c r="O20" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="P20" s="71" t="b">
+      <c r="P20" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A20,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="13" t="str">
@@ -2893,14 +2883,14 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H21" s="38" t="b">
+      <c r="H21" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A21,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -2912,29 +2902,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A21,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L21" s="53" t="s">
+      <c r="L21" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="53" t="s">
+      <c r="M21" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N21" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O21" s="49" t="s">
+      <c r="O21" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="P21" s="71" t="b">
+      <c r="P21" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A21,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>70</v>
       </c>
       <c r="C22" s="13">
@@ -2949,10 +2939,10 @@
         <v>19</v>
       </c>
       <c r="F22" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H22" s="38" t="b">
+      <c r="H22" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A22,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -2964,29 +2954,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A22,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L22" s="53" t="s">
+      <c r="L22" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="54">
+      <c r="M22" s="50">
         <v>45140</v>
       </c>
-      <c r="N22" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N22" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O22" s="49" t="s">
+      <c r="O22" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="P22" s="71" t="b">
+      <c r="P22" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A22,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="13">
@@ -2997,14 +2987,14 @@
         <f t="shared" si="0"/>
         <v>45140</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H23" s="38" t="b">
+      <c r="H23" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A23,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -3016,24 +3006,24 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A23,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L23" s="53" t="s">
+      <c r="L23" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="54">
+      <c r="M23" s="50">
         <v>45140</v>
       </c>
-      <c r="N23" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N23" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O23" s="49" t="s">
+      <c r="O23" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="P23" s="71" t="b">
+      <c r="P23" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A23,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="57" t="s">
+      <c r="Q23" s="52" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3041,7 +3031,7 @@
       <c r="A24" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>75</v>
       </c>
       <c r="C24" s="13" t="str">
@@ -3056,10 +3046,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H24" s="38" t="b">
+      <c r="H24" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A24,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -3071,29 +3061,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A24,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L24" s="53" t="s">
+      <c r="L24" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="53" t="s">
+      <c r="M24" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N24" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O24" s="49" t="s">
+      <c r="O24" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="P24" s="71" t="b">
+      <c r="P24" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A24,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>77</v>
       </c>
       <c r="C25" s="13">
@@ -3104,14 +3094,14 @@
         <f t="shared" si="0"/>
         <v>45140</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H25" s="38" t="b">
+      <c r="H25" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A25,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -3123,29 +3113,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A25,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L25" s="53" t="s">
+      <c r="L25" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="54">
+      <c r="M25" s="50">
         <v>45140</v>
       </c>
-      <c r="N25" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N25" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O25" s="49" t="s">
+      <c r="O25" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="P25" s="71" t="b">
+      <c r="P25" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A25,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>79</v>
       </c>
       <c r="C26" s="13">
@@ -3160,10 +3150,10 @@
         <v>32</v>
       </c>
       <c r="F26" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H26" s="38" t="b">
+      <c r="H26" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A26,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -3175,29 +3165,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A26,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L26" s="53" t="s">
+      <c r="L26" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="54">
+      <c r="M26" s="50">
         <v>45140</v>
       </c>
-      <c r="N26" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N26" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O26" s="49" t="s">
+      <c r="O26" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="P26" s="71" t="b">
+      <c r="P26" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A26,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C27" s="13">
@@ -3208,14 +3198,14 @@
         <f t="shared" si="0"/>
         <v>45140</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H27" s="38" t="b">
+      <c r="H27" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A27,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -3227,30 +3217,30 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A27,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L27" s="53" t="s">
+      <c r="L27" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="54">
+      <c r="M27" s="50">
         <v>45140</v>
       </c>
-      <c r="N27" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N27" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O27" s="49" t="s">
+      <c r="O27" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="P27" s="71" t="b">
+      <c r="P27" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A27,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q27" s="58"/>
+      <c r="Q27" s="53"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="13" t="str">
@@ -3261,14 +3251,14 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H28" s="38" t="b">
+      <c r="H28" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A28,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -3280,32 +3270,32 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A28,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K28" s="53">
+      <c r="K28" s="49">
         <v>21</v>
       </c>
-      <c r="L28" s="53" t="s">
+      <c r="L28" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="53" t="s">
+      <c r="M28" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N28" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O28" s="49" t="s">
+      <c r="O28" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="P28" s="71" t="b">
+      <c r="P28" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A28,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="13" t="str">
@@ -3320,10 +3310,10 @@
         <v>23</v>
       </c>
       <c r="F29" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H29" s="38" t="b">
+      <c r="H29" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A29,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -3335,29 +3325,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A29,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L29" s="53" t="s">
+      <c r="L29" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M29" s="53" t="s">
+      <c r="M29" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N29" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O29" s="49" t="s">
+      <c r="O29" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="P29" s="71" t="b">
+      <c r="P29" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A29,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="34" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="13">
@@ -3372,10 +3362,10 @@
         <v>19</v>
       </c>
       <c r="F30" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H30" s="38" t="b">
+      <c r="H30" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A30,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -3387,20 +3377,20 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A30,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L30" s="53" t="s">
+      <c r="L30" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M30" s="54">
+      <c r="M30" s="50">
         <v>45140</v>
       </c>
-      <c r="N30" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N30" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O30" s="49" t="s">
+      <c r="O30" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="P30" s="71" t="b">
+      <c r="P30" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A30,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -3409,7 +3399,7 @@
       <c r="A31" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C31" s="13" t="str">
@@ -3424,10 +3414,10 @@
         <v>92</v>
       </c>
       <c r="F31" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>❌</v>
       </c>
-      <c r="H31" s="38" t="b">
+      <c r="H31" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A31,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -3439,29 +3429,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A31,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="53" t="s">
+      <c r="L31" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="M31" s="53" t="s">
+      <c r="M31" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="N31" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N31" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O31" s="49" t="s">
+      <c r="O31" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="P31" s="71" t="b">
+      <c r="P31" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A31,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>94</v>
       </c>
       <c r="C32" s="13" t="str">
@@ -3472,17 +3462,17 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F32" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="H32" s="38" t="b">
+      <c r="H32" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A32,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -3494,32 +3484,32 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A32,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K32" s="53">
+      <c r="K32" s="49">
         <v>14</v>
       </c>
-      <c r="L32" s="53" t="s">
+      <c r="L32" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M32" s="53" t="s">
+      <c r="M32" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N32" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N32" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O32" s="49" t="s">
+      <c r="O32" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="P32" s="71" t="b">
+      <c r="P32" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A32,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>97</v>
       </c>
       <c r="C33" s="13" t="str">
@@ -3530,14 +3520,14 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F33" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="H33" s="38" t="b">
+      <c r="H33" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A33,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -3549,32 +3539,32 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A33,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K33" s="53">
+      <c r="K33" s="49">
         <v>16</v>
       </c>
-      <c r="L33" s="53" t="s">
+      <c r="L33" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="53" t="s">
+      <c r="M33" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="48" t="b">
-        <f t="shared" si="1"/>
+      <c r="N33" s="45" t="b">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O33" s="49" t="s">
+      <c r="O33" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="P33" s="71" t="b">
+      <c r="P33" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A33,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C34" s="13" t="str">
@@ -3589,10 +3579,10 @@
         <v>32</v>
       </c>
       <c r="F34" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F34:F53" si="4">IF(AND(OR(P34=TRUE,K34&lt;&gt;""),J34=TRUE),"✅","❌")</f>
         <v>✅</v>
       </c>
-      <c r="H34" s="38" t="b">
+      <c r="H34" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A34,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -3604,32 +3594,32 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A34,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K34" s="53">
+      <c r="K34" s="49">
         <v>37</v>
       </c>
-      <c r="L34" s="53" t="s">
+      <c r="L34" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="53" t="s">
+      <c r="M34" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N34" s="48" t="b">
-        <f t="shared" ref="N34:N53" si="4">IF(F34&lt;&gt;"",F34="✅","")</f>
+      <c r="N34" s="45" t="b">
+        <f t="shared" ref="N34:N53" si="5">IF(F34&lt;&gt;"",F34="✅","")</f>
         <v>1</v>
       </c>
-      <c r="O34" s="49" t="s">
+      <c r="O34" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="P34" s="71" t="b">
+      <c r="P34" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A34,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="34" t="s">
         <v>100</v>
       </c>
       <c r="C35" s="13" t="str">
@@ -3640,14 +3630,14 @@
         <f t="shared" si="3"/>
         <v>45140</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F35" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>❌</v>
       </c>
-      <c r="H35" s="38" t="b">
+      <c r="H35" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A35,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -3659,20 +3649,20 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A35,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L35" s="53" t="s">
+      <c r="L35" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="M35" s="55">
+      <c r="M35" s="51">
         <v>45140</v>
       </c>
-      <c r="N35" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N35" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O35" s="49" t="s">
+      <c r="O35" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="P35" s="71" t="b">
+      <c r="P35" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A35,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -3681,7 +3671,7 @@
       <c r="A36" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>102</v>
       </c>
       <c r="C36" s="13" t="str">
@@ -3696,13 +3686,13 @@
         <v>103</v>
       </c>
       <c r="F36" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>✅</v>
       </c>
-      <c r="G36" s="62" t="s">
+      <c r="G36" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="H36" s="38" t="b">
+      <c r="H36" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A36,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -3714,29 +3704,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A36,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L36" s="53" t="s">
+      <c r="L36" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="M36" s="53" t="s">
+      <c r="M36" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="N36" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N36" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O36" s="49" t="s">
+      <c r="O36" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="P36" s="71" t="b">
+      <c r="P36" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A36,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="34" t="s">
         <v>107</v>
       </c>
       <c r="C37" s="13" t="str">
@@ -3747,14 +3737,14 @@
         <f t="shared" si="3"/>
         <v>45140</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F37" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>✅</v>
       </c>
-      <c r="H37" s="38" t="b">
+      <c r="H37" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A37,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -3766,20 +3756,20 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A37,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L37" s="53" t="s">
+      <c r="L37" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="55">
+      <c r="M37" s="51">
         <v>45140</v>
       </c>
-      <c r="N37" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N37" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O37" s="49" t="s">
+      <c r="O37" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="P37" s="71" t="b">
+      <c r="P37" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A37,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -3788,7 +3778,7 @@
       <c r="A38" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="34" t="s">
         <v>109</v>
       </c>
       <c r="C38" s="13" t="str">
@@ -3803,10 +3793,10 @@
         <v>19</v>
       </c>
       <c r="F38" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>✅</v>
       </c>
-      <c r="H38" s="38" t="b">
+      <c r="H38" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A38,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -3818,29 +3808,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A38,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L38" s="53" t="s">
+      <c r="L38" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M38" s="53" t="s">
+      <c r="M38" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="N38" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N38" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O38" s="49" t="s">
+      <c r="O38" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="P38" s="71" t="b">
+      <c r="P38" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A38,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="34" t="s">
         <v>111</v>
       </c>
       <c r="C39" s="13" t="str">
@@ -3851,14 +3841,14 @@
         <f t="shared" si="3"/>
         <v>*</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>❌</v>
       </c>
-      <c r="H39" s="38" t="b">
+      <c r="H39" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A39,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -3870,29 +3860,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A39,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L39" s="53" t="s">
+      <c r="L39" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M39" s="53" t="s">
+      <c r="M39" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N39" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O39" s="49" t="s">
+      <c r="O39" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="P39" s="71" t="b">
+      <c r="P39" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A39,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>112</v>
       </c>
       <c r="C40" s="13" t="str">
@@ -3903,14 +3893,14 @@
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F40" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>❌</v>
       </c>
-      <c r="H40" s="38" t="b">
+      <c r="H40" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A40,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -3922,29 +3912,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A40,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L40" s="53" t="s">
+      <c r="L40" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M40" s="53" t="s">
+      <c r="M40" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N40" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N40" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O40" s="49" t="s">
+      <c r="O40" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="P40" s="71" t="b">
+      <c r="P40" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A40,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="34" t="s">
         <v>114</v>
       </c>
       <c r="C41" s="13" t="str">
@@ -3955,14 +3945,14 @@
         <f t="shared" si="3"/>
         <v>45140</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F41" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>❌</v>
       </c>
-      <c r="H41" s="38" t="b">
+      <c r="H41" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A41,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -3974,29 +3964,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A41,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L41" s="53" t="s">
+      <c r="L41" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M41" s="54">
+      <c r="M41" s="50">
         <v>45140</v>
       </c>
-      <c r="N41" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N41" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O41" s="49" t="s">
+      <c r="O41" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="P41" s="71" t="b">
+      <c r="P41" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A41,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="34" t="s">
         <v>117</v>
       </c>
       <c r="C42" s="13" t="str">
@@ -4007,14 +3997,14 @@
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F42" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>✅</v>
       </c>
-      <c r="H42" s="38" t="b">
+      <c r="H42" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A42,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -4026,29 +4016,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A42,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L42" s="53" t="s">
+      <c r="L42" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="53" t="s">
+      <c r="M42" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N42" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O42" s="49" t="s">
+      <c r="O42" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="P42" s="71" t="b">
+      <c r="P42" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A42,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="34" t="s">
         <v>118</v>
       </c>
       <c r="C43" s="13" t="str">
@@ -4059,14 +4049,14 @@
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F43" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>✅</v>
       </c>
-      <c r="H43" s="38" t="b">
+      <c r="H43" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A43,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -4078,20 +4068,20 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A43,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L43" s="53" t="s">
+      <c r="L43" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="53" t="s">
+      <c r="M43" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N43" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O43" s="49" t="s">
+      <c r="O43" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="P43" s="71" t="b">
+      <c r="P43" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A43,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -4100,7 +4090,7 @@
       <c r="A44" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A44,UPDATE!$1:$1,0),TRUE))=FALSE,H44=FALSE),L44,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A44,UPDATE!$1:$1,0))))</f>
         <v>F</v>
@@ -4113,13 +4103,13 @@
         <v>32</v>
       </c>
       <c r="F44" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>❌</v>
       </c>
-      <c r="G44" s="62" t="s">
+      <c r="G44" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="H44" s="38" t="b">
+      <c r="H44" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A44,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -4131,29 +4121,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A44,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L44" s="53" t="s">
+      <c r="L44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M44" s="53" t="s">
+      <c r="M44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N44" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O44" s="49" t="s">
+      <c r="O44" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="P44" s="71" t="b">
+      <c r="P44" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A44,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="34" t="s">
         <v>123</v>
       </c>
       <c r="C45" s="13">
@@ -4164,14 +4154,14 @@
         <f t="shared" si="3"/>
         <v>45140</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F45" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>✅</v>
       </c>
-      <c r="H45" s="38" t="b">
+      <c r="H45" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A45,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -4183,30 +4173,30 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A45,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L45" s="53" t="s">
+      <c r="L45" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M45" s="54">
+      <c r="M45" s="50">
         <v>45140</v>
       </c>
-      <c r="N45" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N45" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O45" s="49" t="s">
+      <c r="O45" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="P45" s="71" t="b">
+      <c r="P45" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A45,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q45" s="58"/>
+      <c r="Q45" s="53"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="61" t="s">
         <v>125</v>
       </c>
       <c r="C46" s="13" t="str">
@@ -4217,14 +4207,14 @@
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F46" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>✅</v>
       </c>
-      <c r="H46" s="38" t="b">
+      <c r="H46" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A46,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -4236,26 +4226,26 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A46,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L46" s="53" t="s">
+      <c r="L46" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M46" s="53" t="s">
+      <c r="M46" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N46" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O46" s="49" t="s">
+      <c r="O46" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="P46" s="71" t="b">
+      <c r="P46" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A46,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="39" t="s">
         <v>126</v>
       </c>
       <c r="C47" s="13" t="str">
@@ -4266,14 +4256,14 @@
         <f t="shared" si="3"/>
         <v>*</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="35" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>✅</v>
       </c>
-      <c r="H47" s="38" t="b">
+      <c r="H47" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A47,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -4285,26 +4275,26 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A47,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L47" s="53" t="s">
+      <c r="L47" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="53" t="s">
+      <c r="M47" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="N47" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N47" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O47" s="49" t="s">
+      <c r="O47" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="P47" s="71" t="b">
+      <c r="P47" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A47,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="39" t="s">
         <v>127</v>
       </c>
       <c r="C48" s="13" t="str">
@@ -4315,14 +4305,14 @@
         <f t="shared" si="3"/>
         <v>*</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>❌</v>
       </c>
-      <c r="H48" s="38" t="b">
+      <c r="H48" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A48,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -4334,29 +4324,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A48,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L48" s="53" t="s">
+      <c r="L48" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M48" s="53" t="s">
+      <c r="M48" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="N48" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N48" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O48" s="49" t="s">
+      <c r="O48" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="P48" s="71" t="b">
+      <c r="P48" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A48,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="61" t="s">
         <v>128</v>
       </c>
       <c r="C49" s="13">
@@ -4367,14 +4357,14 @@
         <f t="shared" si="3"/>
         <v>*</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F49" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>✅</v>
       </c>
-      <c r="H49" s="38" t="b">
+      <c r="H49" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A49,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -4386,29 +4376,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A49,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L49" s="53" t="s">
+      <c r="L49" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="53" t="s">
+      <c r="M49" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N49" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O49" s="49" t="s">
+      <c r="O49" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="P49" s="71" t="b">
+      <c r="P49" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A49,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="61" t="s">
         <v>129</v>
       </c>
       <c r="C50" s="13" t="str">
@@ -4419,14 +4409,14 @@
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F50" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>✅</v>
       </c>
-      <c r="H50" s="38" t="b">
+      <c r="H50" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A50,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -4438,29 +4428,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A50,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L50" s="53" t="s">
+      <c r="L50" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="53" t="s">
+      <c r="M50" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N50" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O50" s="49" t="s">
+      <c r="O50" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="P50" s="71" t="b">
+      <c r="P50" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A50,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="61" t="s">
         <v>130</v>
       </c>
       <c r="C51" s="13" t="str">
@@ -4471,17 +4461,17 @@
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="E51" s="36" t="s">
+      <c r="E51" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F51" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>✅</v>
       </c>
-      <c r="G51" s="62" t="s">
+      <c r="G51" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="H51" s="38" t="b">
+      <c r="H51" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A51,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -4493,29 +4483,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A51,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L51" s="53" t="s">
+      <c r="L51" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M51" s="53" t="s">
+      <c r="M51" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N51" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O51" s="49" t="s">
+      <c r="O51" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="P51" s="71" t="b">
+      <c r="P51" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A51,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="34" t="s">
         <v>133</v>
       </c>
       <c r="C52" s="13" t="str">
@@ -4526,14 +4516,14 @@
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E52" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F52" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>✅</v>
       </c>
-      <c r="H52" s="38" t="b">
+      <c r="H52" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A52,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -4545,29 +4535,29 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A52,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L52" s="53" t="s">
+      <c r="L52" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M52" s="53" t="s">
+      <c r="M52" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N52" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N52" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O52" s="49" t="s">
+      <c r="O52" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="P52" s="71" t="b">
+      <c r="P52" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A52,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="61" t="s">
         <v>134</v>
       </c>
       <c r="C53" s="13" t="str">
@@ -4578,14 +4568,14 @@
         <f t="shared" si="3"/>
         <v>*</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F53" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>✅</v>
       </c>
-      <c r="H53" s="38" t="b">
+      <c r="H53" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A53,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -4597,20 +4587,20 @@
         <f>IFERROR(IF(MATCH(SETTINGS!A53,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L53" s="53" t="s">
+      <c r="L53" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M53" s="53" t="s">
+      <c r="M53" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="N53" s="48" t="b">
-        <f t="shared" si="4"/>
+      <c r="N53" s="45" t="b">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O53" s="49" t="s">
+      <c r="O53" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="P53" s="71" t="b">
+      <c r="P53" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A53,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -4669,8 +4659,8 @@
     <col min="31" max="31" width="10.83203125" style="7" customWidth="1"/>
     <col min="32" max="51" width="10.83203125" style="1" customWidth="1"/>
     <col min="52" max="52" width="10.83203125" style="27" customWidth="1"/>
-    <col min="53" max="69" width="10.83203125" style="1" customWidth="1"/>
-    <col min="70" max="16384" width="10.83203125" style="1"/>
+    <col min="53" max="70" width="10.83203125" style="1" customWidth="1"/>
+    <col min="71" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -4770,34 +4760,34 @@
       <c r="AF1" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="AG1" s="44" t="s">
+      <c r="AG1" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="AH1" s="42" t="s">
+      <c r="AH1" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="AI1" s="45" t="s">
+      <c r="AI1" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="AJ1" s="65" t="s">
+      <c r="AJ1" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="AK1" s="59" t="s">
+      <c r="AK1" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="AL1" s="59" t="s">
+      <c r="AL1" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="AM1" s="63" t="s">
+      <c r="AM1" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="AN1" s="74" t="s">
+      <c r="AN1" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="AO1" s="68" t="s">
+      <c r="AO1" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="AP1" s="73" t="s">
+      <c r="AP1" s="66" t="s">
         <v>122</v>
       </c>
       <c r="AZ1" s="26"/>
@@ -4830,8 +4820,8 @@
       <c r="I2" s="31">
         <v>1080</v>
       </c>
-      <c r="J2" s="31">
-        <v>137</v>
+      <c r="J2" s="69">
+        <v>138</v>
       </c>
       <c r="K2" s="31">
         <v>178</v>
@@ -4917,41 +4907,41 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AG2" s="43" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH2" s="43" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI2" s="46" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ2" s="43" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK2" s="60" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL2" s="66">
+      <c r="AG2" s="41" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH2" s="41" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI2" s="44" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ2" s="41" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK2" s="55" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL2" s="60">
         <v>373</v>
       </c>
-      <c r="AM2" s="64" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN2" s="43" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO2" s="69">
+      <c r="AM2" s="58" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN2" s="41" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO2" s="63">
         <v>90</v>
       </c>
-      <c r="AP2" s="75">
+      <c r="AP2" s="68">
         <v>228</v>
       </c>
       <c r="AZ2" s="33"/>
@@ -25956,31 +25946,31 @@
         <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -25988,15 +25978,15 @@
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -26004,7 +25994,7 @@
         <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -26012,15 +26002,15 @@
         <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -26028,7 +26018,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -26036,7 +26026,7 @@
         <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -26044,15 +26034,15 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -26060,7 +26050,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -26068,7 +26058,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -26076,7 +26066,7 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -26084,39 +26074,39 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -26124,15 +26114,15 @@
         <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -26140,7 +26130,7 @@
         <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -26148,7 +26138,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -26156,15 +26146,15 @@
         <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -26172,15 +26162,15 @@
         <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -26188,23 +26178,23 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -26212,15 +26202,15 @@
         <v>45</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -26228,15 +26218,15 @@
         <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -26244,7 +26234,7 @@
         <v>116</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -26252,15 +26242,15 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -26268,7 +26258,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -26276,7 +26266,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -26284,7 +26274,7 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -26292,7 +26282,7 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -26300,7 +26290,7 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -26308,7 +26298,7 @@
         <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -26316,7 +26306,7 @@
         <v>111</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -26324,15 +26314,15 @@
         <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -26340,7 +26330,7 @@
         <v>70</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -26348,7 +26338,7 @@
         <v>71</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -26356,7 +26346,7 @@
         <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -26364,7 +26354,7 @@
         <v>118</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -26372,7 +26362,7 @@
         <v>124</v>
       </c>
       <c r="B58" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -26380,7 +26370,7 @@
         <v>134</v>
       </c>
       <c r="B59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -26388,7 +26378,7 @@
         <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -26396,15 +26386,15 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -26412,31 +26402,31 @@
         <v>76</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -26444,15 +26434,15 @@
         <v>81</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -26460,7 +26450,7 @@
         <v>133</v>
       </c>
       <c r="B69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -26468,15 +26458,15 @@
         <v>83</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -26484,15 +26474,15 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -26500,7 +26490,7 @@
         <v>88</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -26508,7 +26498,7 @@
         <v>108</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -26516,15 +26506,15 @@
         <v>93</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -26532,7 +26522,7 @@
         <v>98</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -26540,15 +26530,15 @@
         <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -26556,7 +26546,7 @@
         <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -26586,8 +26576,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B42" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{5B906073-CE56-E74C-934F-53B574EB9336}"/>
+    <hyperlink ref="B26" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B42" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26766,7 +26756,7 @@
       </c>
       <c r="C5" s="14">
         <f>IF(SETTINGS!C5&lt;&gt;"",SETTINGS!C5,"")</f>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D5" s="24">
         <f>IF(SETTINGS!D5&lt;&gt;"",SETTINGS!D5,"")</f>
@@ -28066,10 +28056,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E557DBB-50D2-8E40-B3E0-64B491EA9D22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -28085,55 +28075,55 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{9C219711-37CC-5C4A-8393-C70F60A31977}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AZ133"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -28153,8 +28143,8 @@
     <col min="31" max="31" width="10.83203125" style="7" customWidth="1"/>
     <col min="32" max="51" width="10.83203125" style="1" customWidth="1"/>
     <col min="52" max="52" width="10.83203125" style="27" customWidth="1"/>
-    <col min="53" max="69" width="10.83203125" style="1" customWidth="1"/>
-    <col min="70" max="16384" width="10.83203125" style="1"/>
+    <col min="53" max="70" width="10.83203125" style="1" customWidth="1"/>
+    <col min="71" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -44267,7 +44257,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE99" xr:uid="{00000000-0009-0000-0000-000004000000}">
+  <autoFilter ref="A1:AE99" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE133">
       <sortCondition descending="1" ref="A1:A99"/>
     </sortState>
@@ -44278,7 +44268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44298,13 +44288,13 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">

--- a/origin.xlsx
+++ b/origin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474BB457-76E4-5645-8C8A-F7F2C7F35CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A4472D-12C8-7E44-81B9-727377F62053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16580" yWindow="7680" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17380" yWindow="4040" windowWidth="34280" windowHeight="22960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTINGS" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,16 @@
     <sheet name="COVER" sheetId="3" r:id="rId3"/>
     <sheet name="readme" sheetId="4" r:id="rId4"/>
     <sheet name="LIST" sheetId="5" r:id="rId5"/>
-    <sheet name="update_save" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="formule" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="SETTINGS (save)" sheetId="8" r:id="rId6"/>
+    <sheet name="update_save" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="formule" sheetId="7" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">COVER!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SETTINGS!$A$1:$O$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SETTINGS!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'SETTINGS (save)'!$A$1:$Q$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UPDATE!$A$1:$AE$99</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">update_save!$A$1:$AE$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">update_save!$A$1:$AE$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="271">
   <si>
     <t>Manga</t>
   </si>
@@ -847,6 +849,18 @@
   <si>
     <t>K</t>
   </si>
+  <si>
+    <t>Dr. Stone</t>
+  </si>
+  <si>
+    <t>Dr Stone</t>
+  </si>
+  <si>
+    <t>Trevenger</t>
+  </si>
+  <si>
+    <t>Tokyo Revengers</t>
+  </si>
 </sst>
 </file>
 
@@ -1358,7 +1372,34 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1771,13 +1812,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1875,7 +1916,7 @@
         <v>✅</v>
       </c>
       <c r="H2" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A2,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A2,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I2" s="16">
@@ -1908,21 +1949,21 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="A3" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A3,UPDATE!$1:$1,0),TRUE))=FALSE,H3=FALSE),L3,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A3,UPDATE!$1:$1,0))))</f>
-        <v>366</v>
-      </c>
-      <c r="D3" s="19">
+        <v>F</v>
+      </c>
+      <c r="D3" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>45140</v>
-      </c>
-      <c r="E3" s="35" t="s">
+        <v>F</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="14" t="str">
@@ -1930,52 +1971,51 @@
         <v>✅</v>
       </c>
       <c r="H3" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A3,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>1</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A3,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I3" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A3,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A3,UPDATE!$1:$1,0)),0)),K3)</f>
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J3" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A3,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A50,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L3" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="50">
-        <v>45140</v>
+        <v>20</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>20</v>
       </c>
       <c r="N3" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O3" s="46" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="P3" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A3,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="53"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="13" t="str">
+        <v>22</v>
+      </c>
+      <c r="C4" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A4,UPDATE!$1:$1,0),TRUE))=FALSE,H4=FALSE),L4,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A4,UPDATE!$1:$1,0))))</f>
-        <v>F</v>
-      </c>
-      <c r="D4" s="19" t="str">
+        <v>367</v>
+      </c>
+      <c r="D4" s="19">
         <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="E4" s="35" t="s">
+        <v>45154</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="14" t="str">
@@ -1983,51 +2023,52 @@
         <v>✅</v>
       </c>
       <c r="H4" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A4,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A4,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="I4" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A4,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A4,UPDATE!$1:$1,0)),0)),K4)</f>
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="J4" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A4,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A3,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L4" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="49" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="M4" s="50">
+        <v>45154</v>
       </c>
       <c r="N4" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O4" s="46" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P4" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A4,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>27</v>
+      <c r="A5" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A5,UPDATE!$1:$1,0),TRUE))=FALSE,H5=FALSE),L5,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A5,UPDATE!$1:$1,0))))</f>
-        <v>138</v>
-      </c>
-      <c r="D5" s="19">
+        <v>373</v>
+      </c>
+      <c r="D5" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>45140</v>
-      </c>
-      <c r="E5" s="35" t="s">
+        <v>*</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="14" t="str">
@@ -2035,138 +2076,136 @@
         <v>✅</v>
       </c>
       <c r="H5" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A5,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A5,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="I5" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A5,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A5,UPDATE!$1:$1,0)),0)),K5)</f>
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J5" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A5,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A49,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="50">
-        <v>45140</v>
+      <c r="M5" s="49" t="s">
+        <v>24</v>
       </c>
       <c r="N5" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="P5" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A5,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="A6" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A6,UPDATE!$1:$1,0),TRUE))=FALSE,H6=FALSE),L6,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A6,UPDATE!$1:$1,0))))</f>
-        <v>40</v>
-      </c>
-      <c r="D6" s="19">
+        <v>F</v>
+      </c>
+      <c r="D6" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>45140</v>
-      </c>
-      <c r="E6" s="35" t="s">
+        <v>F</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
+      <c r="G6" s="56" t="s">
+        <v>131</v>
+      </c>
       <c r="H6" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A6,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>1</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A6,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I6" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A6,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A6,UPDATE!$1:$1,0)),0)),K6)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J6" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A6,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A51,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L6" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="50">
-        <v>45140</v>
+        <v>20</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>20</v>
       </c>
       <c r="N6" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O6" s="46" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="P6" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A6,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="13">
+        <v>25</v>
+      </c>
+      <c r="C7" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A7,UPDATE!$1:$1,0),TRUE))=FALSE,H7=FALSE),L7,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A7,UPDATE!$1:$1,0))))</f>
-        <v>1115</v>
-      </c>
-      <c r="D7" s="19">
+        <v>F</v>
+      </c>
+      <c r="D7" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>45140</v>
+        <v>F</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F7" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="G7" s="56" t="s">
-        <v>33</v>
-      </c>
       <c r="H7" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A7,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>1</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A7,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I7" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A7,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A7,UPDATE!$1:$1,0)),0)),K7)</f>
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="J7" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A7,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A4,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L7" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="50">
-        <v>45140</v>
+        <v>20</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>20</v>
       </c>
       <c r="N7" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O7" s="46" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="P7" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A7,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2174,129 +2213,125 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>34</v>
+      <c r="A8" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="13" t="str">
+        <v>123</v>
+      </c>
+      <c r="C8" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A8,UPDATE!$1:$1,0),TRUE))=FALSE,H8=FALSE),L8,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A8,UPDATE!$1:$1,0))))</f>
-        <v>F</v>
-      </c>
-      <c r="D8" s="19" t="str">
+        <v>228</v>
+      </c>
+      <c r="D8" s="19">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>45154</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F8" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="H8" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A8,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A8,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="I8" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A8,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A8,UPDATE!$1:$1,0)),0)),K8)</f>
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J8" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A8,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A45,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L8" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="49" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="M8" s="50">
+        <v>45154</v>
       </c>
       <c r="N8" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O8" s="46" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="P8" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A8,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="52" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q8" s="53"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>38</v>
+      <c r="A9" s="38" t="s">
+        <v>26</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C9" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A9,UPDATE!$1:$1,0),TRUE))=FALSE,H9=FALSE),L9,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A9,UPDATE!$1:$1,0))))</f>
-        <v>89</v>
-      </c>
-      <c r="D9" s="19" t="str">
+        <v>138</v>
+      </c>
+      <c r="D9" s="19">
         <f t="shared" si="0"/>
-        <v>*</v>
+        <v>45154</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F9" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="G9" s="56" t="s">
-        <v>40</v>
-      </c>
       <c r="H9" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A9,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A9,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="I9" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A9,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A9,UPDATE!$1:$1,0)),0)),K9)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J9" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A9,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A5,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="49" t="s">
         <v>24</v>
+      </c>
+      <c r="M9" s="50">
+        <v>45154</v>
       </c>
       <c r="N9" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O9" s="46" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="P9" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A9,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
+      <c r="Q9" s="53"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="13" t="str">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A10,UPDATE!$1:$1,0),TRUE))=FALSE,H10=FALSE),L10,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A10,UPDATE!$1:$1,0))))</f>
-        <v>F</v>
-      </c>
-      <c r="D10" s="19" t="str">
+        <v>40</v>
+      </c>
+      <c r="D10" s="19">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>45154</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>23</v>
@@ -2306,81 +2341,85 @@
         <v>✅</v>
       </c>
       <c r="H10" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A10,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A10,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="I10" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A10,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A10,UPDATE!$1:$1,0)),0)),K10)</f>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J10" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A10,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A6,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="49" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="M10" s="50">
+        <v>45154</v>
       </c>
       <c r="N10" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O10" s="46" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="P10" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A10,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
+      <c r="Q10" s="53"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="13" t="str">
+        <v>31</v>
+      </c>
+      <c r="C11" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A11,UPDATE!$1:$1,0),TRUE))=FALSE,H11=FALSE),L11,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A11,UPDATE!$1:$1,0))))</f>
-        <v>F</v>
-      </c>
-      <c r="D11" s="19" t="str">
+        <v>1115</v>
+      </c>
+      <c r="D11" s="19">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>45140</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
+      <c r="G11" s="56" t="s">
+        <v>33</v>
+      </c>
       <c r="H11" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A11,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A11,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="I11" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A11,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A11,UPDATE!$1:$1,0)),0)),K11)</f>
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J11" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A11,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A7,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="49" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="M11" s="50">
+        <v>45140</v>
       </c>
       <c r="N11" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O11" s="46" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="P11" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A11,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2389,10 +2428,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C12" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A12,UPDATE!$1:$1,0),TRUE))=FALSE,H12=FALSE),L12,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A12,UPDATE!$1:$1,0))))</f>
@@ -2403,26 +2442,23 @@
         <v>F</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="H12" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A12,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A12,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I12" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A12,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A12,UPDATE!$1:$1,0)),0)),K12)</f>
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J12" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A12,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A8,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
-      </c>
-      <c r="K12" s="49">
-        <v>25</v>
       </c>
       <c r="L12" s="49" t="s">
         <v>20</v>
@@ -2435,59 +2471,65 @@
         <v>1</v>
       </c>
       <c r="O12" s="46" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="P12" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A12,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="52" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="13" t="str">
+        <v>39</v>
+      </c>
+      <c r="C13" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A13,UPDATE!$1:$1,0),TRUE))=FALSE,H13=FALSE),L13,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A13,UPDATE!$1:$1,0))))</f>
-        <v>F</v>
+        <v>89</v>
       </c>
       <c r="D13" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>23</v>
+        <v>*</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
+      <c r="G13" s="56" t="s">
+        <v>40</v>
+      </c>
       <c r="H13" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A13,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A13,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="I13" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A13,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A13,UPDATE!$1:$1,0)),0)),K13)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J13" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A13,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A9,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L13" s="49" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M13" s="49" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N13" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O13" s="46" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="P13" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A13,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2496,115 +2538,115 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="13">
+        <v>114</v>
+      </c>
+      <c r="C14" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A14,UPDATE!$1:$1,0),TRUE))=FALSE,H14=FALSE),L14,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A14,UPDATE!$1:$1,0))))</f>
-        <v>400</v>
+        <v>*</v>
       </c>
       <c r="D14" s="19">
         <f t="shared" si="0"/>
-        <v>45140</v>
-      </c>
-      <c r="E14" s="35" t="s">
+        <v>45154</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="H14" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A14,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>1</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A14,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I14" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A14,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A14,UPDATE!$1:$1,0)),0)),K14)</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J14" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A14,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A41,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L14" s="49" t="s">
         <v>24</v>
       </c>
       <c r="M14" s="50">
-        <v>45140</v>
+        <v>45154</v>
       </c>
       <c r="N14" s="45" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="46" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="P14" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A14,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="A15" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A15,UPDATE!$1:$1,0),TRUE))=FALSE,H15=FALSE),L15,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A15,UPDATE!$1:$1,0))))</f>
-        <v>230</v>
-      </c>
-      <c r="D15" s="19">
+        <v>F</v>
+      </c>
+      <c r="D15" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>45140</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>23</v>
+        <v>F</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>✅</v>
+        <v>❌</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>120</v>
       </c>
       <c r="H15" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A15,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>1</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A15,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I15" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A15,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A15,UPDATE!$1:$1,0)),0)),K15)</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J15" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A15,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A44,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="50">
-        <v>45140</v>
+        <v>20</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>20</v>
       </c>
       <c r="N15" s="45" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="46" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="P15" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A15,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="53"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>53</v>
+      <c r="A16" s="38" t="s">
+        <v>42</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C16" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A16,UPDATE!$1:$1,0),TRUE))=FALSE,H16=FALSE),L16,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A16,UPDATE!$1:$1,0))))</f>
@@ -2615,22 +2657,22 @@
         <v>F</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="H16" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A16,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A16,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I16" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A16,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A16,UPDATE!$1:$1,0)),0)),K16)</f>
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="J16" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A16,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A10,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L16" s="49" t="s">
@@ -2644,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="46" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P16" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A16,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2652,11 +2694,11 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>56</v>
+      <c r="A17" s="38" t="s">
+        <v>43</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C17" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A17,UPDATE!$1:$1,0),TRUE))=FALSE,H17=FALSE),L17,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A17,UPDATE!$1:$1,0))))</f>
@@ -2667,25 +2709,22 @@
         <v>F</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F17" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="G17" s="56" t="s">
-        <v>57</v>
-      </c>
       <c r="H17" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A17,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A17,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I17" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A17,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A17,UPDATE!$1:$1,0)),0)),K17)</f>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J17" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A17,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A11,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L17" s="49" t="s">
@@ -2699,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="46" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="P17" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A17,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2708,10 +2747,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C18" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A18,UPDATE!$1:$1,0),TRUE))=FALSE,H18=FALSE),L18,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A18,UPDATE!$1:$1,0))))</f>
@@ -2722,26 +2761,26 @@
         <v>F</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="G18" s="56" t="s">
-        <v>57</v>
-      </c>
       <c r="H18" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A18,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A18,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I18" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A18,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A18,UPDATE!$1:$1,0)),0)),K18)</f>
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="J18" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A18,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A12,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
+      </c>
+      <c r="K18" s="49">
+        <v>25</v>
       </c>
       <c r="L18" s="49" t="s">
         <v>20</v>
@@ -2754,19 +2793,19 @@
         <v>1</v>
       </c>
       <c r="O18" s="46" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="P18" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A18,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C19" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A19,UPDATE!$1:$1,0),TRUE))=FALSE,H19=FALSE),L19,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A19,UPDATE!$1:$1,0))))</f>
@@ -2777,25 +2816,22 @@
         <v>F</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F19" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="G19" s="56" t="s">
-        <v>57</v>
-      </c>
       <c r="H19" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A19,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A19,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I19" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A19,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A19,UPDATE!$1:$1,0)),0)),K19)</f>
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="J19" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A19,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A13,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L19" s="49" t="s">
@@ -2809,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="46" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="P19" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A19,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2818,20 +2854,20 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C20" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A20,UPDATE!$1:$1,0),TRUE))=FALSE,H20=FALSE),L20,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A20,UPDATE!$1:$1,0))))</f>
-        <v>90</v>
-      </c>
-      <c r="D20" s="19" t="str">
+        <v>400</v>
+      </c>
+      <c r="D20" s="19">
         <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E20" s="35" t="s">
+        <v>45154</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="14" t="str">
@@ -2839,29 +2875,29 @@
         <v>✅</v>
       </c>
       <c r="H20" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A20,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A20,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="I20" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A20,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A20,UPDATE!$1:$1,0)),0)),K20)</f>
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J20" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A20,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A14,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L20" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" s="49" t="s">
-        <v>66</v>
+        <v>24</v>
+      </c>
+      <c r="M20" s="50">
+        <v>45154</v>
       </c>
       <c r="N20" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O20" s="46" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="P20" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A20,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2870,10 +2906,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="C21" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A21,UPDATE!$1:$1,0),TRUE))=FALSE,H21=FALSE),L21,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A21,UPDATE!$1:$1,0))))</f>
@@ -2883,7 +2919,7 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="14" t="str">
@@ -2891,7 +2927,7 @@
         <v>✅</v>
       </c>
       <c r="H21" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A21,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A21,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I21" s="16">
@@ -2899,7 +2935,7 @@
         <v>30</v>
       </c>
       <c r="J21" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A21,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A42,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L21" s="49" t="s">
@@ -2913,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="46" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="P21" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A21,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2921,51 +2957,48 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="A22" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A22,UPDATE!$1:$1,0),TRUE))=FALSE,H22=FALSE),L22,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A22,UPDATE!$1:$1,0))))</f>
-        <v>162</v>
-      </c>
-      <c r="D22" s="19">
+        <v>*</v>
+      </c>
+      <c r="D22" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>45140</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>19</v>
+        <v>*</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="F22" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="H22" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A22,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>1</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A22,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I22" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A22,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A22,UPDATE!$1:$1,0)),0)),K22)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J22" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A22,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
-        <v>1</v>
+        <f>IFERROR(IF(MATCH(SETTINGS!A47,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="L22" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="50">
-        <v>45140</v>
+      <c r="M22" s="49" t="s">
+        <v>24</v>
       </c>
       <c r="N22" s="45" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="46" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="P22" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A22,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2974,20 +3007,20 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C23" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A23,UPDATE!$1:$1,0),TRUE))=FALSE,H23=FALSE),L23,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A23,UPDATE!$1:$1,0))))</f>
-        <v>395</v>
+        <v>230</v>
       </c>
       <c r="D23" s="19">
         <f t="shared" si="0"/>
-        <v>45140</v>
-      </c>
-      <c r="E23" s="35" t="s">
+        <v>45154</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="14" t="str">
@@ -2995,44 +3028,42 @@
         <v>✅</v>
       </c>
       <c r="H23" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A23,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A23,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="I23" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A23,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A23,UPDATE!$1:$1,0)),0)),K23)</f>
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J23" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A23,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A15,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L23" s="49" t="s">
         <v>24</v>
       </c>
       <c r="M23" s="50">
-        <v>45140</v>
+        <v>45154</v>
       </c>
       <c r="N23" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O23" s="46" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="P23" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A23,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="52" t="s">
-        <v>73</v>
-      </c>
+      <c r="Q23" s="53"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C24" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A24,UPDATE!$1:$1,0),TRUE))=FALSE,H24=FALSE),L24,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A24,UPDATE!$1:$1,0))))</f>
@@ -3043,22 +3074,22 @@
         <v>F</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F24" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="H24" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A24,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A24,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I24" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A24,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A24,UPDATE!$1:$1,0)),0)),K24)</f>
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J24" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A24,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A16,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L24" s="49" t="s">
@@ -3072,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="46" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="P24" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A24,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3080,51 +3111,54 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
-        <v>76</v>
+      <c r="A25" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="13">
+        <v>54</v>
+      </c>
+      <c r="C25" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A25,UPDATE!$1:$1,0),TRUE))=FALSE,H25=FALSE),L25,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A25,UPDATE!$1:$1,0))))</f>
-        <v>1080</v>
-      </c>
-      <c r="D25" s="19">
+        <v>F</v>
+      </c>
+      <c r="D25" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>45140</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>23</v>
+        <v>F</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="F25" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
+      <c r="G25" s="56" t="s">
+        <v>57</v>
+      </c>
       <c r="H25" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A25,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>1</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A25,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I25" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A25,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A25,UPDATE!$1:$1,0)),0)),K25)</f>
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="J25" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A25,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A17,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L25" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" s="50">
-        <v>45140</v>
+        <v>20</v>
+      </c>
+      <c r="M25" s="49" t="s">
+        <v>20</v>
       </c>
       <c r="N25" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O25" s="46" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="P25" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A25,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3132,51 +3166,54 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
-        <v>78</v>
+      <c r="A26" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="13">
+        <v>54</v>
+      </c>
+      <c r="C26" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A26,UPDATE!$1:$1,0),TRUE))=FALSE,H26=FALSE),L26,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A26,UPDATE!$1:$1,0))))</f>
-        <v>178</v>
-      </c>
-      <c r="D26" s="19">
+        <v>F</v>
+      </c>
+      <c r="D26" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>45140</v>
+        <v>F</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F26" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
+      <c r="G26" s="56" t="s">
+        <v>57</v>
+      </c>
       <c r="H26" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A26,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>1</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A26,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I26" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A26,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A26,UPDATE!$1:$1,0)),0)),K26)</f>
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="J26" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A26,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A18,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L26" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="50">
-        <v>45140</v>
+        <v>20</v>
+      </c>
+      <c r="M26" s="49" t="s">
+        <v>20</v>
       </c>
       <c r="N26" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O26" s="46" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="P26" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A26,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3184,74 +3221,76 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="38" t="s">
-        <v>81</v>
+      <c r="A27" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="13">
+        <v>62</v>
+      </c>
+      <c r="C27" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A27,UPDATE!$1:$1,0),TRUE))=FALSE,H27=FALSE),L27,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A27,UPDATE!$1:$1,0))))</f>
-        <v>129</v>
-      </c>
-      <c r="D27" s="19">
+        <v>F</v>
+      </c>
+      <c r="D27" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>45140</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>23</v>
+        <v>F</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="F27" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
+      <c r="G27" s="56" t="s">
+        <v>57</v>
+      </c>
       <c r="H27" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A27,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>1</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A27,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I27" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A27,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A27,UPDATE!$1:$1,0)),0)),K27)</f>
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="J27" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A27,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A19,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L27" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="50">
-        <v>45140</v>
+        <v>20</v>
+      </c>
+      <c r="M27" s="49" t="s">
+        <v>20</v>
       </c>
       <c r="N27" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O27" s="46" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="P27" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A27,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q27" s="53"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="13" t="str">
+        <v>65</v>
+      </c>
+      <c r="C28" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A28,UPDATE!$1:$1,0),TRUE))=FALSE,H28=FALSE),L28,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A28,UPDATE!$1:$1,0))))</f>
-        <v>F</v>
-      </c>
-      <c r="D28" s="19" t="str">
+        <v>90</v>
+      </c>
+      <c r="D28" s="19">
         <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="E28" s="35" t="s">
+        <v>45154</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="14" t="str">
@@ -3259,136 +3298,133 @@
         <v>✅</v>
       </c>
       <c r="H28" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A28,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A28,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="I28" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A28,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A28,UPDATE!$1:$1,0)),0)),K28)</f>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J28" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A28,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A20,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K28" s="49">
-        <v>21</v>
-      </c>
       <c r="L28" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="49" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="M28" s="50">
+        <v>45154</v>
       </c>
       <c r="N28" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O28" s="46" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="P28" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A28,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="38" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C29" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A29,UPDATE!$1:$1,0),TRUE))=FALSE,H29=FALSE),L29,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A29,UPDATE!$1:$1,0))))</f>
+        <v>*</v>
+      </c>
+      <c r="D29" s="19">
+        <f t="shared" si="0"/>
+        <v>45154</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>❌</v>
+      </c>
+      <c r="H29" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A29,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A29,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A29,UPDATE!$1:$1,0)),0)),K29)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="16" t="b">
+        <f>IFERROR(IF(MATCH(SETTINGS!A39,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L29" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="50">
+        <v>45154</v>
+      </c>
+      <c r="N29" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A29,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A30,UPDATE!$1:$1,0),TRUE))=FALSE,H30=FALSE),L30,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A30,UPDATE!$1:$1,0))))</f>
         <v>F</v>
       </c>
-      <c r="D29" s="19" t="str">
+      <c r="D30" s="19" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E30" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F29" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>✅</v>
-      </c>
-      <c r="H29" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A29,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="16">
-        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A29,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A29,UPDATE!$1:$1,0)),0)),K29)</f>
-        <v>34</v>
-      </c>
-      <c r="J29" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A29,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L29" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="N29" s="45" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O29" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="P29" s="64" t="b">
-        <f>IF(IFERROR(HLOOKUP(A29,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="13">
-        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A30,UPDATE!$1:$1,0),TRUE))=FALSE,H30=FALSE),L30,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A30,UPDATE!$1:$1,0))))</f>
-        <v>85</v>
-      </c>
-      <c r="D30" s="19">
-        <f t="shared" si="0"/>
-        <v>45140</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="F30" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="H30" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A30,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>1</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A30,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I30" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A30,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A30,UPDATE!$1:$1,0)),0)),K30)</f>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J30" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A30,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A21,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L30" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="M30" s="50">
-        <v>45140</v>
+        <v>20</v>
+      </c>
+      <c r="M30" s="49" t="s">
+        <v>20</v>
       </c>
       <c r="N30" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O30" s="46" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="P30" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A30,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3396,121 +3432,118 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>90</v>
+      <c r="A31" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="13" t="str">
+        <v>70</v>
+      </c>
+      <c r="C31" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A31,UPDATE!$1:$1,0),TRUE))=FALSE,H31=FALSE),L31,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A31,UPDATE!$1:$1,0))))</f>
-        <v>x</v>
-      </c>
-      <c r="D31" s="19" t="str">
+        <v>162</v>
+      </c>
+      <c r="D31" s="19">
         <f t="shared" si="0"/>
-        <v>x</v>
+        <v>45140</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="F31" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="H31" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A31,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A31,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="I31" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A31,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A31,UPDATE!$1:$1,0)),0)),K31)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J31" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A31,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
-        <v>0</v>
+        <f>IFERROR(IF(MATCH(SETTINGS!A22,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
       </c>
       <c r="L31" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" s="49" t="s">
-        <v>66</v>
+        <v>24</v>
+      </c>
+      <c r="M31" s="50">
+        <v>45140</v>
       </c>
       <c r="N31" s="45" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="46" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="P31" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A31,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="13" t="str">
+        <v>72</v>
+      </c>
+      <c r="C32" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A32,UPDATE!$1:$1,0),TRUE))=FALSE,H32=FALSE),L32,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A32,UPDATE!$1:$1,0))))</f>
-        <v>F</v>
-      </c>
-      <c r="D32" s="19" t="str">
+        <v>395</v>
+      </c>
+      <c r="D32" s="19">
         <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="E32" s="35" t="s">
+        <v>45154</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F32" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
-      <c r="G32" s="56" t="s">
-        <v>95</v>
-      </c>
       <c r="H32" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A32,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A32,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="I32" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A32,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A32,UPDATE!$1:$1,0)),0)),K32)</f>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="J32" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A32,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A23,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K32" s="49">
-        <v>14</v>
-      </c>
       <c r="L32" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="49" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="M32" s="50">
+        <v>45154</v>
       </c>
       <c r="N32" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O32" s="46" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="P32" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A32,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="52" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C33" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A33,UPDATE!$1:$1,0),TRUE))=FALSE,H33=FALSE),L33,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A33,UPDATE!$1:$1,0))))</f>
@@ -3520,7 +3553,7 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F33" s="14" t="str">
@@ -3528,7 +3561,7 @@
         <v>✅</v>
       </c>
       <c r="H33" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A33,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A33,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I33" s="16">
@@ -3536,11 +3569,8 @@
         <v>16</v>
       </c>
       <c r="J33" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A33,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A37,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
-      </c>
-      <c r="K33" s="49">
-        <v>16</v>
       </c>
       <c r="L33" s="49" t="s">
         <v>20</v>
@@ -3553,49 +3583,46 @@
         <v>1</v>
       </c>
       <c r="O33" s="46" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="P33" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A33,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="38" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C34" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A34,UPDATE!$1:$1,0),TRUE))=FALSE,H34=FALSE),L34,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A34,UPDATE!$1:$1,0))))</f>
         <v>F</v>
       </c>
       <c r="D34" s="19" t="str">
-        <f t="shared" ref="D34:D53" si="3">IF(C34="F","F",M34)</f>
+        <f t="shared" ref="D34:D65" si="3">IF(C34="F","F",M34)</f>
         <v>F</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F34" s="14" t="str">
-        <f t="shared" ref="F34:F53" si="4">IF(AND(OR(P34=TRUE,K34&lt;&gt;""),J34=TRUE),"✅","❌")</f>
+        <f t="shared" ref="F34:F54" si="4">IF(AND(OR(P34=TRUE,K34&lt;&gt;""),J34=TRUE),"✅","❌")</f>
         <v>✅</v>
       </c>
       <c r="H34" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A34,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A34,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I34" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A34,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A34,UPDATE!$1:$1,0)),0)),K34)</f>
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J34" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A34,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A43,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
-      </c>
-      <c r="K34" s="49">
-        <v>37</v>
       </c>
       <c r="L34" s="49" t="s">
         <v>20</v>
@@ -3608,92 +3635,89 @@
         <v>1</v>
       </c>
       <c r="O34" s="46" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="P34" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A34,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>100</v>
+      <c r="A35" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>125</v>
       </c>
       <c r="C35" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A35,UPDATE!$1:$1,0),TRUE))=FALSE,H35=FALSE),L35,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A35,UPDATE!$1:$1,0))))</f>
-        <v>x</v>
-      </c>
-      <c r="D35" s="19">
+        <v>F</v>
+      </c>
+      <c r="D35" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>45140</v>
-      </c>
-      <c r="E35" s="35" t="s">
+        <v>F</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F35" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="H35" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A35,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A35,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I35" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A35,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A35,UPDATE!$1:$1,0)),0)),K35)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J35" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A35,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A46,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L35" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="M35" s="51">
-        <v>45140</v>
+        <v>20</v>
+      </c>
+      <c r="M35" s="49" t="s">
+        <v>20</v>
       </c>
       <c r="N35" s="45" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="46" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="P35" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A35,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>102</v>
+      <c r="A36" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>134</v>
       </c>
       <c r="C36" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A36,UPDATE!$1:$1,0),TRUE))=FALSE,H36=FALSE),L36,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A36,UPDATE!$1:$1,0))))</f>
-        <v>x</v>
-      </c>
-      <c r="D36" s="19" t="str">
+        <v>*</v>
+      </c>
+      <c r="D36" s="19">
         <f t="shared" si="3"/>
-        <v>x</v>
+        <v>45154</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="F36" s="14" t="str">
         <f t="shared" si="4"/>
         <v>✅</v>
       </c>
-      <c r="G36" s="56" t="s">
-        <v>104</v>
-      </c>
       <c r="H36" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A36,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A36,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I36" s="16">
@@ -3701,21 +3725,21 @@
         <v>19</v>
       </c>
       <c r="J36" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A36,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A53,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L36" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="M36" s="49" t="s">
-        <v>66</v>
+        <v>24</v>
+      </c>
+      <c r="M36" s="50">
+        <v>45154</v>
       </c>
       <c r="N36" s="45" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O36" s="46" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="P36" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A36,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3724,70 +3748,70 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C37" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A37,UPDATE!$1:$1,0),TRUE))=FALSE,H37=FALSE),L37,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A37,UPDATE!$1:$1,0))))</f>
-        <v>*</v>
-      </c>
-      <c r="D37" s="19">
+        <v>F</v>
+      </c>
+      <c r="D37" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>45140</v>
+        <v>F</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F37" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="H37" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A37,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A37,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I37" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A37,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A37,UPDATE!$1:$1,0)),0)),K37)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J37" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A37,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A40,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L37" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="51">
-        <v>45140</v>
+        <v>20</v>
+      </c>
+      <c r="M37" s="49" t="s">
+        <v>20</v>
       </c>
       <c r="N37" s="45" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="46" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P37" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A37,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C38" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A38,UPDATE!$1:$1,0),TRUE))=FALSE,H38=FALSE),L38,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A38,UPDATE!$1:$1,0))))</f>
-        <v>*</v>
+        <v>F</v>
       </c>
       <c r="D38" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>*</v>
+        <v>F</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>19</v>
@@ -3797,29 +3821,29 @@
         <v>✅</v>
       </c>
       <c r="H38" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A38,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A38,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I38" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A38,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A38,UPDATE!$1:$1,0)),0)),K38)</f>
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J38" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A38,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A24,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L38" s="49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M38" s="49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N38" s="45" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O38" s="46" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="P38" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A38,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3828,166 +3852,167 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="13" t="str">
+        <v>77</v>
+      </c>
+      <c r="C39" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A39,UPDATE!$1:$1,0),TRUE))=FALSE,H39=FALSE),L39,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A39,UPDATE!$1:$1,0))))</f>
-        <v>*</v>
-      </c>
-      <c r="D39" s="19" t="str">
+        <v>1080</v>
+      </c>
+      <c r="D39" s="19">
         <f t="shared" si="3"/>
-        <v>*</v>
-      </c>
-      <c r="E39" s="35" t="s">
+        <v>45154</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="H39" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A39,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A39,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="I39" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A39,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A39,UPDATE!$1:$1,0)),0)),K39)</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="J39" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A39,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A25,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L39" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="M39" s="49" t="s">
-        <v>24</v>
+      <c r="M39" s="50">
+        <v>45154</v>
       </c>
       <c r="N39" s="45" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="46" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="P39" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A39,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="13" t="str">
+        <v>79</v>
+      </c>
+      <c r="C40" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A40,UPDATE!$1:$1,0),TRUE))=FALSE,H40=FALSE),L40,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A40,UPDATE!$1:$1,0))))</f>
-        <v>F</v>
-      </c>
-      <c r="D40" s="19" t="str">
+        <v>178</v>
+      </c>
+      <c r="D40" s="19">
         <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>23</v>
+        <v>45140</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F40" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="H40" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A40,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A40,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="I40" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A40,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A40,UPDATE!$1:$1,0)),0)),K40)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J40" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A40,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A26,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L40" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M40" s="49" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="M40" s="50">
+        <v>45140</v>
       </c>
       <c r="N40" s="45" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="46" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="P40" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A40,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="38" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="13" t="str">
+        <v>82</v>
+      </c>
+      <c r="C41" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A41,UPDATE!$1:$1,0),TRUE))=FALSE,H41=FALSE),L41,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A41,UPDATE!$1:$1,0))))</f>
-        <v>*</v>
+        <v>129</v>
       </c>
       <c r="D41" s="19">
         <f t="shared" si="3"/>
-        <v>45140</v>
-      </c>
-      <c r="E41" s="35" t="s">
+        <v>45154</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F41" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="H41" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A41,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A41,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="I41" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A41,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A41,UPDATE!$1:$1,0)),0)),K41)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J41" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A41,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A27,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L41" s="49" t="s">
         <v>24</v>
       </c>
       <c r="M41" s="50">
-        <v>45140</v>
+        <v>45154</v>
       </c>
       <c r="N41" s="45" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="46" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="P41" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A41,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="53"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="38" t="s">
-        <v>116</v>
+      <c r="A42" s="39" t="s">
+        <v>133</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C42" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A42,UPDATE!$1:$1,0),TRUE))=FALSE,H42=FALSE),L42,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A42,UPDATE!$1:$1,0))))</f>
@@ -3997,7 +4022,7 @@
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F42" s="14" t="str">
@@ -4005,15 +4030,15 @@
         <v>✅</v>
       </c>
       <c r="H42" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A42,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A42,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I42" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A42,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A42,UPDATE!$1:$1,0)),0)),K42)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J42" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A42,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A52,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L42" s="49" t="s">
@@ -4027,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="O42" s="46" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="P42" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A42,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4036,10 +4061,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C43" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A43,UPDATE!$1:$1,0),TRUE))=FALSE,H43=FALSE),L43,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A43,UPDATE!$1:$1,0))))</f>
@@ -4049,7 +4074,7 @@
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F43" s="14" t="str">
@@ -4057,16 +4082,19 @@
         <v>✅</v>
       </c>
       <c r="H43" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A43,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A43,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I43" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A43,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A43,UPDATE!$1:$1,0)),0)),K43)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J43" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A43,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A28,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
+      </c>
+      <c r="K43" s="49">
+        <v>21</v>
       </c>
       <c r="L43" s="49" t="s">
         <v>20</v>
@@ -4079,38 +4107,34 @@
         <v>1</v>
       </c>
       <c r="O43" s="46" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="P43" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A43,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="34"/>
+      <c r="A44" s="39" t="s">
+        <v>127</v>
+      </c>
       <c r="C44" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A44,UPDATE!$1:$1,0),TRUE))=FALSE,H44=FALSE),L44,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A44,UPDATE!$1:$1,0))))</f>
-        <v>F</v>
+        <v>*</v>
       </c>
       <c r="D44" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>32</v>
+        <v>*</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>19</v>
       </c>
       <c r="F44" s="14" t="str">
         <f t="shared" si="4"/>
         <v>❌</v>
       </c>
-      <c r="G44" s="56" t="s">
-        <v>120</v>
-      </c>
       <c r="H44" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A44,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A44,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I44" s="16">
@@ -4118,21 +4142,21 @@
         <v>0</v>
       </c>
       <c r="J44" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A44,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A48,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L44" s="49" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M44" s="49" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N44" s="45" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O44" s="46" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="P44" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A44,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4141,20 +4165,20 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="13">
+        <v>86</v>
+      </c>
+      <c r="C45" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A45,UPDATE!$1:$1,0),TRUE))=FALSE,H45=FALSE),L45,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A45,UPDATE!$1:$1,0))))</f>
-        <v>228</v>
-      </c>
-      <c r="D45" s="19">
+        <v>F</v>
+      </c>
+      <c r="D45" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>45140</v>
-      </c>
-      <c r="E45" s="35" t="s">
+        <v>F</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F45" s="14" t="str">
@@ -4162,82 +4186,81 @@
         <v>✅</v>
       </c>
       <c r="H45" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A45,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>1</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A45,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I45" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A45,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A45,UPDATE!$1:$1,0)),0)),K45)</f>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J45" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A45,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A29,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L45" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="M45" s="50">
-        <v>45140</v>
+        <v>20</v>
+      </c>
+      <c r="M45" s="49" t="s">
+        <v>20</v>
       </c>
       <c r="N45" s="45" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O45" s="46" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="P45" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A45,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q45" s="53"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="13" t="str">
+      <c r="A46" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A46,UPDATE!$1:$1,0),TRUE))=FALSE,H46=FALSE),L46,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A46,UPDATE!$1:$1,0))))</f>
-        <v>F</v>
-      </c>
-      <c r="D46" s="19" t="str">
+        <v>85</v>
+      </c>
+      <c r="D46" s="19">
         <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>23</v>
+        <v>45140</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="F46" s="14" t="str">
         <f t="shared" si="4"/>
         <v>✅</v>
       </c>
       <c r="H46" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A46,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A46,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="I46" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A46,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A46,UPDATE!$1:$1,0)),0)),K46)</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J46" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A46,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A30,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L46" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46" s="49" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="M46" s="50">
+        <v>45140</v>
       </c>
       <c r="N46" s="45" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O46" s="46" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="P46" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A46,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4245,57 +4268,63 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="39" t="s">
-        <v>126</v>
+      <c r="A47" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>91</v>
       </c>
       <c r="C47" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A47,UPDATE!$1:$1,0),TRUE))=FALSE,H47=FALSE),L47,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A47,UPDATE!$1:$1,0))))</f>
-        <v>*</v>
+        <v>x</v>
       </c>
       <c r="D47" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>*</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>32</v>
+        <v>x</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="F47" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="H47" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A47,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A47,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I47" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A47,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A47,UPDATE!$1:$1,0)),0)),K47)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J47" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A47,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A31,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L47" s="49" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="M47" s="49" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="N47" s="45" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="46" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="P47" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A47,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="39" t="s">
-        <v>127</v>
+      <c r="A48" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>109</v>
       </c>
       <c r="C48" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A48,UPDATE!$1:$1,0),TRUE))=FALSE,H48=FALSE),L48,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A48,UPDATE!$1:$1,0))))</f>
@@ -4305,23 +4334,23 @@
         <f t="shared" si="3"/>
         <v>*</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="H48" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A48,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A48,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I48" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A48,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A48,UPDATE!$1:$1,0)),0)),K48)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J48" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A48,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A38,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L48" s="49" t="s">
@@ -4332,32 +4361,32 @@
       </c>
       <c r="N48" s="45" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="46" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="P48" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A48,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="13">
+      <c r="A49" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A49,UPDATE!$1:$1,0),TRUE))=FALSE,H49=FALSE),L49,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A49,UPDATE!$1:$1,0))))</f>
-        <v>373</v>
+        <v>F</v>
       </c>
       <c r="D49" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>*</v>
-      </c>
-      <c r="E49" s="35" t="s">
+        <v>F</v>
+      </c>
+      <c r="E49" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F49" s="14" t="str">
@@ -4365,41 +4394,44 @@
         <v>✅</v>
       </c>
       <c r="H49" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A49,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>1</v>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A49,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I49" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A49,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A49,UPDATE!$1:$1,0)),0)),K49)</f>
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J49" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A49,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A32,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
+      <c r="K49" s="49">
+        <v>14</v>
+      </c>
       <c r="L49" s="49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M49" s="49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N49" s="45" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O49" s="46" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="P49" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A49,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="61" t="s">
-        <v>129</v>
+      <c r="A50" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="C50" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A50,UPDATE!$1:$1,0),TRUE))=FALSE,H50=FALSE),L50,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A50,UPDATE!$1:$1,0))))</f>
@@ -4409,7 +4441,7 @@
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F50" s="14" t="str">
@@ -4417,16 +4449,19 @@
         <v>✅</v>
       </c>
       <c r="H50" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A50,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A50,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I50" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A50,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A50,UPDATE!$1:$1,0)),0)),K50)</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J50" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A50,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A33,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
+      </c>
+      <c r="K50" s="49">
+        <v>16</v>
       </c>
       <c r="L50" s="49" t="s">
         <v>20</v>
@@ -4439,19 +4474,19 @@
         <v>1</v>
       </c>
       <c r="O50" s="46" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="P50" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A50,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="61" t="s">
-        <v>130</v>
+      <c r="A51" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>98</v>
       </c>
       <c r="C51" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A51,UPDATE!$1:$1,0),TRUE))=FALSE,H51=FALSE),L51,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A51,UPDATE!$1:$1,0))))</f>
@@ -4461,27 +4496,27 @@
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="E51" s="35" t="s">
-        <v>23</v>
+      <c r="E51" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F51" s="14" t="str">
         <f t="shared" si="4"/>
         <v>✅</v>
       </c>
-      <c r="G51" s="56" t="s">
-        <v>131</v>
-      </c>
       <c r="H51" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A51,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A51,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I51" s="16">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A51,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A51,UPDATE!$1:$1,0)),0)),K51)</f>
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="J51" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A51,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A34,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
+      </c>
+      <c r="K51" s="49">
+        <v>37</v>
       </c>
       <c r="L51" s="49" t="s">
         <v>20</v>
@@ -4494,89 +4529,92 @@
         <v>1</v>
       </c>
       <c r="O51" s="46" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="P51" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A51,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="39" t="s">
-        <v>133</v>
+      <c r="A52" s="38" t="s">
+        <v>99</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C52" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A52,UPDATE!$1:$1,0),TRUE))=FALSE,H52=FALSE),L52,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A52,UPDATE!$1:$1,0))))</f>
+        <v>x</v>
+      </c>
+      <c r="D52" s="19">
+        <f t="shared" si="3"/>
+        <v>45154</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>❌</v>
+      </c>
+      <c r="H52" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A52,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A52,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A52,UPDATE!$1:$1,0)),0)),K52)</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="16" t="b">
+        <f>IFERROR(IF(MATCH(SETTINGS!A35,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L52" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="M52" s="50">
+        <v>45154</v>
+      </c>
+      <c r="N52" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="P52" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A52,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A53,UPDATE!$1:$1,0),TRUE))=FALSE,H53=FALSE),L53,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A53,UPDATE!$1:$1,0))))</f>
         <v>F</v>
       </c>
-      <c r="D52" s="19" t="str">
+      <c r="D53" s="19" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="E52" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>✅</v>
-      </c>
-      <c r="H52" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A52,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="16">
-        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A52,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A52,UPDATE!$1:$1,0)),0)),K52)</f>
-        <v>25</v>
-      </c>
-      <c r="J52" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A52,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L52" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M52" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="N52" s="45" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O52" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="P52" s="64" t="b">
-        <f>IF(IFERROR(HLOOKUP(A52,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="13" t="str">
-        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A53,UPDATE!$1:$1,0),TRUE))=FALSE,H53=FALSE),L53,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A53,UPDATE!$1:$1,0))))</f>
-        <v>*</v>
-      </c>
-      <c r="D53" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>*</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>23</v>
+      <c r="E53" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="F53" s="14" t="str">
         <f t="shared" si="4"/>
         <v>✅</v>
       </c>
+      <c r="G53" s="56" t="s">
+        <v>104</v>
+      </c>
       <c r="H53" s="36" t="b">
-        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!$A53,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A53,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I53" s="16">
@@ -4584,51 +4622,159 @@
         <v>19</v>
       </c>
       <c r="J53" s="16" t="b">
-        <f>IFERROR(IF(MATCH(SETTINGS!A53,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <f>IFERROR(IF(MATCH(SETTINGS!A36,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="L53" s="49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M53" s="49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N53" s="45" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O53" s="46" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="P53" s="64" t="b">
         <f>IF(IFERROR(HLOOKUP(A53,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B54" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A54,UPDATE!$1:$1,0),TRUE))=FALSE,H54=FALSE),L54,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A54,UPDATE!$1:$1,0))))</f>
+        <v>x</v>
+      </c>
+      <c r="D54" s="19">
+        <f t="shared" ref="D54" si="6">IF(C54="F","F",M54)</f>
+        <v>45154</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>❌</v>
+      </c>
+      <c r="H54" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A54,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A54,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A54,UPDATE!$1:$1,0)),0)),K54)</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="16" t="b">
+        <f>IFERROR(IF(MATCH(SETTINGS!A37,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L54" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="M54" s="50">
+        <v>45154</v>
+      </c>
+      <c r="N54" s="45" t="b">
+        <f t="shared" ref="N54" si="7">IF(F54&lt;&gt;"",F54="✅","")</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="P54" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A54,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B55" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="C55" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A55,UPDATE!$1:$1,0),TRUE))=FALSE,H55=FALSE),L55,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A55,UPDATE!$1:$1,0))))</f>
+        <v>x</v>
+      </c>
+      <c r="D55" s="19">
+        <f t="shared" ref="D55" si="8">IF(C55="F","F",M55)</f>
+        <v>45154</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="14" t="str">
+        <f t="shared" ref="F55" si="9">IF(AND(OR(P55=TRUE,K55&lt;&gt;""),J55=TRUE),"✅","❌")</f>
+        <v>❌</v>
+      </c>
+      <c r="H55" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A55,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A55,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A55,UPDATE!$1:$1,0)),0)),K55)</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="16" t="b">
+        <f>IFERROR(IF(MATCH(SETTINGS!A38,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L55" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="M55" s="50">
+        <v>45154</v>
+      </c>
+      <c r="N55" s="45" t="b">
+        <f t="shared" ref="N55" si="10">IF(F55&lt;&gt;"",F55="✅","")</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="P55" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A55,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q53">
+      <sortCondition ref="A1:A53"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N75:N1048576 N1:N53">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="N75:N1048576 N1:N55">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>N1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>I1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>AND(N1=FALSE,K1="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>F1="❌"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4644,10 +4790,10 @@
   <dimension ref="A1:AZ133"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB8" sqref="AB8"/>
+      <selection pane="bottomRight" activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4797,7 +4943,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="31">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C2" s="31">
         <v>129</v>
@@ -26556,22 +26702,22 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:B59 A60 A61:B76 A77 A81:B1048576 A78:B79 A80">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>B1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$A80&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26591,7 +26737,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26676,19 +26822,19 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="str">
         <f>IF(SETTINGS!A3&lt;&gt;"",SETTINGS!A3,"")</f>
-        <v>BCL</v>
+        <v>Assassination Classroom</v>
       </c>
       <c r="B3" s="14" t="str">
         <f>IF(SETTINGS!B3&lt;&gt;"",SETTINGS!B3,"")</f>
-        <v>Black Clover</v>
-      </c>
-      <c r="C3" s="14">
+        <v>Assassination Classroom</v>
+      </c>
+      <c r="C3" s="14" t="str">
         <f>IF(SETTINGS!C3&lt;&gt;"",SETTINGS!C3,"")</f>
-        <v>366</v>
-      </c>
-      <c r="D3" s="24">
+        <v>F</v>
+      </c>
+      <c r="D3" s="24" t="str">
         <f>IF(SETTINGS!D3&lt;&gt;"",SETTINGS!D3,"")</f>
-        <v>45140</v>
+        <v>F</v>
       </c>
       <c r="E3" s="25" t="str">
         <f>IF(SETTINGS!E3&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E3,$I:$J,2,FALSE),SETTINGS!E3),"")</f>
@@ -26712,19 +26858,19 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="str">
         <f>IF(SETTINGS!A4&lt;&gt;"",SETTINGS!A4,"")</f>
-        <v>Bleach</v>
+        <v>BCL</v>
       </c>
       <c r="B4" s="14" t="str">
         <f>IF(SETTINGS!B4&lt;&gt;"",SETTINGS!B4,"")</f>
-        <v>Bleach</v>
-      </c>
-      <c r="C4" s="14" t="str">
+        <v>Black Clover</v>
+      </c>
+      <c r="C4" s="14">
         <f>IF(SETTINGS!C4&lt;&gt;"",SETTINGS!C4,"")</f>
-        <v>F</v>
-      </c>
-      <c r="D4" s="24" t="str">
+        <v>367</v>
+      </c>
+      <c r="D4" s="24">
         <f>IF(SETTINGS!D4&lt;&gt;"",SETTINGS!D4,"")</f>
-        <v>F</v>
+        <v>45154</v>
       </c>
       <c r="E4" s="25" t="str">
         <f>IF(SETTINGS!E4&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E4,$I:$J,2,FALSE),SETTINGS!E4),"")</f>
@@ -26748,19 +26894,19 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="str">
         <f>IF(SETTINGS!A5&lt;&gt;"",SETTINGS!A5,"")</f>
-        <v>Chainsaw</v>
+        <v>Berserk</v>
       </c>
       <c r="B5" s="14" t="str">
         <f>IF(SETTINGS!B5&lt;&gt;"",SETTINGS!B5,"")</f>
-        <v>Chainsaw Man</v>
+        <v>Berserk</v>
       </c>
       <c r="C5" s="14">
         <f>IF(SETTINGS!C5&lt;&gt;"",SETTINGS!C5,"")</f>
-        <v>138</v>
-      </c>
-      <c r="D5" s="24">
+        <v>373</v>
+      </c>
+      <c r="D5" s="24" t="str">
         <f>IF(SETTINGS!D5&lt;&gt;"",SETTINGS!D5,"")</f>
-        <v>45140</v>
+        <v>*</v>
       </c>
       <c r="E5" s="25" t="str">
         <f>IF(SETTINGS!E5&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E5,$I:$J,2,FALSE),SETTINGS!E5),"")</f>
@@ -26784,19 +26930,19 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="str">
         <f>IF(SETTINGS!A6&lt;&gt;"",SETTINGS!A6,"")</f>
-        <v>CJX</v>
+        <v>Berserk_prologue</v>
       </c>
       <c r="B6" s="14" t="str">
         <f>IF(SETTINGS!B6&lt;&gt;"",SETTINGS!B6,"")</f>
-        <v>Choujin X</v>
-      </c>
-      <c r="C6" s="14">
+        <v>Berserk_prologue</v>
+      </c>
+      <c r="C6" s="14" t="str">
         <f>IF(SETTINGS!C6&lt;&gt;"",SETTINGS!C6,"")</f>
-        <v>40</v>
-      </c>
-      <c r="D6" s="24">
+        <v>F</v>
+      </c>
+      <c r="D6" s="24" t="str">
         <f>IF(SETTINGS!D6&lt;&gt;"",SETTINGS!D6,"")</f>
-        <v>45140</v>
+        <v>F</v>
       </c>
       <c r="E6" s="25" t="str">
         <f>IF(SETTINGS!E6&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E6,$I:$J,2,FALSE),SETTINGS!E6),"")</f>
@@ -26808,7 +26954,7 @@
       </c>
       <c r="G6" s="14" t="str">
         <f>IF(SETTINGS!G6&lt;&gt;"",SETTINGS!G6,"")</f>
-        <v/>
+        <v>Créer dossier Berserk_prologue &amp; déplacer Prologue du dossier Berserk</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>253</v>
@@ -26820,23 +26966,23 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="str">
         <f>IF(SETTINGS!A7&lt;&gt;"",SETTINGS!A7,"")</f>
-        <v>Conan</v>
+        <v>Bleach</v>
       </c>
       <c r="B7" s="14" t="str">
         <f>IF(SETTINGS!B7&lt;&gt;"",SETTINGS!B7,"")</f>
-        <v>Detective Conan</v>
-      </c>
-      <c r="C7" s="14">
+        <v>Bleach</v>
+      </c>
+      <c r="C7" s="14" t="str">
         <f>IF(SETTINGS!C7&lt;&gt;"",SETTINGS!C7,"")</f>
-        <v>1115</v>
-      </c>
-      <c r="D7" s="24">
+        <v>F</v>
+      </c>
+      <c r="D7" s="24" t="str">
         <f>IF(SETTINGS!D7&lt;&gt;"",SETTINGS!D7,"")</f>
-        <v>45140</v>
+        <v>F</v>
       </c>
       <c r="E7" s="25" t="str">
         <f>IF(SETTINGS!E7&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E7,$I:$J,2,FALSE),SETTINGS!E7),"")</f>
-        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
+        <v>MangaSee</v>
       </c>
       <c r="F7" s="14" t="str">
         <f>IF(SETTINGS!F7&lt;&gt;"",SETTINGS!F7,"")</f>
@@ -26844,29 +26990,29 @@
       </c>
       <c r="G7" s="14" t="str">
         <f>IF(SETTINGS!G7&lt;&gt;"",SETTINGS!G7,"")</f>
-        <v>Vol.3 End Of Volume Bonus Page</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="str">
         <f>IF(SETTINGS!A8&lt;&gt;"",SETTINGS!A8,"")</f>
-        <v>DB</v>
+        <v>BlueLock</v>
       </c>
       <c r="B8" s="14" t="str">
         <f>IF(SETTINGS!B8&lt;&gt;"",SETTINGS!B8,"")</f>
-        <v>Dragon Ball</v>
-      </c>
-      <c r="C8" s="14" t="str">
+        <v>Blue Lock</v>
+      </c>
+      <c r="C8" s="14">
         <f>IF(SETTINGS!C8&lt;&gt;"",SETTINGS!C8,"")</f>
-        <v>F</v>
-      </c>
-      <c r="D8" s="24" t="str">
+        <v>228</v>
+      </c>
+      <c r="D8" s="24">
         <f>IF(SETTINGS!D8&lt;&gt;"",SETTINGS!D8,"")</f>
-        <v>F</v>
+        <v>45154</v>
       </c>
       <c r="E8" s="25" t="str">
         <f>IF(SETTINGS!E8&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E8,$I:$J,2,FALSE),SETTINGS!E8),"")</f>
-        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
+        <v>MangaSee</v>
       </c>
       <c r="F8" s="14" t="str">
         <f>IF(SETTINGS!F8&lt;&gt;"",SETTINGS!F8,"")</f>
@@ -26880,23 +27026,23 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="str">
         <f>IF(SETTINGS!A9&lt;&gt;"",SETTINGS!A9,"")</f>
-        <v>DBSuper</v>
+        <v>Chainsaw</v>
       </c>
       <c r="B9" s="14" t="str">
         <f>IF(SETTINGS!B9&lt;&gt;"",SETTINGS!B9,"")</f>
-        <v>Dragon Ball Super</v>
+        <v>Chainsaw Man</v>
       </c>
       <c r="C9" s="14">
         <f>IF(SETTINGS!C9&lt;&gt;"",SETTINGS!C9,"")</f>
-        <v>89</v>
-      </c>
-      <c r="D9" s="24" t="str">
+        <v>138</v>
+      </c>
+      <c r="D9" s="24">
         <f>IF(SETTINGS!D9&lt;&gt;"",SETTINGS!D9,"")</f>
-        <v>*</v>
+        <v>45154</v>
       </c>
       <c r="E9" s="25" t="str">
         <f>IF(SETTINGS!E9&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E9,$I:$J,2,FALSE),SETTINGS!E9),"")</f>
-        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
+        <v>MangaSee</v>
       </c>
       <c r="F9" s="14" t="str">
         <f>IF(SETTINGS!F9&lt;&gt;"",SETTINGS!F9,"")</f>
@@ -26904,25 +27050,25 @@
       </c>
       <c r="G9" s="14" t="str">
         <f>IF(SETTINGS!G9&lt;&gt;"",SETTINGS!G9,"")</f>
-        <v>Chapitre 34 image corrompue à delete</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="str">
         <f>IF(SETTINGS!A10&lt;&gt;"",SETTINGS!A10,"")</f>
-        <v>Gamaran</v>
+        <v>CJX</v>
       </c>
       <c r="B10" s="14" t="str">
         <f>IF(SETTINGS!B10&lt;&gt;"",SETTINGS!B10,"")</f>
-        <v>Gamaran</v>
-      </c>
-      <c r="C10" s="14" t="str">
+        <v>Choujin X</v>
+      </c>
+      <c r="C10" s="14">
         <f>IF(SETTINGS!C10&lt;&gt;"",SETTINGS!C10,"")</f>
-        <v>F</v>
-      </c>
-      <c r="D10" s="24" t="str">
+        <v>40</v>
+      </c>
+      <c r="D10" s="24">
         <f>IF(SETTINGS!D10&lt;&gt;"",SETTINGS!D10,"")</f>
-        <v>F</v>
+        <v>45154</v>
       </c>
       <c r="E10" s="25" t="str">
         <f>IF(SETTINGS!E10&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E10,$I:$J,2,FALSE),SETTINGS!E10),"")</f>
@@ -26940,23 +27086,23 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="str">
         <f>IF(SETTINGS!A11&lt;&gt;"",SETTINGS!A11,"")</f>
-        <v>Gintama</v>
+        <v>Conan</v>
       </c>
       <c r="B11" s="14" t="str">
         <f>IF(SETTINGS!B11&lt;&gt;"",SETTINGS!B11,"")</f>
-        <v>Gintama</v>
-      </c>
-      <c r="C11" s="14" t="str">
+        <v>Detective Conan</v>
+      </c>
+      <c r="C11" s="14">
         <f>IF(SETTINGS!C11&lt;&gt;"",SETTINGS!C11,"")</f>
-        <v>F</v>
-      </c>
-      <c r="D11" s="24" t="str">
+        <v>1115</v>
+      </c>
+      <c r="D11" s="24">
         <f>IF(SETTINGS!D11&lt;&gt;"",SETTINGS!D11,"")</f>
-        <v>F</v>
+        <v>45140</v>
       </c>
       <c r="E11" s="25" t="str">
         <f>IF(SETTINGS!E11&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E11,$I:$J,2,FALSE),SETTINGS!E11),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
       <c r="F11" s="14" t="str">
         <f>IF(SETTINGS!F11&lt;&gt;"",SETTINGS!F11,"")</f>
@@ -26964,17 +27110,17 @@
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(SETTINGS!G11&lt;&gt;"",SETTINGS!G11,"")</f>
-        <v/>
+        <v>Vol.3 End Of Volume Bonus Page</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="str">
         <f>IF(SETTINGS!A12&lt;&gt;"",SETTINGS!A12,"")</f>
-        <v>GTO</v>
+        <v>DB</v>
       </c>
       <c r="B12" s="14" t="str">
         <f>IF(SETTINGS!B12&lt;&gt;"",SETTINGS!B12,"")</f>
-        <v>GTO</v>
+        <v>Dragon Ball</v>
       </c>
       <c r="C12" s="14" t="str">
         <f>IF(SETTINGS!C12&lt;&gt;"",SETTINGS!C12,"")</f>
@@ -26986,7 +27132,7 @@
       </c>
       <c r="E12" s="25" t="str">
         <f>IF(SETTINGS!E12&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E12,$I:$J,2,FALSE),SETTINGS!E12),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
       <c r="F12" s="14" t="str">
         <f>IF(SETTINGS!F12&lt;&gt;"",SETTINGS!F12,"")</f>
@@ -27000,23 +27146,23 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="str">
         <f>IF(SETTINGS!A13&lt;&gt;"",SETTINGS!A13,"")</f>
-        <v>HellP</v>
+        <v>DBSuper</v>
       </c>
       <c r="B13" s="14" t="str">
         <f>IF(SETTINGS!B13&lt;&gt;"",SETTINGS!B13,"")</f>
-        <v>Hell's Paradise Jigokuraku</v>
-      </c>
-      <c r="C13" s="14" t="str">
+        <v>Dragon Ball Super</v>
+      </c>
+      <c r="C13" s="14">
         <f>IF(SETTINGS!C13&lt;&gt;"",SETTINGS!C13,"")</f>
-        <v>F</v>
+        <v>89</v>
       </c>
       <c r="D13" s="24" t="str">
         <f>IF(SETTINGS!D13&lt;&gt;"",SETTINGS!D13,"")</f>
-        <v>F</v>
+        <v>*</v>
       </c>
       <c r="E13" s="25" t="str">
         <f>IF(SETTINGS!E13&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E13,$I:$J,2,FALSE),SETTINGS!E13),"")</f>
-        <v>MangaSee</v>
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
       <c r="F13" s="14" t="str">
         <f>IF(SETTINGS!F13&lt;&gt;"",SETTINGS!F13,"")</f>
@@ -27024,25 +27170,25 @@
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(SETTINGS!G13&lt;&gt;"",SETTINGS!G13,"")</f>
-        <v/>
+        <v>Chapitre 34 image corrompue à delete</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="str">
         <f>IF(SETTINGS!A14&lt;&gt;"",SETTINGS!A14,"")</f>
-        <v>HxH</v>
+        <v>FireForce</v>
       </c>
       <c r="B14" s="14" t="str">
         <f>IF(SETTINGS!B14&lt;&gt;"",SETTINGS!B14,"")</f>
-        <v>Hunter x Hunter</v>
-      </c>
-      <c r="C14" s="14">
+        <v>Fire Force</v>
+      </c>
+      <c r="C14" s="14" t="str">
         <f>IF(SETTINGS!C14&lt;&gt;"",SETTINGS!C14,"")</f>
-        <v>400</v>
+        <v>*</v>
       </c>
       <c r="D14" s="24">
         <f>IF(SETTINGS!D14&lt;&gt;"",SETTINGS!D14,"")</f>
-        <v>45140</v>
+        <v>45154</v>
       </c>
       <c r="E14" s="25" t="str">
         <f>IF(SETTINGS!E14&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E14,$I:$J,2,FALSE),SETTINGS!E14),"")</f>
@@ -27050,7 +27196,7 @@
       </c>
       <c r="F14" s="14" t="str">
         <f>IF(SETTINGS!F14&lt;&gt;"",SETTINGS!F14,"")</f>
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(SETTINGS!G14&lt;&gt;"",SETTINGS!G14,"")</f>
@@ -27060,41 +27206,41 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="str">
         <f>IF(SETTINGS!A15&lt;&gt;"",SETTINGS!A15,"")</f>
-        <v>JJK</v>
+        <v>FMB</v>
       </c>
       <c r="B15" s="14" t="str">
         <f>IF(SETTINGS!B15&lt;&gt;"",SETTINGS!B15,"")</f>
-        <v>Jujutsu Kaisen</v>
-      </c>
-      <c r="C15" s="14">
+        <v/>
+      </c>
+      <c r="C15" s="14" t="str">
         <f>IF(SETTINGS!C15&lt;&gt;"",SETTINGS!C15,"")</f>
-        <v>230</v>
-      </c>
-      <c r="D15" s="24">
+        <v>F</v>
+      </c>
+      <c r="D15" s="24" t="str">
         <f>IF(SETTINGS!D15&lt;&gt;"",SETTINGS!D15,"")</f>
-        <v>45140</v>
+        <v>F</v>
       </c>
       <c r="E15" s="25" t="str">
         <f>IF(SETTINGS!E15&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E15,$I:$J,2,FALSE),SETTINGS!E15),"")</f>
-        <v>MangaSee</v>
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
       <c r="F15" s="14" t="str">
         <f>IF(SETTINGS!F15&lt;&gt;"",SETTINGS!F15,"")</f>
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>IF(SETTINGS!G15&lt;&gt;"",SETTINGS!G15,"")</f>
-        <v/>
+        <v>Rename 108.6 et 108.7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="str">
         <f>IF(SETTINGS!A16&lt;&gt;"",SETTINGS!A16,"")</f>
-        <v>Jojo1</v>
+        <v>Gamaran</v>
       </c>
       <c r="B16" s="14" t="str">
         <f>IF(SETTINGS!B16&lt;&gt;"",SETTINGS!B16,"")</f>
-        <v>JoJo’s Bizarre Adventure</v>
+        <v>Gamaran</v>
       </c>
       <c r="C16" s="14" t="str">
         <f>IF(SETTINGS!C16&lt;&gt;"",SETTINGS!C16,"")</f>
@@ -27106,7 +27252,7 @@
       </c>
       <c r="E16" s="25" t="str">
         <f>IF(SETTINGS!E16&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E16,$I:$J,2,FALSE),SETTINGS!E16),"")</f>
-        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
+        <v>MangaSee</v>
       </c>
       <c r="F16" s="14" t="str">
         <f>IF(SETTINGS!F16&lt;&gt;"",SETTINGS!F16,"")</f>
@@ -27120,11 +27266,11 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="str">
         <f>IF(SETTINGS!A17&lt;&gt;"",SETTINGS!A17,"")</f>
-        <v>Jojo2</v>
+        <v>Gintama</v>
       </c>
       <c r="B17" s="14" t="str">
         <f>IF(SETTINGS!B17&lt;&gt;"",SETTINGS!B17,"")</f>
-        <v>JoJo’s Bizarre Adventure</v>
+        <v>Gintama</v>
       </c>
       <c r="C17" s="14" t="str">
         <f>IF(SETTINGS!C17&lt;&gt;"",SETTINGS!C17,"")</f>
@@ -27136,7 +27282,7 @@
       </c>
       <c r="E17" s="25" t="str">
         <f>IF(SETTINGS!E17&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E17,$I:$J,2,FALSE),SETTINGS!E17),"")</f>
-        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
       <c r="F17" s="14" t="str">
         <f>IF(SETTINGS!F17&lt;&gt;"",SETTINGS!F17,"")</f>
@@ -27144,17 +27290,17 @@
       </c>
       <c r="G17" s="14" t="str">
         <f>IF(SETTINGS!G17&lt;&gt;"",SETTINGS!G17,"")</f>
-        <v>Rename les couvertures</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="str">
         <f>IF(SETTINGS!A18&lt;&gt;"",SETTINGS!A18,"")</f>
-        <v>Jojo3</v>
+        <v>GTO</v>
       </c>
       <c r="B18" s="14" t="str">
         <f>IF(SETTINGS!B18&lt;&gt;"",SETTINGS!B18,"")</f>
-        <v>JoJo’s Bizarre Adventure</v>
+        <v>GTO</v>
       </c>
       <c r="C18" s="14" t="str">
         <f>IF(SETTINGS!C18&lt;&gt;"",SETTINGS!C18,"")</f>
@@ -27166,7 +27312,7 @@
       </c>
       <c r="E18" s="25" t="str">
         <f>IF(SETTINGS!E18&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E18,$I:$J,2,FALSE),SETTINGS!E18),"")</f>
-        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
       <c r="F18" s="14" t="str">
         <f>IF(SETTINGS!F18&lt;&gt;"",SETTINGS!F18,"")</f>
@@ -27174,17 +27320,17 @@
       </c>
       <c r="G18" s="14" t="str">
         <f>IF(SETTINGS!G18&lt;&gt;"",SETTINGS!G18,"")</f>
-        <v>Rename les couvertures</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="str">
         <f>IF(SETTINGS!A19&lt;&gt;"",SETTINGS!A19,"")</f>
-        <v>Jojo4</v>
+        <v>HellP</v>
       </c>
       <c r="B19" s="14" t="str">
         <f>IF(SETTINGS!B19&lt;&gt;"",SETTINGS!B19,"")</f>
-        <v>Jojo’s Bizarre Adventure Part 8 – Jojolion</v>
+        <v>Hell's Paradise Jigokuraku</v>
       </c>
       <c r="C19" s="14" t="str">
         <f>IF(SETTINGS!C19&lt;&gt;"",SETTINGS!C19,"")</f>
@@ -27196,7 +27342,7 @@
       </c>
       <c r="E19" s="25" t="str">
         <f>IF(SETTINGS!E19&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E19,$I:$J,2,FALSE),SETTINGS!E19),"")</f>
-        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
+        <v>MangaSee</v>
       </c>
       <c r="F19" s="14" t="str">
         <f>IF(SETTINGS!F19&lt;&gt;"",SETTINGS!F19,"")</f>
@@ -27204,25 +27350,25 @@
       </c>
       <c r="G19" s="14" t="str">
         <f>IF(SETTINGS!G19&lt;&gt;"",SETTINGS!G19,"")</f>
-        <v>Rename les couvertures</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="str">
         <f>IF(SETTINGS!A20&lt;&gt;"",SETTINGS!A20,"")</f>
-        <v>Kaiju8</v>
+        <v>HxH</v>
       </c>
       <c r="B20" s="14" t="str">
         <f>IF(SETTINGS!B20&lt;&gt;"",SETTINGS!B20,"")</f>
-        <v>Kaiju No. 8</v>
+        <v>Hunter x Hunter</v>
       </c>
       <c r="C20" s="14">
         <f>IF(SETTINGS!C20&lt;&gt;"",SETTINGS!C20,"")</f>
-        <v>90</v>
-      </c>
-      <c r="D20" s="24" t="str">
+        <v>400</v>
+      </c>
+      <c r="D20" s="24">
         <f>IF(SETTINGS!D20&lt;&gt;"",SETTINGS!D20,"")</f>
-        <v>x</v>
+        <v>45154</v>
       </c>
       <c r="E20" s="25" t="str">
         <f>IF(SETTINGS!E20&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E20,$I:$J,2,FALSE),SETTINGS!E20),"")</f>
@@ -27240,11 +27386,11 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="str">
         <f>IF(SETTINGS!A21&lt;&gt;"",SETTINGS!A21,"")</f>
-        <v>KNB</v>
+        <v>Immortal</v>
       </c>
       <c r="B21" s="14" t="str">
         <f>IF(SETTINGS!B21&lt;&gt;"",SETTINGS!B21,"")</f>
-        <v>Kuroko's Basketball</v>
+        <v>Blade of the Immortal</v>
       </c>
       <c r="C21" s="14" t="str">
         <f>IF(SETTINGS!C21&lt;&gt;"",SETTINGS!C21,"")</f>
@@ -27270,27 +27416,27 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="str">
         <f>IF(SETTINGS!A22&lt;&gt;"",SETTINGS!A22,"")</f>
-        <v>Mashle</v>
+        <v>Issak</v>
       </c>
       <c r="B22" s="14" t="str">
         <f>IF(SETTINGS!B22&lt;&gt;"",SETTINGS!B22,"")</f>
-        <v>Mashle</v>
-      </c>
-      <c r="C22" s="14">
+        <v/>
+      </c>
+      <c r="C22" s="14" t="str">
         <f>IF(SETTINGS!C22&lt;&gt;"",SETTINGS!C22,"")</f>
-        <v>162</v>
-      </c>
-      <c r="D22" s="24">
+        <v>*</v>
+      </c>
+      <c r="D22" s="24" t="str">
         <f>IF(SETTINGS!D22&lt;&gt;"",SETTINGS!D22,"")</f>
-        <v>45140</v>
+        <v>*</v>
       </c>
       <c r="E22" s="25" t="str">
         <f>IF(SETTINGS!E22&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E22,$I:$J,2,FALSE),SETTINGS!E22),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
       <c r="F22" s="14" t="str">
         <f>IF(SETTINGS!F22&lt;&gt;"",SETTINGS!F22,"")</f>
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G22" s="14" t="str">
         <f>IF(SETTINGS!G22&lt;&gt;"",SETTINGS!G22,"")</f>
@@ -27300,19 +27446,19 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="str">
         <f>IF(SETTINGS!A23&lt;&gt;"",SETTINGS!A23,"")</f>
-        <v>MHA</v>
+        <v>JJK</v>
       </c>
       <c r="B23" s="14" t="str">
         <f>IF(SETTINGS!B23&lt;&gt;"",SETTINGS!B23,"")</f>
-        <v>My Hero Academia</v>
+        <v>Jujutsu Kaisen</v>
       </c>
       <c r="C23" s="14">
         <f>IF(SETTINGS!C23&lt;&gt;"",SETTINGS!C23,"")</f>
-        <v>395</v>
+        <v>230</v>
       </c>
       <c r="D23" s="24">
         <f>IF(SETTINGS!D23&lt;&gt;"",SETTINGS!D23,"")</f>
-        <v>45140</v>
+        <v>45154</v>
       </c>
       <c r="E23" s="25" t="str">
         <f>IF(SETTINGS!E23&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E23,$I:$J,2,FALSE),SETTINGS!E23),"")</f>
@@ -27330,11 +27476,11 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="str">
         <f>IF(SETTINGS!A24&lt;&gt;"",SETTINGS!A24,"")</f>
-        <v>NNTZ</v>
+        <v>Jojo1</v>
       </c>
       <c r="B24" s="14" t="str">
         <f>IF(SETTINGS!B24&lt;&gt;"",SETTINGS!B24,"")</f>
-        <v>Nanatsu no Taizai</v>
+        <v>JoJo’s Bizarre Adventure</v>
       </c>
       <c r="C24" s="14" t="str">
         <f>IF(SETTINGS!C24&lt;&gt;"",SETTINGS!C24,"")</f>
@@ -27346,7 +27492,7 @@
       </c>
       <c r="E24" s="25" t="str">
         <f>IF(SETTINGS!E24&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E24,$I:$J,2,FALSE),SETTINGS!E24),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
       <c r="F24" s="14" t="str">
         <f>IF(SETTINGS!F24&lt;&gt;"",SETTINGS!F24,"")</f>
@@ -27360,23 +27506,23 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="str">
         <f>IF(SETTINGS!A25&lt;&gt;"",SETTINGS!A25,"")</f>
-        <v>OP</v>
+        <v>Jojo2</v>
       </c>
       <c r="B25" s="14" t="str">
         <f>IF(SETTINGS!B25&lt;&gt;"",SETTINGS!B25,"")</f>
-        <v>One Piece</v>
-      </c>
-      <c r="C25" s="14">
+        <v>JoJo’s Bizarre Adventure</v>
+      </c>
+      <c r="C25" s="14" t="str">
         <f>IF(SETTINGS!C25&lt;&gt;"",SETTINGS!C25,"")</f>
-        <v>1080</v>
-      </c>
-      <c r="D25" s="24">
+        <v>F</v>
+      </c>
+      <c r="D25" s="24" t="str">
         <f>IF(SETTINGS!D25&lt;&gt;"",SETTINGS!D25,"")</f>
-        <v>45140</v>
+        <v>F</v>
       </c>
       <c r="E25" s="25" t="str">
         <f>IF(SETTINGS!E25&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E25,$I:$J,2,FALSE),SETTINGS!E25),"")</f>
-        <v>MangaSee</v>
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
       <c r="F25" s="14" t="str">
         <f>IF(SETTINGS!F25&lt;&gt;"",SETTINGS!F25,"")</f>
@@ -27384,29 +27530,29 @@
       </c>
       <c r="G25" s="14" t="str">
         <f>IF(SETTINGS!G25&lt;&gt;"",SETTINGS!G25,"")</f>
-        <v/>
+        <v>Rename les couvertures</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="str">
         <f>IF(SETTINGS!A26&lt;&gt;"",SETTINGS!A26,"")</f>
-        <v>Opman</v>
+        <v>Jojo3</v>
       </c>
       <c r="B26" s="14" t="str">
         <f>IF(SETTINGS!B26&lt;&gt;"",SETTINGS!B26,"")</f>
-        <v>Onepunch-Man</v>
-      </c>
-      <c r="C26" s="14">
+        <v>JoJo’s Bizarre Adventure</v>
+      </c>
+      <c r="C26" s="14" t="str">
         <f>IF(SETTINGS!C26&lt;&gt;"",SETTINGS!C26,"")</f>
-        <v>178</v>
-      </c>
-      <c r="D26" s="24">
+        <v>F</v>
+      </c>
+      <c r="D26" s="24" t="str">
         <f>IF(SETTINGS!D26&lt;&gt;"",SETTINGS!D26,"")</f>
-        <v>45140</v>
+        <v>F</v>
       </c>
       <c r="E26" s="25" t="str">
         <f>IF(SETTINGS!E26&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E26,$I:$J,2,FALSE),SETTINGS!E26),"")</f>
-        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
       <c r="F26" s="14" t="str">
         <f>IF(SETTINGS!F26&lt;&gt;"",SETTINGS!F26,"")</f>
@@ -27414,29 +27560,29 @@
       </c>
       <c r="G26" s="14" t="str">
         <f>IF(SETTINGS!G26&lt;&gt;"",SETTINGS!G26,"")</f>
-        <v/>
+        <v>Rename les couvertures</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="str">
         <f>IF(SETTINGS!A27&lt;&gt;"",SETTINGS!A27,"")</f>
-        <v>SakDays</v>
+        <v>Jojo4</v>
       </c>
       <c r="B27" s="14" t="str">
         <f>IF(SETTINGS!B27&lt;&gt;"",SETTINGS!B27,"")</f>
-        <v>Sakamoto Days</v>
-      </c>
-      <c r="C27" s="14">
+        <v>Jojo’s Bizarre Adventure Part 8 – Jojolion</v>
+      </c>
+      <c r="C27" s="14" t="str">
         <f>IF(SETTINGS!C27&lt;&gt;"",SETTINGS!C27,"")</f>
-        <v>129</v>
-      </c>
-      <c r="D27" s="24">
+        <v>F</v>
+      </c>
+      <c r="D27" s="24" t="str">
         <f>IF(SETTINGS!D27&lt;&gt;"",SETTINGS!D27,"")</f>
-        <v>45140</v>
+        <v>F</v>
       </c>
       <c r="E27" s="25" t="str">
         <f>IF(SETTINGS!E27&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E27,$I:$J,2,FALSE),SETTINGS!E27),"")</f>
-        <v>MangaSee</v>
+        <v>&lt;a href="https://mangaclash.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangaclash.com/"&gt; MC&lt;/a&gt;</v>
       </c>
       <c r="F27" s="14" t="str">
         <f>IF(SETTINGS!F27&lt;&gt;"",SETTINGS!F27,"")</f>
@@ -27444,25 +27590,25 @@
       </c>
       <c r="G27" s="14" t="str">
         <f>IF(SETTINGS!G27&lt;&gt;"",SETTINGS!G27,"")</f>
-        <v/>
+        <v>Rename les couvertures</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="str">
         <f>IF(SETTINGS!A28&lt;&gt;"",SETTINGS!A28,"")</f>
-        <v>SKR</v>
+        <v>Kaiju8</v>
       </c>
       <c r="B28" s="14" t="str">
         <f>IF(SETTINGS!B28&lt;&gt;"",SETTINGS!B28,"")</f>
-        <v>Sun-ken Rock</v>
-      </c>
-      <c r="C28" s="14" t="str">
+        <v>Kaiju No. 8</v>
+      </c>
+      <c r="C28" s="14">
         <f>IF(SETTINGS!C28&lt;&gt;"",SETTINGS!C28,"")</f>
-        <v>F</v>
-      </c>
-      <c r="D28" s="24" t="str">
+        <v>90</v>
+      </c>
+      <c r="D28" s="24">
         <f>IF(SETTINGS!D28&lt;&gt;"",SETTINGS!D28,"")</f>
-        <v>F</v>
+        <v>45154</v>
       </c>
       <c r="E28" s="25" t="str">
         <f>IF(SETTINGS!E28&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E28,$I:$J,2,FALSE),SETTINGS!E28),"")</f>
@@ -27480,19 +27626,19 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="str">
         <f>IF(SETTINGS!A29&lt;&gt;"",SETTINGS!A29,"")</f>
-        <v>SNK</v>
+        <v>Kingdom</v>
       </c>
       <c r="B29" s="14" t="str">
         <f>IF(SETTINGS!B29&lt;&gt;"",SETTINGS!B29,"")</f>
-        <v>Attack on Titan</v>
+        <v>Kingdom</v>
       </c>
       <c r="C29" s="14" t="str">
         <f>IF(SETTINGS!C29&lt;&gt;"",SETTINGS!C29,"")</f>
-        <v>F</v>
-      </c>
-      <c r="D29" s="24" t="str">
+        <v>*</v>
+      </c>
+      <c r="D29" s="24">
         <f>IF(SETTINGS!D29&lt;&gt;"",SETTINGS!D29,"")</f>
-        <v>F</v>
+        <v>45154</v>
       </c>
       <c r="E29" s="25" t="str">
         <f>IF(SETTINGS!E29&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E29,$I:$J,2,FALSE),SETTINGS!E29),"")</f>
@@ -27500,7 +27646,7 @@
       </c>
       <c r="F29" s="14" t="str">
         <f>IF(SETTINGS!F29&lt;&gt;"",SETTINGS!F29,"")</f>
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G29" s="14" t="str">
         <f>IF(SETTINGS!G29&lt;&gt;"",SETTINGS!G29,"")</f>
@@ -27510,23 +27656,23 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="str">
         <f>IF(SETTINGS!A30&lt;&gt;"",SETTINGS!A30,"")</f>
-        <v>SpyF</v>
+        <v>KNB</v>
       </c>
       <c r="B30" s="14" t="str">
         <f>IF(SETTINGS!B30&lt;&gt;"",SETTINGS!B30,"")</f>
-        <v>Spy X Family</v>
-      </c>
-      <c r="C30" s="14">
+        <v>Kuroko's Basketball</v>
+      </c>
+      <c r="C30" s="14" t="str">
         <f>IF(SETTINGS!C30&lt;&gt;"",SETTINGS!C30,"")</f>
-        <v>85</v>
-      </c>
-      <c r="D30" s="24">
+        <v>F</v>
+      </c>
+      <c r="D30" s="24" t="str">
         <f>IF(SETTINGS!D30&lt;&gt;"",SETTINGS!D30,"")</f>
-        <v>45140</v>
+        <v>F</v>
       </c>
       <c r="E30" s="25" t="str">
         <f>IF(SETTINGS!E30&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E30,$I:$J,2,FALSE),SETTINGS!E30),"")</f>
-        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
+        <v>MangaSee</v>
       </c>
       <c r="F30" s="14" t="str">
         <f>IF(SETTINGS!F30&lt;&gt;"",SETTINGS!F30,"")</f>
@@ -27540,27 +27686,27 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="str">
         <f>IF(SETTINGS!A31&lt;&gt;"",SETTINGS!A31,"")</f>
-        <v>SSY Lost Canva</v>
+        <v>Mashle</v>
       </c>
       <c r="B31" s="14" t="str">
         <f>IF(SETTINGS!B31&lt;&gt;"",SETTINGS!B31,"")</f>
-        <v>Saint Seiya - The Lost Canva</v>
-      </c>
-      <c r="C31" s="14" t="str">
+        <v>Mashle</v>
+      </c>
+      <c r="C31" s="14">
         <f>IF(SETTINGS!C31&lt;&gt;"",SETTINGS!C31,"")</f>
-        <v>x</v>
-      </c>
-      <c r="D31" s="24" t="str">
+        <v>162</v>
+      </c>
+      <c r="D31" s="24">
         <f>IF(SETTINGS!D31&lt;&gt;"",SETTINGS!D31,"")</f>
-        <v>x</v>
+        <v>45140</v>
       </c>
       <c r="E31" s="25" t="str">
         <f>IF(SETTINGS!E31&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E31,$I:$J,2,FALSE),SETTINGS!E31),"")</f>
-        <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; MJ&lt;/a&gt;</v>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
       <c r="F31" s="14" t="str">
         <f>IF(SETTINGS!F31&lt;&gt;"",SETTINGS!F31,"")</f>
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G31" s="14" t="str">
         <f>IF(SETTINGS!G31&lt;&gt;"",SETTINGS!G31,"")</f>
@@ -27570,19 +27716,19 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="str">
         <f>IF(SETTINGS!A32&lt;&gt;"",SETTINGS!A32,"")</f>
-        <v>TK</v>
+        <v>MHA</v>
       </c>
       <c r="B32" s="14" t="str">
         <f>IF(SETTINGS!B32&lt;&gt;"",SETTINGS!B32,"")</f>
-        <v>Tokyo Ghoul</v>
-      </c>
-      <c r="C32" s="14" t="str">
+        <v>My Hero Academia</v>
+      </c>
+      <c r="C32" s="14">
         <f>IF(SETTINGS!C32&lt;&gt;"",SETTINGS!C32,"")</f>
-        <v>F</v>
-      </c>
-      <c r="D32" s="24" t="str">
+        <v>395</v>
+      </c>
+      <c r="D32" s="24">
         <f>IF(SETTINGS!D32&lt;&gt;"",SETTINGS!D32,"")</f>
-        <v>F</v>
+        <v>45154</v>
       </c>
       <c r="E32" s="25" t="str">
         <f>IF(SETTINGS!E32&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E32,$I:$J,2,FALSE),SETTINGS!E32),"")</f>
@@ -27594,17 +27740,17 @@
       </c>
       <c r="G32" s="14" t="str">
         <f>IF(SETTINGS!G32&lt;&gt;"",SETTINGS!G32,"")</f>
-        <v>Renomer 2 derniers chapt?</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="str">
         <f>IF(SETTINGS!A33&lt;&gt;"",SETTINGS!A33,"")</f>
-        <v>TKre</v>
+        <v>Mob100</v>
       </c>
       <c r="B33" s="14" t="str">
         <f>IF(SETTINGS!B33&lt;&gt;"",SETTINGS!B33,"")</f>
-        <v>Tokyo Ghoulre</v>
+        <v>Mob Psycho 100</v>
       </c>
       <c r="C33" s="14" t="str">
         <f>IF(SETTINGS!C33&lt;&gt;"",SETTINGS!C33,"")</f>
@@ -27630,11 +27776,11 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="str">
         <f>IF(SETTINGS!A34&lt;&gt;"",SETTINGS!A34,"")</f>
-        <v>Vagabond</v>
+        <v>Monster</v>
       </c>
       <c r="B34" s="14" t="str">
         <f>IF(SETTINGS!B34&lt;&gt;"",SETTINGS!B34,"")</f>
-        <v>Vagabond</v>
+        <v>Monster</v>
       </c>
       <c r="C34" s="14" t="str">
         <f>IF(SETTINGS!C34&lt;&gt;"",SETTINGS!C34,"")</f>
@@ -27646,7 +27792,7 @@
       </c>
       <c r="E34" s="25" t="str">
         <f>IF(SETTINGS!E34&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E34,$I:$J,2,FALSE),SETTINGS!E34),"")</f>
-        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
+        <v>MangaSee</v>
       </c>
       <c r="F34" s="14" t="str">
         <f>IF(SETTINGS!F34&lt;&gt;"",SETTINGS!F34,"")</f>
@@ -27660,19 +27806,19 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="str">
         <f>IF(SETTINGS!A35&lt;&gt;"",SETTINGS!A35,"")</f>
-        <v>Vinland</v>
+        <v>Montage</v>
       </c>
       <c r="B35" s="14" t="str">
         <f>IF(SETTINGS!B35&lt;&gt;"",SETTINGS!B35,"")</f>
-        <v>Vinland Saga</v>
+        <v>Montage (WATANABE Jun)</v>
       </c>
       <c r="C35" s="14" t="str">
         <f>IF(SETTINGS!C35&lt;&gt;"",SETTINGS!C35,"")</f>
-        <v>x</v>
-      </c>
-      <c r="D35" s="24">
+        <v>F</v>
+      </c>
+      <c r="D35" s="24" t="str">
         <f>IF(SETTINGS!D35&lt;&gt;"",SETTINGS!D35,"")</f>
-        <v>45140</v>
+        <v>F</v>
       </c>
       <c r="E35" s="25" t="str">
         <f>IF(SETTINGS!E35&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E35,$I:$J,2,FALSE),SETTINGS!E35),"")</f>
@@ -27680,7 +27826,7 @@
       </c>
       <c r="F35" s="14" t="str">
         <f>IF(SETTINGS!F35&lt;&gt;"",SETTINGS!F35,"")</f>
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G35" s="14" t="str">
         <f>IF(SETTINGS!G35&lt;&gt;"",SETTINGS!G35,"")</f>
@@ -27690,23 +27836,23 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="str">
         <f>IF(SETTINGS!A36&lt;&gt;"",SETTINGS!A36,"")</f>
-        <v>YuGiOh</v>
+        <v>Moriarty</v>
       </c>
       <c r="B36" s="14" t="str">
         <f>IF(SETTINGS!B36&lt;&gt;"",SETTINGS!B36,"")</f>
-        <v>Yu-Gi-Oh ! – Edition Double</v>
+        <v>Moriarty</v>
       </c>
       <c r="C36" s="14" t="str">
         <f>IF(SETTINGS!C36&lt;&gt;"",SETTINGS!C36,"")</f>
-        <v>x</v>
-      </c>
-      <c r="D36" s="24" t="str">
+        <v>*</v>
+      </c>
+      <c r="D36" s="24">
         <f>IF(SETTINGS!D36&lt;&gt;"",SETTINGS!D36,"")</f>
-        <v>x</v>
+        <v>45154</v>
       </c>
       <c r="E36" s="25" t="str">
         <f>IF(SETTINGS!E36&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E36,$I:$J,2,FALSE),SETTINGS!E36),"")</f>
-        <v>Sushi scans</v>
+        <v>MangaSee</v>
       </c>
       <c r="F36" s="14" t="str">
         <f>IF(SETTINGS!F36&lt;&gt;"",SETTINGS!F36,"")</f>
@@ -27714,25 +27860,25 @@
       </c>
       <c r="G36" s="14" t="str">
         <f>IF(SETTINGS!G36&lt;&gt;"",SETTINGS!G36,"")</f>
-        <v>Convertir directement</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="str">
         <f>IF(SETTINGS!A37&lt;&gt;"",SETTINGS!A37,"")</f>
-        <v>Mob100</v>
+        <v>Naruto</v>
       </c>
       <c r="B37" s="14" t="str">
         <f>IF(SETTINGS!B37&lt;&gt;"",SETTINGS!B37,"")</f>
-        <v>Mob Psycho 100</v>
+        <v>Naruto</v>
       </c>
       <c r="C37" s="14" t="str">
         <f>IF(SETTINGS!C37&lt;&gt;"",SETTINGS!C37,"")</f>
-        <v>*</v>
-      </c>
-      <c r="D37" s="24">
+        <v>F</v>
+      </c>
+      <c r="D37" s="24" t="str">
         <f>IF(SETTINGS!D37&lt;&gt;"",SETTINGS!D37,"")</f>
-        <v>45140</v>
+        <v>F</v>
       </c>
       <c r="E37" s="25" t="str">
         <f>IF(SETTINGS!E37&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E37,$I:$J,2,FALSE),SETTINGS!E37),"")</f>
@@ -27740,7 +27886,7 @@
       </c>
       <c r="F37" s="14" t="str">
         <f>IF(SETTINGS!F37&lt;&gt;"",SETTINGS!F37,"")</f>
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G37" s="14" t="str">
         <f>IF(SETTINGS!G37&lt;&gt;"",SETTINGS!G37,"")</f>
@@ -27750,19 +27896,19 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="str">
         <f>IF(SETTINGS!A38&lt;&gt;"",SETTINGS!A38,"")</f>
-        <v>Tablier</v>
+        <v>NNTZ</v>
       </c>
       <c r="B38" s="14" t="str">
         <f>IF(SETTINGS!B38&lt;&gt;"",SETTINGS!B38,"")</f>
-        <v>Gokushufudou The Way of the House Husband</v>
+        <v>Nanatsu no Taizai</v>
       </c>
       <c r="C38" s="14" t="str">
         <f>IF(SETTINGS!C38&lt;&gt;"",SETTINGS!C38,"")</f>
-        <v>*</v>
+        <v>F</v>
       </c>
       <c r="D38" s="24" t="str">
         <f>IF(SETTINGS!D38&lt;&gt;"",SETTINGS!D38,"")</f>
-        <v>*</v>
+        <v>F</v>
       </c>
       <c r="E38" s="25" t="str">
         <f>IF(SETTINGS!E38&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E38,$I:$J,2,FALSE),SETTINGS!E38),"")</f>
@@ -27780,19 +27926,19 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="str">
         <f>IF(SETTINGS!A39&lt;&gt;"",SETTINGS!A39,"")</f>
-        <v>Kingdom</v>
+        <v>OP</v>
       </c>
       <c r="B39" s="14" t="str">
         <f>IF(SETTINGS!B39&lt;&gt;"",SETTINGS!B39,"")</f>
-        <v>Kingdom</v>
-      </c>
-      <c r="C39" s="14" t="str">
+        <v>One Piece</v>
+      </c>
+      <c r="C39" s="14">
         <f>IF(SETTINGS!C39&lt;&gt;"",SETTINGS!C39,"")</f>
-        <v>*</v>
-      </c>
-      <c r="D39" s="24" t="str">
+        <v>1080</v>
+      </c>
+      <c r="D39" s="24">
         <f>IF(SETTINGS!D39&lt;&gt;"",SETTINGS!D39,"")</f>
-        <v>*</v>
+        <v>45154</v>
       </c>
       <c r="E39" s="25" t="str">
         <f>IF(SETTINGS!E39&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E39,$I:$J,2,FALSE),SETTINGS!E39),"")</f>
@@ -27800,7 +27946,7 @@
       </c>
       <c r="F39" s="14" t="str">
         <f>IF(SETTINGS!F39&lt;&gt;"",SETTINGS!F39,"")</f>
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G39" s="14" t="str">
         <f>IF(SETTINGS!G39&lt;&gt;"",SETTINGS!G39,"")</f>
@@ -27810,27 +27956,27 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="str">
         <f>IF(SETTINGS!A40&lt;&gt;"",SETTINGS!A40,"")</f>
-        <v>Naruto</v>
+        <v>Opman</v>
       </c>
       <c r="B40" s="14" t="str">
         <f>IF(SETTINGS!B40&lt;&gt;"",SETTINGS!B40,"")</f>
-        <v>Naruto</v>
-      </c>
-      <c r="C40" s="14" t="str">
+        <v>Onepunch-Man</v>
+      </c>
+      <c r="C40" s="14">
         <f>IF(SETTINGS!C40&lt;&gt;"",SETTINGS!C40,"")</f>
-        <v>F</v>
-      </c>
-      <c r="D40" s="24" t="str">
+        <v>178</v>
+      </c>
+      <c r="D40" s="24">
         <f>IF(SETTINGS!D40&lt;&gt;"",SETTINGS!D40,"")</f>
-        <v>F</v>
+        <v>45140</v>
       </c>
       <c r="E40" s="25" t="str">
         <f>IF(SETTINGS!E40&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E40,$I:$J,2,FALSE),SETTINGS!E40),"")</f>
-        <v>MangaSee</v>
+        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
       </c>
       <c r="F40" s="14" t="str">
         <f>IF(SETTINGS!F40&lt;&gt;"",SETTINGS!F40,"")</f>
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G40" s="14" t="str">
         <f>IF(SETTINGS!G40&lt;&gt;"",SETTINGS!G40,"")</f>
@@ -27840,19 +27986,19 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="str">
         <f>IF(SETTINGS!A41&lt;&gt;"",SETTINGS!A41,"")</f>
-        <v>FireForce</v>
+        <v>SakDays</v>
       </c>
       <c r="B41" s="14" t="str">
         <f>IF(SETTINGS!B41&lt;&gt;"",SETTINGS!B41,"")</f>
-        <v>Fire Force</v>
-      </c>
-      <c r="C41" s="14" t="str">
+        <v>Sakamoto Days</v>
+      </c>
+      <c r="C41" s="14">
         <f>IF(SETTINGS!C41&lt;&gt;"",SETTINGS!C41,"")</f>
-        <v>*</v>
+        <v>129</v>
       </c>
       <c r="D41" s="24">
         <f>IF(SETTINGS!D41&lt;&gt;"",SETTINGS!D41,"")</f>
-        <v>45140</v>
+        <v>45154</v>
       </c>
       <c r="E41" s="25" t="str">
         <f>IF(SETTINGS!E41&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E41,$I:$J,2,FALSE),SETTINGS!E41),"")</f>
@@ -27860,7 +28006,7 @@
       </c>
       <c r="F41" s="14" t="str">
         <f>IF(SETTINGS!F41&lt;&gt;"",SETTINGS!F41,"")</f>
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G41" s="14" t="str">
         <f>IF(SETTINGS!G41&lt;&gt;"",SETTINGS!G41,"")</f>
@@ -27870,11 +28016,11 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="str">
         <f>IF(SETTINGS!A42&lt;&gt;"",SETTINGS!A42,"")</f>
-        <v>Immortal</v>
+        <v>Sidooh</v>
       </c>
       <c r="B42" s="14" t="str">
         <f>IF(SETTINGS!B42&lt;&gt;"",SETTINGS!B42,"")</f>
-        <v>Blade of the Immortal</v>
+        <v>Sidooh</v>
       </c>
       <c r="C42" s="14" t="str">
         <f>IF(SETTINGS!C42&lt;&gt;"",SETTINGS!C42,"")</f>
@@ -27900,11 +28046,11 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="str">
         <f>IF(SETTINGS!A43&lt;&gt;"",SETTINGS!A43,"")</f>
-        <v>Monster</v>
+        <v>SKR</v>
       </c>
       <c r="B43" s="14" t="str">
         <f>IF(SETTINGS!B43&lt;&gt;"",SETTINGS!B43,"")</f>
-        <v>Monster</v>
+        <v>Sun-ken Rock</v>
       </c>
       <c r="C43" s="14" t="str">
         <f>IF(SETTINGS!C43&lt;&gt;"",SETTINGS!C43,"")</f>
@@ -27930,7 +28076,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="str">
         <f>IF(SETTINGS!A44&lt;&gt;"",SETTINGS!A44,"")</f>
-        <v>FMB</v>
+        <v>Slamdunk</v>
       </c>
       <c r="B44" s="14" t="str">
         <f>IF(SETTINGS!B44&lt;&gt;"",SETTINGS!B44,"")</f>
@@ -27938,15 +28084,15 @@
       </c>
       <c r="C44" s="14" t="str">
         <f>IF(SETTINGS!C44&lt;&gt;"",SETTINGS!C44,"")</f>
-        <v>F</v>
+        <v>*</v>
       </c>
       <c r="D44" s="24" t="str">
         <f>IF(SETTINGS!D44&lt;&gt;"",SETTINGS!D44,"")</f>
-        <v>F</v>
+        <v>*</v>
       </c>
       <c r="E44" s="25" t="str">
         <f>IF(SETTINGS!E44&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E44,$I:$J,2,FALSE),SETTINGS!E44),"")</f>
-        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
       <c r="F44" s="14" t="str">
         <f>IF(SETTINGS!F44&lt;&gt;"",SETTINGS!F44,"")</f>
@@ -27954,25 +28100,25 @@
       </c>
       <c r="G44" s="14" t="str">
         <f>IF(SETTINGS!G44&lt;&gt;"",SETTINGS!G44,"")</f>
-        <v>Rename 108.6 et 108.7</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="str">
         <f>IF(SETTINGS!A45&lt;&gt;"",SETTINGS!A45,"")</f>
-        <v>BlueLock</v>
+        <v>SNK</v>
       </c>
       <c r="B45" s="14" t="str">
         <f>IF(SETTINGS!B45&lt;&gt;"",SETTINGS!B45,"")</f>
-        <v>Blue Lock</v>
-      </c>
-      <c r="C45" s="14">
+        <v>Attack on Titan</v>
+      </c>
+      <c r="C45" s="14" t="str">
         <f>IF(SETTINGS!C45&lt;&gt;"",SETTINGS!C45,"")</f>
-        <v>228</v>
-      </c>
-      <c r="D45" s="24">
+        <v>F</v>
+      </c>
+      <c r="D45" s="24" t="str">
         <f>IF(SETTINGS!D45&lt;&gt;"",SETTINGS!D45,"")</f>
-        <v>45140</v>
+        <v>F</v>
       </c>
       <c r="E45" s="25" t="str">
         <f>IF(SETTINGS!E45&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E45,$I:$J,2,FALSE),SETTINGS!E45),"")</f>
@@ -27990,23 +28136,23 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="str">
         <f>IF(SETTINGS!A46&lt;&gt;"",SETTINGS!A46,"")</f>
-        <v>Montage</v>
+        <v>SpyF</v>
       </c>
       <c r="B46" s="14" t="str">
         <f>IF(SETTINGS!B46&lt;&gt;"",SETTINGS!B46,"")</f>
-        <v>Montage (WATANABE Jun)</v>
-      </c>
-      <c r="C46" s="14" t="str">
+        <v>Spy X Family</v>
+      </c>
+      <c r="C46" s="14">
         <f>IF(SETTINGS!C46&lt;&gt;"",SETTINGS!C46,"")</f>
-        <v>F</v>
-      </c>
-      <c r="D46" s="24" t="str">
+        <v>85</v>
+      </c>
+      <c r="D46" s="24">
         <f>IF(SETTINGS!D46&lt;&gt;"",SETTINGS!D46,"")</f>
-        <v>F</v>
+        <v>45140</v>
       </c>
       <c r="E46" s="25" t="str">
         <f>IF(SETTINGS!E46&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E46,$I:$J,2,FALSE),SETTINGS!E46),"")</f>
-        <v>MangaSee</v>
+        <v>&lt;a href="http://fanfox.net"&gt;&lt;img src="https://favicon.malsync.moe/?domain=http://fanfox.net"&gt; MF&lt;/a&gt;</v>
       </c>
       <c r="F46" s="14" t="str">
         <f>IF(SETTINGS!F46&lt;&gt;"",SETTINGS!F46,"")</f>
@@ -28020,27 +28166,27 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="str">
         <f>IF(SETTINGS!A47&lt;&gt;"",SETTINGS!A47,"")</f>
-        <v>Issak</v>
+        <v>SSY Lost Canva</v>
       </c>
       <c r="B47" s="14" t="str">
         <f>IF(SETTINGS!B47&lt;&gt;"",SETTINGS!B47,"")</f>
-        <v/>
+        <v>Saint Seiya - The Lost Canva</v>
       </c>
       <c r="C47" s="14" t="str">
         <f>IF(SETTINGS!C47&lt;&gt;"",SETTINGS!C47,"")</f>
-        <v>*</v>
+        <v>x</v>
       </c>
       <c r="D47" s="24" t="str">
         <f>IF(SETTINGS!D47&lt;&gt;"",SETTINGS!D47,"")</f>
-        <v>*</v>
+        <v>x</v>
       </c>
       <c r="E47" s="25" t="str">
         <f>IF(SETTINGS!E47&lt;&gt;"",IFERROR(VLOOKUP(SETTINGS!E47,$I:$J,2,FALSE),SETTINGS!E47),"")</f>
-        <v>&lt;a href="https://manganato.com"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://manganato.com"&gt; MN&lt;/a&gt;</v>
+        <v>&lt;a href="https://mangajar.com/"&gt;&lt;img src="https://favicon.malsync.moe/?domain=https://mangajar.com/"&gt; MJ&lt;/a&gt;</v>
       </c>
       <c r="F47" s="14" t="str">
         <f>IF(SETTINGS!F47&lt;&gt;"",SETTINGS!F47,"")</f>
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G47" s="14" t="str">
         <f>IF(SETTINGS!G47&lt;&gt;"",SETTINGS!G47,"")</f>
@@ -28123,6 +28269,2880 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122EB1D2-0FA3-EB44-B58B-20D5FF0263EB}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:Q53"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="37" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="49" customWidth="1"/>
+    <col min="13" max="13" width="12" style="49" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="48" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" style="52" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A2,UPDATE!$1:$1,0),TRUE))=FALSE,H2=FALSE),L2,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A2,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D2" s="19" t="str">
+        <f t="shared" ref="D2:D33" si="0">IF(C2="F","F",M2)</f>
+        <v>F</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="14" t="str">
+        <f t="shared" ref="F2:F33" si="1">IF(AND(OR(P2=TRUE,K2&lt;&gt;""),J2=TRUE),"✅","❌")</f>
+        <v>✅</v>
+      </c>
+      <c r="H2" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A2,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A2,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A2,UPDATE!$1:$1,0)),0)),K2)</f>
+        <v>22</v>
+      </c>
+      <c r="J2" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A2,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="49">
+        <v>22</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="45" t="b">
+        <f t="shared" ref="N2:N33" si="2">IF(F2&lt;&gt;"",F2="✅","")</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A2,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A3,UPDATE!$1:$1,0),TRUE))=FALSE,H3=FALSE),L3,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A3,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D3" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H3" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A3,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A3,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A3,UPDATE!$1:$1,0)),0)),K3)</f>
+        <v>21</v>
+      </c>
+      <c r="J3" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A50,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="P3" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A3,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="13">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A4,UPDATE!$1:$1,0),TRUE))=FALSE,H4=FALSE),L4,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A4,UPDATE!$1:$1,0))))</f>
+        <v>367</v>
+      </c>
+      <c r="D4" s="19">
+        <f t="shared" si="0"/>
+        <v>45154</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H4" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A4,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A4,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A4,UPDATE!$1:$1,0)),0)),K4)</f>
+        <v>35</v>
+      </c>
+      <c r="J4" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A3,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="50">
+        <v>45154</v>
+      </c>
+      <c r="N4" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A4,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="53"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="13">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A5,UPDATE!$1:$1,0),TRUE))=FALSE,H5=FALSE),L5,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A5,UPDATE!$1:$1,0))))</f>
+        <v>373</v>
+      </c>
+      <c r="D5" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H5" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A5,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A5,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A5,UPDATE!$1:$1,0)),0)),K5)</f>
+        <v>41</v>
+      </c>
+      <c r="J5" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A49,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="P5" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A5,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A6,UPDATE!$1:$1,0),TRUE))=FALSE,H6=FALSE),L6,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A6,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A6,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A6,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A6,UPDATE!$1:$1,0)),0)),K6)</f>
+        <v>4</v>
+      </c>
+      <c r="J6" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A51,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="P6" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A6,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A7,UPDATE!$1:$1,0),TRUE))=FALSE,H7=FALSE),L7,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A7,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H7" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A7,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A7,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A7,UPDATE!$1:$1,0)),0)),K7)</f>
+        <v>74</v>
+      </c>
+      <c r="J7" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A4,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A7,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="13">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A8,UPDATE!$1:$1,0),TRUE))=FALSE,H8=FALSE),L8,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A8,UPDATE!$1:$1,0))))</f>
+        <v>228</v>
+      </c>
+      <c r="D8" s="19">
+        <f t="shared" si="0"/>
+        <v>45140</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H8" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A8,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A8,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A8,UPDATE!$1:$1,0)),0)),K8)</f>
+        <v>25</v>
+      </c>
+      <c r="J8" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A45,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="50">
+        <v>45140</v>
+      </c>
+      <c r="N8" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A8,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="53"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="13">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A9,UPDATE!$1:$1,0),TRUE))=FALSE,H9=FALSE),L9,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A9,UPDATE!$1:$1,0))))</f>
+        <v>138</v>
+      </c>
+      <c r="D9" s="19">
+        <f t="shared" si="0"/>
+        <v>45154</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H9" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A9,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A9,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A9,UPDATE!$1:$1,0)),0)),K9)</f>
+        <v>15</v>
+      </c>
+      <c r="J9" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A5,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="50">
+        <v>45154</v>
+      </c>
+      <c r="N9" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A9,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="53"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A10,UPDATE!$1:$1,0),TRUE))=FALSE,H10=FALSE),L10,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A10,UPDATE!$1:$1,0))))</f>
+        <v>40</v>
+      </c>
+      <c r="D10" s="19">
+        <f t="shared" si="0"/>
+        <v>45154</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H10" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A10,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A10,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A10,UPDATE!$1:$1,0)),0)),K10)</f>
+        <v>6</v>
+      </c>
+      <c r="J10" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A6,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="50">
+        <v>45154</v>
+      </c>
+      <c r="N10" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A10,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="53"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="13">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A11,UPDATE!$1:$1,0),TRUE))=FALSE,H11=FALSE),L11,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A11,UPDATE!$1:$1,0))))</f>
+        <v>1115</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" si="0"/>
+        <v>45140</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A11,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A11,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A11,UPDATE!$1:$1,0)),0)),K11)</f>
+        <v>103</v>
+      </c>
+      <c r="J11" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A7,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="50">
+        <v>45140</v>
+      </c>
+      <c r="N11" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A11,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A12,UPDATE!$1:$1,0),TRUE))=FALSE,H12=FALSE),L12,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A12,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H12" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A12,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A12,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A12,UPDATE!$1:$1,0)),0)),K12)</f>
+        <v>42</v>
+      </c>
+      <c r="J12" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A8,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A12,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="13">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A13,UPDATE!$1:$1,0),TRUE))=FALSE,H13=FALSE),L13,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A13,UPDATE!$1:$1,0))))</f>
+        <v>89</v>
+      </c>
+      <c r="D13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A13,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A13,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A13,UPDATE!$1:$1,0)),0)),K13)</f>
+        <v>19</v>
+      </c>
+      <c r="J13" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A9,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A13,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A14,UPDATE!$1:$1,0),TRUE))=FALSE,H14=FALSE),L14,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A14,UPDATE!$1:$1,0))))</f>
+        <v>*</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" si="0"/>
+        <v>45140</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>❌</v>
+      </c>
+      <c r="H14" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A14,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A14,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A14,UPDATE!$1:$1,0)),0)),K14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A41,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="50">
+        <v>45140</v>
+      </c>
+      <c r="N14" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="P14" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A14,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A15,UPDATE!$1:$1,0),TRUE))=FALSE,H15=FALSE),L15,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A15,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>❌</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A15,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A15,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A15,UPDATE!$1:$1,0)),0)),K15)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A44,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="P15" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A15,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A16,UPDATE!$1:$1,0),TRUE))=FALSE,H16=FALSE),L16,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A16,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H16" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A16,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A16,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A16,UPDATE!$1:$1,0)),0)),K16)</f>
+        <v>22</v>
+      </c>
+      <c r="J16" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A10,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A16,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A17,UPDATE!$1:$1,0),TRUE))=FALSE,H17=FALSE),L17,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A17,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H17" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A17,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A17,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A17,UPDATE!$1:$1,0)),0)),K17)</f>
+        <v>77</v>
+      </c>
+      <c r="J17" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A11,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A17,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A18,UPDATE!$1:$1,0),TRUE))=FALSE,H18=FALSE),L18,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A18,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H18" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A18,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A18,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A18,UPDATE!$1:$1,0)),0)),K18)</f>
+        <v>25</v>
+      </c>
+      <c r="J18" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A12,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="49">
+        <v>25</v>
+      </c>
+      <c r="L18" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A18,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A19,UPDATE!$1:$1,0),TRUE))=FALSE,H19=FALSE),L19,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A19,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H19" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A19,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A19,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A19,UPDATE!$1:$1,0)),0)),K19)</f>
+        <v>13</v>
+      </c>
+      <c r="J19" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A13,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A19,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="13">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A20,UPDATE!$1:$1,0),TRUE))=FALSE,H20=FALSE),L20,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A20,UPDATE!$1:$1,0))))</f>
+        <v>400</v>
+      </c>
+      <c r="D20" s="19">
+        <f t="shared" si="0"/>
+        <v>45154</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H20" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A20,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A20,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A20,UPDATE!$1:$1,0)),0)),K20)</f>
+        <v>37</v>
+      </c>
+      <c r="J20" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A14,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="50">
+        <v>45154</v>
+      </c>
+      <c r="N20" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A20,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A21,UPDATE!$1:$1,0),TRUE))=FALSE,H21=FALSE),L21,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A21,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D21" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H21" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A21,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A21,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A21,UPDATE!$1:$1,0)),0)),K21)</f>
+        <v>30</v>
+      </c>
+      <c r="J21" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A42,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="P21" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A21,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A22,UPDATE!$1:$1,0),TRUE))=FALSE,H22=FALSE),L22,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A22,UPDATE!$1:$1,0))))</f>
+        <v>*</v>
+      </c>
+      <c r="D22" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>❌</v>
+      </c>
+      <c r="H22" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A22,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A22,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A22,UPDATE!$1:$1,0)),0)),K22)</f>
+        <v>9</v>
+      </c>
+      <c r="J22" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A47,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A22,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="13">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A23,UPDATE!$1:$1,0),TRUE))=FALSE,H23=FALSE),L23,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A23,UPDATE!$1:$1,0))))</f>
+        <v>230</v>
+      </c>
+      <c r="D23" s="19">
+        <f t="shared" si="0"/>
+        <v>45140</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H23" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A23,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A23,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A23,UPDATE!$1:$1,0)),0)),K23)</f>
+        <v>23</v>
+      </c>
+      <c r="J23" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A15,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="50">
+        <v>45140</v>
+      </c>
+      <c r="N23" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A23,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="53"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A24,UPDATE!$1:$1,0),TRUE))=FALSE,H24=FALSE),L24,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A24,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D24" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H24" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A24,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A24,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A24,UPDATE!$1:$1,0)),0)),K24)</f>
+        <v>63</v>
+      </c>
+      <c r="J24" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A16,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L24" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A24,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A25,UPDATE!$1:$1,0),TRUE))=FALSE,H25=FALSE),L25,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A25,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D25" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A25,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A25,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A25,UPDATE!$1:$1,0)),0)),K25)</f>
+        <v>80</v>
+      </c>
+      <c r="J25" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A17,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L25" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O25" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="P25" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A25,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A26,UPDATE!$1:$1,0),TRUE))=FALSE,H26=FALSE),L26,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A26,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D26" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A26,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A26,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A26,UPDATE!$1:$1,0)),0)),K26)</f>
+        <v>104</v>
+      </c>
+      <c r="J26" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A18,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O26" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A26,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A27,UPDATE!$1:$1,0),TRUE))=FALSE,H27=FALSE),L27,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A27,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D27" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A27,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A27,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A27,UPDATE!$1:$1,0)),0)),K27)</f>
+        <v>131</v>
+      </c>
+      <c r="J27" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A19,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L27" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O27" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A27,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="13">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A28,UPDATE!$1:$1,0),TRUE))=FALSE,H28=FALSE),L28,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A28,UPDATE!$1:$1,0))))</f>
+        <v>90</v>
+      </c>
+      <c r="D28" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H28" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A28,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A28,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A28,UPDATE!$1:$1,0)),0)),K28)</f>
+        <v>10</v>
+      </c>
+      <c r="J28" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A20,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L28" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O28" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A28,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A29,UPDATE!$1:$1,0),TRUE))=FALSE,H29=FALSE),L29,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A29,UPDATE!$1:$1,0))))</f>
+        <v>*</v>
+      </c>
+      <c r="D29" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>❌</v>
+      </c>
+      <c r="H29" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A29,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A29,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A29,UPDATE!$1:$1,0)),0)),K29)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A39,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L29" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A29,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A30,UPDATE!$1:$1,0),TRUE))=FALSE,H30=FALSE),L30,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A30,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D30" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H30" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A30,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A30,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A30,UPDATE!$1:$1,0)),0)),K30)</f>
+        <v>30</v>
+      </c>
+      <c r="J30" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A21,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L30" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O30" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A30,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="13">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A31,UPDATE!$1:$1,0),TRUE))=FALSE,H31=FALSE),L31,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A31,UPDATE!$1:$1,0))))</f>
+        <v>162</v>
+      </c>
+      <c r="D31" s="19">
+        <f t="shared" si="0"/>
+        <v>45140</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H31" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A31,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I31" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A31,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A31,UPDATE!$1:$1,0)),0)),K31)</f>
+        <v>16</v>
+      </c>
+      <c r="J31" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A22,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L31" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="50">
+        <v>45140</v>
+      </c>
+      <c r="N31" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O31" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A31,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="13">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A32,UPDATE!$1:$1,0),TRUE))=FALSE,H32=FALSE),L32,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A32,UPDATE!$1:$1,0))))</f>
+        <v>395</v>
+      </c>
+      <c r="D32" s="19">
+        <f t="shared" si="0"/>
+        <v>45140</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H32" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A32,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A32,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A32,UPDATE!$1:$1,0)),0)),K32)</f>
+        <v>38</v>
+      </c>
+      <c r="J32" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A23,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L32" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="50">
+        <v>45140</v>
+      </c>
+      <c r="N32" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A32,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A33,UPDATE!$1:$1,0),TRUE))=FALSE,H33=FALSE),L33,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A33,UPDATE!$1:$1,0))))</f>
+        <v>*</v>
+      </c>
+      <c r="D33" s="19">
+        <f t="shared" si="0"/>
+        <v>45140</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>✅</v>
+      </c>
+      <c r="H33" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A33,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A33,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A33,UPDATE!$1:$1,0)),0)),K33)</f>
+        <v>16</v>
+      </c>
+      <c r="J33" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A37,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L33" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="51">
+        <v>45140</v>
+      </c>
+      <c r="N33" s="45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O33" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="P33" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A33,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A34,UPDATE!$1:$1,0),TRUE))=FALSE,H34=FALSE),L34,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A34,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D34" s="19" t="str">
+        <f t="shared" ref="D34:D65" si="3">IF(C34="F","F",M34)</f>
+        <v>F</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="14" t="str">
+        <f t="shared" ref="F34:F53" si="4">IF(AND(OR(P34=TRUE,K34&lt;&gt;""),J34=TRUE),"✅","❌")</f>
+        <v>✅</v>
+      </c>
+      <c r="H34" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A34,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A34,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A34,UPDATE!$1:$1,0)),0)),K34)</f>
+        <v>18</v>
+      </c>
+      <c r="J34" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A43,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L34" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="45" t="b">
+        <f t="shared" ref="N34:N53" si="5">IF(F34&lt;&gt;"",F34="✅","")</f>
+        <v>1</v>
+      </c>
+      <c r="O34" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="P34" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A34,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A35,UPDATE!$1:$1,0),TRUE))=FALSE,H35=FALSE),L35,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A35,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D35" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>✅</v>
+      </c>
+      <c r="H35" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A35,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A35,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A35,UPDATE!$1:$1,0)),0)),K35)</f>
+        <v>19</v>
+      </c>
+      <c r="J35" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A46,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L35" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O35" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="P35" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A35,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A36,UPDATE!$1:$1,0),TRUE))=FALSE,H36=FALSE),L36,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A36,UPDATE!$1:$1,0))))</f>
+        <v>*</v>
+      </c>
+      <c r="D36" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>✅</v>
+      </c>
+      <c r="H36" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A36,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A36,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A36,UPDATE!$1:$1,0)),0)),K36)</f>
+        <v>19</v>
+      </c>
+      <c r="J36" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A53,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L36" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O36" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="P36" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A36,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A37,UPDATE!$1:$1,0),TRUE))=FALSE,H37=FALSE),L37,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A37,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D37" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>❌</v>
+      </c>
+      <c r="H37" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A37,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A37,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A37,UPDATE!$1:$1,0)),0)),K37)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A40,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L37" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="P37" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A37,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A38,UPDATE!$1:$1,0),TRUE))=FALSE,H38=FALSE),L38,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A38,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D38" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>✅</v>
+      </c>
+      <c r="H38" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A38,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A38,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A38,UPDATE!$1:$1,0)),0)),K38)</f>
+        <v>41</v>
+      </c>
+      <c r="J38" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A24,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L38" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="P38" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A38,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="13">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A39,UPDATE!$1:$1,0),TRUE))=FALSE,H39=FALSE),L39,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A39,UPDATE!$1:$1,0))))</f>
+        <v>1080</v>
+      </c>
+      <c r="D39" s="19">
+        <f t="shared" si="3"/>
+        <v>45140</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>✅</v>
+      </c>
+      <c r="H39" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A39,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I39" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A39,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A39,UPDATE!$1:$1,0)),0)),K39)</f>
+        <v>106</v>
+      </c>
+      <c r="J39" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A25,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L39" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="50">
+        <v>45140</v>
+      </c>
+      <c r="N39" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O39" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A39,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="13">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A40,UPDATE!$1:$1,0),TRUE))=FALSE,H40=FALSE),L40,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A40,UPDATE!$1:$1,0))))</f>
+        <v>178</v>
+      </c>
+      <c r="D40" s="19">
+        <f t="shared" si="3"/>
+        <v>45140</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>✅</v>
+      </c>
+      <c r="H40" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A40,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I40" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A40,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A40,UPDATE!$1:$1,0)),0)),K40)</f>
+        <v>27</v>
+      </c>
+      <c r="J40" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A26,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L40" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="50">
+        <v>45140</v>
+      </c>
+      <c r="N40" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O40" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="P40" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A40,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="13">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A41,UPDATE!$1:$1,0),TRUE))=FALSE,H41=FALSE),L41,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A41,UPDATE!$1:$1,0))))</f>
+        <v>129</v>
+      </c>
+      <c r="D41" s="19">
+        <f t="shared" si="3"/>
+        <v>45140</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>✅</v>
+      </c>
+      <c r="H41" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A41,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I41" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A41,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A41,UPDATE!$1:$1,0)),0)),K41)</f>
+        <v>12</v>
+      </c>
+      <c r="J41" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A27,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L41" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="50">
+        <v>45140</v>
+      </c>
+      <c r="N41" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="P41" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A41,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="53"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A42,UPDATE!$1:$1,0),TRUE))=FALSE,H42=FALSE),L42,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A42,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D42" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>✅</v>
+      </c>
+      <c r="H42" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A42,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A42,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A42,UPDATE!$1:$1,0)),0)),K42)</f>
+        <v>25</v>
+      </c>
+      <c r="J42" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A52,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L42" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O42" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="P42" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A42,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A43,UPDATE!$1:$1,0),TRUE))=FALSE,H43=FALSE),L43,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A43,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D43" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>✅</v>
+      </c>
+      <c r="H43" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A43,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A43,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A43,UPDATE!$1:$1,0)),0)),K43)</f>
+        <v>21</v>
+      </c>
+      <c r="J43" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A28,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K43" s="49">
+        <v>21</v>
+      </c>
+      <c r="L43" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O43" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="P43" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A43,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A44,UPDATE!$1:$1,0),TRUE))=FALSE,H44=FALSE),L44,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A44,UPDATE!$1:$1,0))))</f>
+        <v>*</v>
+      </c>
+      <c r="D44" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>❌</v>
+      </c>
+      <c r="H44" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A44,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A44,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A44,UPDATE!$1:$1,0)),0)),K44)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A48,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L44" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="P44" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A44,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A45,UPDATE!$1:$1,0),TRUE))=FALSE,H45=FALSE),L45,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A45,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D45" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>✅</v>
+      </c>
+      <c r="H45" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A45,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A45,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A45,UPDATE!$1:$1,0)),0)),K45)</f>
+        <v>34</v>
+      </c>
+      <c r="J45" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A29,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L45" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O45" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="P45" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A45,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="13">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A46,UPDATE!$1:$1,0),TRUE))=FALSE,H46=FALSE),L46,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A46,UPDATE!$1:$1,0))))</f>
+        <v>85</v>
+      </c>
+      <c r="D46" s="19">
+        <f t="shared" si="3"/>
+        <v>45140</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>✅</v>
+      </c>
+      <c r="H46" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A46,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I46" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A46,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A46,UPDATE!$1:$1,0)),0)),K46)</f>
+        <v>11</v>
+      </c>
+      <c r="J46" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A30,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L46" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="50">
+        <v>45140</v>
+      </c>
+      <c r="N46" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O46" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="P46" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A46,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A47,UPDATE!$1:$1,0),TRUE))=FALSE,H47=FALSE),L47,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A47,UPDATE!$1:$1,0))))</f>
+        <v>x</v>
+      </c>
+      <c r="D47" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>❌</v>
+      </c>
+      <c r="H47" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A47,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A47,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A47,UPDATE!$1:$1,0)),0)),K47)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A31,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L47" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="M47" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="N47" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="P47" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A47,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A48,UPDATE!$1:$1,0),TRUE))=FALSE,H48=FALSE),L48,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A48,UPDATE!$1:$1,0))))</f>
+        <v>*</v>
+      </c>
+      <c r="D48" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>✅</v>
+      </c>
+      <c r="H48" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A48,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A48,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A48,UPDATE!$1:$1,0)),0)),K48)</f>
+        <v>11</v>
+      </c>
+      <c r="J48" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A38,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L48" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O48" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="P48" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A48,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A49,UPDATE!$1:$1,0),TRUE))=FALSE,H49=FALSE),L49,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A49,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D49" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>✅</v>
+      </c>
+      <c r="G49" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A49,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A49,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A49,UPDATE!$1:$1,0)),0)),K49)</f>
+        <v>14</v>
+      </c>
+      <c r="J49" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A32,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K49" s="49">
+        <v>14</v>
+      </c>
+      <c r="L49" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O49" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="P49" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A49,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A50,UPDATE!$1:$1,0),TRUE))=FALSE,H50=FALSE),L50,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A50,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D50" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>✅</v>
+      </c>
+      <c r="H50" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A50,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A50,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A50,UPDATE!$1:$1,0)),0)),K50)</f>
+        <v>16</v>
+      </c>
+      <c r="J50" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A33,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K50" s="49">
+        <v>16</v>
+      </c>
+      <c r="L50" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O50" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="P50" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A50,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A51,UPDATE!$1:$1,0),TRUE))=FALSE,H51=FALSE),L51,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A51,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D51" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>✅</v>
+      </c>
+      <c r="H51" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A51,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A51,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A51,UPDATE!$1:$1,0)),0)),K51)</f>
+        <v>37</v>
+      </c>
+      <c r="J51" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A34,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K51" s="49">
+        <v>37</v>
+      </c>
+      <c r="L51" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O51" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="P51" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A51,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A52,UPDATE!$1:$1,0),TRUE))=FALSE,H52=FALSE),L52,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A52,UPDATE!$1:$1,0))))</f>
+        <v>x</v>
+      </c>
+      <c r="D52" s="19">
+        <f t="shared" si="3"/>
+        <v>45140</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>❌</v>
+      </c>
+      <c r="H52" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A52,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A52,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A52,UPDATE!$1:$1,0)),0)),K52)</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A35,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L52" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="M52" s="51">
+        <v>45140</v>
+      </c>
+      <c r="N52" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="P52" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A52,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A53,UPDATE!$1:$1,0),TRUE))=FALSE,H53=FALSE),L53,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A53,UPDATE!$1:$1,0))))</f>
+        <v>x</v>
+      </c>
+      <c r="D53" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>✅</v>
+      </c>
+      <c r="G53" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" s="36" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH('SETTINGS (save)'!A53,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="16">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$AZ$200,,MATCH(A53,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$AZ,,MATCH(A53,UPDATE!$1:$1,0)),0)),K53)</f>
+        <v>19</v>
+      </c>
+      <c r="J53" s="16" t="b">
+        <f>IFERROR(IF(MATCH('SETTINGS (save)'!A36,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L53" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="M53" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="N53" s="45" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O53" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="P53" s="64" t="b">
+        <f>IF(IFERROR(HLOOKUP(A53,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{122EB1D2-0FA3-EB44-B58B-20D5FF0263EB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q53">
+      <sortCondition ref="A1:A53"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>J1=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N75:N1048576 N1:N53">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>N1=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>I1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>AND(N1=FALSE,K1="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>F1="❌"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AZ133"/>
   <sheetViews>
@@ -44267,7 +47287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:F17"/>
   <sheetViews>

--- a/origin.xlsx
+++ b/origin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A4472D-12C8-7E44-81B9-727377F62053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496EC857-1DB2-6C49-A708-7646140FFC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17380" yWindow="4040" windowWidth="34280" windowHeight="22960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42520" yWindow="8580" windowWidth="34280" windowHeight="22960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTINGS" sheetId="1" r:id="rId1"/>
@@ -1814,11 +1814,11 @@
   </sheetPr>
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3602,7 +3602,7 @@
         <v>F</v>
       </c>
       <c r="D34" s="19" t="str">
-        <f t="shared" ref="D34:D65" si="3">IF(C34="F","F",M34)</f>
+        <f t="shared" ref="D34:D53" si="3">IF(C34="F","F",M34)</f>
         <v>F</v>
       </c>
       <c r="E34" s="14" t="s">
@@ -26037,8 +26037,8 @@
   </sheetPr>
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26547,7 +26547,7 @@
       <c r="A63" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>222</v>
       </c>
     </row>
@@ -26724,6 +26724,7 @@
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="B42" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B63" r:id="rId3" xr:uid="{16B7721F-C24F-B94F-BC6F-08DCD677FCF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30063,7 +30064,7 @@
         <v>F</v>
       </c>
       <c r="D34" s="19" t="str">
-        <f t="shared" ref="D34:D65" si="3">IF(C34="F","F",M34)</f>
+        <f t="shared" ref="D34:D53" si="3">IF(C34="F","F",M34)</f>
         <v>F</v>
       </c>
       <c r="E34" s="35" t="s">

--- a/origin.xlsx
+++ b/origin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496EC857-1DB2-6C49-A708-7646140FFC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD34BF-D641-B748-BECB-0CED4F377CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42520" yWindow="8580" windowWidth="34280" windowHeight="22960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="25600" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTINGS" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,16 @@
     <sheet name="readme" sheetId="4" r:id="rId4"/>
     <sheet name="LIST" sheetId="5" r:id="rId5"/>
     <sheet name="SETTINGS (save)" sheetId="8" r:id="rId6"/>
-    <sheet name="update_save" sheetId="6" state="hidden" r:id="rId7"/>
-    <sheet name="formule" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
+    <sheet name="update_save" sheetId="6" state="hidden" r:id="rId8"/>
+    <sheet name="formule" sheetId="7" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">COVER!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SETTINGS!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SETTINGS!$A$1:$Q$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'SETTINGS (save)'!$A$1:$Q$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UPDATE!$A$1:$AE$99</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">update_save!$A$1:$AE$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">update_save!$A$1:$AE$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1375,18 +1376,7 @@
   <dxfs count="14">
     <dxf>
       <font>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -1397,6 +1387,17 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -1474,18 +1475,7 @@
     </dxf>
     <dxf>
       <font>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -1496,6 +1486,17 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -1814,11 +1815,11 @@
   </sheetPr>
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4748,34 +4749,34 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:Q55" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q53">
       <sortCondition ref="A1:A53"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+      <formula>F1="❌"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="expression" dxfId="12" priority="4">
+      <formula>I1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N75:N1048576 N1:N55">
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="N1:N55 N75:N1048576">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>N1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="expression" dxfId="11" priority="4">
-      <formula>I1=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
       <formula>AND(N1=FALSE,K1="")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
-      <formula>F1="❌"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26037,7 +26038,7 @@
   </sheetPr>
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -26701,14 +26702,14 @@
       <sortCondition ref="A1:A81"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1:B59 A60 A61:B76 A77 A81:B1048576 A78:B79 A80">
+  <conditionalFormatting sqref="A1:B59 A60 A61:B76 A77">
     <cfRule type="expression" dxfId="8" priority="4">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>#REF!&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A78:B1048576">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$A78&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
@@ -26716,9 +26717,9 @@
       <formula>B1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>$A80&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="5" priority="12">
+      <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -31114,29 +31115,29 @@
       <sortCondition ref="A1:A53"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+      <formula>F1="❌"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>I1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
       <formula>J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N75:N1048576 N1:N53">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="N1:N53 N75:N1048576">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>N1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>I1=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(N1=FALSE,K1="")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>F1="❌"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31144,6 +31145,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC178AD-D085-3546-8151-DFB4425986D6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AZ133"/>
   <sheetViews>
@@ -47288,7 +47301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:F17"/>
   <sheetViews>

--- a/origin.xlsx
+++ b/origin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD34BF-D641-B748-BECB-0CED4F377CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6609CC1-D2B9-144B-A6DC-ACE1807B6ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="25600" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53180" yWindow="17600" windowWidth="25600" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTINGS" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="272">
   <si>
     <t>Manga</t>
   </si>
@@ -862,6 +862,9 @@
   <si>
     <t>Tokyo Revengers</t>
   </si>
+  <si>
+    <t>Hell's Paradise - Jigokuraku</t>
+  </si>
 </sst>
 </file>
 
@@ -1171,7 +1174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1368,6 +1371,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1475,7 +1484,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.24994659260841701"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -1502,6 +1511,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE86E69"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1815,11 +1829,11 @@
   </sheetPr>
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1916,6 +1930,9 @@
         <f t="shared" ref="F2:F33" si="1">IF(AND(OR(P2=TRUE,K2&lt;&gt;""),J2=TRUE),"✅","❌")</f>
         <v>✅</v>
       </c>
+      <c r="G2" s="56" t="s">
+        <v>104</v>
+      </c>
       <c r="H2" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$AZ,2,MATCH(SETTINGS!A2,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
@@ -1938,8 +1955,8 @@
         <v>20</v>
       </c>
       <c r="N2" s="45" t="b">
-        <f t="shared" ref="N2:N33" si="2">IF(F2&lt;&gt;"",F2="✅","")</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="O2" s="46" t="s">
         <v>18</v>
@@ -1953,7 +1970,7 @@
       <c r="A3" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="77" t="s">
         <v>129</v>
       </c>
       <c r="C3" s="13" t="str">
@@ -1990,7 +2007,7 @@
         <v>20</v>
       </c>
       <c r="N3" s="45" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N2:N33" si="2">IF(F3&lt;&gt;"",F3="✅","")</f>
         <v>1</v>
       </c>
       <c r="O3" s="46" t="s">
@@ -2005,7 +2022,7 @@
       <c r="A4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="76" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="13">
@@ -2058,7 +2075,7 @@
       <c r="A5" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="77" t="s">
         <v>128</v>
       </c>
       <c r="C5" s="13">
@@ -2110,7 +2127,7 @@
       <c r="A6" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="77" t="s">
         <v>130</v>
       </c>
       <c r="C6" s="13" t="str">
@@ -2165,7 +2182,7 @@
       <c r="A7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="76" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="13" t="str">
@@ -2217,7 +2234,7 @@
       <c r="A8" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="76" t="s">
         <v>123</v>
       </c>
       <c r="C8" s="13">
@@ -2270,7 +2287,7 @@
       <c r="A9" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="76" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="13">
@@ -2323,7 +2340,7 @@
       <c r="A10" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="76" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="13">
@@ -2376,7 +2393,7 @@
       <c r="A11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="76" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="13">
@@ -2431,7 +2448,7 @@
       <c r="A12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="76" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="13" t="str">
@@ -2486,7 +2503,7 @@
       <c r="A13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="13">
@@ -2646,7 +2663,7 @@
       <c r="A16" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="76" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="13" t="str">
@@ -2698,7 +2715,7 @@
       <c r="A17" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="76" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="13" t="str">
@@ -2805,8 +2822,8 @@
       <c r="A19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>46</v>
+      <c r="B19" s="76" t="s">
+        <v>271</v>
       </c>
       <c r="C19" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A19,UPDATE!$1:$1,0),TRUE))=FALSE,H19=FALSE),L19,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$AZ,,MATCH(A19,UPDATE!$1:$1,0))))</f>
@@ -2857,7 +2874,7 @@
       <c r="A20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="76" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="13">
@@ -2909,7 +2926,7 @@
       <c r="A21" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="76" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="13" t="str">
@@ -3010,7 +3027,7 @@
       <c r="A23" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="76" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="13">
@@ -4168,7 +4185,7 @@
       <c r="A45" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="76" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="13" t="str">
@@ -4633,8 +4650,8 @@
         <v>20</v>
       </c>
       <c r="N53" s="45" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="O53" s="46" t="s">
         <v>105</v>
@@ -4769,14 +4786,14 @@
       <formula>J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N55 N75:N1048576">
+  <conditionalFormatting sqref="N75:N1048576 N1:N55">
     <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>N1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
     <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
-      <formula>AND(N1=FALSE,K1="")</formula>
+      <formula>P1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4791,7 +4808,7 @@
   <dimension ref="A1:AZ133"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AK2" sqref="AK2"/>
@@ -26812,7 +26829,7 @@
       </c>
       <c r="G2" s="14" t="str">
         <f>IF(SETTINGS!G2&lt;&gt;"",SETTINGS!G2,"")</f>
-        <v/>
+        <v>Convertir directement</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>19</v>
@@ -27332,7 +27349,7 @@
       </c>
       <c r="B19" s="14" t="str">
         <f>IF(SETTINGS!B19&lt;&gt;"",SETTINGS!B19,"")</f>
-        <v>Hell's Paradise Jigokuraku</v>
+        <v>Hell's Paradise - Jigokuraku</v>
       </c>
       <c r="C19" s="14" t="str">
         <f>IF(SETTINGS!C19&lt;&gt;"",SETTINGS!C19,"")</f>

--- a/origin.xlsx
+++ b/origin.xlsx
@@ -8,28 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59718EBC-2567-4C49-B1AE-5CD6300F139A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2C3290-DC77-DE44-8297-FDEBEDA72B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19120" yWindow="880" windowWidth="16880" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTINGS" sheetId="1" r:id="rId1"/>
     <sheet name="UPDATE" sheetId="2" r:id="rId2"/>
-    <sheet name="update_date" sheetId="3" r:id="rId3"/>
-    <sheet name="COVER" sheetId="4" r:id="rId4"/>
-    <sheet name="readme" sheetId="5" r:id="rId5"/>
-    <sheet name="LIST" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
-    <sheet name="SETTINGS (save)" sheetId="8" state="hidden" r:id="rId8"/>
-    <sheet name="update_save" sheetId="9" state="hidden" r:id="rId9"/>
-    <sheet name="formule" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="COVER" sheetId="3" r:id="rId3"/>
+    <sheet name="readme" sheetId="4" r:id="rId4"/>
+    <sheet name="LIST" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="SETTINGS (save)" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="update_save" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="formule" sheetId="9" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">COVER!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SETTINGS!$A$1:$S$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'SETTINGS (save)'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">COVER!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SETTINGS!$A$1:$T$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'SETTINGS (save)'!$A$1:$Q$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UPDATE!$A$1:$AJ$99</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">update_save!$A$1:$AE$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">update_save!$A$1:$AE$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="291">
   <si>
     <t>Manga</t>
   </si>
@@ -99,7 +98,10 @@
     <t>in_update</t>
   </si>
   <si>
-    <t>update_date_monitor</t>
+    <t>update_monitor</t>
+  </si>
+  <si>
+    <t>chapt_origin</t>
   </si>
   <si>
     <t>Vol/Chapt source</t>
@@ -214,6 +216,9 @@
   </si>
   <si>
     <t>FMB</t>
+  </si>
+  <si>
+    <t>Fullmetal Alchemist</t>
   </si>
   <si>
     <t>Rename 108.6 et 108.7</t>
@@ -331,6 +336,9 @@
   </si>
   <si>
     <t>Mashle</t>
+  </si>
+  <si>
+    <t>MASHLE</t>
   </si>
   <si>
     <t>MHA</t>
@@ -474,28 +482,28 @@
     <t>Yu-Gi-Oh</t>
   </si>
   <si>
+    <t>DrStone</t>
+  </si>
+  <si>
+    <t>Dr. STONE</t>
+  </si>
+  <si>
     <t>Dr Stone</t>
   </si>
   <si>
-    <t>Dr. Stone</t>
-  </si>
-  <si>
-    <t>Trevenger</t>
+    <t>TRevenger</t>
   </si>
   <si>
     <t>Tokyo Revengers</t>
+  </si>
+  <si>
+    <t>Gantz</t>
   </si>
   <si>
     <t>Vol</t>
   </si>
   <si>
     <t>Fable</t>
-  </si>
-  <si>
-    <t>Gantz</t>
-  </si>
-  <si>
-    <t>update_date</t>
   </si>
   <si>
     <t>URL</t>
@@ -604,9 +612,6 @@
   </si>
   <si>
     <t>https://comicvine.gamespot.com/kimetsu-no-yaiba/4050-90821/</t>
-  </si>
-  <si>
-    <t>DrStone</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/dr-stone/4050-102513/</t>
@@ -1987,37 +1992,37 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="94" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="57" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.6640625" style="14" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" style="53" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="104" customWidth="1"/>
     <col min="9" max="10" width="10.83203125" style="105" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="87" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="87" customWidth="1"/>
     <col min="12" max="12" width="9.1640625" style="87" customWidth="1"/>
     <col min="13" max="13" width="12" style="87" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" style="99" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.5" style="100" customWidth="1"/>
     <col min="16" max="16" width="16" style="99" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.1640625" style="107" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.1640625" style="108" customWidth="1"/>
-    <col min="19" max="19" width="18.83203125" style="90" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.1640625" style="107" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.1640625" style="108" customWidth="1"/>
+    <col min="20" max="20" width="18.83203125" style="90" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2069,19 +2074,22 @@
       <c r="Q1" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="89" t="s">
+      <c r="R1" s="96" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="89" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A2,UPDATE!$1:$1,0),TRUE))=FALSE,H2=FALSE),L2,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A2,UPDATE!$1:$1,0))))</f>
@@ -2092,14 +2100,14 @@
         <v>F</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="14" t="str">
         <f t="shared" ref="F2:F33" si="1">IF(AND(OR(P2=TRUE,K2&lt;&gt;""),J2=TRUE),"✅","❌")</f>
         <v>✅</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="102" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH(SETTINGS!A2,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -2114,17 +2122,14 @@
         <v>1</v>
       </c>
       <c r="L2" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" s="97" t="b">
         <f t="shared" ref="N2:N33" si="2">IF(F2&lt;&gt;"",F2="✅","")</f>
         <v>1</v>
       </c>
       <c r="O2" s="98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A2,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2134,16 +2139,20 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R2" s="109" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R2" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A2,UPDATE!$1:$1,0))),NA())</f>
+        <v>249</v>
+      </c>
+      <c r="S2" s="109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A3,UPDATE!$1:$1,0),TRUE))=FALSE,H3=FALSE),L3,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A3,UPDATE!$1:$1,0))))</f>
@@ -2154,7 +2163,7 @@
         <v>F</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2173,17 +2182,14 @@
         <v>1</v>
       </c>
       <c r="L3" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" s="97" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O3" s="98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A3,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2193,14 +2199,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R3" s="90"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R3" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A3,UPDATE!$1:$1,0))),NA())</f>
+        <v>180</v>
+      </c>
+      <c r="S3" s="90"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A4,UPDATE!$1:$1,0),TRUE))=FALSE,H4=FALSE),L4,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A4,UPDATE!$1:$1,0))))</f>
@@ -2211,7 +2221,7 @@
         <v>45181</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2230,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="88">
         <v>45181</v>
@@ -2240,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A4,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2250,15 +2260,19 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R4" s="90"/>
-      <c r="S4" s="91"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R4" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A4,UPDATE!$1:$1,0))),NA())</f>
+        <v>368</v>
+      </c>
+      <c r="S4" s="90"/>
+      <c r="T4" s="91"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A5,UPDATE!$1:$1,0),TRUE))=FALSE,H5=FALSE),L5,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A5,UPDATE!$1:$1,0))))</f>
@@ -2269,7 +2283,7 @@
         <v>*</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2288,17 +2302,17 @@
         <v>1</v>
       </c>
       <c r="L5" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N5" s="97" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O5" s="98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P5" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A5,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2308,14 +2322,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R5" s="90"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R5" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A5,UPDATE!$1:$1,0))),NA())</f>
+        <v>373</v>
+      </c>
+      <c r="S5" s="90"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A6,UPDATE!$1:$1,0),TRUE))=FALSE,H6=FALSE),L6,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A6,UPDATE!$1:$1,0))))</f>
@@ -2326,14 +2344,14 @@
         <v>F</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="102" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH(SETTINGS!A6,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -2348,17 +2366,14 @@
         <v>1</v>
       </c>
       <c r="L6" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6" s="97" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O6" s="98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A6,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2368,14 +2383,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R6" s="90"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R6" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A6,UPDATE!$1:$1,0))),NA())</f>
+        <v>16</v>
+      </c>
+      <c r="S6" s="90"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A7,UPDATE!$1:$1,0),TRUE))=FALSE,H7=FALSE),L7,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A7,UPDATE!$1:$1,0))))</f>
@@ -2386,7 +2405,7 @@
         <v>F</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2405,17 +2424,14 @@
         <v>1</v>
       </c>
       <c r="L7" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N7" s="97" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O7" s="98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A7,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2425,14 +2441,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R7" s="90"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R7" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A7,UPDATE!$1:$1,0))),NA())</f>
+        <v>687</v>
+      </c>
+      <c r="S7" s="90"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A8,UPDATE!$1:$1,0),TRUE))=FALSE,H8=FALSE),L8,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A8,UPDATE!$1:$1,0))))</f>
@@ -2443,7 +2463,7 @@
         <v>45154</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2462,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M8" s="88">
         <v>45154</v>
@@ -2472,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P8" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A8,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2482,26 +2502,30 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R8" s="90"/>
-      <c r="S8" s="91"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R8" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A8,UPDATE!$1:$1,0))),NA())</f>
+        <v>228</v>
+      </c>
+      <c r="S8" s="90"/>
+      <c r="T8" s="91"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A9,UPDATE!$1:$1,0),TRUE))=FALSE,H9=FALSE),L9,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A9,UPDATE!$1:$1,0))))</f>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D9" s="19">
         <f t="shared" si="0"/>
         <v>45181</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2520,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M9" s="88">
         <v>45181</v>
@@ -2530,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P9" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A9,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2540,15 +2564,19 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R9" s="90"/>
-      <c r="S9" s="91"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R9" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A9,UPDATE!$1:$1,0))),NA())</f>
+        <v>141</v>
+      </c>
+      <c r="S9" s="90"/>
+      <c r="T9" s="91"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A10,UPDATE!$1:$1,0),TRUE))=FALSE,H10=FALSE),L10,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A10,UPDATE!$1:$1,0))))</f>
@@ -2559,7 +2587,7 @@
         <v>45181</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2578,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M10" s="88">
         <v>45181</v>
@@ -2588,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P10" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A10,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2598,15 +2626,19 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R10" s="90"/>
-      <c r="S10" s="91"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R10" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A10,UPDATE!$1:$1,0))),NA())</f>
+        <v>41</v>
+      </c>
+      <c r="S10" s="90"/>
+      <c r="T10" s="91"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A11,UPDATE!$1:$1,0),TRUE))=FALSE,H11=FALSE),L11,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A11,UPDATE!$1:$1,0))))</f>
@@ -2617,14 +2649,14 @@
         <v>45140</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" s="102" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH(SETTINGS!A11,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -2639,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M11" s="88">
         <v>45140</v>
@@ -2649,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P11" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A11,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2659,14 +2691,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R11" s="90"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R11" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A11,UPDATE!$1:$1,0))),NA())</f>
+        <v>1118</v>
+      </c>
+      <c r="S11" s="90"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A12,UPDATE!$1:$1,0),TRUE))=FALSE,H12=FALSE),L12,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A12,UPDATE!$1:$1,0))))</f>
@@ -2677,7 +2713,7 @@
         <v>F</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2696,17 +2732,14 @@
         <v>1</v>
       </c>
       <c r="L12" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N12" s="97" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O12" s="98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P12" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A12,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2716,17 +2749,21 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R12" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A12,UPDATE!$1:$1,0))),NA())</f>
+        <v>520</v>
+      </c>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A13,UPDATE!$1:$1,0),TRUE))=FALSE,H13=FALSE),L13,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A13,UPDATE!$1:$1,0))))</f>
@@ -2737,14 +2774,14 @@
         <v>*</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" s="102" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH(SETTINGS!A13,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -2759,17 +2796,17 @@
         <v>1</v>
       </c>
       <c r="L13" s="87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M13" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N13" s="97" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O13" s="98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A13,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2779,14 +2816,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R13" s="90"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R13" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A13,UPDATE!$1:$1,0))),NA())</f>
+        <v>89</v>
+      </c>
+      <c r="S13" s="90"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A14,UPDATE!$1:$1,0),TRUE))=FALSE,H14=FALSE),L14,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A14,UPDATE!$1:$1,0))))</f>
@@ -2797,7 +2838,7 @@
         <v>45154</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2816,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M14" s="88">
         <v>45154</v>
@@ -2826,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A14,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2836,13 +2877,19 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R14" s="90"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A14,UPDATE!$1:$1,0))),NA())</f>
+        <v>304</v>
+      </c>
+      <c r="S14" s="90"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="34"/>
+        <v>55</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="C15" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A15,UPDATE!$1:$1,0),TRUE))=FALSE,H15=FALSE),L15,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A15,UPDATE!$1:$1,0))))</f>
         <v>F</v>
@@ -2852,14 +2899,14 @@
         <v>F</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
         <v>❌</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H15" s="102" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH(SETTINGS!A15,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -2874,17 +2921,14 @@
         <v>1</v>
       </c>
       <c r="L15" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N15" s="97" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O15" s="98" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P15" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A15,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2894,14 +2938,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R15" s="90"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R15" s="106" t="e">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A15,UPDATE!$1:$1,0))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S15" s="90"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A16,UPDATE!$1:$1,0),TRUE))=FALSE,H16=FALSE),L16,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A16,UPDATE!$1:$1,0))))</f>
@@ -2912,7 +2960,7 @@
         <v>F</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2931,17 +2979,14 @@
         <v>1</v>
       </c>
       <c r="L16" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N16" s="97" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O16" s="98" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P16" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A16,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -2951,14 +2996,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R16" s="90"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R16" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A16,UPDATE!$1:$1,0))),NA())</f>
+        <v>194</v>
+      </c>
+      <c r="S16" s="90"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A17,UPDATE!$1:$1,0),TRUE))=FALSE,H17=FALSE),L17,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A17,UPDATE!$1:$1,0))))</f>
@@ -2969,7 +3018,7 @@
         <v>F</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2988,17 +3037,14 @@
         <v>1</v>
       </c>
       <c r="L17" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N17" s="97" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O17" s="98" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P17" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A17,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3008,14 +3054,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R17" s="90"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R17" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A17,UPDATE!$1:$1,0))),NA())</f>
+        <v>704</v>
+      </c>
+      <c r="S17" s="90"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C18" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A18,UPDATE!$1:$1,0),TRUE))=FALSE,H18=FALSE),L18,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A18,UPDATE!$1:$1,0))))</f>
@@ -3026,7 +3076,7 @@
         <v>F</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F18" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3048,17 +3098,14 @@
         <v>25</v>
       </c>
       <c r="L18" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N18" s="97" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O18" s="98" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A18,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3068,14 +3115,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R18" s="90"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R18" s="106" t="e">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A18,UPDATE!$1:$1,0))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S18" s="90"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A19,UPDATE!$1:$1,0),TRUE))=FALSE,H19=FALSE),L19,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A19,UPDATE!$1:$1,0))))</f>
@@ -3086,7 +3137,7 @@
         <v>F</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3105,17 +3156,14 @@
         <v>1</v>
       </c>
       <c r="L19" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N19" s="97" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O19" s="98" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A19,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3125,14 +3173,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R19" s="90"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R19" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A19,UPDATE!$1:$1,0))),NA())</f>
+        <v>127</v>
+      </c>
+      <c r="S19" s="90"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C20" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A20,UPDATE!$1:$1,0),TRUE))=FALSE,H20=FALSE),L20,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A20,UPDATE!$1:$1,0))))</f>
@@ -3143,7 +3195,7 @@
         <v>45154</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3162,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M20" s="88">
         <v>45154</v>
@@ -3172,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="98" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P20" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A20,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3182,14 +3234,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R20" s="90"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R20" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A20,UPDATE!$1:$1,0))),NA())</f>
+        <v>400</v>
+      </c>
+      <c r="S20" s="90"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A21,UPDATE!$1:$1,0),TRUE))=FALSE,H21=FALSE),L21,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A21,UPDATE!$1:$1,0))))</f>
@@ -3200,7 +3256,7 @@
         <v>F</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3219,17 +3275,14 @@
         <v>1</v>
       </c>
       <c r="L21" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N21" s="97" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O21" s="98" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P21" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A21,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3239,11 +3292,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R21" s="90"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R21" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A21,UPDATE!$1:$1,0))),NA())</f>
+        <v>206</v>
+      </c>
+      <c r="S21" s="90"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="94" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>71</v>
       </c>
       <c r="C22" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A22,UPDATE!$1:$1,0),TRUE))=FALSE,H22=FALSE),L22,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A22,UPDATE!$1:$1,0))))</f>
@@ -3254,7 +3314,7 @@
         <v>*</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F22" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3273,17 +3333,17 @@
         <v>1</v>
       </c>
       <c r="L22" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M22" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N22" s="97" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O22" s="98" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P22" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A22,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3293,14 +3353,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R22" s="90"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R22" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A22,UPDATE!$1:$1,0))),NA())</f>
+        <v>41</v>
+      </c>
+      <c r="S22" s="90"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A23,UPDATE!$1:$1,0),TRUE))=FALSE,H23=FALSE),L23,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A23,UPDATE!$1:$1,0))))</f>
@@ -3311,7 +3375,7 @@
         <v>45154</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3330,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M23" s="88">
         <v>45154</v>
@@ -3340,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="98" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P23" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A23,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3350,15 +3414,19 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R23" s="90"/>
-      <c r="S23" s="91"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R23" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A23,UPDATE!$1:$1,0))),NA())</f>
+        <v>235</v>
+      </c>
+      <c r="S23" s="90"/>
+      <c r="T23" s="91"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A24,UPDATE!$1:$1,0),TRUE))=FALSE,H24=FALSE),L24,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A24,UPDATE!$1:$1,0))))</f>
@@ -3369,7 +3437,7 @@
         <v>F</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3388,17 +3456,14 @@
         <v>1</v>
       </c>
       <c r="L24" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N24" s="97" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O24" s="98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P24" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A24,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3408,14 +3473,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R24" s="90"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R24" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A24,UPDATE!$1:$1,0))),NA())</f>
+        <v>44</v>
+      </c>
+      <c r="S24" s="90"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A25,UPDATE!$1:$1,0),TRUE))=FALSE,H25=FALSE),L25,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A25,UPDATE!$1:$1,0))))</f>
@@ -3426,7 +3495,7 @@
         <v>F</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3445,17 +3514,14 @@
         <v>0</v>
       </c>
       <c r="L25" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N25" s="97" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O25" s="98" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P25" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A25,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3465,14 +3531,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R25" s="90"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R25" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A25,UPDATE!$1:$1,0))),NA())</f>
+        <v>113</v>
+      </c>
+      <c r="S25" s="90"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="34" t="s">
         <v>75</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>73</v>
       </c>
       <c r="C26" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A26,UPDATE!$1:$1,0),TRUE))=FALSE,H26=FALSE),L26,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A26,UPDATE!$1:$1,0))))</f>
@@ -3483,7 +3553,7 @@
         <v>F</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3502,17 +3572,14 @@
         <v>0</v>
       </c>
       <c r="L26" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N26" s="97" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O26" s="98" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P26" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A26,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3522,14 +3589,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R26" s="90"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R26" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A26,UPDATE!$1:$1,0))),NA())</f>
+        <v>265</v>
+      </c>
+      <c r="S26" s="90"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C27" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A27,UPDATE!$1:$1,0),TRUE))=FALSE,H27=FALSE),L27,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A27,UPDATE!$1:$1,0))))</f>
@@ -3540,7 +3611,7 @@
         <v>F</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3559,17 +3630,14 @@
         <v>0</v>
       </c>
       <c r="L27" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N27" s="97" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O27" s="98" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P27" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A27,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3579,14 +3647,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R27" s="90"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R27" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A27,UPDATE!$1:$1,0))),NA())</f>
+        <v>439</v>
+      </c>
+      <c r="S27" s="90"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C28" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A28,UPDATE!$1:$1,0),TRUE))=FALSE,H28=FALSE),L28,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A28,UPDATE!$1:$1,0))))</f>
@@ -3597,14 +3669,14 @@
         <v>F</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28" s="14" t="str">
         <f t="shared" si="1"/>
         <v>❌</v>
       </c>
       <c r="G28" s="53" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H28" s="102" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH(SETTINGS!A28,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -3619,17 +3691,14 @@
         <v>0</v>
       </c>
       <c r="L28" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N28" s="97" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O28" s="98" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P28" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A28,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3639,14 +3708,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R28" s="90"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R28" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A28,UPDATE!$1:$1,0))),NA())</f>
+        <v>594</v>
+      </c>
+      <c r="S28" s="90"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C29" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A29,UPDATE!$1:$1,0),TRUE))=FALSE,H29=FALSE),L29,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A29,UPDATE!$1:$1,0))))</f>
@@ -3657,7 +3730,7 @@
         <v>F</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F29" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3676,17 +3749,14 @@
         <v>1</v>
       </c>
       <c r="L29" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N29" s="97" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O29" s="98" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P29" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A29,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3696,14 +3766,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R29" s="90"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R29" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A29,UPDATE!$1:$1,0))),NA())</f>
+        <v>158</v>
+      </c>
+      <c r="S29" s="90"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C30" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A30,UPDATE!$1:$1,0),TRUE))=FALSE,H30=FALSE),L30,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A30,UPDATE!$1:$1,0))))</f>
@@ -3714,7 +3788,7 @@
         <v>F</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F30" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3733,17 +3807,14 @@
         <v>1</v>
       </c>
       <c r="L30" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N30" s="97" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O30" s="98" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P30" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A30,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3753,14 +3824,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R30" s="90"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R30" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A30,UPDATE!$1:$1,0))),NA())</f>
+        <v>95</v>
+      </c>
+      <c r="S30" s="90"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C31" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A31,UPDATE!$1:$1,0),TRUE))=FALSE,H31=FALSE),L31,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A31,UPDATE!$1:$1,0))))</f>
@@ -3771,7 +3846,7 @@
         <v>F</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F31" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3790,17 +3865,14 @@
         <v>1</v>
       </c>
       <c r="L31" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N31" s="97" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O31" s="98" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P31" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A31,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3810,14 +3882,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R31" s="90"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R31" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A31,UPDATE!$1:$1,0))),NA())</f>
+        <v>110</v>
+      </c>
+      <c r="S31" s="90"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C32" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A32,UPDATE!$1:$1,0),TRUE))=FALSE,H32=FALSE),L32,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A32,UPDATE!$1:$1,0))))</f>
@@ -3828,7 +3904,7 @@
         <v>45154</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F32" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3847,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M32" s="88">
         <v>45154</v>
@@ -3857,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="98" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P32" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A32,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3867,14 +3943,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R32" s="90"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R32" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A32,UPDATE!$1:$1,0))),NA())</f>
+        <v>7</v>
+      </c>
+      <c r="S32" s="90"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C33" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A33,UPDATE!$1:$1,0),TRUE))=FALSE,H33=FALSE),L33,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A33,UPDATE!$1:$1,0))))</f>
@@ -3885,7 +3965,7 @@
         <v>45154</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3904,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M33" s="88">
         <v>45154</v>
@@ -3914,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="O33" s="98" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P33" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A33,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3924,28 +4004,32 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R33" s="90"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R33" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A33,UPDATE!$1:$1,0))),NA())</f>
+        <v>92</v>
+      </c>
+      <c r="S33" s="90"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C34" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A34,UPDATE!$1:$1,0),TRUE))=FALSE,H34=FALSE),L34,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A34,UPDATE!$1:$1,0))))</f>
         <v>*</v>
       </c>
       <c r="D34" s="19">
-        <f t="shared" ref="D34:D60" si="3">IF(C34="F","F",M34)</f>
+        <f t="shared" ref="D34:D65" si="3">IF(C34="F","F",M34)</f>
         <v>45154</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F34" s="14" t="str">
-        <f t="shared" ref="F34:F60" si="4">IF(AND(OR(P34=TRUE,K34&lt;&gt;""),J34=TRUE),"✅","❌")</f>
+        <f t="shared" ref="F34:F61" si="4">IF(AND(OR(P34=TRUE,K34&lt;&gt;""),J34=TRUE),"✅","❌")</f>
         <v>❌</v>
       </c>
       <c r="H34" s="102" t="b">
@@ -3961,7 +4045,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M34" s="88">
         <v>45154</v>
@@ -3971,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="98" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P34" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A34,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -3981,14 +4065,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R34" s="90"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R34" s="106" t="e">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A34,UPDATE!$1:$1,0))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S34" s="90"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C35" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A35,UPDATE!$1:$1,0),TRUE))=FALSE,H35=FALSE),L35,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A35,UPDATE!$1:$1,0))))</f>
@@ -3999,7 +4087,7 @@
         <v>F</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F35" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4018,17 +4106,14 @@
         <v>1</v>
       </c>
       <c r="L35" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N35" s="97" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O35" s="98" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P35" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A35,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4038,14 +4123,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R35" s="90"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R35" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A35,UPDATE!$1:$1,0))),NA())</f>
+        <v>275</v>
+      </c>
+      <c r="S35" s="90"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C36" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A36,UPDATE!$1:$1,0),TRUE))=FALSE,H36=FALSE),L36,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A36,UPDATE!$1:$1,0))))</f>
@@ -4056,7 +4145,7 @@
         <v>45140</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F36" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4075,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M36" s="88">
         <v>45140</v>
@@ -4085,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="O36" s="98" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P36" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A36,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4095,14 +4184,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R36" s="90"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R36" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A36,UPDATE!$1:$1,0))),NA())</f>
+        <v>162</v>
+      </c>
+      <c r="S36" s="90"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="34" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C37" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A37,UPDATE!$1:$1,0),TRUE))=FALSE,H37=FALSE),L37,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A37,UPDATE!$1:$1,0))))</f>
@@ -4113,7 +4206,7 @@
         <v>45154</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F37" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4132,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M37" s="88">
         <v>45154</v>
@@ -4142,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="O37" s="98" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P37" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A37,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4152,17 +4245,21 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R37" s="90"/>
-      <c r="S37" s="90" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R37" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A37,UPDATE!$1:$1,0))),NA())</f>
+        <v>399</v>
+      </c>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="34" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C38" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A38,UPDATE!$1:$1,0),TRUE))=FALSE,H38=FALSE),L38,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A38,UPDATE!$1:$1,0))))</f>
@@ -4173,7 +4270,7 @@
         <v>F</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F38" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4192,17 +4289,14 @@
         <v>1</v>
       </c>
       <c r="L38" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M38" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N38" s="97" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O38" s="98" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P38" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A38,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4212,14 +4306,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R38" s="90"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R38" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A38,UPDATE!$1:$1,0))),NA())</f>
+        <v>101</v>
+      </c>
+      <c r="S38" s="90"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C39" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A39,UPDATE!$1:$1,0),TRUE))=FALSE,H39=FALSE),L39,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A39,UPDATE!$1:$1,0))))</f>
@@ -4230,7 +4328,7 @@
         <v>F</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F39" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4249,17 +4347,14 @@
         <v>1</v>
       </c>
       <c r="L39" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N39" s="97" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O39" s="98" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P39" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A39,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4269,14 +4364,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R39" s="90"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R39" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A39,UPDATE!$1:$1,0))),NA())</f>
+        <v>162</v>
+      </c>
+      <c r="S39" s="90"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="94" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C40" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A40,UPDATE!$1:$1,0),TRUE))=FALSE,H40=FALSE),L40,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A40,UPDATE!$1:$1,0))))</f>
@@ -4287,7 +4386,7 @@
         <v>F</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F40" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4306,17 +4405,14 @@
         <v>1</v>
       </c>
       <c r="L40" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N40" s="97" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O40" s="98" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P40" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A40,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4326,14 +4422,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R40" s="90"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R40" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A40,UPDATE!$1:$1,0))),NA())</f>
+        <v>193</v>
+      </c>
+      <c r="S40" s="90"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="94" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C41" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A41,UPDATE!$1:$1,0),TRUE))=FALSE,H41=FALSE),L41,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A41,UPDATE!$1:$1,0))))</f>
@@ -4344,7 +4444,7 @@
         <v>45154</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F41" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4363,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M41" s="88">
         <v>45154</v>
@@ -4373,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="98" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P41" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A41,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4383,14 +4483,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R41" s="90"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R41" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A41,UPDATE!$1:$1,0))),NA())</f>
+        <v>76</v>
+      </c>
+      <c r="S41" s="90"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C42" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A42,UPDATE!$1:$1,0),TRUE))=FALSE,H42=FALSE),L42,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A42,UPDATE!$1:$1,0))))</f>
@@ -4401,7 +4505,7 @@
         <v>F</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F42" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4420,17 +4524,14 @@
         <v>1</v>
       </c>
       <c r="L42" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M42" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N42" s="97" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O42" s="98" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P42" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A42,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4440,14 +4541,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R42" s="90"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R42" s="106" t="e">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A42,UPDATE!$1:$1,0))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S42" s="90"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C43" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A43,UPDATE!$1:$1,0),TRUE))=FALSE,H43=FALSE),L43,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A43,UPDATE!$1:$1,0))))</f>
@@ -4458,7 +4563,7 @@
         <v>F</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F43" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4477,17 +4582,14 @@
         <v>1</v>
       </c>
       <c r="L43" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M43" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N43" s="97" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O43" s="98" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P43" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A43,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4497,14 +4599,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R43" s="90"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R43" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A43,UPDATE!$1:$1,0))),NA())</f>
+        <v>346</v>
+      </c>
+      <c r="S43" s="90"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="34" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C44" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A44,UPDATE!$1:$1,0),TRUE))=FALSE,H44=FALSE),L44,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A44,UPDATE!$1:$1,0))))</f>
@@ -4515,7 +4621,7 @@
         <v>45154</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F44" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4534,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M44" s="88">
         <v>45154</v>
@@ -4544,7 +4650,7 @@
         <v>1</v>
       </c>
       <c r="O44" s="98" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P44" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A44,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4554,14 +4660,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R44" s="90"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R44" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A44,UPDATE!$1:$1,0))),NA())</f>
+        <v>1091</v>
+      </c>
+      <c r="S44" s="90"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C45" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A45,UPDATE!$1:$1,0),TRUE))=FALSE,H45=FALSE),L45,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A45,UPDATE!$1:$1,0))))</f>
@@ -4572,7 +4682,7 @@
         <v>45140</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F45" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4591,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M45" s="88">
         <v>45140</v>
@@ -4601,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="98" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P45" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A45,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4611,14 +4721,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R45" s="90"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R45" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A45,UPDATE!$1:$1,0))),NA())</f>
+        <v>189</v>
+      </c>
+      <c r="S45" s="90"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="34" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C46" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A46,UPDATE!$1:$1,0),TRUE))=FALSE,H46=FALSE),L46,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A46,UPDATE!$1:$1,0))))</f>
@@ -4629,7 +4743,7 @@
         <v>45154</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F46" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4648,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M46" s="88">
         <v>45154</v>
@@ -4658,7 +4772,7 @@
         <v>1</v>
       </c>
       <c r="O46" s="98" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P46" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A46,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4668,15 +4782,19 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R46" s="90"/>
-      <c r="S46" s="91"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R46" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A46,UPDATE!$1:$1,0))),NA())</f>
+        <v>134</v>
+      </c>
+      <c r="S46" s="90"/>
+      <c r="T46" s="91"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="94" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C47" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A47,UPDATE!$1:$1,0),TRUE))=FALSE,H47=FALSE),L47,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A47,UPDATE!$1:$1,0))))</f>
@@ -4687,7 +4805,7 @@
         <v>F</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F47" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4706,17 +4824,14 @@
         <v>1</v>
       </c>
       <c r="L47" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M47" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N47" s="97" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O47" s="98" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P47" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A47,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4726,14 +4841,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R47" s="90"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R47" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A47,UPDATE!$1:$1,0))),NA())</f>
+        <v>266</v>
+      </c>
+      <c r="S47" s="90"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C48" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A48,UPDATE!$1:$1,0),TRUE))=FALSE,H48=FALSE),L48,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A48,UPDATE!$1:$1,0))))</f>
@@ -4744,7 +4863,7 @@
         <v>F</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F48" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4763,17 +4882,14 @@
         <v>1</v>
       </c>
       <c r="L48" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M48" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N48" s="97" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O48" s="98" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P48" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A48,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4783,11 +4899,15 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R48" s="90"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="106" t="e">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A48,UPDATE!$1:$1,0))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S48" s="90"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="94" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C49" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A49,UPDATE!$1:$1,0),TRUE))=FALSE,H49=FALSE),L49,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A49,UPDATE!$1:$1,0))))</f>
@@ -4798,7 +4918,7 @@
         <v>*</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F49" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4817,17 +4937,17 @@
         <v>1</v>
       </c>
       <c r="L49" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M49" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N49" s="97" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O49" s="98" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P49" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A49,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4837,14 +4957,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R49" s="90"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R49" s="106" t="e">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A49,UPDATE!$1:$1,0))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S49" s="90"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="34" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C50" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A50,UPDATE!$1:$1,0),TRUE))=FALSE,H50=FALSE),L50,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A50,UPDATE!$1:$1,0))))</f>
@@ -4855,7 +4979,7 @@
         <v>F</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F50" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4874,17 +4998,14 @@
         <v>1</v>
       </c>
       <c r="L50" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N50" s="97" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O50" s="98" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P50" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A50,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4894,14 +5015,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R50" s="90"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R50" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A50,UPDATE!$1:$1,0))),NA())</f>
+        <v>139</v>
+      </c>
+      <c r="S50" s="90"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="34" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C51" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A51,UPDATE!$1:$1,0),TRUE))=FALSE,H51=FALSE),L51,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A51,UPDATE!$1:$1,0))))</f>
@@ -4912,7 +5037,7 @@
         <v>45140</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F51" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4931,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M51" s="88">
         <v>45140</v>
@@ -4941,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="O51" s="98" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P51" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A51,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -4951,14 +5076,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R51" s="90"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R51" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A51,UPDATE!$1:$1,0))),NA())</f>
+        <v>85</v>
+      </c>
+      <c r="S51" s="90"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="34" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C52" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A52,UPDATE!$1:$1,0),TRUE))=FALSE,H52=FALSE),L52,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A52,UPDATE!$1:$1,0))))</f>
@@ -4969,7 +5098,7 @@
         <v>x</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F52" s="14" t="str">
         <f t="shared" si="4"/>
@@ -4988,17 +5117,17 @@
         <v>0</v>
       </c>
       <c r="L52" s="87" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M52" s="87" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N52" s="97" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O52" s="98" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P52" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A52,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -5008,14 +5137,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R52" s="90"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R52" s="106" t="e">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A52,UPDATE!$1:$1,0))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S52" s="90"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="34" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C53" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A53,UPDATE!$1:$1,0),TRUE))=FALSE,H53=FALSE),L53,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A53,UPDATE!$1:$1,0))))</f>
@@ -5026,7 +5159,7 @@
         <v>*</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F53" s="14" t="str">
         <f t="shared" si="4"/>
@@ -5045,17 +5178,17 @@
         <v>1</v>
       </c>
       <c r="L53" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M53" s="87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N53" s="97" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O53" s="98" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P53" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A53,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -5065,14 +5198,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R53" s="90"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R53" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A53,UPDATE!$1:$1,0))),NA())</f>
+        <v>104</v>
+      </c>
+      <c r="S53" s="90"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="34" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C54" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A54,UPDATE!$1:$1,0),TRUE))=FALSE,H54=FALSE),L54,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A54,UPDATE!$1:$1,0))))</f>
@@ -5083,7 +5220,7 @@
         <v>F</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F54" s="14" t="str">
         <f t="shared" si="4"/>
@@ -5102,17 +5239,14 @@
         <v>1</v>
       </c>
       <c r="L54" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M54" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N54" s="97" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O54" s="98" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P54" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A54,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -5122,14 +5256,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R54" s="90"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R54" s="106" t="e">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A54,UPDATE!$1:$1,0))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S54" s="90"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="34" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C55" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A55,UPDATE!$1:$1,0),TRUE))=FALSE,H55=FALSE),L55,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A55,UPDATE!$1:$1,0))))</f>
@@ -5140,7 +5278,7 @@
         <v>F</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F55" s="14" t="str">
         <f t="shared" si="4"/>
@@ -5159,17 +5297,14 @@
         <v>1</v>
       </c>
       <c r="L55" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M55" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N55" s="97" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O55" s="98" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P55" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A55,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -5179,14 +5314,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R55" s="90"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R55" s="106" t="e">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A55,UPDATE!$1:$1,0))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S55" s="90"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="34" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C56" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A56,UPDATE!$1:$1,0),TRUE))=FALSE,H56=FALSE),L56,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A56,UPDATE!$1:$1,0))))</f>
@@ -5197,7 +5336,7 @@
         <v>F</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F56" s="14" t="str">
         <f t="shared" si="4"/>
@@ -5219,17 +5358,14 @@
         <v>37</v>
       </c>
       <c r="L56" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M56" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N56" s="97" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O56" s="98" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P56" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A56,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -5239,14 +5375,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R56" s="90"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R56" s="106" t="e">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A56,UPDATE!$1:$1,0))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S56" s="90"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="34" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C57" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A57,UPDATE!$1:$1,0),TRUE))=FALSE,H57=FALSE),L57,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A57,UPDATE!$1:$1,0))))</f>
@@ -5257,7 +5397,7 @@
         <v>45154</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F57" s="14" t="str">
         <f t="shared" si="4"/>
@@ -5276,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="87" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M57" s="88">
         <v>45154</v>
@@ -5286,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="98" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P57" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A57,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -5296,14 +5436,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R57" s="90"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R57" s="106" t="e">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A57,UPDATE!$1:$1,0))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S57" s="90"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="34" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C58" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A58,UPDATE!$1:$1,0),TRUE))=FALSE,H58=FALSE),L58,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A58,UPDATE!$1:$1,0))))</f>
@@ -5314,14 +5458,14 @@
         <v>F</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F58" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G58" s="53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H58" s="102" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH(SETTINGS!A58,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -5329,24 +5473,24 @@
       </c>
       <c r="I58" s="103">
         <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$BF$200,,MATCH(A58,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$BF,,MATCH(A58,UPDATE!$1:$1,0)),0)),K58)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J58" s="103" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A58,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
         <v>1</v>
       </c>
+      <c r="K58" s="87">
+        <v>19</v>
+      </c>
       <c r="L58" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M58" s="87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N58" s="97" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="O58" s="98" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P58" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A58,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -5356,14 +5500,18 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="R58" s="90"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="106" t="e">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A58,UPDATE!$1:$1,0))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S58" s="90"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="94" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C59" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A59,UPDATE!$1:$1,0),TRUE))=FALSE,H59=FALSE),L59,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A59,UPDATE!$1:$1,0))))</f>
@@ -5374,7 +5522,7 @@
         <v>45154</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F59" s="14" t="str">
         <f t="shared" si="4"/>
@@ -5390,10 +5538,10 @@
       </c>
       <c r="J59" s="103" t="b">
         <f>IFERROR(IF(MATCH(SETTINGS!A59,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="87" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M59" s="88">
         <v>45154</v>
@@ -5403,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="98" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P59" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A59,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -5413,14 +5561,18 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R59" s="90"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R59" s="106" t="e">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A59,UPDATE!$1:$1,0))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S59" s="90"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="94" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C60" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A60,UPDATE!$1:$1,0),TRUE))=FALSE,H60=FALSE),L60,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A60,UPDATE!$1:$1,0))))</f>
@@ -5431,7 +5583,7 @@
         <v>45154</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F60" s="14" t="str">
         <f t="shared" si="4"/>
@@ -5450,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="87" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M60" s="88">
         <v>45154</v>
@@ -5460,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="98" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P60" s="97" t="b">
         <f>IF(IFERROR(HLOOKUP(A60,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -5470,11 +5622,73 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="R60" s="90"/>
+      <c r="R60" s="106" t="e">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A60,UPDATE!$1:$1,0))),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S60" s="90"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="13" t="str">
+        <f>IF(OR(ISNUMBER(IFERROR(MATCH(A61,UPDATE!$1:$1,0),TRUE))=FALSE,H61=FALSE),L61,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A61,UPDATE!$1:$1,0))))</f>
+        <v>F</v>
+      </c>
+      <c r="D61" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>✅</v>
+      </c>
+      <c r="H61" s="102" t="b">
+        <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH(SETTINGS!A61,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="103">
+        <f>IFERROR(INDEX(UPDATE!A:A,MATCH(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A$3:$BF$200,,MATCH(A61,UPDATE!$1:$1,0))),INDEX(UPDATE!$A:$BF,,MATCH(A61,UPDATE!$1:$1,0)),0)),K61)</f>
+        <v>37</v>
+      </c>
+      <c r="J61" s="103" t="b">
+        <f>IFERROR(IF(MATCH(SETTINGS!A61,COVER!$A:$A,0),TRUE,FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L61" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="M61" s="88"/>
+      <c r="N61" s="97" t="b">
+        <f>IF(F61&lt;&gt;"",F61="✅","")</f>
+        <v>1</v>
+      </c>
+      <c r="O61" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="P61" s="97" t="b">
+        <f>IF(IFERROR(HLOOKUP(A61,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q61" s="106" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="R61" s="106">
+        <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A61,UPDATE!$1:$1,0))),NA())</f>
+        <v>383</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S60" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S58">
+  <autoFilter ref="A1:T60" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T58">
       <sortCondition ref="A1:A58"/>
     </sortState>
   </autoFilter>
@@ -5498,7 +5712,7 @@
       <formula>J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N60 N80:N1048576">
+  <conditionalFormatting sqref="N1:N61 N80:N1048576">
     <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>N1=TRUE</formula>
     </cfRule>
@@ -5506,271 +5720,14 @@
       <formula>N1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:Q1048576">
+  <conditionalFormatting sqref="P1:R1048576">
     <cfRule type="expression" dxfId="8" priority="1">
       <formula>P1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="B3:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF94" sqref="AF94"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="5" width="10.83203125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="3" t="str">
-        <f>CHAR(64+26)</f>
-        <v>Z</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f t="shared" ref="C5:C17" si="0">SUBSTITUTE(ADDRESS(1, B5, 4), "1", "")</f>
-        <v>N</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" ref="D5:D17" si="1">MOD(B5,26)</f>
-        <v>14</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" ref="E5:E17" si="2">(B5-D5)/26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Z</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>AA</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>AQ</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
-        <v>412</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>OV</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
-        <v>676</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>YZ</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
-        <v>677</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ZA</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
-        <v>678</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ZB</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
-        <v>702</v>
-      </c>
-      <c r="C13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ZZ</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
-        <v>703</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>AAA</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
-        <v>704</v>
-      </c>
-      <c r="C15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>AAB</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
-        <f>12+43*26</f>
-        <v>1130</v>
-      </c>
-      <c r="C16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>AQL</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>AQ</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5783,10 +5740,10 @@
   <dimension ref="A1:BF133"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV2" sqref="AV2"/>
+      <selection pane="bottomRight" activeCell="AB93" sqref="AB93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5798,154 +5755,154 @@
     <col min="36" max="36" width="10.83203125" style="81" customWidth="1"/>
     <col min="37" max="57" width="10.83203125" style="3" customWidth="1"/>
     <col min="58" max="58" width="10.83203125" style="82" customWidth="1"/>
-    <col min="59" max="92" width="10.83203125" style="3" customWidth="1"/>
-    <col min="93" max="16384" width="10.83203125" style="3"/>
+    <col min="59" max="93" width="10.83203125" style="3" customWidth="1"/>
+    <col min="94" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="72" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B1" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="X1" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA1" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB1" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG1" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH1" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ1" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK1" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL1" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM1" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="P1" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="U1" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="V1" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="W1" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="X1" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" s="75" t="s">
+      <c r="AO1" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="Z1" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA1" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB1" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC1" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE1" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF1" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG1" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH1" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI1" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ1" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK1" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL1" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM1" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN1" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="52" t="s">
-        <v>102</v>
-      </c>
       <c r="AP1" s="52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ1" s="54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AR1" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AS1" s="58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AT1" s="62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AU1" s="62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AV1" s="111" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW1" s="92"/>
       <c r="BF1" s="77"/>
@@ -5979,7 +5936,7 @@
         <v>1091</v>
       </c>
       <c r="J2" s="65">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K2" s="65">
         <v>189</v>
@@ -23197,7 +23154,7 @@
         <v>#N/A</v>
       </c>
       <c r="AB92" s="3">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AC92" s="3">
         <v>367</v>
@@ -27308,7 +27265,7 @@
         <v>226</v>
       </c>
       <c r="AL115" s="3">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AM115" s="3" t="e">
         <f>NA()</f>
@@ -30170,41 +30127,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30218,661 +30146,661 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" t="s">
-        <v>228</v>
+        <v>103</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B63" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B66" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B67" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B70" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B72" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B74" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B81">
-      <sortCondition ref="A1:A81"/>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B82">
+      <sortCondition ref="A1:A82"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:B60 A61 A62:B77 A78 A79:B1048576">
@@ -30891,18 +30819,19 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B42" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="B46" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="B50" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="B64" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B26" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B42" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B46" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B50" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B59" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B64" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
@@ -30985,10 +30914,10 @@
         <v>Convertir directement</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -31021,10 +30950,10 @@
         <v/>
       </c>
       <c r="I3" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -31057,10 +30986,10 @@
         <v/>
       </c>
       <c r="I4" s="28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -31093,10 +31022,10 @@
         <v/>
       </c>
       <c r="I5" s="28" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -31129,10 +31058,10 @@
         <v>/!\ Créer dossier Berserk_prologue &amp; déplacer Prologue du dossier Berserk</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -31206,7 +31135,7 @@
       </c>
       <c r="C9" s="14">
         <f>IF(SETTINGS!C9&lt;&gt;"",SETTINGS!C9,"")</f>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D9" s="24">
         <f>IF(SETTINGS!D9&lt;&gt;"",SETTINGS!D9,"")</f>
@@ -31382,7 +31311,7 @@
       </c>
       <c r="B15" s="14" t="str">
         <f>IF(SETTINGS!B15&lt;&gt;"",SETTINGS!B15,"")</f>
-        <v/>
+        <v>Fullmetal Alchemist</v>
       </c>
       <c r="C15" s="14" t="str">
         <f>IF(SETTINGS!C15&lt;&gt;"",SETTINGS!C15,"")</f>
@@ -31592,7 +31521,7 @@
       </c>
       <c r="B22" s="14" t="str">
         <f>IF(SETTINGS!B22&lt;&gt;"",SETTINGS!B22,"")</f>
-        <v/>
+        <v>Issak</v>
       </c>
       <c r="C22" s="14" t="str">
         <f>IF(SETTINGS!C22&lt;&gt;"",SETTINGS!C22,"")</f>
@@ -31862,7 +31791,7 @@
       </c>
       <c r="B31" s="14" t="str">
         <f>IF(SETTINGS!B36&lt;&gt;"",SETTINGS!B36,"")</f>
-        <v>Mashle</v>
+        <v>MASHLE</v>
       </c>
       <c r="C31" s="14">
         <f>IF(SETTINGS!C36&lt;&gt;"",SETTINGS!C36,"")</f>
@@ -32373,8 +32302,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32393,55 +32322,55 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32719,8 +32648,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="90" workbookViewId="0">
@@ -32799,15 +32728,15 @@
         <v>15</v>
       </c>
       <c r="Q1" s="71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A2,UPDATE!$1:$1,0),TRUE))=FALSE,H2=FALSE),L2,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A2,UPDATE!$1:$1,0))))</f>
@@ -32818,7 +32747,7 @@
         <v>F</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2" s="14" t="str">
         <f t="shared" ref="F2:F33" si="1">IF(AND(OR(P2=TRUE,K2&lt;&gt;""),J2=TRUE),"✅","❌")</f>
@@ -32840,17 +32769,17 @@
         <v>22</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" s="43" t="b">
         <f t="shared" ref="N2:N33" si="2">IF(F2&lt;&gt;"",F2="✅","")</f>
         <v>1</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A2,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -32859,10 +32788,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A3,UPDATE!$1:$1,0),TRUE))=FALSE,H3=FALSE),L3,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A3,UPDATE!$1:$1,0))))</f>
@@ -32873,7 +32802,7 @@
         <v>F</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="14" t="str">
         <f t="shared" si="1"/>
@@ -32892,17 +32821,17 @@
         <v>1</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O3" s="44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A3,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -32911,10 +32840,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A4,UPDATE!$1:$1,0),TRUE))=FALSE,H4=FALSE),L4,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A4,UPDATE!$1:$1,0))))</f>
@@ -32925,7 +32854,7 @@
         <v>45154</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="14" t="str">
         <f t="shared" si="1"/>
@@ -32944,7 +32873,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="48">
         <v>45154</v>
@@ -32954,7 +32883,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A4,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -32964,10 +32893,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A5,UPDATE!$1:$1,0),TRUE))=FALSE,H5=FALSE),L5,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A5,UPDATE!$1:$1,0))))</f>
@@ -32978,7 +32907,7 @@
         <v>*</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="14" t="str">
         <f t="shared" si="1"/>
@@ -32997,17 +32926,17 @@
         <v>1</v>
       </c>
       <c r="L5" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N5" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P5" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A5,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33016,10 +32945,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A6,UPDATE!$1:$1,0),TRUE))=FALSE,H6=FALSE),L6,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A6,UPDATE!$1:$1,0))))</f>
@@ -33030,14 +32959,14 @@
         <v>F</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H6" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH('SETTINGS (save)'!A6,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -33052,17 +32981,17 @@
         <v>1</v>
       </c>
       <c r="L6" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A6,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33071,10 +33000,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A7,UPDATE!$1:$1,0),TRUE))=FALSE,H7=FALSE),L7,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A7,UPDATE!$1:$1,0))))</f>
@@ -33085,7 +33014,7 @@
         <v>F</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="14" t="str">
         <f t="shared" si="1"/>
@@ -33104,17 +33033,17 @@
         <v>1</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N7" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O7" s="44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A7,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33123,10 +33052,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A8,UPDATE!$1:$1,0),TRUE))=FALSE,H8=FALSE),L8,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A8,UPDATE!$1:$1,0))))</f>
@@ -33137,7 +33066,7 @@
         <v>45140</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="14" t="str">
         <f t="shared" si="1"/>
@@ -33156,7 +33085,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M8" s="48">
         <v>45140</v>
@@ -33166,7 +33095,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P8" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A8,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33176,21 +33105,21 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A9,UPDATE!$1:$1,0),TRUE))=FALSE,H9=FALSE),L9,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A9,UPDATE!$1:$1,0))))</f>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D9" s="19">
         <f t="shared" si="0"/>
         <v>45154</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="14" t="str">
         <f t="shared" si="1"/>
@@ -33209,7 +33138,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M9" s="48">
         <v>45154</v>
@@ -33219,7 +33148,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P9" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A9,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33229,10 +33158,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A10,UPDATE!$1:$1,0),TRUE))=FALSE,H10=FALSE),L10,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A10,UPDATE!$1:$1,0))))</f>
@@ -33243,7 +33172,7 @@
         <v>45154</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="14" t="str">
         <f t="shared" si="1"/>
@@ -33262,7 +33191,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M10" s="48">
         <v>45154</v>
@@ -33272,7 +33201,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P10" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A10,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33282,10 +33211,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A11,UPDATE!$1:$1,0),TRUE))=FALSE,H11=FALSE),L11,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A11,UPDATE!$1:$1,0))))</f>
@@ -33296,14 +33225,14 @@
         <v>45140</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH('SETTINGS (save)'!A11,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -33318,7 +33247,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M11" s="48">
         <v>45140</v>
@@ -33328,7 +33257,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P11" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A11,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33337,10 +33266,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A12,UPDATE!$1:$1,0),TRUE))=FALSE,H12=FALSE),L12,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A12,UPDATE!$1:$1,0))))</f>
@@ -33351,7 +33280,7 @@
         <v>F</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
@@ -33370,32 +33299,32 @@
         <v>1</v>
       </c>
       <c r="L12" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M12" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N12" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O12" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P12" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A12,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="Q12" s="50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A13,UPDATE!$1:$1,0),TRUE))=FALSE,H13=FALSE),L13,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A13,UPDATE!$1:$1,0))))</f>
@@ -33406,14 +33335,14 @@
         <v>*</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH('SETTINGS (save)'!A13,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -33428,17 +33357,17 @@
         <v>1</v>
       </c>
       <c r="L13" s="47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M13" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N13" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O13" s="44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A13,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33447,10 +33376,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A14,UPDATE!$1:$1,0),TRUE))=FALSE,H14=FALSE),L14,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A14,UPDATE!$1:$1,0))))</f>
@@ -33461,7 +33390,7 @@
         <v>45140</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
@@ -33480,7 +33409,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M14" s="48">
         <v>45140</v>
@@ -33490,7 +33419,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="44" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P14" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A14,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33499,7 +33428,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="13" t="str">
@@ -33511,14 +33440,14 @@
         <v>F</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
         <v>❌</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H15" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH('SETTINGS (save)'!A15,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -33533,17 +33462,17 @@
         <v>1</v>
       </c>
       <c r="L15" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M15" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N15" s="43" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O15" s="44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P15" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A15,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33552,10 +33481,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A16,UPDATE!$1:$1,0),TRUE))=FALSE,H16=FALSE),L16,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A16,UPDATE!$1:$1,0))))</f>
@@ -33566,7 +33495,7 @@
         <v>F</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
@@ -33585,17 +33514,17 @@
         <v>1</v>
       </c>
       <c r="L16" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M16" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N16" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O16" s="44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P16" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A16,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33604,10 +33533,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A17,UPDATE!$1:$1,0),TRUE))=FALSE,H17=FALSE),L17,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A17,UPDATE!$1:$1,0))))</f>
@@ -33618,7 +33547,7 @@
         <v>F</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" s="14" t="str">
         <f t="shared" si="1"/>
@@ -33637,17 +33566,17 @@
         <v>1</v>
       </c>
       <c r="L17" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M17" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N17" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O17" s="44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P17" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A17,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33656,10 +33585,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C18" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A18,UPDATE!$1:$1,0),TRUE))=FALSE,H18=FALSE),L18,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A18,UPDATE!$1:$1,0))))</f>
@@ -33670,7 +33599,7 @@
         <v>F</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F18" s="14" t="str">
         <f t="shared" si="1"/>
@@ -33692,17 +33621,17 @@
         <v>25</v>
       </c>
       <c r="L18" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M18" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N18" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O18" s="44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A18,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33711,10 +33640,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C19" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A19,UPDATE!$1:$1,0),TRUE))=FALSE,H19=FALSE),L19,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A19,UPDATE!$1:$1,0))))</f>
@@ -33725,7 +33654,7 @@
         <v>F</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" s="14" t="str">
         <f t="shared" si="1"/>
@@ -33744,17 +33673,17 @@
         <v>1</v>
       </c>
       <c r="L19" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M19" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N19" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O19" s="44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A19,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33763,10 +33692,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C20" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A20,UPDATE!$1:$1,0),TRUE))=FALSE,H20=FALSE),L20,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A20,UPDATE!$1:$1,0))))</f>
@@ -33777,7 +33706,7 @@
         <v>45154</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" s="14" t="str">
         <f t="shared" si="1"/>
@@ -33796,7 +33725,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M20" s="48">
         <v>45154</v>
@@ -33806,7 +33735,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P20" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A20,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33815,10 +33744,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A21,UPDATE!$1:$1,0),TRUE))=FALSE,H21=FALSE),L21,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A21,UPDATE!$1:$1,0))))</f>
@@ -33829,7 +33758,7 @@
         <v>F</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" s="14" t="str">
         <f t="shared" si="1"/>
@@ -33848,17 +33777,17 @@
         <v>1</v>
       </c>
       <c r="L21" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M21" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N21" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O21" s="44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P21" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A21,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33867,7 +33796,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A22,UPDATE!$1:$1,0),TRUE))=FALSE,H22=FALSE),L22,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A22,UPDATE!$1:$1,0))))</f>
@@ -33878,7 +33807,7 @@
         <v>*</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F22" s="14" t="str">
         <f t="shared" si="1"/>
@@ -33897,17 +33826,17 @@
         <v>0</v>
       </c>
       <c r="L22" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N22" s="43" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O22" s="44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P22" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A22,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33916,10 +33845,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A23,UPDATE!$1:$1,0),TRUE))=FALSE,H23=FALSE),L23,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A23,UPDATE!$1:$1,0))))</f>
@@ -33930,7 +33859,7 @@
         <v>45140</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" s="14" t="str">
         <f t="shared" si="1"/>
@@ -33949,7 +33878,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M23" s="48">
         <v>45140</v>
@@ -33959,7 +33888,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="44" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P23" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A23,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -33969,10 +33898,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A24,UPDATE!$1:$1,0),TRUE))=FALSE,H24=FALSE),L24,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A24,UPDATE!$1:$1,0))))</f>
@@ -33983,7 +33912,7 @@
         <v>F</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="14" t="str">
         <f t="shared" si="1"/>
@@ -34002,17 +33931,17 @@
         <v>1</v>
       </c>
       <c r="L24" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M24" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N24" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O24" s="44" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P24" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A24,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34021,10 +33950,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A25,UPDATE!$1:$1,0),TRUE))=FALSE,H25=FALSE),L25,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A25,UPDATE!$1:$1,0))))</f>
@@ -34035,14 +33964,14 @@
         <v>F</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G25" s="53" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H25" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH('SETTINGS (save)'!A25,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -34057,17 +33986,17 @@
         <v>1</v>
       </c>
       <c r="L25" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M25" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N25" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O25" s="44" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P25" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A25,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34076,10 +34005,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="34" t="s">
         <v>75</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>73</v>
       </c>
       <c r="C26" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A26,UPDATE!$1:$1,0),TRUE))=FALSE,H26=FALSE),L26,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A26,UPDATE!$1:$1,0))))</f>
@@ -34090,14 +34019,14 @@
         <v>F</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G26" s="53" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H26" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH('SETTINGS (save)'!A26,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -34112,17 +34041,17 @@
         <v>1</v>
       </c>
       <c r="L26" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M26" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N26" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O26" s="44" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P26" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A26,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34131,10 +34060,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C27" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A27,UPDATE!$1:$1,0),TRUE))=FALSE,H27=FALSE),L27,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A27,UPDATE!$1:$1,0))))</f>
@@ -34145,14 +34074,14 @@
         <v>F</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" s="14" t="str">
         <f t="shared" si="1"/>
         <v>✅</v>
       </c>
       <c r="G27" s="53" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H27" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH('SETTINGS (save)'!A27,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -34167,17 +34096,17 @@
         <v>1</v>
       </c>
       <c r="L27" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M27" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N27" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O27" s="44" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P27" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A27,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34186,10 +34115,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A28,UPDATE!$1:$1,0),TRUE))=FALSE,H28=FALSE),L28,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A28,UPDATE!$1:$1,0))))</f>
@@ -34200,7 +34129,7 @@
         <v>x</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F28" s="14" t="str">
         <f t="shared" si="1"/>
@@ -34219,17 +34148,17 @@
         <v>1</v>
       </c>
       <c r="L28" s="47" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M28" s="47" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N28" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O28" s="44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P28" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A28,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34238,10 +34167,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="38" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C29" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A29,UPDATE!$1:$1,0),TRUE))=FALSE,H29=FALSE),L29,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A29,UPDATE!$1:$1,0))))</f>
@@ -34252,7 +34181,7 @@
         <v>*</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F29" s="14" t="str">
         <f t="shared" si="1"/>
@@ -34271,17 +34200,17 @@
         <v>1</v>
       </c>
       <c r="L29" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M29" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N29" s="43" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O29" s="44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P29" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A29,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34290,10 +34219,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C30" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A30,UPDATE!$1:$1,0),TRUE))=FALSE,H30=FALSE),L30,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A30,UPDATE!$1:$1,0))))</f>
@@ -34304,7 +34233,7 @@
         <v>F</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F30" s="14" t="str">
         <f t="shared" si="1"/>
@@ -34323,17 +34252,17 @@
         <v>1</v>
       </c>
       <c r="L30" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M30" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N30" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O30" s="44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P30" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A30,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34342,10 +34271,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="38" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C31" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A31,UPDATE!$1:$1,0),TRUE))=FALSE,H31=FALSE),L31,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A31,UPDATE!$1:$1,0))))</f>
@@ -34356,7 +34285,7 @@
         <v>45140</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F31" s="14" t="str">
         <f t="shared" si="1"/>
@@ -34375,7 +34304,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M31" s="48">
         <v>45140</v>
@@ -34385,7 +34314,7 @@
         <v>1</v>
       </c>
       <c r="O31" s="44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P31" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A31,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34394,10 +34323,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C32" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A32,UPDATE!$1:$1,0),TRUE))=FALSE,H32=FALSE),L32,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A32,UPDATE!$1:$1,0))))</f>
@@ -34408,7 +34337,7 @@
         <v>45140</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F32" s="14" t="str">
         <f t="shared" si="1"/>
@@ -34427,7 +34356,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M32" s="48">
         <v>45140</v>
@@ -34437,22 +34366,22 @@
         <v>1</v>
       </c>
       <c r="O32" s="44" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P32" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A32,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="Q32" s="50" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C33" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A33,UPDATE!$1:$1,0),TRUE))=FALSE,H33=FALSE),L33,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A33,UPDATE!$1:$1,0))))</f>
@@ -34463,7 +34392,7 @@
         <v>45140</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33" s="14" t="str">
         <f t="shared" si="1"/>
@@ -34482,7 +34411,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M33" s="49">
         <v>45140</v>
@@ -34492,7 +34421,7 @@
         <v>1</v>
       </c>
       <c r="O33" s="44" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P33" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A33,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34501,21 +34430,21 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C34" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A34,UPDATE!$1:$1,0),TRUE))=FALSE,H34=FALSE),L34,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A34,UPDATE!$1:$1,0))))</f>
         <v>F</v>
       </c>
       <c r="D34" s="19" t="str">
-        <f t="shared" ref="D34:D53" si="3">IF(C34="F","F",M34)</f>
+        <f t="shared" ref="D34:D65" si="3">IF(C34="F","F",M34)</f>
         <v>F</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F34" s="14" t="str">
         <f t="shared" ref="F34:F53" si="4">IF(AND(OR(P34=TRUE,K34&lt;&gt;""),J34=TRUE),"✅","❌")</f>
@@ -34534,17 +34463,17 @@
         <v>1</v>
       </c>
       <c r="L34" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M34" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N34" s="43" t="b">
         <f t="shared" ref="N34:N53" si="5">IF(F34&lt;&gt;"",F34="✅","")</f>
         <v>1</v>
       </c>
       <c r="O34" s="44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P34" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A34,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34553,10 +34482,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C35" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A35,UPDATE!$1:$1,0),TRUE))=FALSE,H35=FALSE),L35,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A35,UPDATE!$1:$1,0))))</f>
@@ -34567,7 +34496,7 @@
         <v>F</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F35" s="14" t="str">
         <f t="shared" si="4"/>
@@ -34586,17 +34515,17 @@
         <v>1</v>
       </c>
       <c r="L35" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M35" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N35" s="43" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O35" s="44" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P35" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A35,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34605,10 +34534,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C36" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A36,UPDATE!$1:$1,0),TRUE))=FALSE,H36=FALSE),L36,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A36,UPDATE!$1:$1,0))))</f>
@@ -34619,7 +34548,7 @@
         <v>*</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F36" s="14" t="str">
         <f t="shared" si="4"/>
@@ -34638,17 +34567,17 @@
         <v>1</v>
       </c>
       <c r="L36" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M36" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N36" s="43" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O36" s="44" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P36" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A36,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34657,10 +34586,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C37" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A37,UPDATE!$1:$1,0),TRUE))=FALSE,H37=FALSE),L37,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A37,UPDATE!$1:$1,0))))</f>
@@ -34671,7 +34600,7 @@
         <v>F</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F37" s="14" t="str">
         <f t="shared" si="4"/>
@@ -34690,17 +34619,17 @@
         <v>1</v>
       </c>
       <c r="L37" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M37" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N37" s="43" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O37" s="44" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P37" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A37,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34709,10 +34638,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C38" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A38,UPDATE!$1:$1,0),TRUE))=FALSE,H38=FALSE),L38,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A38,UPDATE!$1:$1,0))))</f>
@@ -34723,7 +34652,7 @@
         <v>F</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F38" s="14" t="str">
         <f t="shared" si="4"/>
@@ -34742,17 +34671,17 @@
         <v>1</v>
       </c>
       <c r="L38" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M38" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N38" s="43" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O38" s="44" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P38" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A38,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34761,10 +34690,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C39" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A39,UPDATE!$1:$1,0),TRUE))=FALSE,H39=FALSE),L39,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A39,UPDATE!$1:$1,0))))</f>
@@ -34775,7 +34704,7 @@
         <v>45140</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F39" s="14" t="str">
         <f t="shared" si="4"/>
@@ -34794,7 +34723,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M39" s="48">
         <v>45140</v>
@@ -34804,7 +34733,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="44" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P39" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A39,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34813,10 +34742,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C40" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A40,UPDATE!$1:$1,0),TRUE))=FALSE,H40=FALSE),L40,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A40,UPDATE!$1:$1,0))))</f>
@@ -34827,7 +34756,7 @@
         <v>45140</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F40" s="14" t="str">
         <f t="shared" si="4"/>
@@ -34846,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M40" s="48">
         <v>45140</v>
@@ -34856,7 +34785,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="44" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P40" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A40,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34865,10 +34794,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="38" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C41" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A41,UPDATE!$1:$1,0),TRUE))=FALSE,H41=FALSE),L41,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A41,UPDATE!$1:$1,0))))</f>
@@ -34879,7 +34808,7 @@
         <v>45140</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F41" s="14" t="str">
         <f t="shared" si="4"/>
@@ -34898,7 +34827,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M41" s="48">
         <v>45140</v>
@@ -34908,7 +34837,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="44" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P41" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A41,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34918,10 +34847,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C42" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A42,UPDATE!$1:$1,0),TRUE))=FALSE,H42=FALSE),L42,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A42,UPDATE!$1:$1,0))))</f>
@@ -34932,7 +34861,7 @@
         <v>F</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F42" s="14" t="str">
         <f t="shared" si="4"/>
@@ -34951,17 +34880,17 @@
         <v>1</v>
       </c>
       <c r="L42" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M42" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N42" s="43" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O42" s="44" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P42" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A42,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -34970,10 +34899,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C43" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A43,UPDATE!$1:$1,0),TRUE))=FALSE,H43=FALSE),L43,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A43,UPDATE!$1:$1,0))))</f>
@@ -34984,7 +34913,7 @@
         <v>F</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F43" s="14" t="str">
         <f t="shared" si="4"/>
@@ -35006,17 +34935,17 @@
         <v>21</v>
       </c>
       <c r="L43" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M43" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N43" s="43" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O43" s="44" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P43" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A43,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -35025,7 +34954,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C44" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A44,UPDATE!$1:$1,0),TRUE))=FALSE,H44=FALSE),L44,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A44,UPDATE!$1:$1,0))))</f>
@@ -35036,7 +34965,7 @@
         <v>*</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F44" s="14" t="str">
         <f t="shared" si="4"/>
@@ -35055,17 +34984,17 @@
         <v>1</v>
       </c>
       <c r="L44" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M44" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N44" s="43" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O44" s="44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P44" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A44,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -35074,10 +35003,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C45" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A45,UPDATE!$1:$1,0),TRUE))=FALSE,H45=FALSE),L45,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A45,UPDATE!$1:$1,0))))</f>
@@ -35088,7 +35017,7 @@
         <v>F</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F45" s="14" t="str">
         <f t="shared" si="4"/>
@@ -35107,17 +35036,17 @@
         <v>1</v>
       </c>
       <c r="L45" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M45" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N45" s="43" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O45" s="44" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P45" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A45,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -35126,10 +35055,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="38" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C46" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A46,UPDATE!$1:$1,0),TRUE))=FALSE,H46=FALSE),L46,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A46,UPDATE!$1:$1,0))))</f>
@@ -35140,7 +35069,7 @@
         <v>45140</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F46" s="14" t="str">
         <f t="shared" si="4"/>
@@ -35159,7 +35088,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M46" s="48">
         <v>45140</v>
@@ -35169,7 +35098,7 @@
         <v>1</v>
       </c>
       <c r="O46" s="44" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P46" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A46,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -35178,10 +35107,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C47" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A47,UPDATE!$1:$1,0),TRUE))=FALSE,H47=FALSE),L47,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A47,UPDATE!$1:$1,0))))</f>
@@ -35192,7 +35121,7 @@
         <v>x</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F47" s="14" t="str">
         <f t="shared" si="4"/>
@@ -35211,17 +35140,17 @@
         <v>1</v>
       </c>
       <c r="L47" s="47" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M47" s="47" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N47" s="43" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O47" s="44" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P47" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A47,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -35230,10 +35159,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C48" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A48,UPDATE!$1:$1,0),TRUE))=FALSE,H48=FALSE),L48,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A48,UPDATE!$1:$1,0))))</f>
@@ -35244,7 +35173,7 @@
         <v>*</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F48" s="14" t="str">
         <f t="shared" si="4"/>
@@ -35263,17 +35192,17 @@
         <v>1</v>
       </c>
       <c r="L48" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M48" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N48" s="43" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O48" s="44" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P48" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A48,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -35282,10 +35211,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="38" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C49" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A49,UPDATE!$1:$1,0),TRUE))=FALSE,H49=FALSE),L49,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A49,UPDATE!$1:$1,0))))</f>
@@ -35296,14 +35225,14 @@
         <v>F</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F49" s="14" t="str">
         <f t="shared" si="4"/>
         <v>✅</v>
       </c>
       <c r="G49" s="53" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H49" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH('SETTINGS (save)'!A49,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -35321,17 +35250,17 @@
         <v>14</v>
       </c>
       <c r="L49" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M49" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N49" s="43" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O49" s="44" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P49" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A49,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -35340,10 +35269,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="38" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C50" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A50,UPDATE!$1:$1,0),TRUE))=FALSE,H50=FALSE),L50,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A50,UPDATE!$1:$1,0))))</f>
@@ -35354,7 +35283,7 @@
         <v>F</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F50" s="14" t="str">
         <f t="shared" si="4"/>
@@ -35376,17 +35305,17 @@
         <v>16</v>
       </c>
       <c r="L50" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M50" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N50" s="43" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O50" s="44" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P50" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A50,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -35395,10 +35324,10 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="38" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C51" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A51,UPDATE!$1:$1,0),TRUE))=FALSE,H51=FALSE),L51,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A51,UPDATE!$1:$1,0))))</f>
@@ -35409,7 +35338,7 @@
         <v>F</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F51" s="14" t="str">
         <f t="shared" si="4"/>
@@ -35431,17 +35360,17 @@
         <v>37</v>
       </c>
       <c r="L51" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M51" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N51" s="43" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O51" s="44" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P51" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A51,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -35450,10 +35379,10 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C52" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A52,UPDATE!$1:$1,0),TRUE))=FALSE,H52=FALSE),L52,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A52,UPDATE!$1:$1,0))))</f>
@@ -35464,7 +35393,7 @@
         <v>45140</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F52" s="14" t="str">
         <f t="shared" si="4"/>
@@ -35483,7 +35412,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="47" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M52" s="49">
         <v>45140</v>
@@ -35493,7 +35422,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="44" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P52" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A52,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -35502,10 +35431,10 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C53" s="13" t="str">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A53,UPDATE!$1:$1,0),TRUE))=FALSE,H53=FALSE),L53,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A53,UPDATE!$1:$1,0))))</f>
@@ -35516,14 +35445,14 @@
         <v>x</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F53" s="14" t="str">
         <f t="shared" si="4"/>
         <v>❌</v>
       </c>
       <c r="G53" s="53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H53" s="36" t="b">
         <f>IF(ISNUMBER(INDEX(UPDATE!$A:$BF,2,MATCH('SETTINGS (save)'!A53,UPDATE!$1:$1,0)))=TRUE,TRUE,FALSE)</f>
@@ -35538,17 +35467,17 @@
         <v>1</v>
       </c>
       <c r="L53" s="47" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M53" s="47" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N53" s="43" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O53" s="44" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P53" s="60" t="b">
         <f>IF(IFERROR(HLOOKUP(A53,UPDATE!$1:$1,1,FALSE),FALSE)&lt;&gt;FALSE,TRUE,FALSE)</f>
@@ -35556,7 +35485,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000007000000}">
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000006000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q53">
       <sortCondition ref="A1:A53"/>
     </sortState>
@@ -35590,8 +35519,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AZ133"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -35611,106 +35540,106 @@
     <col min="31" max="31" width="10.83203125" style="7" customWidth="1"/>
     <col min="32" max="51" width="10.83203125" style="1" customWidth="1"/>
     <col min="52" max="52" width="10.83203125" style="27" customWidth="1"/>
-    <col min="53" max="86" width="10.83203125" style="1" customWidth="1"/>
-    <col min="87" max="16384" width="10.83203125" style="1"/>
+    <col min="53" max="87" width="10.83203125" style="1" customWidth="1"/>
+    <col min="88" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="L1" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="V1" s="22" t="s">
-        <v>118</v>
-      </c>
       <c r="W1" s="22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="X1" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y1" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z1" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA1" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB1" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC1" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD1" s="22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE1" s="23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AF1" s="22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AZ1" s="26"/>
     </row>
@@ -51725,7 +51654,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE99" xr:uid="{00000000-0009-0000-0000-000008000000}">
+  <autoFilter ref="A1:AE99" xr:uid="{00000000-0009-0000-0000-000007000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE133">
       <sortCondition descending="1" ref="A1:A99"/>
     </sortState>
@@ -51733,4 +51662,261 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B3:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF94" sqref="AF94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="10.83203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="3" t="str">
+        <f>CHAR(64+26)</f>
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" ref="C5:C17" si="0">SUBSTITUTE(ADDRESS(1, B5, 4), "1", "")</f>
+        <v>N</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D17" si="1">MOD(B5,26)</f>
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E17" si="2">(B5-D5)/26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Z</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>AA</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>AQ</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>412</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>OV</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>676</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>YZ</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>677</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ZA</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>678</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ZB</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <v>702</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ZZ</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>703</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>AAA</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <v>704</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>AAB</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <f>12+43*26</f>
+        <v>1130</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>AQL</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>AQ</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/origin.xlsx
+++ b/origin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2C3290-DC77-DE44-8297-FDEBEDA72B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5519D36F-FEC8-9E48-AD90-4DC912D0C9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTINGS" sheetId="1" r:id="rId1"/>
@@ -1998,7 +1998,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="C9" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A9,UPDATE!$1:$1,0),TRUE))=FALSE,H9=FALSE),L9,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A9,UPDATE!$1:$1,0))))</f>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D9" s="19">
         <f t="shared" si="0"/>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="R9" s="106">
         <f>IFERROR(_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A9,UPDATE!$1:$1,0))),NA())</f>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S9" s="90"/>
       <c r="T9" s="91"/>
@@ -4022,7 +4022,7 @@
         <v>*</v>
       </c>
       <c r="D34" s="19">
-        <f t="shared" ref="D34:D65" si="3">IF(C34="F","F",M34)</f>
+        <f t="shared" ref="D34:D61" si="3">IF(C34="F","F",M34)</f>
         <v>45154</v>
       </c>
       <c r="E34" s="14" t="s">
@@ -5739,11 +5739,11 @@
   </sheetPr>
   <dimension ref="A1:BF133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB93" sqref="AB93"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5755,8 +5755,8 @@
     <col min="36" max="36" width="10.83203125" style="81" customWidth="1"/>
     <col min="37" max="57" width="10.83203125" style="3" customWidth="1"/>
     <col min="58" max="58" width="10.83203125" style="82" customWidth="1"/>
-    <col min="59" max="93" width="10.83203125" style="3" customWidth="1"/>
-    <col min="94" max="16384" width="10.83203125" style="3"/>
+    <col min="59" max="94" width="10.83203125" style="3" customWidth="1"/>
+    <col min="95" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="73" customFormat="1" x14ac:dyDescent="0.2">
@@ -5936,7 +5936,7 @@
         <v>1091</v>
       </c>
       <c r="J2" s="65">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K2" s="65">
         <v>189</v>
@@ -30131,7 +30131,7 @@
   </sheetPr>
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -31135,7 +31135,7 @@
       </c>
       <c r="C9" s="14">
         <f>IF(SETTINGS!C9&lt;&gt;"",SETTINGS!C9,"")</f>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D9" s="24">
         <f>IF(SETTINGS!D9&lt;&gt;"",SETTINGS!D9,"")</f>
@@ -33112,7 +33112,7 @@
       </c>
       <c r="C9" s="13">
         <f>IF(OR(ISNUMBER(IFERROR(MATCH(A9,UPDATE!$1:$1,0),TRUE))=FALSE,H9=FALSE),L9,_xlfn.AGGREGATE(4,6,INDEX(UPDATE!$A:$BF,,MATCH(A9,UPDATE!$1:$1,0))))</f>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D9" s="19">
         <f t="shared" si="0"/>
@@ -34440,7 +34440,7 @@
         <v>F</v>
       </c>
       <c r="D34" s="19" t="str">
-        <f t="shared" ref="D34:D65" si="3">IF(C34="F","F",M34)</f>
+        <f t="shared" ref="D34:D53" si="3">IF(C34="F","F",M34)</f>
         <v>F</v>
       </c>
       <c r="E34" s="35" t="s">
@@ -35540,8 +35540,8 @@
     <col min="31" max="31" width="10.83203125" style="7" customWidth="1"/>
     <col min="32" max="51" width="10.83203125" style="1" customWidth="1"/>
     <col min="52" max="52" width="10.83203125" style="27" customWidth="1"/>
-    <col min="53" max="87" width="10.83203125" style="1" customWidth="1"/>
-    <col min="88" max="16384" width="10.83203125" style="1"/>
+    <col min="53" max="88" width="10.83203125" style="1" customWidth="1"/>
+    <col min="89" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.2">
